--- a/database/industries/folad/folad/cost/quarterly.xlsx
+++ b/database/industries/folad/folad/cost/quarterly.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Trade\database\industries\folad\folad\cost\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\folad\folad\cost\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C50B3436-F84A-4D20-B6E4-24E34767BCEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7350"/>
+    <workbookView xWindow="2652" yWindow="2652" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="797" uniqueCount="89">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -33,6 +34,21 @@
     <t>بهای تمام شده</t>
   </si>
   <si>
+    <t>فصل اول منتهی به 1399/03</t>
+  </si>
+  <si>
+    <t>فصل دوم منتهی به 1399/06</t>
+  </si>
+  <si>
+    <t>فصل سوم منتهی به 1399/09</t>
+  </si>
+  <si>
+    <t>فصل چهارم منتهی به 1399/12</t>
+  </si>
+  <si>
+    <t>فصل اول منتهی به 1400/03</t>
+  </si>
+  <si>
     <t>فصل دوم منتهی به 1400/06</t>
   </si>
   <si>
@@ -133,6 +149,36 @@
   </si>
   <si>
     <t>مقدار موجودی پایان دوره</t>
+  </si>
+  <si>
+    <t>مبلغ موجودی اول دوره</t>
+  </si>
+  <si>
+    <t>میلیون ریال</t>
+  </si>
+  <si>
+    <t>مبلغ خرید طی دوره</t>
+  </si>
+  <si>
+    <t>مبلغ مصرف طی دوره</t>
+  </si>
+  <si>
+    <t>مبلغ موجودی پایان دوره</t>
+  </si>
+  <si>
+    <t>نرخ موجودی اول دوره</t>
+  </si>
+  <si>
+    <t>هزار تن / ریال</t>
+  </si>
+  <si>
+    <t>نرخ خرید طی دوره</t>
+  </si>
+  <si>
+    <t>نرخ مصرف طی دوره</t>
+  </si>
+  <si>
+    <t>نرخ موجودی پایان دوره</t>
   </si>
   <si>
     <t>هزینه سربار</t>
@@ -246,7 +292,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -416,7 +462,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -428,7 +474,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -475,6 +521,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -510,6 +573,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -661,17 +741,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:I117"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B1:N229"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="9" width="20" customWidth="1"/>
+    <col min="2" max="14" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -680,8 +760,13 @@
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
-    </row>
-    <row r="2" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+    </row>
+    <row r="2" spans="2:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -692,8 +777,13 @@
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
-    </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+    </row>
+    <row r="3" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -704,8 +794,13 @@
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+    </row>
+    <row r="4" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -714,8 +809,13 @@
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
-    </row>
-    <row r="5" spans="2:9" ht="42" x14ac:dyDescent="0.65">
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+    </row>
+    <row r="5" spans="2:14" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -726,8 +826,13 @@
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
-    </row>
-    <row r="6" spans="2:9" ht="42" x14ac:dyDescent="0.65">
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+    </row>
+    <row r="6" spans="2:14" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -738,8 +843,13 @@
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -748,8 +858,13 @@
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
-    </row>
-    <row r="8" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+    </row>
+    <row r="8" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>3</v>
       </c>
@@ -770,8 +885,23 @@
       <c r="I8" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J8" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K8" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L8" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M8" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N8" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -780,316 +910,531 @@
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B10" s="8" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
       <c r="E10" s="9">
+        <v>44926337</v>
+      </c>
+      <c r="F10" s="9">
+        <v>62334028</v>
+      </c>
+      <c r="G10" s="9">
+        <v>98078900</v>
+      </c>
+      <c r="H10" s="9">
+        <v>107993634</v>
+      </c>
+      <c r="I10" s="9">
+        <v>143883099</v>
+      </c>
+      <c r="J10" s="9">
         <v>63716827</v>
       </c>
-      <c r="F10" s="9">
+      <c r="K10" s="9">
         <v>166340260</v>
       </c>
-      <c r="G10" s="9">
+      <c r="L10" s="9">
         <v>166391587</v>
       </c>
-      <c r="H10" s="9">
+      <c r="M10" s="9">
         <v>185914875</v>
       </c>
-      <c r="I10" s="9">
+      <c r="N10" s="9">
         <v>171013524</v>
       </c>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B11" s="10" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C11" s="11"/>
       <c r="D11" s="11"/>
       <c r="E11" s="11">
+        <v>1680181</v>
+      </c>
+      <c r="F11" s="11">
+        <v>1524761</v>
+      </c>
+      <c r="G11" s="11">
+        <v>1483046</v>
+      </c>
+      <c r="H11" s="11">
+        <v>2162217</v>
+      </c>
+      <c r="I11" s="11">
+        <v>2741685</v>
+      </c>
+      <c r="J11" s="11">
         <v>2329362</v>
       </c>
-      <c r="F11" s="11">
+      <c r="K11" s="11">
         <v>2330193</v>
       </c>
-      <c r="G11" s="11">
+      <c r="L11" s="11">
         <v>2721425</v>
       </c>
-      <c r="H11" s="11">
+      <c r="M11" s="11">
         <v>4718464</v>
       </c>
-      <c r="I11" s="11">
+      <c r="N11" s="11">
         <v>3567311</v>
       </c>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B12" s="8" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
       <c r="E12" s="9">
+        <v>29429672</v>
+      </c>
+      <c r="F12" s="9">
+        <v>28137435</v>
+      </c>
+      <c r="G12" s="9">
+        <v>30693076</v>
+      </c>
+      <c r="H12" s="9">
+        <v>35008816</v>
+      </c>
+      <c r="I12" s="9">
+        <v>42320610</v>
+      </c>
+      <c r="J12" s="9">
         <v>41494631</v>
       </c>
-      <c r="F12" s="9">
+      <c r="K12" s="9">
         <v>66945274</v>
       </c>
-      <c r="G12" s="9">
+      <c r="L12" s="9">
         <v>69297875</v>
       </c>
-      <c r="H12" s="9">
+      <c r="M12" s="9">
         <v>85300378</v>
       </c>
-      <c r="I12" s="9">
+      <c r="N12" s="9">
         <v>77871661</v>
       </c>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B13" s="12" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C13" s="13"/>
       <c r="D13" s="13"/>
       <c r="E13" s="13">
+        <v>76036190</v>
+      </c>
+      <c r="F13" s="13">
+        <v>91996224</v>
+      </c>
+      <c r="G13" s="13">
+        <v>130255022</v>
+      </c>
+      <c r="H13" s="13">
+        <v>145164667</v>
+      </c>
+      <c r="I13" s="13">
+        <v>188945394</v>
+      </c>
+      <c r="J13" s="13">
         <v>107540820</v>
       </c>
-      <c r="F13" s="13">
+      <c r="K13" s="13">
         <v>235615727</v>
       </c>
-      <c r="G13" s="13">
+      <c r="L13" s="13">
         <v>238410887</v>
       </c>
-      <c r="H13" s="13">
+      <c r="M13" s="13">
         <v>275933717</v>
       </c>
-      <c r="I13" s="13">
+      <c r="N13" s="13">
         <v>252452496</v>
       </c>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B14" s="8" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C14" s="9"/>
       <c r="D14" s="9"/>
       <c r="E14" s="9">
+        <v>-16985</v>
+      </c>
+      <c r="F14" s="9">
+        <v>-22716</v>
+      </c>
+      <c r="G14" s="9">
+        <v>-8808</v>
+      </c>
+      <c r="H14" s="9">
+        <v>-29408</v>
+      </c>
+      <c r="I14" s="9">
+        <v>-22921</v>
+      </c>
+      <c r="J14" s="9">
         <v>-183940</v>
       </c>
-      <c r="F14" s="9">
+      <c r="K14" s="9">
         <v>-59858</v>
       </c>
-      <c r="G14" s="9">
+      <c r="L14" s="9">
         <v>-194064</v>
       </c>
-      <c r="H14" s="9">
+      <c r="M14" s="9">
         <v>-68077</v>
       </c>
-      <c r="I14" s="9">
+      <c r="N14" s="9">
         <v>-68453</v>
       </c>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B15" s="12" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C15" s="13"/>
       <c r="D15" s="13"/>
       <c r="E15" s="13">
+        <v>76019205</v>
+      </c>
+      <c r="F15" s="13">
+        <v>91973508</v>
+      </c>
+      <c r="G15" s="13">
+        <v>130246214</v>
+      </c>
+      <c r="H15" s="13">
+        <v>145135259</v>
+      </c>
+      <c r="I15" s="13">
+        <v>188922473</v>
+      </c>
+      <c r="J15" s="13">
         <v>107356880</v>
       </c>
-      <c r="F15" s="13">
+      <c r="K15" s="13">
         <v>235555869</v>
       </c>
-      <c r="G15" s="13">
+      <c r="L15" s="13">
         <v>238216823</v>
       </c>
-      <c r="H15" s="13">
+      <c r="M15" s="13">
         <v>275865640</v>
       </c>
-      <c r="I15" s="13">
+      <c r="N15" s="13">
         <v>252384043</v>
       </c>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B16" s="8" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C16" s="9"/>
       <c r="D16" s="9"/>
       <c r="E16" s="9">
+        <v>-5766877</v>
+      </c>
+      <c r="F16" s="9">
+        <v>-5222580</v>
+      </c>
+      <c r="G16" s="9">
+        <v>-21308280</v>
+      </c>
+      <c r="H16" s="9">
+        <v>-684633</v>
+      </c>
+      <c r="I16" s="9">
+        <v>-18272414</v>
+      </c>
+      <c r="J16" s="9">
         <v>66665225</v>
       </c>
-      <c r="F16" s="9">
+      <c r="K16" s="9">
         <v>-114276014</v>
       </c>
-      <c r="G16" s="9">
+      <c r="L16" s="9">
         <v>11594100</v>
       </c>
-      <c r="H16" s="9">
+      <c r="M16" s="9">
         <v>-21566419</v>
       </c>
-      <c r="I16" s="9">
+      <c r="N16" s="9">
         <v>-52636362</v>
       </c>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B17" s="10" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C17" s="11"/>
       <c r="D17" s="11"/>
       <c r="E17" s="11">
+        <v>0</v>
+      </c>
+      <c r="F17" s="11">
+        <v>0</v>
+      </c>
+      <c r="G17" s="11">
+        <v>0</v>
+      </c>
+      <c r="H17" s="11">
+        <v>0</v>
+      </c>
+      <c r="I17" s="11">
+        <v>0</v>
+      </c>
+      <c r="J17" s="11">
         <v>-77472351</v>
       </c>
-      <c r="F17" s="11">
+      <c r="K17" s="11">
         <v>77472351</v>
       </c>
-      <c r="G17" s="11">
-        <v>0</v>
-      </c>
-      <c r="H17" s="11">
-        <v>0</v>
-      </c>
-      <c r="I17" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="L17" s="11">
+        <v>0</v>
+      </c>
+      <c r="M17" s="11">
+        <v>0</v>
+      </c>
+      <c r="N17" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B18" s="14" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C18" s="15"/>
       <c r="D18" s="15"/>
       <c r="E18" s="15">
+        <v>70252328</v>
+      </c>
+      <c r="F18" s="15">
+        <v>86750928</v>
+      </c>
+      <c r="G18" s="15">
+        <v>108937934</v>
+      </c>
+      <c r="H18" s="15">
+        <v>144450626</v>
+      </c>
+      <c r="I18" s="15">
+        <v>170650059</v>
+      </c>
+      <c r="J18" s="15">
         <v>96549754</v>
       </c>
-      <c r="F18" s="15">
+      <c r="K18" s="15">
         <v>198752206</v>
       </c>
-      <c r="G18" s="15">
+      <c r="L18" s="15">
         <v>249810923</v>
       </c>
-      <c r="H18" s="15">
+      <c r="M18" s="15">
         <v>254299221</v>
       </c>
-      <c r="I18" s="15">
+      <c r="N18" s="15">
         <v>199747681</v>
       </c>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B19" s="10" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C19" s="11"/>
       <c r="D19" s="11"/>
       <c r="E19" s="11">
-        <v>0</v>
+        <v>15148054</v>
       </c>
       <c r="F19" s="11">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G19" s="11">
         <v>0</v>
       </c>
       <c r="H19" s="11">
+        <v>0</v>
+      </c>
+      <c r="I19" s="11">
+        <v>19129233</v>
+      </c>
+      <c r="J19" s="11">
+        <v>25727358</v>
+      </c>
+      <c r="K19" s="11">
+        <v>25538085</v>
+      </c>
+      <c r="L19" s="11">
+        <v>29443077</v>
+      </c>
+      <c r="M19" s="11">
         <v>32753117</v>
       </c>
-      <c r="I19" s="11">
-        <v>73882</v>
-      </c>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="N19" s="11">
+        <v>36087814</v>
+      </c>
+    </row>
+    <row r="20" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B20" s="8" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C20" s="9"/>
       <c r="D20" s="9"/>
       <c r="E20" s="9">
-        <v>189273</v>
+        <v>-16663365</v>
       </c>
       <c r="F20" s="9">
-        <v>-3904992</v>
+        <v>-4476889</v>
       </c>
       <c r="G20" s="9">
-        <v>-3383922</v>
+        <v>3185274</v>
       </c>
       <c r="H20" s="9">
+        <v>-1174253</v>
+      </c>
+      <c r="I20" s="9">
+        <v>-25727358</v>
+      </c>
+      <c r="J20" s="9">
+        <v>-25538085</v>
+      </c>
+      <c r="K20" s="9">
+        <v>-29443077</v>
+      </c>
+      <c r="L20" s="9">
+        <v>-32826999</v>
+      </c>
+      <c r="M20" s="9">
         <v>-36087814</v>
       </c>
-      <c r="I20" s="9">
-        <v>-478467</v>
-      </c>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="N20" s="9">
+        <v>-36566281</v>
+      </c>
+    </row>
+    <row r="21" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B21" s="12" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C21" s="13"/>
       <c r="D21" s="13"/>
       <c r="E21" s="13">
+        <v>68737017</v>
+      </c>
+      <c r="F21" s="13">
+        <v>82274038</v>
+      </c>
+      <c r="G21" s="13">
+        <v>112123208</v>
+      </c>
+      <c r="H21" s="13">
+        <v>143276373</v>
+      </c>
+      <c r="I21" s="13">
+        <v>164051934</v>
+      </c>
+      <c r="J21" s="13">
         <v>96739027</v>
       </c>
-      <c r="F21" s="13">
+      <c r="K21" s="13">
         <v>194847214</v>
       </c>
-      <c r="G21" s="13">
+      <c r="L21" s="13">
         <v>246427001</v>
       </c>
-      <c r="H21" s="13">
+      <c r="M21" s="13">
         <v>250964524</v>
       </c>
-      <c r="I21" s="13">
+      <c r="N21" s="13">
         <v>199343096</v>
       </c>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B22" s="8" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C22" s="9"/>
       <c r="D22" s="9"/>
       <c r="E22" s="9">
+        <v>0</v>
+      </c>
+      <c r="F22" s="9">
+        <v>0</v>
+      </c>
+      <c r="G22" s="9">
+        <v>0</v>
+      </c>
+      <c r="H22" s="9">
+        <v>-108318</v>
+      </c>
+      <c r="I22" s="9">
+        <v>0</v>
+      </c>
+      <c r="J22" s="9">
         <v>-55302</v>
       </c>
-      <c r="F22" s="9">
+      <c r="K22" s="9">
         <v>-12497</v>
       </c>
-      <c r="G22" s="9">
+      <c r="L22" s="9">
         <v>-48126</v>
       </c>
-      <c r="H22" s="9">
-        <v>0</v>
-      </c>
-      <c r="I22" s="9">
+      <c r="M22" s="9">
+        <v>0</v>
+      </c>
+      <c r="N22" s="9">
         <v>-5770</v>
       </c>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B23" s="12" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C23" s="13"/>
       <c r="D23" s="13"/>
       <c r="E23" s="13">
+        <v>68737017</v>
+      </c>
+      <c r="F23" s="13">
+        <v>82274038</v>
+      </c>
+      <c r="G23" s="13">
+        <v>112123208</v>
+      </c>
+      <c r="H23" s="13">
+        <v>143168055</v>
+      </c>
+      <c r="I23" s="13">
+        <v>164051934</v>
+      </c>
+      <c r="J23" s="13">
         <v>96683725</v>
       </c>
-      <c r="F23" s="13">
+      <c r="K23" s="13">
         <v>194834717</v>
       </c>
-      <c r="G23" s="13">
+      <c r="L23" s="13">
         <v>246378875</v>
       </c>
-      <c r="H23" s="13">
+      <c r="M23" s="13">
         <v>250964524</v>
       </c>
-      <c r="I23" s="13">
+      <c r="N23" s="13">
         <v>199337326</v>
       </c>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -1098,8 +1443,13 @@
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
-    </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+      <c r="M24" s="1"/>
+      <c r="N24" s="1"/>
+    </row>
+    <row r="25" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -1108,8 +1458,13 @@
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
-    </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+      <c r="M25" s="1"/>
+      <c r="N25" s="1"/>
+    </row>
+    <row r="26" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -1118,10 +1473,15 @@
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
-    </row>
-    <row r="27" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="1"/>
+      <c r="M26" s="1"/>
+      <c r="N26" s="1"/>
+    </row>
+    <row r="27" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B27" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C27" s="6"/>
       <c r="D27" s="6"/>
@@ -1140,8 +1500,23 @@
       <c r="I27" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J27" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K27" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L27" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M27" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N27" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -1150,246 +1525,401 @@
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
-    </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
+      <c r="M28" s="1"/>
+      <c r="N28" s="1"/>
+    </row>
+    <row r="29" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B29" s="8" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D29" s="9"/>
-      <c r="E29" s="9" t="s">
-        <v>26</v>
+      <c r="E29" s="9">
+        <v>0</v>
       </c>
       <c r="F29" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="G29" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="H29" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="I29" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+      <c r="J29" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K29" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="L29" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="M29" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="N29" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="30" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B30" s="10" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D30" s="11"/>
-      <c r="E30" s="11" t="s">
-        <v>26</v>
+      <c r="E30" s="11">
+        <v>71</v>
       </c>
       <c r="F30" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="G30" s="11">
+        <v>31</v>
+      </c>
+      <c r="G30" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="H30" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="I30" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="J30" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="K30" s="11">
+        <v>103</v>
+      </c>
+      <c r="L30" s="11">
         <v>78</v>
       </c>
-      <c r="H30" s="11">
+      <c r="M30" s="11">
         <v>68</v>
       </c>
-      <c r="I30" s="11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="N30" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="31" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B31" s="8" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D31" s="9"/>
       <c r="E31" s="9">
+        <v>56</v>
+      </c>
+      <c r="F31" s="9">
+        <v>56</v>
+      </c>
+      <c r="G31" s="9">
+        <v>52</v>
+      </c>
+      <c r="H31" s="9">
+        <v>34</v>
+      </c>
+      <c r="I31" s="9">
+        <v>31</v>
+      </c>
+      <c r="J31" s="9">
         <v>41</v>
       </c>
-      <c r="F31" s="9">
+      <c r="K31" s="9">
         <v>55</v>
       </c>
-      <c r="G31" s="9">
+      <c r="L31" s="9">
         <v>69</v>
       </c>
-      <c r="H31" s="9">
+      <c r="M31" s="9">
         <v>66</v>
       </c>
-      <c r="I31" s="9">
+      <c r="N31" s="9">
         <v>65</v>
       </c>
     </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B32" s="10" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D32" s="11"/>
       <c r="E32" s="11" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="F32" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="G32" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="H32" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="I32" s="11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+      <c r="G32" s="11">
+        <v>94</v>
+      </c>
+      <c r="H32" s="11">
+        <v>87</v>
+      </c>
+      <c r="I32" s="11">
+        <v>90</v>
+      </c>
+      <c r="J32" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="K32" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="L32" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="M32" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="N32" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B33" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C33" s="9" t="s">
         <v>30</v>
-      </c>
-      <c r="C33" s="9" t="s">
-        <v>25</v>
       </c>
       <c r="D33" s="9"/>
       <c r="E33" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="F33" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="G33" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="H33" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="I33" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+      <c r="J33" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K33" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="L33" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="M33" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="N33" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B34" s="10" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C34" s="11" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D34" s="11"/>
       <c r="E34" s="11">
+        <v>2224</v>
+      </c>
+      <c r="F34" s="11">
+        <v>2346</v>
+      </c>
+      <c r="G34" s="11">
+        <v>2581</v>
+      </c>
+      <c r="H34" s="11">
+        <v>2752</v>
+      </c>
+      <c r="I34" s="11">
+        <v>2568</v>
+      </c>
+      <c r="J34" s="11">
         <v>1597</v>
       </c>
-      <c r="F34" s="11">
+      <c r="K34" s="11">
         <v>1663</v>
       </c>
-      <c r="G34" s="11">
+      <c r="L34" s="11">
         <v>1508</v>
       </c>
-      <c r="H34" s="11">
+      <c r="M34" s="11">
         <v>2126</v>
       </c>
-      <c r="I34" s="11">
+      <c r="N34" s="11">
         <v>2113</v>
       </c>
     </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B35" s="8" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D35" s="9"/>
       <c r="E35" s="9">
+        <v>0</v>
+      </c>
+      <c r="F35" s="9">
+        <v>28</v>
+      </c>
+      <c r="G35" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="H35" s="9">
+        <v>2</v>
+      </c>
+      <c r="I35" s="9">
+        <v>15</v>
+      </c>
+      <c r="J35" s="9">
         <v>6</v>
       </c>
-      <c r="F35" s="9">
+      <c r="K35" s="9">
         <v>1</v>
       </c>
-      <c r="G35" s="9">
+      <c r="L35" s="9">
         <v>10</v>
       </c>
-      <c r="H35" s="9">
+      <c r="M35" s="9">
         <v>101</v>
       </c>
-      <c r="I35" s="9">
+      <c r="N35" s="9">
         <v>155</v>
       </c>
     </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B36" s="10" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C36" s="11" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D36" s="11"/>
       <c r="E36" s="11">
+        <v>767</v>
+      </c>
+      <c r="F36" s="11">
+        <v>796</v>
+      </c>
+      <c r="G36" s="11">
+        <v>806</v>
+      </c>
+      <c r="H36" s="11">
+        <v>1036</v>
+      </c>
+      <c r="I36" s="11">
+        <v>1256</v>
+      </c>
+      <c r="J36" s="11">
         <v>1050</v>
       </c>
-      <c r="F36" s="11">
+      <c r="K36" s="11">
         <v>1404</v>
       </c>
-      <c r="G36" s="11">
+      <c r="L36" s="11">
         <v>1260</v>
       </c>
-      <c r="H36" s="11">
+      <c r="M36" s="11">
         <v>1630</v>
       </c>
-      <c r="I36" s="11">
+      <c r="N36" s="11">
         <v>963</v>
       </c>
     </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B37" s="8" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D37" s="9"/>
       <c r="E37" s="9">
         <v>0</v>
       </c>
       <c r="F37" s="9">
+        <v>0</v>
+      </c>
+      <c r="G37" s="9">
+        <v>0</v>
+      </c>
+      <c r="H37" s="9">
+        <v>0</v>
+      </c>
+      <c r="I37" s="9">
+        <v>0</v>
+      </c>
+      <c r="J37" s="9">
+        <v>0</v>
+      </c>
+      <c r="K37" s="9">
         <v>1</v>
       </c>
-      <c r="G37" s="9">
-        <v>0</v>
-      </c>
-      <c r="H37" s="9">
+      <c r="L37" s="9">
+        <v>0</v>
+      </c>
+      <c r="M37" s="9">
         <v>1</v>
       </c>
-      <c r="I37" s="9">
+      <c r="N37" s="9">
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B38" s="12" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C38" s="13"/>
       <c r="D38" s="13"/>
       <c r="E38" s="13">
+        <v>3118</v>
+      </c>
+      <c r="F38" s="13">
+        <v>3226</v>
+      </c>
+      <c r="G38" s="13">
+        <v>3533</v>
+      </c>
+      <c r="H38" s="13">
+        <v>3911</v>
+      </c>
+      <c r="I38" s="13">
+        <v>3960</v>
+      </c>
+      <c r="J38" s="13">
         <v>2694</v>
       </c>
-      <c r="F38" s="13">
-        <v>3124</v>
-      </c>
-      <c r="G38" s="13">
+      <c r="K38" s="13">
+        <v>3227</v>
+      </c>
+      <c r="L38" s="13">
         <v>2925</v>
       </c>
-      <c r="H38" s="13">
+      <c r="M38" s="13">
         <v>3992</v>
       </c>
-      <c r="I38" s="13">
+      <c r="N38" s="13">
         <v>3297</v>
       </c>
     </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
@@ -1398,8 +1928,13 @@
       <c r="G39" s="1"/>
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
-    </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J39" s="1"/>
+      <c r="K39" s="1"/>
+      <c r="L39" s="1"/>
+      <c r="M39" s="1"/>
+      <c r="N39" s="1"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
@@ -1408,8 +1943,13 @@
       <c r="G40" s="1"/>
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
-    </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J40" s="1"/>
+      <c r="K40" s="1"/>
+      <c r="L40" s="1"/>
+      <c r="M40" s="1"/>
+      <c r="N40" s="1"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
@@ -1418,10 +1958,15 @@
       <c r="G41" s="1"/>
       <c r="H41" s="1"/>
       <c r="I41" s="1"/>
-    </row>
-    <row r="42" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="J41" s="1"/>
+      <c r="K41" s="1"/>
+      <c r="L41" s="1"/>
+      <c r="M41" s="1"/>
+      <c r="N41" s="1"/>
+    </row>
+    <row r="42" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B42" s="7" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C42" s="6"/>
       <c r="D42" s="6"/>
@@ -1440,8 +1985,23 @@
       <c r="I42" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J42" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K42" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L42" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M42" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N42" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
@@ -1450,246 +2010,401 @@
       <c r="G43" s="1"/>
       <c r="H43" s="1"/>
       <c r="I43" s="1"/>
-    </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J43" s="1"/>
+      <c r="K43" s="1"/>
+      <c r="L43" s="1"/>
+      <c r="M43" s="1"/>
+      <c r="N43" s="1"/>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B44" s="8" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C44" s="9" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D44" s="9"/>
-      <c r="E44" s="9" t="s">
-        <v>26</v>
+      <c r="E44" s="9">
+        <v>0</v>
       </c>
       <c r="F44" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="G44" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="H44" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
+      </c>
+      <c r="H44" s="9">
+        <v>0</v>
       </c>
       <c r="I44" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+      <c r="J44" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K44" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="L44" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="M44" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="N44" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B45" s="10" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C45" s="11" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D45" s="11"/>
       <c r="E45" s="11">
+        <v>46</v>
+      </c>
+      <c r="F45" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="G45" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="H45" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="I45" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="J45" s="11">
         <v>91</v>
       </c>
-      <c r="F45" s="11">
+      <c r="K45" s="11">
         <v>62</v>
       </c>
-      <c r="G45" s="11">
+      <c r="L45" s="11">
         <v>161</v>
       </c>
-      <c r="H45" s="11">
+      <c r="M45" s="11">
         <v>132</v>
       </c>
-      <c r="I45" s="11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="N45" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B46" s="8" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C46" s="9" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D46" s="9"/>
       <c r="E46" s="9">
+        <v>18</v>
+      </c>
+      <c r="F46" s="9">
+        <v>13</v>
+      </c>
+      <c r="G46" s="9">
+        <v>4</v>
+      </c>
+      <c r="H46" s="9">
+        <v>14</v>
+      </c>
+      <c r="I46" s="9">
+        <v>30</v>
+      </c>
+      <c r="J46" s="9">
         <v>26</v>
       </c>
-      <c r="F46" s="9">
-        <v>31</v>
-      </c>
-      <c r="G46" s="9">
+      <c r="K46" s="9">
+        <v>31</v>
+      </c>
+      <c r="L46" s="9">
         <v>14</v>
       </c>
-      <c r="H46" s="9">
+      <c r="M46" s="9">
         <v>18</v>
       </c>
-      <c r="I46" s="9">
+      <c r="N46" s="9">
         <v>15</v>
       </c>
     </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B47" s="10" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C47" s="11" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D47" s="11"/>
       <c r="E47" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="F47" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="G47" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="H47" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="I47" s="11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+      <c r="F47" s="11">
+        <v>101</v>
+      </c>
+      <c r="G47" s="11">
+        <v>45</v>
+      </c>
+      <c r="H47" s="11">
+        <v>95</v>
+      </c>
+      <c r="I47" s="11">
+        <v>50</v>
+      </c>
+      <c r="J47" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="K47" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="L47" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="M47" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="N47" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B48" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C48" s="9" t="s">
         <v>30</v>
-      </c>
-      <c r="C48" s="9" t="s">
-        <v>25</v>
       </c>
       <c r="D48" s="9"/>
       <c r="E48" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="F48" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="G48" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="H48" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="I48" s="9">
+        <v>31</v>
+      </c>
+      <c r="I48" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="J48" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K48" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="L48" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="M48" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="N48" s="9">
         <v>168</v>
       </c>
     </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B49" s="10" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C49" s="11" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D49" s="11"/>
       <c r="E49" s="11">
+        <v>2063</v>
+      </c>
+      <c r="F49" s="11">
+        <v>2137</v>
+      </c>
+      <c r="G49" s="11">
+        <v>1946</v>
+      </c>
+      <c r="H49" s="11">
+        <v>1618</v>
+      </c>
+      <c r="I49" s="11">
+        <v>1553</v>
+      </c>
+      <c r="J49" s="11">
         <v>1212</v>
       </c>
-      <c r="F49" s="11">
+      <c r="K49" s="11">
         <v>1434</v>
       </c>
-      <c r="G49" s="11">
+      <c r="L49" s="11">
         <v>2191</v>
       </c>
-      <c r="H49" s="11">
+      <c r="M49" s="11">
         <v>2147</v>
       </c>
-      <c r="I49" s="11">
+      <c r="N49" s="11">
         <v>2470</v>
       </c>
     </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B50" s="8" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C50" s="9" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D50" s="9"/>
       <c r="E50" s="9">
+        <v>418</v>
+      </c>
+      <c r="F50" s="9">
+        <v>345</v>
+      </c>
+      <c r="G50" s="9">
+        <v>434</v>
+      </c>
+      <c r="H50" s="9">
+        <v>202</v>
+      </c>
+      <c r="I50" s="9">
+        <v>376</v>
+      </c>
+      <c r="J50" s="9">
         <v>340</v>
       </c>
-      <c r="F50" s="9">
+      <c r="K50" s="9">
         <v>561</v>
       </c>
-      <c r="G50" s="9">
+      <c r="L50" s="9">
         <v>847</v>
       </c>
-      <c r="H50" s="9">
+      <c r="M50" s="9">
         <v>618</v>
       </c>
-      <c r="I50" s="9">
+      <c r="N50" s="9">
         <v>653</v>
       </c>
     </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B51" s="10" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C51" s="11" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D51" s="11"/>
       <c r="E51" s="11">
+        <v>1241</v>
+      </c>
+      <c r="F51" s="11">
+        <v>1150</v>
+      </c>
+      <c r="G51" s="11">
+        <v>1629</v>
+      </c>
+      <c r="H51" s="11">
+        <v>1043</v>
+      </c>
+      <c r="I51" s="11">
+        <v>1245</v>
+      </c>
+      <c r="J51" s="11">
         <v>873</v>
       </c>
-      <c r="F51" s="11">
+      <c r="K51" s="11">
         <v>1096</v>
       </c>
-      <c r="G51" s="11">
+      <c r="L51" s="11">
         <v>916</v>
       </c>
-      <c r="H51" s="11">
+      <c r="M51" s="11">
         <v>887</v>
       </c>
-      <c r="I51" s="11">
+      <c r="N51" s="11">
         <v>1099</v>
       </c>
     </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B52" s="8" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C52" s="9" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D52" s="9"/>
       <c r="E52" s="9">
+        <v>0</v>
+      </c>
+      <c r="F52" s="9">
+        <v>0</v>
+      </c>
+      <c r="G52" s="9">
+        <v>0</v>
+      </c>
+      <c r="H52" s="9">
+        <v>0</v>
+      </c>
+      <c r="I52" s="9">
+        <v>0</v>
+      </c>
+      <c r="J52" s="9">
         <v>1</v>
       </c>
-      <c r="F52" s="9">
-        <v>0</v>
-      </c>
-      <c r="G52" s="9">
-        <v>0</v>
-      </c>
-      <c r="H52" s="9">
+      <c r="K52" s="9">
+        <v>0</v>
+      </c>
+      <c r="L52" s="9">
+        <v>0</v>
+      </c>
+      <c r="M52" s="9">
         <v>1</v>
       </c>
-      <c r="I52" s="9">
+      <c r="N52" s="9">
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B53" s="12" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C53" s="13"/>
       <c r="D53" s="13"/>
       <c r="E53" s="13">
+        <v>3786</v>
+      </c>
+      <c r="F53" s="13">
+        <v>3746</v>
+      </c>
+      <c r="G53" s="13">
+        <v>4058</v>
+      </c>
+      <c r="H53" s="13">
+        <v>2972</v>
+      </c>
+      <c r="I53" s="13">
+        <v>3254</v>
+      </c>
+      <c r="J53" s="13">
         <v>2543</v>
       </c>
-      <c r="F53" s="13">
+      <c r="K53" s="13">
         <v>3184</v>
       </c>
-      <c r="G53" s="13">
+      <c r="L53" s="13">
         <v>4129</v>
       </c>
-      <c r="H53" s="13">
+      <c r="M53" s="13">
         <v>3803</v>
       </c>
-      <c r="I53" s="13">
+      <c r="N53" s="13">
         <v>4406</v>
       </c>
     </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
@@ -1698,8 +2413,13 @@
       <c r="G54" s="1"/>
       <c r="H54" s="1"/>
       <c r="I54" s="1"/>
-    </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J54" s="1"/>
+      <c r="K54" s="1"/>
+      <c r="L54" s="1"/>
+      <c r="M54" s="1"/>
+      <c r="N54" s="1"/>
+    </row>
+    <row r="55" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
@@ -1708,8 +2428,13 @@
       <c r="G55" s="1"/>
       <c r="H55" s="1"/>
       <c r="I55" s="1"/>
-    </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J55" s="1"/>
+      <c r="K55" s="1"/>
+      <c r="L55" s="1"/>
+      <c r="M55" s="1"/>
+      <c r="N55" s="1"/>
+    </row>
+    <row r="56" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
@@ -1718,10 +2443,15 @@
       <c r="G56" s="1"/>
       <c r="H56" s="1"/>
       <c r="I56" s="1"/>
-    </row>
-    <row r="57" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="J56" s="1"/>
+      <c r="K56" s="1"/>
+      <c r="L56" s="1"/>
+      <c r="M56" s="1"/>
+      <c r="N56" s="1"/>
+    </row>
+    <row r="57" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B57" s="7" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C57" s="6"/>
       <c r="D57" s="6"/>
@@ -1740,8 +2470,23 @@
       <c r="I57" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J57" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K57" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L57" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M57" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N57" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="58" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
@@ -1750,246 +2495,401 @@
       <c r="G58" s="1"/>
       <c r="H58" s="1"/>
       <c r="I58" s="1"/>
-    </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J58" s="1"/>
+      <c r="K58" s="1"/>
+      <c r="L58" s="1"/>
+      <c r="M58" s="1"/>
+      <c r="N58" s="1"/>
+    </row>
+    <row r="59" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B59" s="8" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C59" s="9" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D59" s="9"/>
-      <c r="E59" s="9" t="s">
-        <v>26</v>
+      <c r="E59" s="9">
+        <v>0</v>
       </c>
       <c r="F59" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="G59" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="H59" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
+      </c>
+      <c r="H59" s="9">
+        <v>0</v>
       </c>
       <c r="I59" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+      <c r="J59" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K59" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="L59" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="M59" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="N59" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="60" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B60" s="10" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C60" s="11" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D60" s="11"/>
       <c r="E60" s="11">
+        <v>36</v>
+      </c>
+      <c r="F60" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="G60" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="H60" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="I60" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="J60" s="11">
         <v>78</v>
       </c>
-      <c r="F60" s="11">
+      <c r="K60" s="11">
         <v>86</v>
       </c>
-      <c r="G60" s="11">
+      <c r="L60" s="11">
         <v>171</v>
       </c>
-      <c r="H60" s="11">
+      <c r="M60" s="11">
         <v>81</v>
       </c>
-      <c r="I60" s="11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="N60" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="61" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B61" s="8" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C61" s="9" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D61" s="9"/>
       <c r="E61" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="F61" s="9">
         <v>17</v>
       </c>
       <c r="G61" s="9">
+        <v>21</v>
+      </c>
+      <c r="H61" s="9">
         <v>17</v>
       </c>
-      <c r="H61" s="9">
+      <c r="I61" s="9">
+        <v>20</v>
+      </c>
+      <c r="J61" s="9">
+        <v>12</v>
+      </c>
+      <c r="K61" s="9">
+        <v>17</v>
+      </c>
+      <c r="L61" s="9">
+        <v>17</v>
+      </c>
+      <c r="M61" s="9">
         <v>19</v>
       </c>
-      <c r="I61" s="9">
+      <c r="N61" s="9">
         <v>15</v>
       </c>
     </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B62" s="10" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C62" s="11" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D62" s="11"/>
       <c r="E62" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="F62" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="G62" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="H62" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="I62" s="11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+      <c r="F62" s="11">
+        <v>78</v>
+      </c>
+      <c r="G62" s="11">
+        <v>52</v>
+      </c>
+      <c r="H62" s="11">
+        <v>92</v>
+      </c>
+      <c r="I62" s="11">
+        <v>49</v>
+      </c>
+      <c r="J62" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="K62" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="L62" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="M62" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="N62" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="63" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B63" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C63" s="9" t="s">
         <v>30</v>
-      </c>
-      <c r="C63" s="9" t="s">
-        <v>25</v>
       </c>
       <c r="D63" s="9"/>
       <c r="E63" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="F63" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="G63" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="H63" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="I63" s="9">
+        <v>31</v>
+      </c>
+      <c r="I63" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="J63" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K63" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="L63" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="M63" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="N63" s="9">
         <v>66</v>
       </c>
     </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B64" s="10" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C64" s="11" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D64" s="11"/>
       <c r="E64" s="11">
+        <v>1941</v>
+      </c>
+      <c r="F64" s="11">
+        <v>1902</v>
+      </c>
+      <c r="G64" s="11">
+        <v>1806</v>
+      </c>
+      <c r="H64" s="11">
+        <v>1802</v>
+      </c>
+      <c r="I64" s="11">
+        <v>2524</v>
+      </c>
+      <c r="J64" s="11">
         <v>1146</v>
       </c>
-      <c r="F64" s="11">
+      <c r="K64" s="11">
         <v>1589</v>
       </c>
-      <c r="G64" s="11">
+      <c r="L64" s="11">
         <v>1574</v>
       </c>
-      <c r="H64" s="11">
+      <c r="M64" s="11">
         <v>2160</v>
       </c>
-      <c r="I64" s="11">
+      <c r="N64" s="11">
         <v>1685</v>
       </c>
     </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B65" s="8" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C65" s="9" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D65" s="9"/>
       <c r="E65" s="9">
+        <v>390</v>
+      </c>
+      <c r="F65" s="9">
+        <v>373</v>
+      </c>
+      <c r="G65" s="9">
+        <v>432</v>
+      </c>
+      <c r="H65" s="9">
+        <v>189</v>
+      </c>
+      <c r="I65" s="9">
+        <v>385</v>
+      </c>
+      <c r="J65" s="9">
         <v>345</v>
       </c>
-      <c r="F65" s="9">
+      <c r="K65" s="9">
         <v>552</v>
       </c>
-      <c r="G65" s="9">
+      <c r="L65" s="9">
         <v>858</v>
       </c>
-      <c r="H65" s="9">
+      <c r="M65" s="9">
         <v>564</v>
       </c>
-      <c r="I65" s="9">
+      <c r="N65" s="9">
         <v>582</v>
       </c>
     </row>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B66" s="10" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C66" s="11" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D66" s="11"/>
       <c r="E66" s="11">
+        <v>1212</v>
+      </c>
+      <c r="F66" s="11">
+        <v>1140</v>
+      </c>
+      <c r="G66" s="11">
+        <v>1400</v>
+      </c>
+      <c r="H66" s="11">
+        <v>823</v>
+      </c>
+      <c r="I66" s="11">
+        <v>1451</v>
+      </c>
+      <c r="J66" s="11">
         <v>519</v>
       </c>
-      <c r="F66" s="11">
+      <c r="K66" s="11">
         <v>1239</v>
       </c>
-      <c r="G66" s="11">
+      <c r="L66" s="11">
         <v>546</v>
       </c>
-      <c r="H66" s="11">
+      <c r="M66" s="11">
         <v>1554</v>
       </c>
-      <c r="I66" s="11">
+      <c r="N66" s="11">
         <v>1028</v>
       </c>
     </row>
-    <row r="67" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B67" s="8" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C67" s="9" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D67" s="9"/>
       <c r="E67" s="9">
+        <v>0</v>
+      </c>
+      <c r="F67" s="9">
+        <v>0</v>
+      </c>
+      <c r="G67" s="9">
+        <v>0</v>
+      </c>
+      <c r="H67" s="9">
+        <v>0</v>
+      </c>
+      <c r="I67" s="9">
+        <v>0</v>
+      </c>
+      <c r="J67" s="9">
         <v>1</v>
       </c>
-      <c r="F67" s="9">
+      <c r="K67" s="9">
         <v>1</v>
       </c>
-      <c r="G67" s="9">
+      <c r="L67" s="9">
         <v>-1</v>
       </c>
-      <c r="H67" s="9">
+      <c r="M67" s="9">
         <v>1</v>
       </c>
-      <c r="I67" s="9">
+      <c r="N67" s="9">
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B68" s="12" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C68" s="13"/>
       <c r="D68" s="13"/>
       <c r="E68" s="13">
+        <v>3597</v>
+      </c>
+      <c r="F68" s="13">
+        <v>3510</v>
+      </c>
+      <c r="G68" s="13">
+        <v>3711</v>
+      </c>
+      <c r="H68" s="13">
+        <v>2923</v>
+      </c>
+      <c r="I68" s="13">
+        <v>4429</v>
+      </c>
+      <c r="J68" s="13">
         <v>2101</v>
       </c>
-      <c r="F68" s="13">
+      <c r="K68" s="13">
         <v>3484</v>
       </c>
-      <c r="G68" s="13">
+      <c r="L68" s="13">
         <v>3165</v>
       </c>
-      <c r="H68" s="13">
+      <c r="M68" s="13">
         <v>4379</v>
       </c>
-      <c r="I68" s="13">
+      <c r="N68" s="13">
         <v>3377</v>
       </c>
     </row>
-    <row r="69" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
       <c r="D69" s="1"/>
@@ -1998,8 +2898,13 @@
       <c r="G69" s="1"/>
       <c r="H69" s="1"/>
       <c r="I69" s="1"/>
-    </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J69" s="1"/>
+      <c r="K69" s="1"/>
+      <c r="L69" s="1"/>
+      <c r="M69" s="1"/>
+      <c r="N69" s="1"/>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
@@ -2008,8 +2913,13 @@
       <c r="G70" s="1"/>
       <c r="H70" s="1"/>
       <c r="I70" s="1"/>
-    </row>
-    <row r="71" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J70" s="1"/>
+      <c r="K70" s="1"/>
+      <c r="L70" s="1"/>
+      <c r="M70" s="1"/>
+      <c r="N70" s="1"/>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
       <c r="D71" s="1"/>
@@ -2018,10 +2928,15 @@
       <c r="G71" s="1"/>
       <c r="H71" s="1"/>
       <c r="I71" s="1"/>
-    </row>
-    <row r="72" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="J71" s="1"/>
+      <c r="K71" s="1"/>
+      <c r="L71" s="1"/>
+      <c r="M71" s="1"/>
+      <c r="N71" s="1"/>
+    </row>
+    <row r="72" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B72" s="7" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="C72" s="6"/>
       <c r="D72" s="6"/>
@@ -2040,8 +2955,23 @@
       <c r="I72" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="73" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J72" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K72" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L72" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M72" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N72" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
       <c r="D73" s="1"/>
@@ -2050,246 +2980,401 @@
       <c r="G73" s="1"/>
       <c r="H73" s="1"/>
       <c r="I73" s="1"/>
-    </row>
-    <row r="74" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J73" s="1"/>
+      <c r="K73" s="1"/>
+      <c r="L73" s="1"/>
+      <c r="M73" s="1"/>
+      <c r="N73" s="1"/>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B74" s="8" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C74" s="9" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D74" s="9"/>
-      <c r="E74" s="9" t="s">
-        <v>26</v>
+      <c r="E74" s="9">
+        <v>0</v>
       </c>
       <c r="F74" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="G74" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="H74" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
+      </c>
+      <c r="H74" s="9">
+        <v>0</v>
       </c>
       <c r="I74" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="75" spans="2:9" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+      <c r="J74" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K74" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="L74" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="M74" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="N74" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B75" s="10" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C75" s="11" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D75" s="11"/>
       <c r="E75" s="11">
+        <v>81</v>
+      </c>
+      <c r="F75" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="G75" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="H75" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="I75" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="J75" s="11">
         <v>103</v>
       </c>
-      <c r="F75" s="11">
+      <c r="K75" s="11">
         <v>78</v>
       </c>
-      <c r="G75" s="11">
+      <c r="L75" s="11">
         <v>68</v>
       </c>
-      <c r="H75" s="11">
+      <c r="M75" s="11">
         <v>119</v>
       </c>
-      <c r="I75" s="11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="76" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="N75" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B76" s="8" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C76" s="9" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D76" s="9"/>
       <c r="E76" s="9">
+        <v>56</v>
+      </c>
+      <c r="F76" s="9">
+        <v>52</v>
+      </c>
+      <c r="G76" s="9">
+        <v>34</v>
+      </c>
+      <c r="H76" s="9">
+        <v>31</v>
+      </c>
+      <c r="I76" s="9">
+        <v>41</v>
+      </c>
+      <c r="J76" s="9">
         <v>55</v>
       </c>
-      <c r="F76" s="9">
+      <c r="K76" s="9">
         <v>69</v>
       </c>
-      <c r="G76" s="9">
+      <c r="L76" s="9">
         <v>66</v>
       </c>
-      <c r="H76" s="9">
+      <c r="M76" s="9">
         <v>65</v>
       </c>
-      <c r="I76" s="9">
+      <c r="N76" s="9">
         <v>65</v>
       </c>
     </row>
-    <row r="77" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B77" s="10" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C77" s="11" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D77" s="11"/>
       <c r="E77" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="F77" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="G77" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="H77" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="I77" s="11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="78" spans="2:9" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+      <c r="F77" s="11">
+        <v>94</v>
+      </c>
+      <c r="G77" s="11">
+        <v>87</v>
+      </c>
+      <c r="H77" s="11">
+        <v>90</v>
+      </c>
+      <c r="I77" s="11">
+        <v>91</v>
+      </c>
+      <c r="J77" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="K77" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="L77" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="M77" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="N77" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="78" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B78" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C78" s="9" t="s">
         <v>30</v>
-      </c>
-      <c r="C78" s="9" t="s">
-        <v>25</v>
       </c>
       <c r="D78" s="9"/>
       <c r="E78" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="F78" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="G78" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="H78" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="I78" s="9">
+        <v>31</v>
+      </c>
+      <c r="I78" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="J78" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K78" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="L78" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="M78" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="N78" s="9">
         <v>170</v>
       </c>
     </row>
-    <row r="79" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B79" s="10" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C79" s="11" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D79" s="11"/>
       <c r="E79" s="11">
+        <v>2346</v>
+      </c>
+      <c r="F79" s="11">
+        <v>2582</v>
+      </c>
+      <c r="G79" s="11">
+        <v>2752</v>
+      </c>
+      <c r="H79" s="11">
+        <v>2568</v>
+      </c>
+      <c r="I79" s="11">
+        <v>1597</v>
+      </c>
+      <c r="J79" s="11">
         <v>1663</v>
       </c>
-      <c r="F79" s="11">
+      <c r="K79" s="11">
         <v>1508</v>
       </c>
-      <c r="G79" s="11">
+      <c r="L79" s="11">
         <v>2126</v>
       </c>
-      <c r="H79" s="11">
+      <c r="M79" s="11">
         <v>2113</v>
       </c>
-      <c r="I79" s="11">
+      <c r="N79" s="11">
         <v>2898</v>
       </c>
     </row>
-    <row r="80" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B80" s="8" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C80" s="9" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D80" s="9"/>
       <c r="E80" s="9">
+        <v>28</v>
+      </c>
+      <c r="F80" s="9">
+        <v>0</v>
+      </c>
+      <c r="G80" s="9">
+        <v>2</v>
+      </c>
+      <c r="H80" s="9">
+        <v>15</v>
+      </c>
+      <c r="I80" s="9">
+        <v>6</v>
+      </c>
+      <c r="J80" s="9">
         <v>1</v>
       </c>
-      <c r="F80" s="9">
+      <c r="K80" s="9">
         <v>10</v>
       </c>
-      <c r="G80" s="9">
+      <c r="L80" s="9">
         <v>101</v>
       </c>
-      <c r="H80" s="9">
+      <c r="M80" s="9">
         <v>155</v>
       </c>
-      <c r="I80" s="9">
+      <c r="N80" s="9">
         <v>226</v>
       </c>
     </row>
-    <row r="81" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B81" s="10" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C81" s="11" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D81" s="11"/>
       <c r="E81" s="11">
+        <v>796</v>
+      </c>
+      <c r="F81" s="11">
+        <v>806</v>
+      </c>
+      <c r="G81" s="11">
+        <v>1036</v>
+      </c>
+      <c r="H81" s="11">
+        <v>1256</v>
+      </c>
+      <c r="I81" s="11">
+        <v>1050</v>
+      </c>
+      <c r="J81" s="11">
         <v>1404</v>
       </c>
-      <c r="F81" s="11">
+      <c r="K81" s="11">
         <v>1260</v>
       </c>
-      <c r="G81" s="11">
+      <c r="L81" s="11">
         <v>1630</v>
       </c>
-      <c r="H81" s="11">
+      <c r="M81" s="11">
         <v>963</v>
       </c>
-      <c r="I81" s="11">
+      <c r="N81" s="11">
         <v>1034</v>
       </c>
     </row>
-    <row r="82" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B82" s="8" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C82" s="9" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D82" s="9"/>
       <c r="E82" s="9">
+        <v>0</v>
+      </c>
+      <c r="F82" s="9">
+        <v>0</v>
+      </c>
+      <c r="G82" s="9">
+        <v>0</v>
+      </c>
+      <c r="H82" s="9">
+        <v>0</v>
+      </c>
+      <c r="I82" s="9">
+        <v>0</v>
+      </c>
+      <c r="J82" s="9">
         <v>1</v>
       </c>
-      <c r="F82" s="9">
-        <v>0</v>
-      </c>
-      <c r="G82" s="9">
+      <c r="K82" s="9">
+        <v>0</v>
+      </c>
+      <c r="L82" s="9">
         <v>1</v>
       </c>
-      <c r="H82" s="9">
+      <c r="M82" s="9">
         <v>1</v>
       </c>
-      <c r="I82" s="9">
+      <c r="N82" s="9">
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B83" s="12" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C83" s="13"/>
       <c r="D83" s="13"/>
       <c r="E83" s="13">
+        <v>3307</v>
+      </c>
+      <c r="F83" s="13">
+        <v>3534</v>
+      </c>
+      <c r="G83" s="13">
+        <v>3911</v>
+      </c>
+      <c r="H83" s="13">
+        <v>3960</v>
+      </c>
+      <c r="I83" s="13">
+        <v>2785</v>
+      </c>
+      <c r="J83" s="13">
         <v>3227</v>
       </c>
-      <c r="F83" s="13">
+      <c r="K83" s="13">
         <v>2925</v>
       </c>
-      <c r="G83" s="13">
+      <c r="L83" s="13">
         <v>3992</v>
       </c>
-      <c r="H83" s="13">
+      <c r="M83" s="13">
         <v>3416</v>
       </c>
-      <c r="I83" s="13">
+      <c r="N83" s="13">
         <v>4394</v>
       </c>
     </row>
-    <row r="84" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
       <c r="D84" s="1"/>
@@ -2298,8 +3383,13 @@
       <c r="G84" s="1"/>
       <c r="H84" s="1"/>
       <c r="I84" s="1"/>
-    </row>
-    <row r="85" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J84" s="1"/>
+      <c r="K84" s="1"/>
+      <c r="L84" s="1"/>
+      <c r="M84" s="1"/>
+      <c r="N84" s="1"/>
+    </row>
+    <row r="85" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
       <c r="D85" s="1"/>
@@ -2308,8 +3398,13 @@
       <c r="G85" s="1"/>
       <c r="H85" s="1"/>
       <c r="I85" s="1"/>
-    </row>
-    <row r="86" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J85" s="1"/>
+      <c r="K85" s="1"/>
+      <c r="L85" s="1"/>
+      <c r="M85" s="1"/>
+      <c r="N85" s="1"/>
+    </row>
+    <row r="86" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
       <c r="D86" s="1"/>
@@ -2318,10 +3413,15 @@
       <c r="G86" s="1"/>
       <c r="H86" s="1"/>
       <c r="I86" s="1"/>
-    </row>
-    <row r="87" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="J86" s="1"/>
+      <c r="K86" s="1"/>
+      <c r="L86" s="1"/>
+      <c r="M86" s="1"/>
+      <c r="N86" s="1"/>
+    </row>
+    <row r="87" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B87" s="7" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="C87" s="6"/>
       <c r="D87" s="6"/>
@@ -2340,8 +3440,23 @@
       <c r="I87" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="88" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J87" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K87" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L87" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M87" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N87" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="88" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
       <c r="D88" s="1"/>
@@ -2350,250 +3465,416 @@
       <c r="G88" s="1"/>
       <c r="H88" s="1"/>
       <c r="I88" s="1"/>
-    </row>
-    <row r="89" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J88" s="1"/>
+      <c r="K88" s="1"/>
+      <c r="L88" s="1"/>
+      <c r="M88" s="1"/>
+      <c r="N88" s="1"/>
+    </row>
+    <row r="89" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B89" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="C89" s="9"/>
+        <v>29</v>
+      </c>
+      <c r="C89" s="9" t="s">
+        <v>44</v>
+      </c>
       <c r="D89" s="9"/>
       <c r="E89" s="9">
         <v>0</v>
       </c>
-      <c r="F89" s="9">
-        <v>0</v>
-      </c>
-      <c r="G89" s="9">
-        <v>0</v>
-      </c>
-      <c r="H89" s="9">
-        <v>0</v>
-      </c>
-      <c r="I89" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="F89" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="G89" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="H89" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="I89" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="J89" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K89" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="L89" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="M89" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="N89" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="90" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B90" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="C90" s="11"/>
+        <v>32</v>
+      </c>
+      <c r="C90" s="11" t="s">
+        <v>44</v>
+      </c>
       <c r="D90" s="11"/>
       <c r="E90" s="11">
-        <v>0</v>
-      </c>
-      <c r="F90" s="11">
-        <v>0</v>
-      </c>
-      <c r="G90" s="11">
-        <v>0</v>
-      </c>
-      <c r="H90" s="11">
-        <v>0</v>
-      </c>
-      <c r="I90" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="2:9" x14ac:dyDescent="0.25">
+        <v>1721596</v>
+      </c>
+      <c r="F90" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="G90" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="H90" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="I90" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="J90" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="K90" s="11">
+        <v>6515181</v>
+      </c>
+      <c r="L90" s="11">
+        <v>5892079</v>
+      </c>
+      <c r="M90" s="11">
+        <v>5726212</v>
+      </c>
+      <c r="N90" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="91" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B91" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="C91" s="9"/>
+        <v>33</v>
+      </c>
+      <c r="C91" s="9" t="s">
+        <v>44</v>
+      </c>
       <c r="D91" s="9"/>
       <c r="E91" s="9">
-        <v>0</v>
+        <v>8765483</v>
       </c>
       <c r="F91" s="9">
-        <v>0</v>
+        <v>9565994</v>
       </c>
       <c r="G91" s="9">
-        <v>0</v>
+        <v>9507451</v>
       </c>
       <c r="H91" s="9">
-        <v>0</v>
+        <v>7161021</v>
       </c>
       <c r="I91" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="2:9" x14ac:dyDescent="0.25">
+        <v>8907639</v>
+      </c>
+      <c r="J91" s="9">
+        <v>16148956</v>
+      </c>
+      <c r="K91" s="9">
+        <v>23701274</v>
+      </c>
+      <c r="L91" s="9">
+        <v>29384253</v>
+      </c>
+      <c r="M91" s="9">
+        <v>31789373</v>
+      </c>
+      <c r="N91" s="9">
+        <v>36226171</v>
+      </c>
+    </row>
+    <row r="92" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B92" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="C92" s="11"/>
+        <v>34</v>
+      </c>
+      <c r="C92" s="11" t="s">
+        <v>44</v>
+      </c>
       <c r="D92" s="11"/>
-      <c r="E92" s="11">
-        <v>0</v>
-      </c>
-      <c r="F92" s="11">
-        <v>0</v>
+      <c r="E92" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="F92" s="11" t="s">
+        <v>31</v>
       </c>
       <c r="G92" s="11">
-        <v>0</v>
+        <v>3558290</v>
       </c>
       <c r="H92" s="11">
-        <v>0</v>
+        <v>3468868</v>
       </c>
       <c r="I92" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="2:9" x14ac:dyDescent="0.25">
+        <v>4236127</v>
+      </c>
+      <c r="J92" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="K92" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="L92" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="M92" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="N92" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="93" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B93" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="C93" s="9"/>
+        <v>35</v>
+      </c>
+      <c r="C93" s="9" t="s">
+        <v>44</v>
+      </c>
       <c r="D93" s="9"/>
-      <c r="E93" s="9">
-        <v>13605935</v>
-      </c>
-      <c r="F93" s="9">
-        <v>16151495</v>
-      </c>
-      <c r="G93" s="9">
-        <v>17795395</v>
-      </c>
-      <c r="H93" s="9">
-        <v>9887257</v>
-      </c>
-      <c r="I93" s="9">
-        <v>8769368</v>
-      </c>
-    </row>
-    <row r="94" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="E93" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="F93" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="G93" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="H93" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="I93" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="J93" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K93" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="L93" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="M93" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="N93" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="94" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B94" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C94" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="C94" s="11"/>
       <c r="D94" s="11"/>
       <c r="E94" s="11">
-        <v>11968532</v>
+        <v>14760519</v>
       </c>
       <c r="F94" s="11">
-        <v>33756619</v>
+        <v>17051518</v>
       </c>
       <c r="G94" s="11">
-        <v>30156058</v>
+        <v>22400222</v>
       </c>
       <c r="H94" s="11">
-        <v>34868206</v>
+        <v>28699976</v>
       </c>
       <c r="I94" s="11">
-        <v>40248420</v>
-      </c>
-    </row>
-    <row r="95" spans="2:9" x14ac:dyDescent="0.25">
+        <v>31285097</v>
+      </c>
+      <c r="J94" s="11">
+        <v>23746596</v>
+      </c>
+      <c r="K94" s="11">
+        <v>29776451</v>
+      </c>
+      <c r="L94" s="11">
+        <v>31922405</v>
+      </c>
+      <c r="M94" s="11">
+        <v>49307645</v>
+      </c>
+      <c r="N94" s="11">
+        <v>60662250</v>
+      </c>
+    </row>
+    <row r="95" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B95" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="C95" s="9"/>
+        <v>37</v>
+      </c>
+      <c r="C95" s="9" t="s">
+        <v>44</v>
+      </c>
       <c r="D95" s="9"/>
       <c r="E95" s="9">
-        <v>1045477</v>
+        <v>6562</v>
       </c>
       <c r="F95" s="9">
-        <v>1038630</v>
+        <v>725768</v>
       </c>
       <c r="G95" s="9">
-        <v>1134263</v>
+        <v>0</v>
       </c>
       <c r="H95" s="9">
-        <v>1076697</v>
+        <v>95050</v>
       </c>
       <c r="I95" s="9">
-        <v>1174132</v>
-      </c>
-    </row>
-    <row r="96" spans="2:9" x14ac:dyDescent="0.25">
+        <v>711549</v>
+      </c>
+      <c r="J95" s="9">
+        <v>423963</v>
+      </c>
+      <c r="K95" s="9">
+        <v>4241</v>
+      </c>
+      <c r="L95" s="9">
+        <v>786012</v>
+      </c>
+      <c r="M95" s="9">
+        <v>9123932</v>
+      </c>
+      <c r="N95" s="9">
+        <v>21366967</v>
+      </c>
+    </row>
+    <row r="96" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B96" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="C96" s="11"/>
+        <v>38</v>
+      </c>
+      <c r="C96" s="11" t="s">
+        <v>44</v>
+      </c>
       <c r="D96" s="11"/>
       <c r="E96" s="11">
-        <v>7454912</v>
+        <v>8383220</v>
       </c>
       <c r="F96" s="11">
-        <v>7894337</v>
+        <v>9260587</v>
       </c>
       <c r="G96" s="11">
-        <v>8614119</v>
+        <v>11575984</v>
       </c>
       <c r="H96" s="11">
-        <v>17764989</v>
+        <v>18522246</v>
       </c>
       <c r="I96" s="11">
-        <v>11557481</v>
-      </c>
-    </row>
-    <row r="97" spans="2:9" x14ac:dyDescent="0.25">
+        <v>26899663</v>
+      </c>
+      <c r="J96" s="11">
+        <v>29172175</v>
+      </c>
+      <c r="K96" s="11">
+        <v>43658630</v>
+      </c>
+      <c r="L96" s="11">
+        <v>42798498</v>
+      </c>
+      <c r="M96" s="11">
+        <v>58788076</v>
+      </c>
+      <c r="N96" s="11">
+        <v>40156187</v>
+      </c>
+    </row>
+    <row r="97" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B97" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="C97" s="9"/>
+        <v>39</v>
+      </c>
+      <c r="C97" s="9" t="s">
+        <v>44</v>
+      </c>
       <c r="D97" s="9"/>
       <c r="E97" s="9">
-        <v>0</v>
+        <v>6812467</v>
       </c>
       <c r="F97" s="9">
-        <v>0</v>
+        <v>7841668</v>
       </c>
       <c r="G97" s="9">
-        <v>0</v>
+        <v>9656378</v>
       </c>
       <c r="H97" s="9">
-        <v>0</v>
+        <v>10828946</v>
       </c>
       <c r="I97" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B98" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="C98" s="11"/>
-      <c r="D98" s="11"/>
-      <c r="E98" s="11">
-        <v>7419775</v>
-      </c>
-      <c r="F98" s="11">
-        <v>8104193</v>
-      </c>
-      <c r="G98" s="11">
-        <v>11598040</v>
-      </c>
-      <c r="H98" s="11">
-        <v>21703229</v>
-      </c>
-      <c r="I98" s="11">
-        <v>16122260</v>
-      </c>
-    </row>
-    <row r="99" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B99" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="C99" s="15"/>
-      <c r="D99" s="15"/>
-      <c r="E99" s="15">
-        <v>41494631</v>
-      </c>
-      <c r="F99" s="15">
-        <v>66945274</v>
-      </c>
-      <c r="G99" s="15">
-        <v>69297875</v>
-      </c>
-      <c r="H99" s="15">
-        <v>85300378</v>
-      </c>
-      <c r="I99" s="15">
-        <v>77871661</v>
-      </c>
-    </row>
-    <row r="100" spans="2:9" x14ac:dyDescent="0.25">
+        <v>17483615</v>
+      </c>
+      <c r="J97" s="9">
+        <v>26928859</v>
+      </c>
+      <c r="K97" s="9">
+        <v>22810581</v>
+      </c>
+      <c r="L97" s="9">
+        <v>26755307</v>
+      </c>
+      <c r="M97" s="9">
+        <v>21912718</v>
+      </c>
+      <c r="N97" s="9">
+        <v>21912718</v>
+      </c>
+    </row>
+    <row r="98" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B98" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C98" s="13"/>
+      <c r="D98" s="13"/>
+      <c r="E98" s="13">
+        <v>40449847</v>
+      </c>
+      <c r="F98" s="13">
+        <v>44445535</v>
+      </c>
+      <c r="G98" s="13">
+        <v>56698325</v>
+      </c>
+      <c r="H98" s="13">
+        <v>68776107</v>
+      </c>
+      <c r="I98" s="13">
+        <v>89523690</v>
+      </c>
+      <c r="J98" s="13">
+        <v>96420549</v>
+      </c>
+      <c r="K98" s="13">
+        <v>126466358</v>
+      </c>
+      <c r="L98" s="13">
+        <v>137538554</v>
+      </c>
+      <c r="M98" s="13">
+        <v>176647956</v>
+      </c>
+      <c r="N98" s="13">
+        <v>180324293</v>
+      </c>
+    </row>
+    <row r="99" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B99" s="1"/>
+      <c r="C99" s="1"/>
+      <c r="D99" s="1"/>
+      <c r="E99" s="1"/>
+      <c r="F99" s="1"/>
+      <c r="G99" s="1"/>
+      <c r="H99" s="1"/>
+      <c r="I99" s="1"/>
+      <c r="J99" s="1"/>
+      <c r="K99" s="1"/>
+      <c r="L99" s="1"/>
+      <c r="M99" s="1"/>
+      <c r="N99" s="1"/>
+    </row>
+    <row r="100" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
       <c r="D100" s="1"/>
@@ -2602,8 +3883,13 @@
       <c r="G100" s="1"/>
       <c r="H100" s="1"/>
       <c r="I100" s="1"/>
-    </row>
-    <row r="101" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J100" s="1"/>
+      <c r="K100" s="1"/>
+      <c r="L100" s="1"/>
+      <c r="M100" s="1"/>
+      <c r="N100" s="1"/>
+    </row>
+    <row r="101" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B101" s="1"/>
       <c r="C101" s="1"/>
       <c r="D101" s="1"/>
@@ -2612,211 +3898,3797 @@
       <c r="G101" s="1"/>
       <c r="H101" s="1"/>
       <c r="I101" s="1"/>
-    </row>
-    <row r="102" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B102" s="1"/>
-      <c r="C102" s="1"/>
-      <c r="D102" s="1"/>
-      <c r="E102" s="1"/>
-      <c r="F102" s="1"/>
-      <c r="G102" s="1"/>
-      <c r="H102" s="1"/>
-      <c r="I102" s="1"/>
-    </row>
-    <row r="103" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B103" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="C103" s="6"/>
-      <c r="D103" s="6"/>
-      <c r="E103" s="6"/>
-      <c r="F103" s="6"/>
+      <c r="J101" s="1"/>
+      <c r="K101" s="1"/>
+      <c r="L101" s="1"/>
+      <c r="M101" s="1"/>
+      <c r="N101" s="1"/>
+    </row>
+    <row r="102" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B102" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C102" s="6"/>
+      <c r="D102" s="6"/>
+      <c r="E102" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F102" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G102" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H102" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="I102" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="J102" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K102" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L102" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M102" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N102" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="103" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B103" s="1"/>
+      <c r="C103" s="1"/>
+      <c r="D103" s="1"/>
+      <c r="E103" s="1"/>
+      <c r="F103" s="1"/>
       <c r="G103" s="1"/>
       <c r="H103" s="1"/>
       <c r="I103" s="1"/>
-    </row>
-    <row r="104" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B104" s="1"/>
-      <c r="C104" s="1"/>
-      <c r="D104" s="1"/>
-      <c r="E104" s="1"/>
-      <c r="F104" s="1"/>
-      <c r="G104" s="1"/>
-      <c r="H104" s="1"/>
-      <c r="I104" s="1"/>
-    </row>
-    <row r="105" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B105" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="C105" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="D105" s="9"/>
-      <c r="E105" s="9"/>
-      <c r="F105" s="9"/>
-      <c r="G105" s="1"/>
-      <c r="H105" s="1"/>
-      <c r="I105" s="1"/>
-    </row>
-    <row r="106" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B106" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="C106" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="D106" s="11"/>
-      <c r="E106" s="11"/>
-      <c r="F106" s="11"/>
-      <c r="G106" s="1"/>
-      <c r="H106" s="1"/>
-      <c r="I106" s="1"/>
-    </row>
-    <row r="107" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B107" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="C107" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="D107" s="9"/>
-      <c r="E107" s="9"/>
-      <c r="F107" s="9"/>
-      <c r="G107" s="1"/>
-      <c r="H107" s="1"/>
-      <c r="I107" s="1"/>
-    </row>
-    <row r="108" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B108" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="C108" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="D108" s="11"/>
-      <c r="E108" s="11"/>
-      <c r="F108" s="11"/>
-      <c r="G108" s="1"/>
-      <c r="H108" s="1"/>
-      <c r="I108" s="1"/>
-    </row>
-    <row r="109" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B109" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="C109" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="D109" s="9"/>
-      <c r="E109" s="9"/>
-      <c r="F109" s="9"/>
-      <c r="G109" s="1"/>
-      <c r="H109" s="1"/>
-      <c r="I109" s="1"/>
-    </row>
-    <row r="110" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B110" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="C110" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="D110" s="11"/>
-      <c r="E110" s="11"/>
-      <c r="F110" s="11"/>
-      <c r="G110" s="1"/>
-      <c r="H110" s="1"/>
-      <c r="I110" s="1"/>
-    </row>
-    <row r="111" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B111" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="C111" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="D111" s="9"/>
-      <c r="E111" s="9"/>
-      <c r="F111" s="9"/>
-      <c r="G111" s="1"/>
-      <c r="H111" s="1"/>
-      <c r="I111" s="1"/>
-    </row>
-    <row r="112" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B112" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="C112" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="D112" s="11"/>
-      <c r="E112" s="11"/>
-      <c r="F112" s="11"/>
-      <c r="G112" s="1"/>
-      <c r="H112" s="1"/>
-      <c r="I112" s="1"/>
-    </row>
-    <row r="113" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B113" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="C113" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="D113" s="9"/>
-      <c r="E113" s="9"/>
-      <c r="F113" s="9"/>
-      <c r="G113" s="1"/>
-      <c r="H113" s="1"/>
-      <c r="I113" s="1"/>
-    </row>
-    <row r="114" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B114" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="C114" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="D114" s="11"/>
-      <c r="E114" s="11"/>
-      <c r="F114" s="11"/>
+      <c r="J103" s="1"/>
+      <c r="K103" s="1"/>
+      <c r="L103" s="1"/>
+      <c r="M103" s="1"/>
+      <c r="N103" s="1"/>
+    </row>
+    <row r="104" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B104" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C104" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="D104" s="9"/>
+      <c r="E104" s="9">
+        <v>0</v>
+      </c>
+      <c r="F104" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="G104" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="H104" s="9">
+        <v>0</v>
+      </c>
+      <c r="I104" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="J104" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K104" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="L104" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="M104" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="N104" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="105" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B105" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C105" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="D105" s="11"/>
+      <c r="E105" s="11">
+        <v>2030989</v>
+      </c>
+      <c r="F105" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="G105" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="H105" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="I105" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="J105" s="11">
+        <v>9389464</v>
+      </c>
+      <c r="K105" s="11">
+        <v>7587574</v>
+      </c>
+      <c r="L105" s="11">
+        <v>19379813</v>
+      </c>
+      <c r="M105" s="11">
+        <v>15905607</v>
+      </c>
+      <c r="N105" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="106" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B106" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C106" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="D106" s="9"/>
+      <c r="E106" s="9">
+        <v>4214658</v>
+      </c>
+      <c r="F106" s="9">
+        <v>3499269</v>
+      </c>
+      <c r="G106" s="9">
+        <v>2960087</v>
+      </c>
+      <c r="H106" s="9">
+        <v>7042565</v>
+      </c>
+      <c r="I106" s="9">
+        <v>23258037</v>
+      </c>
+      <c r="J106" s="9">
+        <v>-1582865</v>
+      </c>
+      <c r="K106" s="9">
+        <v>14733049</v>
+      </c>
+      <c r="L106" s="9">
+        <v>10963096</v>
+      </c>
+      <c r="M106" s="9">
+        <v>13720300</v>
+      </c>
+      <c r="N106" s="9">
+        <v>12017556</v>
+      </c>
+    </row>
+    <row r="107" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B107" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C107" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="D107" s="11"/>
+      <c r="E107" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="F107" s="11">
+        <v>5393456</v>
+      </c>
+      <c r="G107" s="11">
+        <v>3507033</v>
+      </c>
+      <c r="H107" s="11">
+        <v>8928823</v>
+      </c>
+      <c r="I107" s="11">
+        <v>4945578</v>
+      </c>
+      <c r="J107" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="K107" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="L107" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="M107" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="N107" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="108" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B108" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C108" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="D108" s="9"/>
+      <c r="E108" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="F108" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="G108" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="H108" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="I108" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="J108" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K108" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="L108" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="M108" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="N108" s="9">
+        <v>21122226</v>
+      </c>
+    </row>
+    <row r="109" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B109" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C109" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="D109" s="11"/>
+      <c r="E109" s="11">
+        <v>16738886</v>
+      </c>
+      <c r="F109" s="11">
+        <v>25134312</v>
+      </c>
+      <c r="G109" s="11">
+        <v>33113937</v>
+      </c>
+      <c r="H109" s="11">
+        <v>35621526</v>
+      </c>
+      <c r="I109" s="11">
+        <v>37091902</v>
+      </c>
+      <c r="J109" s="11">
+        <v>35819546</v>
+      </c>
+      <c r="K109" s="11">
+        <v>40917585</v>
+      </c>
+      <c r="L109" s="11">
+        <v>57270748</v>
+      </c>
+      <c r="M109" s="11">
+        <v>71856725</v>
+      </c>
+      <c r="N109" s="11">
+        <v>56161829</v>
+      </c>
+    </row>
+    <row r="110" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B110" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C110" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="D110" s="9"/>
+      <c r="E110" s="9">
+        <v>10727411</v>
+      </c>
+      <c r="F110" s="9">
+        <v>12882329</v>
+      </c>
+      <c r="G110" s="9">
+        <v>22104926</v>
+      </c>
+      <c r="H110" s="9">
+        <v>19872018</v>
+      </c>
+      <c r="I110" s="9">
+        <v>27229595</v>
+      </c>
+      <c r="J110" s="9">
+        <v>27480225</v>
+      </c>
+      <c r="K110" s="9">
+        <v>48752479</v>
+      </c>
+      <c r="L110" s="9">
+        <v>85570472</v>
+      </c>
+      <c r="M110" s="9">
+        <v>63091280</v>
+      </c>
+      <c r="N110" s="9">
+        <v>63487961</v>
+      </c>
+    </row>
+    <row r="111" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B111" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C111" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="D111" s="11"/>
+      <c r="E111" s="11">
+        <v>15683668</v>
+      </c>
+      <c r="F111" s="11">
+        <v>23721595</v>
+      </c>
+      <c r="G111" s="11">
+        <v>40340666</v>
+      </c>
+      <c r="H111" s="11">
+        <v>41221891</v>
+      </c>
+      <c r="I111" s="11">
+        <v>45408328</v>
+      </c>
+      <c r="J111" s="11">
+        <v>35121396</v>
+      </c>
+      <c r="K111" s="11">
+        <v>47171417</v>
+      </c>
+      <c r="L111" s="11">
+        <v>38601069</v>
+      </c>
+      <c r="M111" s="11">
+        <v>37648708</v>
+      </c>
+      <c r="N111" s="11">
+        <v>44373292</v>
+      </c>
+    </row>
+    <row r="112" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B112" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C112" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="D112" s="9"/>
+      <c r="E112" s="9">
+        <v>1900079</v>
+      </c>
+      <c r="F112" s="9">
+        <v>3460573</v>
+      </c>
+      <c r="G112" s="9">
+        <v>8282640</v>
+      </c>
+      <c r="H112" s="9">
+        <v>16054393</v>
+      </c>
+      <c r="I112" s="9">
+        <v>17703212</v>
+      </c>
+      <c r="J112" s="9">
+        <v>-12376246</v>
+      </c>
+      <c r="K112" s="9">
+        <v>18250353</v>
+      </c>
+      <c r="L112" s="9">
+        <v>-6284209</v>
+      </c>
+      <c r="M112" s="9">
+        <v>0</v>
+      </c>
+      <c r="N112" s="9">
+        <v>17210203</v>
+      </c>
+    </row>
+    <row r="113" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B113" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C113" s="13"/>
+      <c r="D113" s="13"/>
+      <c r="E113" s="13">
+        <v>51295691</v>
+      </c>
+      <c r="F113" s="13">
+        <v>74091534</v>
+      </c>
+      <c r="G113" s="13">
+        <v>110309289</v>
+      </c>
+      <c r="H113" s="13">
+        <v>128741216</v>
+      </c>
+      <c r="I113" s="13">
+        <v>155636652</v>
+      </c>
+      <c r="J113" s="13">
+        <v>93851520</v>
+      </c>
+      <c r="K113" s="13">
+        <v>177412457</v>
+      </c>
+      <c r="L113" s="13">
+        <v>205500989</v>
+      </c>
+      <c r="M113" s="13">
+        <v>202222620</v>
+      </c>
+      <c r="N113" s="13">
+        <v>214373067</v>
+      </c>
+    </row>
+    <row r="114" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B114" s="1"/>
+      <c r="C114" s="1"/>
+      <c r="D114" s="1"/>
+      <c r="E114" s="1"/>
+      <c r="F114" s="1"/>
       <c r="G114" s="1"/>
       <c r="H114" s="1"/>
       <c r="I114" s="1"/>
-    </row>
-    <row r="115" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B115" s="8" t="s">
+      <c r="J114" s="1"/>
+      <c r="K114" s="1"/>
+      <c r="L114" s="1"/>
+      <c r="M114" s="1"/>
+      <c r="N114" s="1"/>
+    </row>
+    <row r="115" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B115" s="1"/>
+      <c r="C115" s="1"/>
+      <c r="D115" s="1"/>
+      <c r="E115" s="1"/>
+      <c r="F115" s="1"/>
+      <c r="G115" s="1"/>
+      <c r="H115" s="1"/>
+      <c r="I115" s="1"/>
+      <c r="J115" s="1"/>
+      <c r="K115" s="1"/>
+      <c r="L115" s="1"/>
+      <c r="M115" s="1"/>
+      <c r="N115" s="1"/>
+    </row>
+    <row r="116" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B116" s="1"/>
+      <c r="C116" s="1"/>
+      <c r="D116" s="1"/>
+      <c r="E116" s="1"/>
+      <c r="F116" s="1"/>
+      <c r="G116" s="1"/>
+      <c r="H116" s="1"/>
+      <c r="I116" s="1"/>
+      <c r="J116" s="1"/>
+      <c r="K116" s="1"/>
+      <c r="L116" s="1"/>
+      <c r="M116" s="1"/>
+      <c r="N116" s="1"/>
+    </row>
+    <row r="117" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B117" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C117" s="6"/>
+      <c r="D117" s="6"/>
+      <c r="E117" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F117" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G117" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H117" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="I117" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="J117" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K117" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L117" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M117" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N117" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="118" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B118" s="1"/>
+      <c r="C118" s="1"/>
+      <c r="D118" s="1"/>
+      <c r="E118" s="1"/>
+      <c r="F118" s="1"/>
+      <c r="G118" s="1"/>
+      <c r="H118" s="1"/>
+      <c r="I118" s="1"/>
+      <c r="J118" s="1"/>
+      <c r="K118" s="1"/>
+      <c r="L118" s="1"/>
+      <c r="M118" s="1"/>
+      <c r="N118" s="1"/>
+    </row>
+    <row r="119" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B119" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C119" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="D119" s="9"/>
+      <c r="E119" s="9">
+        <v>0</v>
+      </c>
+      <c r="F119" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="G119" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="H119" s="9">
+        <v>0</v>
+      </c>
+      <c r="I119" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="J119" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K119" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="L119" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="M119" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="N119" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="120" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B120" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C120" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="D120" s="11"/>
+      <c r="E120" s="11">
+        <v>1378919</v>
+      </c>
+      <c r="F120" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="G120" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="H120" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="I120" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="J120" s="11">
+        <v>7110410</v>
+      </c>
+      <c r="K120" s="11">
+        <v>8210676</v>
+      </c>
+      <c r="L120" s="11">
+        <v>19545680</v>
+      </c>
+      <c r="M120" s="11">
+        <v>9000411</v>
+      </c>
+      <c r="N120" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="121" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B121" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C121" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="D121" s="9"/>
+      <c r="E121" s="9">
+        <v>3414147</v>
+      </c>
+      <c r="F121" s="9">
+        <v>3558268</v>
+      </c>
+      <c r="G121" s="9">
+        <v>5306516</v>
+      </c>
+      <c r="H121" s="9">
+        <v>5295947</v>
+      </c>
+      <c r="I121" s="9">
+        <v>16016720</v>
+      </c>
+      <c r="J121" s="9">
+        <v>-9135183</v>
+      </c>
+      <c r="K121" s="9">
+        <v>9050070</v>
+      </c>
+      <c r="L121" s="9">
+        <v>8557976</v>
+      </c>
+      <c r="M121" s="9">
+        <v>9283502</v>
+      </c>
+      <c r="N121" s="9">
+        <v>8373057</v>
+      </c>
+    </row>
+    <row r="122" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B122" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C122" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="D122" s="11"/>
+      <c r="E122" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="F122" s="11">
+        <v>3556762</v>
+      </c>
+      <c r="G122" s="11">
+        <v>3596455</v>
+      </c>
+      <c r="H122" s="11">
+        <v>8161564</v>
+      </c>
+      <c r="I122" s="11">
+        <v>4325011</v>
+      </c>
+      <c r="J122" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="K122" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="L122" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="M122" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="N122" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="123" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B123" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C123" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="D123" s="9"/>
+      <c r="E123" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="F123" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="G123" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="H123" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="I123" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="J123" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K123" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="L123" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="M123" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="N123" s="9">
+        <v>6996087</v>
+      </c>
+    </row>
+    <row r="124" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B124" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C124" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="D124" s="11"/>
+      <c r="E124" s="11">
+        <v>14447887</v>
+      </c>
+      <c r="F124" s="11">
+        <v>19785608</v>
+      </c>
+      <c r="G124" s="11">
+        <v>26858794</v>
+      </c>
+      <c r="H124" s="11">
+        <v>33036405</v>
+      </c>
+      <c r="I124" s="11">
+        <v>44630403</v>
+      </c>
+      <c r="J124" s="11">
+        <v>29789691</v>
+      </c>
+      <c r="K124" s="11">
+        <v>38771631</v>
+      </c>
+      <c r="L124" s="11">
+        <v>39885508</v>
+      </c>
+      <c r="M124" s="11">
+        <v>60502120</v>
+      </c>
+      <c r="N124" s="11">
+        <v>45021885</v>
+      </c>
+    </row>
+    <row r="125" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B125" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C125" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="D125" s="9"/>
+      <c r="E125" s="9">
+        <v>10008205</v>
+      </c>
+      <c r="F125" s="9">
+        <v>13608097</v>
+      </c>
+      <c r="G125" s="9">
+        <v>22009876</v>
+      </c>
+      <c r="H125" s="9">
+        <v>19248957</v>
+      </c>
+      <c r="I125" s="9">
+        <v>27517181</v>
+      </c>
+      <c r="J125" s="9">
+        <v>27899947</v>
+      </c>
+      <c r="K125" s="9">
+        <v>47970707</v>
+      </c>
+      <c r="L125" s="9">
+        <v>83043901</v>
+      </c>
+      <c r="M125" s="9">
+        <v>50848245</v>
+      </c>
+      <c r="N125" s="9">
+        <v>62491116</v>
+      </c>
+    </row>
+    <row r="126" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B126" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C126" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="D126" s="11"/>
+      <c r="E126" s="11">
+        <v>14806301</v>
+      </c>
+      <c r="F126" s="11">
+        <v>21406198</v>
+      </c>
+      <c r="G126" s="11">
+        <v>33395332</v>
+      </c>
+      <c r="H126" s="11">
+        <v>32844474</v>
+      </c>
+      <c r="I126" s="11">
+        <v>43135816</v>
+      </c>
+      <c r="J126" s="11">
+        <v>20634941</v>
+      </c>
+      <c r="K126" s="11">
+        <v>48031549</v>
+      </c>
+      <c r="L126" s="11">
+        <v>22611491</v>
+      </c>
+      <c r="M126" s="11">
+        <v>56280597</v>
+      </c>
+      <c r="N126" s="11">
+        <v>44293657</v>
+      </c>
+    </row>
+    <row r="127" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B127" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C127" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="D127" s="9"/>
+      <c r="E127" s="9">
+        <v>870878</v>
+      </c>
+      <c r="F127" s="9">
+        <v>1798014</v>
+      </c>
+      <c r="G127" s="9">
+        <v>6911927</v>
+      </c>
+      <c r="H127" s="9">
+        <v>9406286</v>
+      </c>
+      <c r="I127" s="9">
+        <v>8257968</v>
+      </c>
+      <c r="J127" s="9">
+        <v>-8257968</v>
+      </c>
+      <c r="K127" s="9">
+        <v>14305627</v>
+      </c>
+      <c r="L127" s="9">
+        <v>-7252969</v>
+      </c>
+      <c r="M127" s="9">
+        <v>0</v>
+      </c>
+      <c r="N127" s="9">
+        <v>12838133</v>
+      </c>
+    </row>
+    <row r="128" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B128" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C128" s="13"/>
+      <c r="D128" s="13"/>
+      <c r="E128" s="13">
+        <v>44926337</v>
+      </c>
+      <c r="F128" s="13">
+        <v>63712947</v>
+      </c>
+      <c r="G128" s="13">
+        <v>98078900</v>
+      </c>
+      <c r="H128" s="13">
+        <v>107993633</v>
+      </c>
+      <c r="I128" s="13">
+        <v>143883099</v>
+      </c>
+      <c r="J128" s="13">
+        <v>68041838</v>
+      </c>
+      <c r="K128" s="13">
+        <v>166340260</v>
+      </c>
+      <c r="L128" s="13">
+        <v>166391587</v>
+      </c>
+      <c r="M128" s="13">
+        <v>185914875</v>
+      </c>
+      <c r="N128" s="13">
+        <v>180013935</v>
+      </c>
+    </row>
+    <row r="129" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B129" s="1"/>
+      <c r="C129" s="1"/>
+      <c r="D129" s="1"/>
+      <c r="E129" s="1"/>
+      <c r="F129" s="1"/>
+      <c r="G129" s="1"/>
+      <c r="H129" s="1"/>
+      <c r="I129" s="1"/>
+      <c r="J129" s="1"/>
+      <c r="K129" s="1"/>
+      <c r="L129" s="1"/>
+      <c r="M129" s="1"/>
+      <c r="N129" s="1"/>
+    </row>
+    <row r="130" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B130" s="1"/>
+      <c r="C130" s="1"/>
+      <c r="D130" s="1"/>
+      <c r="E130" s="1"/>
+      <c r="F130" s="1"/>
+      <c r="G130" s="1"/>
+      <c r="H130" s="1"/>
+      <c r="I130" s="1"/>
+      <c r="J130" s="1"/>
+      <c r="K130" s="1"/>
+      <c r="L130" s="1"/>
+      <c r="M130" s="1"/>
+      <c r="N130" s="1"/>
+    </row>
+    <row r="131" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B131" s="1"/>
+      <c r="C131" s="1"/>
+      <c r="D131" s="1"/>
+      <c r="E131" s="1"/>
+      <c r="F131" s="1"/>
+      <c r="G131" s="1"/>
+      <c r="H131" s="1"/>
+      <c r="I131" s="1"/>
+      <c r="J131" s="1"/>
+      <c r="K131" s="1"/>
+      <c r="L131" s="1"/>
+      <c r="M131" s="1"/>
+      <c r="N131" s="1"/>
+    </row>
+    <row r="132" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B132" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C132" s="6"/>
+      <c r="D132" s="6"/>
+      <c r="E132" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F132" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G132" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H132" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="I132" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="J132" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K132" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L132" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M132" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N132" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="133" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B133" s="1"/>
+      <c r="C133" s="1"/>
+      <c r="D133" s="1"/>
+      <c r="E133" s="1"/>
+      <c r="F133" s="1"/>
+      <c r="G133" s="1"/>
+      <c r="H133" s="1"/>
+      <c r="I133" s="1"/>
+      <c r="J133" s="1"/>
+      <c r="K133" s="1"/>
+      <c r="L133" s="1"/>
+      <c r="M133" s="1"/>
+      <c r="N133" s="1"/>
+    </row>
+    <row r="134" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B134" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C134" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="D134" s="9"/>
+      <c r="E134" s="9">
+        <v>0</v>
+      </c>
+      <c r="F134" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="G134" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="H134" s="9">
+        <v>0</v>
+      </c>
+      <c r="I134" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="J134" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K134" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="L134" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="M134" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="N134" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="135" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B135" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C135" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="D135" s="11"/>
+      <c r="E135" s="11">
+        <v>2373666</v>
+      </c>
+      <c r="F135" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="G135" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="H135" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="I135" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="J135" s="11">
+        <v>6515181</v>
+      </c>
+      <c r="K135" s="11">
+        <v>5892079</v>
+      </c>
+      <c r="L135" s="11">
+        <v>5726212</v>
+      </c>
+      <c r="M135" s="11">
+        <v>12631408</v>
+      </c>
+      <c r="N135" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="136" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B136" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C136" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="D136" s="9"/>
+      <c r="E136" s="9">
+        <v>9565994</v>
+      </c>
+      <c r="F136" s="9">
+        <v>9507450</v>
+      </c>
+      <c r="G136" s="9">
+        <v>7161021</v>
+      </c>
+      <c r="H136" s="9">
+        <v>8907639</v>
+      </c>
+      <c r="I136" s="9">
+        <v>16148956</v>
+      </c>
+      <c r="J136" s="9">
+        <v>23701274</v>
+      </c>
+      <c r="K136" s="9">
+        <v>29384253</v>
+      </c>
+      <c r="L136" s="9">
+        <v>31789373</v>
+      </c>
+      <c r="M136" s="9">
+        <v>36226171</v>
+      </c>
+      <c r="N136" s="9">
+        <v>39870670</v>
+      </c>
+    </row>
+    <row r="137" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B137" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C137" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="D137" s="11"/>
+      <c r="E137" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="F137" s="11">
+        <v>3558290</v>
+      </c>
+      <c r="G137" s="11">
+        <v>3468868</v>
+      </c>
+      <c r="H137" s="11">
+        <v>4236127</v>
+      </c>
+      <c r="I137" s="11">
+        <v>4856694</v>
+      </c>
+      <c r="J137" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="K137" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="L137" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="M137" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="N137" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="138" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B138" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C138" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="D138" s="9"/>
+      <c r="E138" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="F138" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="G138" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="H138" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="I138" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="J138" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K138" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="L138" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="M138" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="N138" s="9">
+        <v>19852351</v>
+      </c>
+    </row>
+    <row r="139" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B139" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C139" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="D139" s="11"/>
+      <c r="E139" s="11">
+        <v>17051518</v>
+      </c>
+      <c r="F139" s="11">
+        <v>22400222</v>
+      </c>
+      <c r="G139" s="11">
+        <v>28699976</v>
+      </c>
+      <c r="H139" s="11">
+        <v>31285097</v>
+      </c>
+      <c r="I139" s="11">
+        <v>23746596</v>
+      </c>
+      <c r="J139" s="11">
+        <v>29776451</v>
+      </c>
+      <c r="K139" s="11">
+        <v>31922405</v>
+      </c>
+      <c r="L139" s="11">
+        <v>49307645</v>
+      </c>
+      <c r="M139" s="11">
+        <v>60662250</v>
+      </c>
+      <c r="N139" s="11">
+        <v>71802194</v>
+      </c>
+    </row>
+    <row r="140" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B140" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C140" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="D140" s="9"/>
+      <c r="E140" s="9">
+        <v>725768</v>
+      </c>
+      <c r="F140" s="9">
+        <v>0</v>
+      </c>
+      <c r="G140" s="9">
+        <v>95050</v>
+      </c>
+      <c r="H140" s="9">
+        <v>711549</v>
+      </c>
+      <c r="I140" s="9">
+        <v>423963</v>
+      </c>
+      <c r="J140" s="9">
+        <v>4241</v>
+      </c>
+      <c r="K140" s="9">
+        <v>786012</v>
+      </c>
+      <c r="L140" s="9">
+        <v>9123932</v>
+      </c>
+      <c r="M140" s="9">
+        <v>21366967</v>
+      </c>
+      <c r="N140" s="9">
+        <v>22363812</v>
+      </c>
+    </row>
+    <row r="141" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B141" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C141" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="D141" s="11"/>
+      <c r="E141" s="11">
+        <v>9260587</v>
+      </c>
+      <c r="F141" s="11">
+        <v>11575984</v>
+      </c>
+      <c r="G141" s="11">
+        <v>18522246</v>
+      </c>
+      <c r="H141" s="11">
+        <v>26899663</v>
+      </c>
+      <c r="I141" s="11">
+        <v>29172175</v>
+      </c>
+      <c r="J141" s="11">
+        <v>43658630</v>
+      </c>
+      <c r="K141" s="11">
+        <v>42798498</v>
+      </c>
+      <c r="L141" s="11">
+        <v>58788076</v>
+      </c>
+      <c r="M141" s="11">
+        <v>40156187</v>
+      </c>
+      <c r="N141" s="11">
+        <v>40235822</v>
+      </c>
+    </row>
+    <row r="142" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B142" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C142" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="D142" s="9"/>
+      <c r="E142" s="9">
+        <v>7841668</v>
+      </c>
+      <c r="F142" s="9">
+        <v>9503772</v>
+      </c>
+      <c r="G142" s="9">
+        <v>10828946</v>
+      </c>
+      <c r="H142" s="9">
+        <v>17483615</v>
+      </c>
+      <c r="I142" s="9">
+        <v>26928859</v>
+      </c>
+      <c r="J142" s="9">
+        <v>22810581</v>
+      </c>
+      <c r="K142" s="9">
+        <v>26755307</v>
+      </c>
+      <c r="L142" s="9">
+        <v>21912719</v>
+      </c>
+      <c r="M142" s="9">
+        <v>21912718</v>
+      </c>
+      <c r="N142" s="9">
+        <v>26284788</v>
+      </c>
+    </row>
+    <row r="143" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B143" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C143" s="13"/>
+      <c r="D143" s="13"/>
+      <c r="E143" s="13">
+        <v>46819201</v>
+      </c>
+      <c r="F143" s="13">
+        <v>56545718</v>
+      </c>
+      <c r="G143" s="13">
+        <v>68776107</v>
+      </c>
+      <c r="H143" s="13">
+        <v>89523690</v>
+      </c>
+      <c r="I143" s="13">
+        <v>101277243</v>
+      </c>
+      <c r="J143" s="13">
+        <v>126466358</v>
+      </c>
+      <c r="K143" s="13">
+        <v>137538554</v>
+      </c>
+      <c r="L143" s="13">
+        <v>176647957</v>
+      </c>
+      <c r="M143" s="13">
+        <v>192955701</v>
+      </c>
+      <c r="N143" s="13">
+        <v>220409637</v>
+      </c>
+    </row>
+    <row r="144" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B144" s="1"/>
+      <c r="C144" s="1"/>
+      <c r="D144" s="1"/>
+      <c r="E144" s="1"/>
+      <c r="F144" s="1"/>
+      <c r="G144" s="1"/>
+      <c r="H144" s="1"/>
+      <c r="I144" s="1"/>
+      <c r="J144" s="1"/>
+      <c r="K144" s="1"/>
+      <c r="L144" s="1"/>
+      <c r="M144" s="1"/>
+      <c r="N144" s="1"/>
+    </row>
+    <row r="145" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B145" s="1"/>
+      <c r="C145" s="1"/>
+      <c r="D145" s="1"/>
+      <c r="E145" s="1"/>
+      <c r="F145" s="1"/>
+      <c r="G145" s="1"/>
+      <c r="H145" s="1"/>
+      <c r="I145" s="1"/>
+      <c r="J145" s="1"/>
+      <c r="K145" s="1"/>
+      <c r="L145" s="1"/>
+      <c r="M145" s="1"/>
+      <c r="N145" s="1"/>
+    </row>
+    <row r="146" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B146" s="1"/>
+      <c r="C146" s="1"/>
+      <c r="D146" s="1"/>
+      <c r="E146" s="1"/>
+      <c r="F146" s="1"/>
+      <c r="G146" s="1"/>
+      <c r="H146" s="1"/>
+      <c r="I146" s="1"/>
+      <c r="J146" s="1"/>
+      <c r="K146" s="1"/>
+      <c r="L146" s="1"/>
+      <c r="M146" s="1"/>
+      <c r="N146" s="1"/>
+    </row>
+    <row r="147" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B147" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C147" s="6"/>
+      <c r="D147" s="6"/>
+      <c r="E147" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F147" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G147" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H147" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="I147" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="J147" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K147" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L147" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M147" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N147" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="148" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B148" s="1"/>
+      <c r="C148" s="1"/>
+      <c r="D148" s="1"/>
+      <c r="E148" s="1"/>
+      <c r="F148" s="1"/>
+      <c r="G148" s="1"/>
+      <c r="H148" s="1"/>
+      <c r="I148" s="1"/>
+      <c r="J148" s="1"/>
+      <c r="K148" s="1"/>
+      <c r="L148" s="1"/>
+      <c r="M148" s="1"/>
+      <c r="N148" s="1"/>
+    </row>
+    <row r="149" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B149" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C149" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="D149" s="9"/>
+      <c r="E149" s="9">
+        <v>24247830986</v>
+      </c>
+      <c r="F149" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="G149" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="H149" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="I149" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="J149" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K149" s="9">
+        <v>63254184466</v>
+      </c>
+      <c r="L149" s="9">
+        <v>75539474359</v>
+      </c>
+      <c r="M149" s="9">
+        <v>84209000000</v>
+      </c>
+      <c r="N149" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="150" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B150" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C150" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="D150" s="11"/>
+      <c r="E150" s="11">
+        <v>156526482143</v>
+      </c>
+      <c r="F150" s="11">
+        <v>170821321429</v>
+      </c>
+      <c r="G150" s="11">
+        <v>182835596154</v>
+      </c>
+      <c r="H150" s="11">
+        <v>210618264706</v>
+      </c>
+      <c r="I150" s="11">
+        <v>287343193548</v>
+      </c>
+      <c r="J150" s="11">
+        <v>393876975610</v>
+      </c>
+      <c r="K150" s="11">
+        <v>430932254545</v>
+      </c>
+      <c r="L150" s="11">
+        <v>425858739130</v>
+      </c>
+      <c r="M150" s="11">
+        <v>481657166667</v>
+      </c>
+      <c r="N150" s="11">
+        <v>557325707692</v>
+      </c>
+    </row>
+    <row r="151" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B151" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C151" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="D151" s="9"/>
+      <c r="E151" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="F151" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="G151" s="9">
+        <v>37854148936</v>
+      </c>
+      <c r="H151" s="9">
+        <v>39872045977</v>
+      </c>
+      <c r="I151" s="9">
+        <v>47068077778</v>
+      </c>
+      <c r="J151" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K151" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="L151" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="M151" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="N151" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="152" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B152" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C152" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="D152" s="11"/>
+      <c r="E152" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="F152" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="G152" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="H152" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="I152" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="J152" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="K152" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="L152" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="M152" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="N152" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="153" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B153" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C153" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="D153" s="9"/>
+      <c r="E153" s="9">
+        <v>6636924011</v>
+      </c>
+      <c r="F153" s="9">
+        <v>7268336743</v>
+      </c>
+      <c r="G153" s="9">
+        <v>8678892677</v>
+      </c>
+      <c r="H153" s="9">
+        <v>10428770349</v>
+      </c>
+      <c r="I153" s="9">
+        <v>12182670171</v>
+      </c>
+      <c r="J153" s="9">
+        <v>14869502818</v>
+      </c>
+      <c r="K153" s="9">
+        <v>17905262177</v>
+      </c>
+      <c r="L153" s="9">
+        <v>21168703581</v>
+      </c>
+      <c r="M153" s="9">
+        <v>23192683443</v>
+      </c>
+      <c r="N153" s="9">
+        <v>28709062944</v>
+      </c>
+    </row>
+    <row r="154" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B154" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="C154" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="D154" s="11"/>
+      <c r="E154" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="F154" s="11">
+        <v>25920285714</v>
+      </c>
+      <c r="G154" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="H154" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="I154" s="11">
+        <v>47436600000</v>
+      </c>
+      <c r="J154" s="11">
+        <v>70660500000</v>
+      </c>
+      <c r="K154" s="11">
+        <v>4241000000</v>
+      </c>
+      <c r="L154" s="11">
+        <v>78601200000</v>
+      </c>
+      <c r="M154" s="11">
+        <v>90335960396</v>
+      </c>
+      <c r="N154" s="11">
+        <v>137851400000</v>
+      </c>
+    </row>
+    <row r="155" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B155" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C155" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="D155" s="9"/>
+      <c r="E155" s="9">
+        <v>10929882660</v>
+      </c>
+      <c r="F155" s="9">
+        <v>11633903266</v>
+      </c>
+      <c r="G155" s="9">
+        <v>14362263027</v>
+      </c>
+      <c r="H155" s="9">
+        <v>17878615830</v>
+      </c>
+      <c r="I155" s="9">
+        <v>21416929140</v>
+      </c>
+      <c r="J155" s="9">
+        <v>27783023810</v>
+      </c>
+      <c r="K155" s="9">
+        <v>31095890313</v>
+      </c>
+      <c r="L155" s="9">
+        <v>33967061905</v>
+      </c>
+      <c r="M155" s="9">
+        <v>36066304294</v>
+      </c>
+      <c r="N155" s="9">
+        <v>41699051921</v>
+      </c>
+    </row>
+    <row r="156" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B156" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="C156" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="D156" s="11"/>
+      <c r="E156" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="F156" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="G156" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="H156" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="I156" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="J156" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="K156" s="11">
+        <v>22810581000000</v>
+      </c>
+      <c r="L156" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="M156" s="11">
+        <v>21912718000000</v>
+      </c>
+      <c r="N156" s="11">
+        <v>21912718000000</v>
+      </c>
+    </row>
+    <row r="157" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B157" s="1"/>
+      <c r="C157" s="1"/>
+      <c r="D157" s="1"/>
+      <c r="E157" s="1"/>
+      <c r="F157" s="1"/>
+      <c r="G157" s="1"/>
+      <c r="H157" s="1"/>
+      <c r="I157" s="1"/>
+      <c r="J157" s="1"/>
+      <c r="K157" s="1"/>
+      <c r="L157" s="1"/>
+      <c r="M157" s="1"/>
+      <c r="N157" s="1"/>
+    </row>
+    <row r="158" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B158" s="1"/>
+      <c r="C158" s="1"/>
+      <c r="D158" s="1"/>
+      <c r="E158" s="1"/>
+      <c r="F158" s="1"/>
+      <c r="G158" s="1"/>
+      <c r="H158" s="1"/>
+      <c r="I158" s="1"/>
+      <c r="J158" s="1"/>
+      <c r="K158" s="1"/>
+      <c r="L158" s="1"/>
+      <c r="M158" s="1"/>
+      <c r="N158" s="1"/>
+    </row>
+    <row r="159" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B159" s="1"/>
+      <c r="C159" s="1"/>
+      <c r="D159" s="1"/>
+      <c r="E159" s="1"/>
+      <c r="F159" s="1"/>
+      <c r="G159" s="1"/>
+      <c r="H159" s="1"/>
+      <c r="I159" s="1"/>
+      <c r="J159" s="1"/>
+      <c r="K159" s="1"/>
+      <c r="L159" s="1"/>
+      <c r="M159" s="1"/>
+      <c r="N159" s="1"/>
+    </row>
+    <row r="160" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B160" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C160" s="6"/>
+      <c r="D160" s="6"/>
+      <c r="E160" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F160" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G160" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H160" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="I160" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="J160" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K160" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L160" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M160" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N160" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="161" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B161" s="1"/>
+      <c r="C161" s="1"/>
+      <c r="D161" s="1"/>
+      <c r="E161" s="1"/>
+      <c r="F161" s="1"/>
+      <c r="G161" s="1"/>
+      <c r="H161" s="1"/>
+      <c r="I161" s="1"/>
+      <c r="J161" s="1"/>
+      <c r="K161" s="1"/>
+      <c r="L161" s="1"/>
+      <c r="M161" s="1"/>
+      <c r="N161" s="1"/>
+    </row>
+    <row r="162" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B162" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C162" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="D162" s="9"/>
+      <c r="E162" s="9">
+        <v>44151934783</v>
+      </c>
+      <c r="F162" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="G162" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="H162" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="I162" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="J162" s="9">
+        <v>103180923077</v>
+      </c>
+      <c r="K162" s="9">
+        <v>122380225806</v>
+      </c>
+      <c r="L162" s="9">
+        <v>120371509317</v>
+      </c>
+      <c r="M162" s="9">
+        <v>120497022727</v>
+      </c>
+      <c r="N162" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="163" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B163" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C163" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="D163" s="11"/>
+      <c r="E163" s="11">
+        <v>234147666667</v>
+      </c>
+      <c r="F163" s="11">
+        <v>269174538462</v>
+      </c>
+      <c r="G163" s="11">
+        <v>740021750000</v>
+      </c>
+      <c r="H163" s="11">
+        <v>503040357143</v>
+      </c>
+      <c r="I163" s="11">
+        <v>775267900000</v>
+      </c>
+      <c r="J163" s="11">
+        <v>-60879423077</v>
+      </c>
+      <c r="K163" s="11">
+        <v>475259645161</v>
+      </c>
+      <c r="L163" s="11">
+        <v>783078285714</v>
+      </c>
+      <c r="M163" s="11">
+        <v>762238888889</v>
+      </c>
+      <c r="N163" s="11">
+        <v>801170400000</v>
+      </c>
+    </row>
+    <row r="164" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B164" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C164" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="D164" s="9"/>
+      <c r="E164" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="F164" s="9">
+        <v>53400554455</v>
+      </c>
+      <c r="G164" s="9">
+        <v>77934066667</v>
+      </c>
+      <c r="H164" s="9">
+        <v>93987610526</v>
+      </c>
+      <c r="I164" s="9">
+        <v>98911560000</v>
+      </c>
+      <c r="J164" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K164" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="L164" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="M164" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="N164" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="165" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B165" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C165" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="D165" s="11"/>
+      <c r="E165" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="F165" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="G165" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="H165" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="I165" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="J165" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="K165" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="L165" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="M165" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="N165" s="11">
+        <v>125727535714</v>
+      </c>
+    </row>
+    <row r="166" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B166" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C166" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="D166" s="9"/>
+      <c r="E166" s="9">
+        <v>8113856520</v>
+      </c>
+      <c r="F166" s="9">
+        <v>11761493683</v>
+      </c>
+      <c r="G166" s="9">
+        <v>17016411614</v>
+      </c>
+      <c r="H166" s="9">
+        <v>22015776267</v>
+      </c>
+      <c r="I166" s="9">
+        <v>23884032196</v>
+      </c>
+      <c r="J166" s="9">
+        <v>29554080858</v>
+      </c>
+      <c r="K166" s="9">
+        <v>28533880753</v>
+      </c>
+      <c r="L166" s="9">
+        <v>26139090826</v>
+      </c>
+      <c r="M166" s="9">
+        <v>33468432697</v>
+      </c>
+      <c r="N166" s="9">
+        <v>22737582591</v>
+      </c>
+    </row>
+    <row r="167" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B167" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="C167" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="D167" s="11"/>
+      <c r="E167" s="11">
+        <v>25663662679</v>
+      </c>
+      <c r="F167" s="11">
+        <v>37340084058</v>
+      </c>
+      <c r="G167" s="11">
+        <v>18466939014</v>
+      </c>
+      <c r="H167" s="11">
+        <v>98376326733</v>
+      </c>
+      <c r="I167" s="11">
+        <v>72419135638</v>
+      </c>
+      <c r="J167" s="11">
+        <v>80824191176</v>
+      </c>
+      <c r="K167" s="11">
+        <v>86902814617</v>
+      </c>
+      <c r="L167" s="11">
+        <v>101027711924</v>
+      </c>
+      <c r="M167" s="11">
+        <v>102089449838</v>
+      </c>
+      <c r="N167" s="11">
+        <v>97225055130</v>
+      </c>
+    </row>
+    <row r="168" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B168" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C168" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="D168" s="9"/>
+      <c r="E168" s="9">
+        <v>12637927478</v>
+      </c>
+      <c r="F168" s="9">
+        <v>20627473913</v>
+      </c>
+      <c r="G168" s="9">
+        <v>24764067526</v>
+      </c>
+      <c r="H168" s="9">
+        <v>39522426654</v>
+      </c>
+      <c r="I168" s="9">
+        <v>36472552610</v>
+      </c>
+      <c r="J168" s="9">
+        <v>40230694158</v>
+      </c>
+      <c r="K168" s="9">
+        <v>43039614051</v>
+      </c>
+      <c r="L168" s="9">
+        <v>42140905022</v>
+      </c>
+      <c r="M168" s="9">
+        <v>42444992108</v>
+      </c>
+      <c r="N168" s="9">
+        <v>40376061874</v>
+      </c>
+    </row>
+    <row r="169" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B169" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="C169" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="D169" s="11"/>
+      <c r="E169" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="F169" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="G169" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="H169" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="I169" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="J169" s="11">
+        <v>-12376246000000</v>
+      </c>
+      <c r="K169" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="L169" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="M169" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="N169" s="11">
+        <v>17210203000000</v>
+      </c>
+    </row>
+    <row r="170" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B170" s="1"/>
+      <c r="C170" s="1"/>
+      <c r="D170" s="1"/>
+      <c r="E170" s="1"/>
+      <c r="F170" s="1"/>
+      <c r="G170" s="1"/>
+      <c r="H170" s="1"/>
+      <c r="I170" s="1"/>
+      <c r="J170" s="1"/>
+      <c r="K170" s="1"/>
+      <c r="L170" s="1"/>
+      <c r="M170" s="1"/>
+      <c r="N170" s="1"/>
+    </row>
+    <row r="171" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B171" s="1"/>
+      <c r="C171" s="1"/>
+      <c r="D171" s="1"/>
+      <c r="E171" s="1"/>
+      <c r="F171" s="1"/>
+      <c r="G171" s="1"/>
+      <c r="H171" s="1"/>
+      <c r="I171" s="1"/>
+      <c r="J171" s="1"/>
+      <c r="K171" s="1"/>
+      <c r="L171" s="1"/>
+      <c r="M171" s="1"/>
+      <c r="N171" s="1"/>
+    </row>
+    <row r="172" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B172" s="1"/>
+      <c r="C172" s="1"/>
+      <c r="D172" s="1"/>
+      <c r="E172" s="1"/>
+      <c r="F172" s="1"/>
+      <c r="G172" s="1"/>
+      <c r="H172" s="1"/>
+      <c r="I172" s="1"/>
+      <c r="J172" s="1"/>
+      <c r="K172" s="1"/>
+      <c r="L172" s="1"/>
+      <c r="M172" s="1"/>
+      <c r="N172" s="1"/>
+    </row>
+    <row r="173" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B173" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="C173" s="6"/>
+      <c r="D173" s="6"/>
+      <c r="E173" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F173" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G173" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H173" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="I173" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="J173" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K173" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L173" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M173" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N173" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="174" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B174" s="1"/>
+      <c r="C174" s="1"/>
+      <c r="D174" s="1"/>
+      <c r="E174" s="1"/>
+      <c r="F174" s="1"/>
+      <c r="G174" s="1"/>
+      <c r="H174" s="1"/>
+      <c r="I174" s="1"/>
+      <c r="J174" s="1"/>
+      <c r="K174" s="1"/>
+      <c r="L174" s="1"/>
+      <c r="M174" s="1"/>
+      <c r="N174" s="1"/>
+    </row>
+    <row r="175" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B175" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C175" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="D175" s="9"/>
+      <c r="E175" s="9">
+        <v>38303305556</v>
+      </c>
+      <c r="F175" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="G175" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="H175" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="I175" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="J175" s="9">
+        <v>91159102564</v>
+      </c>
+      <c r="K175" s="9">
+        <v>95472976744</v>
+      </c>
+      <c r="L175" s="9">
+        <v>114302222222</v>
+      </c>
+      <c r="M175" s="9">
+        <v>111116185185</v>
+      </c>
+      <c r="N175" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="176" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B176" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C176" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="D176" s="11"/>
+      <c r="E176" s="11">
+        <v>189674833333</v>
+      </c>
+      <c r="F176" s="11">
+        <v>209309882353</v>
+      </c>
+      <c r="G176" s="11">
+        <v>252691285714</v>
+      </c>
+      <c r="H176" s="11">
+        <v>311526294118</v>
+      </c>
+      <c r="I176" s="11">
+        <v>800836000000</v>
+      </c>
+      <c r="J176" s="11">
+        <v>-761265250000</v>
+      </c>
+      <c r="K176" s="11">
+        <v>532357058824</v>
+      </c>
+      <c r="L176" s="11">
+        <v>503410352941</v>
+      </c>
+      <c r="M176" s="11">
+        <v>488605368421</v>
+      </c>
+      <c r="N176" s="11">
+        <v>558203800000</v>
+      </c>
+    </row>
+    <row r="177" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B177" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C177" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="D177" s="9"/>
+      <c r="E177" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="F177" s="9">
+        <v>45599512821</v>
+      </c>
+      <c r="G177" s="9">
+        <v>69162596154</v>
+      </c>
+      <c r="H177" s="9">
+        <v>88712652174</v>
+      </c>
+      <c r="I177" s="9">
+        <v>88265530612</v>
+      </c>
+      <c r="J177" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K177" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="L177" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="M177" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="N177" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="178" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B178" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C178" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="D178" s="11"/>
+      <c r="E178" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="F178" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="G178" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="H178" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="I178" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="J178" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="K178" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="L178" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="M178" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="N178" s="11">
+        <v>106001318182</v>
+      </c>
+    </row>
+    <row r="179" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B179" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C179" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="D179" s="9"/>
+      <c r="E179" s="9">
+        <v>7443527563</v>
+      </c>
+      <c r="F179" s="9">
+        <v>10402527865</v>
+      </c>
+      <c r="G179" s="9">
+        <v>14871978959</v>
+      </c>
+      <c r="H179" s="9">
+        <v>18333188124</v>
+      </c>
+      <c r="I179" s="9">
+        <v>17682410063</v>
+      </c>
+      <c r="J179" s="9">
+        <v>25994494764</v>
+      </c>
+      <c r="K179" s="9">
+        <v>24400019509</v>
+      </c>
+      <c r="L179" s="9">
+        <v>25340221093</v>
+      </c>
+      <c r="M179" s="9">
+        <v>28010240741</v>
+      </c>
+      <c r="N179" s="9">
+        <v>26719219585</v>
+      </c>
+    </row>
+    <row r="180" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B180" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="C180" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="D180" s="11"/>
+      <c r="E180" s="11">
+        <v>25662064103</v>
+      </c>
+      <c r="F180" s="11">
+        <v>36458397857</v>
+      </c>
+      <c r="G180" s="11">
+        <v>18418306276</v>
+      </c>
+      <c r="H180" s="11">
+        <v>101846333333</v>
+      </c>
+      <c r="I180" s="11">
+        <v>71473197403</v>
+      </c>
+      <c r="J180" s="11">
+        <v>80869411594</v>
+      </c>
+      <c r="K180" s="11">
+        <v>86903454710</v>
+      </c>
+      <c r="L180" s="11">
+        <v>96787763403</v>
+      </c>
+      <c r="M180" s="11">
+        <v>90156462766</v>
+      </c>
+      <c r="N180" s="11">
+        <v>107373051546</v>
+      </c>
+    </row>
+    <row r="181" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B181" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C181" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="D181" s="9"/>
+      <c r="E181" s="9">
+        <v>12216419967</v>
+      </c>
+      <c r="F181" s="9">
+        <v>18777366667</v>
+      </c>
+      <c r="G181" s="9">
+        <v>23853808571</v>
+      </c>
+      <c r="H181" s="9">
+        <v>39908230863</v>
+      </c>
+      <c r="I181" s="9">
+        <v>29728336320</v>
+      </c>
+      <c r="J181" s="9">
+        <v>39759038536</v>
+      </c>
+      <c r="K181" s="9">
+        <v>38766383374</v>
+      </c>
+      <c r="L181" s="9">
+        <v>41412987179</v>
+      </c>
+      <c r="M181" s="9">
+        <v>36216600386</v>
+      </c>
+      <c r="N181" s="9">
+        <v>43087214981</v>
+      </c>
+    </row>
+    <row r="182" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B182" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="C182" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="D182" s="11"/>
+      <c r="E182" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="F182" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="G182" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="H182" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="I182" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="J182" s="11">
+        <v>-8257968000000</v>
+      </c>
+      <c r="K182" s="11">
+        <v>14305627000000</v>
+      </c>
+      <c r="L182" s="11">
+        <v>7252969000000</v>
+      </c>
+      <c r="M182" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="N182" s="11">
+        <v>12838133000000</v>
+      </c>
+    </row>
+    <row r="183" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B183" s="1"/>
+      <c r="C183" s="1"/>
+      <c r="D183" s="1"/>
+      <c r="E183" s="1"/>
+      <c r="F183" s="1"/>
+      <c r="G183" s="1"/>
+      <c r="H183" s="1"/>
+      <c r="I183" s="1"/>
+      <c r="J183" s="1"/>
+      <c r="K183" s="1"/>
+      <c r="L183" s="1"/>
+      <c r="M183" s="1"/>
+      <c r="N183" s="1"/>
+    </row>
+    <row r="184" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B184" s="1"/>
+      <c r="C184" s="1"/>
+      <c r="D184" s="1"/>
+      <c r="E184" s="1"/>
+      <c r="F184" s="1"/>
+      <c r="G184" s="1"/>
+      <c r="H184" s="1"/>
+      <c r="I184" s="1"/>
+      <c r="J184" s="1"/>
+      <c r="K184" s="1"/>
+      <c r="L184" s="1"/>
+      <c r="M184" s="1"/>
+      <c r="N184" s="1"/>
+    </row>
+    <row r="185" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B185" s="1"/>
+      <c r="C185" s="1"/>
+      <c r="D185" s="1"/>
+      <c r="E185" s="1"/>
+      <c r="F185" s="1"/>
+      <c r="G185" s="1"/>
+      <c r="H185" s="1"/>
+      <c r="I185" s="1"/>
+      <c r="J185" s="1"/>
+      <c r="K185" s="1"/>
+      <c r="L185" s="1"/>
+      <c r="M185" s="1"/>
+      <c r="N185" s="1"/>
+    </row>
+    <row r="186" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B186" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="C186" s="6"/>
+      <c r="D186" s="6"/>
+      <c r="E186" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F186" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G186" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H186" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="I186" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="J186" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K186" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L186" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M186" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N186" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="187" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B187" s="1"/>
+      <c r="C187" s="1"/>
+      <c r="D187" s="1"/>
+      <c r="E187" s="1"/>
+      <c r="F187" s="1"/>
+      <c r="G187" s="1"/>
+      <c r="H187" s="1"/>
+      <c r="I187" s="1"/>
+      <c r="J187" s="1"/>
+      <c r="K187" s="1"/>
+      <c r="L187" s="1"/>
+      <c r="M187" s="1"/>
+      <c r="N187" s="1"/>
+    </row>
+    <row r="188" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B188" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C188" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D188" s="9"/>
+      <c r="E188" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="F188" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="G188" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="H188" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="I188" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="J188" s="9">
+        <v>63254184466</v>
+      </c>
+      <c r="K188" s="9">
+        <v>75539474359</v>
+      </c>
+      <c r="L188" s="9">
+        <v>84209000000</v>
+      </c>
+      <c r="M188" s="9">
+        <v>106146285714</v>
+      </c>
+      <c r="N188" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="189" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B189" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C189" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D189" s="11"/>
+      <c r="E189" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="F189" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="G189" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="H189" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="I189" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="J189" s="11">
+        <v>430932254545</v>
+      </c>
+      <c r="K189" s="11">
+        <v>425858739130</v>
+      </c>
+      <c r="L189" s="11">
+        <v>481657166667</v>
+      </c>
+      <c r="M189" s="11">
+        <v>557325707692</v>
+      </c>
+      <c r="N189" s="11">
+        <v>613394923077</v>
+      </c>
+    </row>
+    <row r="190" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B190" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C190" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D190" s="9"/>
+      <c r="E190" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="F190" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="G190" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="H190" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="I190" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="J190" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K190" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="L190" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="M190" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="N190" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="191" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B191" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C191" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D191" s="11"/>
+      <c r="E191" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="F191" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="G191" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="H191" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="I191" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="J191" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="K191" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="L191" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="M191" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="N191" s="11">
+        <v>116778535294</v>
+      </c>
+    </row>
+    <row r="192" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B192" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C192" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D192" s="9"/>
+      <c r="E192" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="F192" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="G192" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="H192" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="I192" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="J192" s="9">
+        <v>17905262177</v>
+      </c>
+      <c r="K192" s="9">
+        <v>21168703581</v>
+      </c>
+      <c r="L192" s="9">
+        <v>23192683443</v>
+      </c>
+      <c r="M192" s="9">
+        <v>28709062944</v>
+      </c>
+      <c r="N192" s="9">
+        <v>24776464458</v>
+      </c>
+    </row>
+    <row r="193" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B193" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="C193" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D193" s="11"/>
+      <c r="E193" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="F193" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="G193" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="H193" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="I193" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="J193" s="11">
+        <v>4241000000</v>
+      </c>
+      <c r="K193" s="11">
+        <v>78601200000</v>
+      </c>
+      <c r="L193" s="11">
+        <v>90335960396</v>
+      </c>
+      <c r="M193" s="11">
+        <v>137851400000</v>
+      </c>
+      <c r="N193" s="11">
+        <v>98954920354</v>
+      </c>
+    </row>
+    <row r="194" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B194" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C194" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D194" s="9"/>
+      <c r="E194" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="F194" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="G194" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="H194" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="I194" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="J194" s="9">
+        <v>31095890313</v>
+      </c>
+      <c r="K194" s="9">
+        <v>33967061905</v>
+      </c>
+      <c r="L194" s="9">
+        <v>36066304294</v>
+      </c>
+      <c r="M194" s="9">
+        <v>41699051921</v>
+      </c>
+      <c r="N194" s="9">
+        <v>38912787234</v>
+      </c>
+    </row>
+    <row r="195" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B195" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="C195" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D195" s="11"/>
+      <c r="E195" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="F195" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="G195" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="H195" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="I195" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="J195" s="11">
+        <v>22810581000000</v>
+      </c>
+      <c r="K195" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="L195" s="11">
+        <v>21912719000000</v>
+      </c>
+      <c r="M195" s="11">
+        <v>21912718000000</v>
+      </c>
+      <c r="N195" s="11">
+        <v>26284788000000</v>
+      </c>
+    </row>
+    <row r="196" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B196" s="1"/>
+      <c r="C196" s="1"/>
+      <c r="D196" s="1"/>
+      <c r="E196" s="1"/>
+      <c r="F196" s="1"/>
+      <c r="G196" s="1"/>
+      <c r="H196" s="1"/>
+      <c r="I196" s="1"/>
+      <c r="J196" s="1"/>
+      <c r="K196" s="1"/>
+      <c r="L196" s="1"/>
+      <c r="M196" s="1"/>
+      <c r="N196" s="1"/>
+    </row>
+    <row r="197" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B197" s="1"/>
+      <c r="C197" s="1"/>
+      <c r="D197" s="1"/>
+      <c r="E197" s="1"/>
+      <c r="F197" s="1"/>
+      <c r="G197" s="1"/>
+      <c r="H197" s="1"/>
+      <c r="I197" s="1"/>
+      <c r="J197" s="1"/>
+      <c r="K197" s="1"/>
+      <c r="L197" s="1"/>
+      <c r="M197" s="1"/>
+      <c r="N197" s="1"/>
+    </row>
+    <row r="198" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B198" s="1"/>
+      <c r="C198" s="1"/>
+      <c r="D198" s="1"/>
+      <c r="E198" s="1"/>
+      <c r="F198" s="1"/>
+      <c r="G198" s="1"/>
+      <c r="H198" s="1"/>
+      <c r="I198" s="1"/>
+      <c r="J198" s="1"/>
+      <c r="K198" s="1"/>
+      <c r="L198" s="1"/>
+      <c r="M198" s="1"/>
+      <c r="N198" s="1"/>
+    </row>
+    <row r="199" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B199" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C199" s="6"/>
+      <c r="D199" s="6"/>
+      <c r="E199" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F199" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G199" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H199" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="I199" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="J199" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K199" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L199" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M199" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N199" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="200" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B200" s="1"/>
+      <c r="C200" s="1"/>
+      <c r="D200" s="1"/>
+      <c r="E200" s="1"/>
+      <c r="F200" s="1"/>
+      <c r="G200" s="1"/>
+      <c r="H200" s="1"/>
+      <c r="I200" s="1"/>
+      <c r="J200" s="1"/>
+      <c r="K200" s="1"/>
+      <c r="L200" s="1"/>
+      <c r="M200" s="1"/>
+      <c r="N200" s="1"/>
+    </row>
+    <row r="201" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B201" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="C201" s="9"/>
+      <c r="D201" s="9"/>
+      <c r="E201" s="9">
+        <v>0</v>
+      </c>
+      <c r="F201" s="9">
+        <v>0</v>
+      </c>
+      <c r="G201" s="9">
+        <v>0</v>
+      </c>
+      <c r="H201" s="9">
+        <v>0</v>
+      </c>
+      <c r="I201" s="9">
+        <v>0</v>
+      </c>
+      <c r="J201" s="9">
+        <v>0</v>
+      </c>
+      <c r="K201" s="9">
+        <v>0</v>
+      </c>
+      <c r="L201" s="9">
+        <v>0</v>
+      </c>
+      <c r="M201" s="9">
+        <v>0</v>
+      </c>
+      <c r="N201" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B202" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="C202" s="11"/>
+      <c r="D202" s="11"/>
+      <c r="E202" s="11">
+        <v>0</v>
+      </c>
+      <c r="F202" s="11">
+        <v>0</v>
+      </c>
+      <c r="G202" s="11">
+        <v>0</v>
+      </c>
+      <c r="H202" s="11">
+        <v>0</v>
+      </c>
+      <c r="I202" s="11">
+        <v>0</v>
+      </c>
+      <c r="J202" s="11">
+        <v>0</v>
+      </c>
+      <c r="K202" s="11">
+        <v>0</v>
+      </c>
+      <c r="L202" s="11">
+        <v>0</v>
+      </c>
+      <c r="M202" s="11">
+        <v>0</v>
+      </c>
+      <c r="N202" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B203" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="C203" s="9"/>
+      <c r="D203" s="9"/>
+      <c r="E203" s="9">
+        <v>0</v>
+      </c>
+      <c r="F203" s="9">
+        <v>0</v>
+      </c>
+      <c r="G203" s="9">
+        <v>0</v>
+      </c>
+      <c r="H203" s="9">
+        <v>0</v>
+      </c>
+      <c r="I203" s="9">
+        <v>0</v>
+      </c>
+      <c r="J203" s="9">
+        <v>0</v>
+      </c>
+      <c r="K203" s="9">
+        <v>0</v>
+      </c>
+      <c r="L203" s="9">
+        <v>0</v>
+      </c>
+      <c r="M203" s="9">
+        <v>0</v>
+      </c>
+      <c r="N203" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B204" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="C204" s="11"/>
+      <c r="D204" s="11"/>
+      <c r="E204" s="11">
+        <v>0</v>
+      </c>
+      <c r="F204" s="11">
+        <v>0</v>
+      </c>
+      <c r="G204" s="11">
+        <v>0</v>
+      </c>
+      <c r="H204" s="11">
+        <v>0</v>
+      </c>
+      <c r="I204" s="11">
+        <v>0</v>
+      </c>
+      <c r="J204" s="11">
+        <v>0</v>
+      </c>
+      <c r="K204" s="11">
+        <v>0</v>
+      </c>
+      <c r="L204" s="11">
+        <v>0</v>
+      </c>
+      <c r="M204" s="11">
+        <v>0</v>
+      </c>
+      <c r="N204" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B205" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="C205" s="9"/>
+      <c r="D205" s="9"/>
+      <c r="E205" s="9">
+        <v>11915547</v>
+      </c>
+      <c r="F205" s="9">
+        <v>16478366</v>
+      </c>
+      <c r="G205" s="9">
+        <v>2240946</v>
+      </c>
+      <c r="H205" s="9">
+        <v>28040175</v>
+      </c>
+      <c r="I205" s="9">
+        <v>16181402</v>
+      </c>
+      <c r="J205" s="9">
+        <v>13605935</v>
+      </c>
+      <c r="K205" s="9">
+        <v>16151495</v>
+      </c>
+      <c r="L205" s="9">
+        <v>17795395</v>
+      </c>
+      <c r="M205" s="9">
+        <v>9887257</v>
+      </c>
+      <c r="N205" s="9">
+        <v>8769368</v>
+      </c>
+    </row>
+    <row r="206" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B206" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="C206" s="11"/>
+      <c r="D206" s="11"/>
+      <c r="E206" s="11">
+        <v>5123041</v>
+      </c>
+      <c r="F206" s="11">
+        <v>5215432</v>
+      </c>
+      <c r="G206" s="11">
+        <v>4709286</v>
+      </c>
+      <c r="H206" s="11">
+        <v>5800182</v>
+      </c>
+      <c r="I206" s="11">
+        <v>11215223</v>
+      </c>
+      <c r="J206" s="11">
+        <v>11968532</v>
+      </c>
+      <c r="K206" s="11">
+        <v>33756619</v>
+      </c>
+      <c r="L206" s="11">
+        <v>30156058</v>
+      </c>
+      <c r="M206" s="11">
+        <v>34868206</v>
+      </c>
+      <c r="N206" s="11">
+        <v>40248420</v>
+      </c>
+    </row>
+    <row r="207" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B207" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C207" s="9"/>
+      <c r="D207" s="9"/>
+      <c r="E207" s="9">
+        <v>1035000</v>
+      </c>
+      <c r="F207" s="9">
+        <v>1099279</v>
+      </c>
+      <c r="G207" s="9">
+        <v>985251</v>
+      </c>
+      <c r="H207" s="9">
+        <v>1106962</v>
+      </c>
+      <c r="I207" s="9">
+        <v>1017178</v>
+      </c>
+      <c r="J207" s="9">
+        <v>1045477</v>
+      </c>
+      <c r="K207" s="9">
+        <v>1038630</v>
+      </c>
+      <c r="L207" s="9">
+        <v>1134263</v>
+      </c>
+      <c r="M207" s="9">
+        <v>1076697</v>
+      </c>
+      <c r="N207" s="9">
+        <v>1174132</v>
+      </c>
+    </row>
+    <row r="208" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B208" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="C208" s="11"/>
+      <c r="D208" s="11"/>
+      <c r="E208" s="11">
+        <v>5803031</v>
+      </c>
+      <c r="F208" s="11">
+        <v>4921707</v>
+      </c>
+      <c r="G208" s="11">
+        <v>5106358</v>
+      </c>
+      <c r="H208" s="11">
+        <v>7123129</v>
+      </c>
+      <c r="I208" s="11">
+        <v>9520707</v>
+      </c>
+      <c r="J208" s="11">
+        <v>7454912</v>
+      </c>
+      <c r="K208" s="11">
+        <v>7894337</v>
+      </c>
+      <c r="L208" s="11">
+        <v>8614119</v>
+      </c>
+      <c r="M208" s="11">
+        <v>17764989</v>
+      </c>
+      <c r="N208" s="11">
+        <v>11557481</v>
+      </c>
+    </row>
+    <row r="209" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B209" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="C209" s="9"/>
+      <c r="D209" s="9"/>
+      <c r="E209" s="9">
+        <v>0</v>
+      </c>
+      <c r="F209" s="9">
+        <v>0</v>
+      </c>
+      <c r="G209" s="9">
+        <v>0</v>
+      </c>
+      <c r="H209" s="9">
+        <v>0</v>
+      </c>
+      <c r="I209" s="9">
+        <v>0</v>
+      </c>
+      <c r="J209" s="9">
+        <v>0</v>
+      </c>
+      <c r="K209" s="9">
+        <v>0</v>
+      </c>
+      <c r="L209" s="9">
+        <v>0</v>
+      </c>
+      <c r="M209" s="9">
+        <v>0</v>
+      </c>
+      <c r="N209" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B210" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="C210" s="11"/>
+      <c r="D210" s="11"/>
+      <c r="E210" s="11">
+        <v>5553053</v>
+      </c>
+      <c r="F210" s="11">
+        <v>422651</v>
+      </c>
+      <c r="G210" s="11">
+        <v>17651235</v>
+      </c>
+      <c r="H210" s="11">
+        <v>-7061632</v>
+      </c>
+      <c r="I210" s="11">
+        <v>4386100</v>
+      </c>
+      <c r="J210" s="11">
+        <v>7419775</v>
+      </c>
+      <c r="K210" s="11">
+        <v>8104193</v>
+      </c>
+      <c r="L210" s="11">
+        <v>11598040</v>
+      </c>
+      <c r="M210" s="11">
+        <v>21703229</v>
+      </c>
+      <c r="N210" s="11">
+        <v>16122260</v>
+      </c>
+    </row>
+    <row r="211" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B211" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C211" s="15"/>
+      <c r="D211" s="15"/>
+      <c r="E211" s="15">
+        <v>29429672</v>
+      </c>
+      <c r="F211" s="15">
+        <v>28137435</v>
+      </c>
+      <c r="G211" s="15">
+        <v>30693076</v>
+      </c>
+      <c r="H211" s="15">
+        <v>35008816</v>
+      </c>
+      <c r="I211" s="15">
+        <v>42320610</v>
+      </c>
+      <c r="J211" s="15">
+        <v>41494631</v>
+      </c>
+      <c r="K211" s="15">
+        <v>66945274</v>
+      </c>
+      <c r="L211" s="15">
+        <v>69297875</v>
+      </c>
+      <c r="M211" s="15">
+        <v>85300378</v>
+      </c>
+      <c r="N211" s="15">
+        <v>77871661</v>
+      </c>
+    </row>
+    <row r="212" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B212" s="1"/>
+      <c r="C212" s="1"/>
+      <c r="D212" s="1"/>
+      <c r="E212" s="1"/>
+      <c r="F212" s="1"/>
+      <c r="G212" s="1"/>
+      <c r="H212" s="1"/>
+      <c r="I212" s="1"/>
+      <c r="J212" s="1"/>
+      <c r="K212" s="1"/>
+      <c r="L212" s="1"/>
+      <c r="M212" s="1"/>
+      <c r="N212" s="1"/>
+    </row>
+    <row r="213" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B213" s="1"/>
+      <c r="C213" s="1"/>
+      <c r="D213" s="1"/>
+      <c r="E213" s="1"/>
+      <c r="F213" s="1"/>
+      <c r="G213" s="1"/>
+      <c r="H213" s="1"/>
+      <c r="I213" s="1"/>
+      <c r="J213" s="1"/>
+      <c r="K213" s="1"/>
+      <c r="L213" s="1"/>
+      <c r="M213" s="1"/>
+      <c r="N213" s="1"/>
+    </row>
+    <row r="214" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B214" s="1"/>
+      <c r="C214" s="1"/>
+      <c r="D214" s="1"/>
+      <c r="E214" s="1"/>
+      <c r="F214" s="1"/>
+      <c r="G214" s="1"/>
+      <c r="H214" s="1"/>
+      <c r="I214" s="1"/>
+      <c r="J214" s="1"/>
+      <c r="K214" s="1"/>
+      <c r="L214" s="1"/>
+      <c r="M214" s="1"/>
+      <c r="N214" s="1"/>
+    </row>
+    <row r="215" spans="2:14" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B215" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="C115" s="9" t="s">
+      <c r="C215" s="6"/>
+      <c r="D215" s="6"/>
+      <c r="E215" s="6"/>
+      <c r="F215" s="6"/>
+      <c r="G215" s="1"/>
+      <c r="H215" s="1"/>
+      <c r="I215" s="1"/>
+      <c r="J215" s="1"/>
+      <c r="K215" s="1"/>
+      <c r="L215" s="1"/>
+      <c r="M215" s="1"/>
+      <c r="N215" s="1"/>
+    </row>
+    <row r="216" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B216" s="1"/>
+      <c r="C216" s="1"/>
+      <c r="D216" s="1"/>
+      <c r="E216" s="1"/>
+      <c r="F216" s="1"/>
+      <c r="G216" s="1"/>
+      <c r="H216" s="1"/>
+      <c r="I216" s="1"/>
+      <c r="J216" s="1"/>
+      <c r="K216" s="1"/>
+      <c r="L216" s="1"/>
+      <c r="M216" s="1"/>
+      <c r="N216" s="1"/>
+    </row>
+    <row r="217" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B217" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="C217" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="D217" s="9"/>
+      <c r="E217" s="9"/>
+      <c r="F217" s="9"/>
+      <c r="G217" s="1"/>
+      <c r="H217" s="1"/>
+      <c r="I217" s="1"/>
+      <c r="J217" s="1"/>
+      <c r="K217" s="1"/>
+      <c r="L217" s="1"/>
+      <c r="M217" s="1"/>
+      <c r="N217" s="1"/>
+    </row>
+    <row r="218" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B218" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="C218" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="D218" s="11"/>
+      <c r="E218" s="11"/>
+      <c r="F218" s="11"/>
+      <c r="G218" s="1"/>
+      <c r="H218" s="1"/>
+      <c r="I218" s="1"/>
+      <c r="J218" s="1"/>
+      <c r="K218" s="1"/>
+      <c r="L218" s="1"/>
+      <c r="M218" s="1"/>
+      <c r="N218" s="1"/>
+    </row>
+    <row r="219" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B219" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="C219" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="D115" s="9"/>
-      <c r="E115" s="9"/>
-      <c r="F115" s="9"/>
-    </row>
-    <row r="116" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B116" s="10" t="s">
+      <c r="D219" s="9"/>
+      <c r="E219" s="9"/>
+      <c r="F219" s="9"/>
+    </row>
+    <row r="220" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B220" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="C116" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="D116" s="11"/>
-      <c r="E116" s="11"/>
-      <c r="F116" s="11"/>
-    </row>
-    <row r="117" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B117" s="8" t="s">
+      <c r="C220" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="C117" s="9" t="s">
+      <c r="D220" s="11"/>
+      <c r="E220" s="11"/>
+      <c r="F220" s="11"/>
+    </row>
+    <row r="221" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B221" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="D117" s="9"/>
-      <c r="E117" s="9"/>
-      <c r="F117" s="9"/>
+      <c r="C221" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="D221" s="9"/>
+      <c r="E221" s="9"/>
+      <c r="F221" s="9"/>
+    </row>
+    <row r="222" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B222" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="C222" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="D222" s="11"/>
+      <c r="E222" s="11"/>
+      <c r="F222" s="11"/>
+    </row>
+    <row r="223" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B223" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="C223" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="D223" s="9"/>
+      <c r="E223" s="9"/>
+      <c r="F223" s="9"/>
+    </row>
+    <row r="224" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B224" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="C224" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="D224" s="11"/>
+      <c r="E224" s="11"/>
+      <c r="F224" s="11"/>
+    </row>
+    <row r="225" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B225" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="C225" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="D225" s="9"/>
+      <c r="E225" s="9"/>
+      <c r="F225" s="9"/>
+    </row>
+    <row r="226" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B226" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="C226" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="D226" s="11"/>
+      <c r="E226" s="11"/>
+      <c r="F226" s="11"/>
+    </row>
+    <row r="227" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B227" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="C227" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="D227" s="9"/>
+      <c r="E227" s="9"/>
+      <c r="F227" s="9"/>
+    </row>
+    <row r="228" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B228" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="C228" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="D228" s="11"/>
+      <c r="E228" s="11"/>
+      <c r="F228" s="11"/>
+    </row>
+    <row r="229" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B229" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="C229" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="D229" s="9"/>
+      <c r="E229" s="9"/>
+      <c r="F229" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/database/industries/folad/folad/cost/quarterly.xlsx
+++ b/database/industries/folad/folad/cost/quarterly.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\folad\folad\cost\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\folad\folad\cost\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD02CF55-AF80-4CA4-87C0-22DD3C32E70C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9C2A09F-AAAD-4AF1-A868-778EBCA1B53F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3684" yWindow="2748" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="536" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="796" uniqueCount="89">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -34,6 +34,21 @@
     <t>بهای تمام شده</t>
   </si>
   <si>
+    <t>فصل دوم منتهی به 1399/06</t>
+  </si>
+  <si>
+    <t>فصل سوم منتهی به 1399/09</t>
+  </si>
+  <si>
+    <t>فصل چهارم منتهی به 1399/12</t>
+  </si>
+  <si>
+    <t>فصل اول منتهی به 1400/03</t>
+  </si>
+  <si>
+    <t>فصل دوم منتهی به 1400/06</t>
+  </si>
+  <si>
     <t>فصل سوم منتهی به 1400/09</t>
   </si>
   <si>
@@ -82,6 +97,9 @@
     <t>موجودی کالای ساخته شده پایان دوره</t>
   </si>
   <si>
+    <t>-</t>
+  </si>
+  <si>
     <t>بهای تمام شده کالای فروش رفته</t>
   </si>
   <si>
@@ -98,9 +116,6 @@
   </si>
   <si>
     <t>هزار تن</t>
-  </si>
-  <si>
-    <t>-</t>
   </si>
   <si>
     <t>قراضه و چدن</t>
@@ -727,16 +742,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:I229"/>
+  <dimension ref="B1:N229"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="9" width="20" customWidth="1"/>
+    <col min="2" max="14" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -745,8 +760,13 @@
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
-    </row>
-    <row r="2" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+    </row>
+    <row r="2" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -757,8 +777,13 @@
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
-    </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+    </row>
+    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -769,8 +794,13 @@
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+    </row>
+    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -779,8 +809,13 @@
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
-    </row>
-    <row r="5" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+    </row>
+    <row r="5" spans="2:14" ht="42" x14ac:dyDescent="0.65">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -791,8 +826,13 @@
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
-    </row>
-    <row r="6" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+    </row>
+    <row r="6" spans="2:14" ht="42" x14ac:dyDescent="0.65">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -803,8 +843,13 @@
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -813,8 +858,13 @@
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
-    </row>
-    <row r="8" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+    </row>
+    <row r="8" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B8" s="7" t="s">
         <v>3</v>
       </c>
@@ -835,8 +885,23 @@
       <c r="I8" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J8" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K8" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L8" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M8" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N8" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -845,316 +910,531 @@
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B10" s="8" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
       <c r="E10" s="9">
+        <v>62334028</v>
+      </c>
+      <c r="F10" s="9">
+        <v>98078900</v>
+      </c>
+      <c r="G10" s="9">
+        <v>107993634</v>
+      </c>
+      <c r="H10" s="9">
+        <v>143883099</v>
+      </c>
+      <c r="I10" s="9">
+        <v>63716827</v>
+      </c>
+      <c r="J10" s="9">
         <v>166340260</v>
       </c>
-      <c r="F10" s="9">
+      <c r="K10" s="9">
         <v>166391587</v>
       </c>
-      <c r="G10" s="9">
+      <c r="L10" s="9">
         <v>185914875</v>
       </c>
-      <c r="H10" s="9">
+      <c r="M10" s="9">
         <v>170604001</v>
       </c>
-      <c r="I10" s="9">
+      <c r="N10" s="9">
         <v>212819391</v>
       </c>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B11" s="10" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C11" s="11"/>
       <c r="D11" s="11"/>
       <c r="E11" s="11">
+        <v>1524761</v>
+      </c>
+      <c r="F11" s="11">
+        <v>1483046</v>
+      </c>
+      <c r="G11" s="11">
+        <v>2162217</v>
+      </c>
+      <c r="H11" s="11">
+        <v>2741685</v>
+      </c>
+      <c r="I11" s="11">
+        <v>2329362</v>
+      </c>
+      <c r="J11" s="11">
         <v>2330193</v>
       </c>
-      <c r="F11" s="11">
+      <c r="K11" s="11">
         <v>2721425</v>
       </c>
-      <c r="G11" s="11">
+      <c r="L11" s="11">
         <v>4718464</v>
       </c>
-      <c r="H11" s="11">
+      <c r="M11" s="11">
         <v>3567312</v>
       </c>
-      <c r="I11" s="11">
+      <c r="N11" s="11">
         <v>3068508</v>
       </c>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B12" s="8" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
       <c r="E12" s="9">
+        <v>28137435</v>
+      </c>
+      <c r="F12" s="9">
+        <v>30693076</v>
+      </c>
+      <c r="G12" s="9">
+        <v>35008816</v>
+      </c>
+      <c r="H12" s="9">
+        <v>42320610</v>
+      </c>
+      <c r="I12" s="9">
+        <v>41494631</v>
+      </c>
+      <c r="J12" s="9">
         <v>66945274</v>
       </c>
-      <c r="F12" s="9">
+      <c r="K12" s="9">
         <v>69297875</v>
       </c>
-      <c r="G12" s="9">
+      <c r="L12" s="9">
         <v>85300378</v>
       </c>
-      <c r="H12" s="9">
+      <c r="M12" s="9">
         <v>81596728</v>
       </c>
-      <c r="I12" s="9">
+      <c r="N12" s="9">
         <v>88050258</v>
       </c>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B13" s="12" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C13" s="13"/>
       <c r="D13" s="13"/>
       <c r="E13" s="13">
+        <v>91996224</v>
+      </c>
+      <c r="F13" s="13">
+        <v>130255022</v>
+      </c>
+      <c r="G13" s="13">
+        <v>145164667</v>
+      </c>
+      <c r="H13" s="13">
+        <v>188945394</v>
+      </c>
+      <c r="I13" s="13">
+        <v>107540820</v>
+      </c>
+      <c r="J13" s="13">
         <v>235615727</v>
       </c>
-      <c r="F13" s="13">
+      <c r="K13" s="13">
         <v>238410887</v>
       </c>
-      <c r="G13" s="13">
+      <c r="L13" s="13">
         <v>275933717</v>
       </c>
-      <c r="H13" s="13">
+      <c r="M13" s="13">
         <v>255768041</v>
       </c>
-      <c r="I13" s="13">
+      <c r="N13" s="13">
         <v>303938157</v>
       </c>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B14" s="8" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C14" s="9"/>
       <c r="D14" s="9"/>
       <c r="E14" s="9">
+        <v>-22716</v>
+      </c>
+      <c r="F14" s="9">
+        <v>-8808</v>
+      </c>
+      <c r="G14" s="9">
+        <v>-29408</v>
+      </c>
+      <c r="H14" s="9">
+        <v>-22921</v>
+      </c>
+      <c r="I14" s="9">
+        <v>-183940</v>
+      </c>
+      <c r="J14" s="9">
         <v>-59858</v>
       </c>
-      <c r="F14" s="9">
+      <c r="K14" s="9">
         <v>-194064</v>
       </c>
-      <c r="G14" s="9">
+      <c r="L14" s="9">
         <v>-68077</v>
       </c>
-      <c r="H14" s="9">
+      <c r="M14" s="9">
         <v>-68454</v>
       </c>
-      <c r="I14" s="9">
+      <c r="N14" s="9">
         <v>-60967</v>
       </c>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B15" s="12" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C15" s="13"/>
       <c r="D15" s="13"/>
       <c r="E15" s="13">
+        <v>91973508</v>
+      </c>
+      <c r="F15" s="13">
+        <v>130246214</v>
+      </c>
+      <c r="G15" s="13">
+        <v>145135259</v>
+      </c>
+      <c r="H15" s="13">
+        <v>188922473</v>
+      </c>
+      <c r="I15" s="13">
+        <v>107356880</v>
+      </c>
+      <c r="J15" s="13">
         <v>235555869</v>
       </c>
-      <c r="F15" s="13">
+      <c r="K15" s="13">
         <v>238216823</v>
       </c>
-      <c r="G15" s="13">
+      <c r="L15" s="13">
         <v>275865640</v>
       </c>
-      <c r="H15" s="13">
+      <c r="M15" s="13">
         <v>255699587</v>
       </c>
-      <c r="I15" s="13">
+      <c r="N15" s="13">
         <v>303877190</v>
       </c>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B16" s="8" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C16" s="9"/>
       <c r="D16" s="9"/>
       <c r="E16" s="9">
+        <v>-5222580</v>
+      </c>
+      <c r="F16" s="9">
+        <v>-21308280</v>
+      </c>
+      <c r="G16" s="9">
+        <v>-684633</v>
+      </c>
+      <c r="H16" s="9">
+        <v>-18272414</v>
+      </c>
+      <c r="I16" s="9">
+        <v>66665225</v>
+      </c>
+      <c r="J16" s="9">
         <v>-114276014</v>
       </c>
-      <c r="F16" s="9">
+      <c r="K16" s="9">
         <v>11594100</v>
       </c>
-      <c r="G16" s="9">
+      <c r="L16" s="9">
         <v>-21566419</v>
       </c>
-      <c r="H16" s="9">
+      <c r="M16" s="9">
         <v>-52670617</v>
       </c>
-      <c r="I16" s="9">
+      <c r="N16" s="9">
         <v>-54721168</v>
       </c>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B17" s="10" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C17" s="11"/>
       <c r="D17" s="11"/>
       <c r="E17" s="11">
+        <v>0</v>
+      </c>
+      <c r="F17" s="11">
+        <v>0</v>
+      </c>
+      <c r="G17" s="11">
+        <v>0</v>
+      </c>
+      <c r="H17" s="11">
+        <v>0</v>
+      </c>
+      <c r="I17" s="11">
+        <v>-77472351</v>
+      </c>
+      <c r="J17" s="11">
         <v>77472351</v>
       </c>
-      <c r="F17" s="11">
-        <v>0</v>
-      </c>
-      <c r="G17" s="11">
-        <v>0</v>
-      </c>
-      <c r="H17" s="11">
-        <v>0</v>
-      </c>
-      <c r="I17" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="K17" s="11">
+        <v>0</v>
+      </c>
+      <c r="L17" s="11">
+        <v>0</v>
+      </c>
+      <c r="M17" s="11">
+        <v>0</v>
+      </c>
+      <c r="N17" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B18" s="14" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C18" s="15"/>
       <c r="D18" s="15"/>
       <c r="E18" s="15">
+        <v>86750928</v>
+      </c>
+      <c r="F18" s="15">
+        <v>108937934</v>
+      </c>
+      <c r="G18" s="15">
+        <v>144450626</v>
+      </c>
+      <c r="H18" s="15">
+        <v>170650059</v>
+      </c>
+      <c r="I18" s="15">
+        <v>96549754</v>
+      </c>
+      <c r="J18" s="15">
         <v>198752206</v>
       </c>
-      <c r="F18" s="15">
+      <c r="K18" s="15">
         <v>249810923</v>
       </c>
-      <c r="G18" s="15">
+      <c r="L18" s="15">
         <v>254299221</v>
       </c>
-      <c r="H18" s="15">
+      <c r="M18" s="15">
         <v>203028970</v>
       </c>
-      <c r="I18" s="15">
+      <c r="N18" s="15">
         <v>249156022</v>
       </c>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B19" s="10" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C19" s="11"/>
       <c r="D19" s="11"/>
       <c r="E19" s="11">
+        <v>-1</v>
+      </c>
+      <c r="F19" s="11">
+        <v>0</v>
+      </c>
+      <c r="G19" s="11">
+        <v>3185274</v>
+      </c>
+      <c r="H19" s="11">
+        <v>19129233</v>
+      </c>
+      <c r="I19" s="11">
+        <v>25727358</v>
+      </c>
+      <c r="J19" s="11">
         <v>25538085</v>
       </c>
-      <c r="F19" s="11">
+      <c r="K19" s="11">
         <v>29443077</v>
       </c>
-      <c r="G19" s="11">
+      <c r="L19" s="11">
         <v>32753117</v>
       </c>
-      <c r="H19" s="11">
+      <c r="M19" s="11">
         <v>36087814</v>
       </c>
-      <c r="I19" s="11">
+      <c r="N19" s="11">
         <v>36570492</v>
       </c>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B20" s="8" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C20" s="9"/>
       <c r="D20" s="9"/>
       <c r="E20" s="9">
+        <v>-4476889</v>
+      </c>
+      <c r="F20" s="9">
+        <v>3185274</v>
+      </c>
+      <c r="G20" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="H20" s="9">
+        <v>-25727358</v>
+      </c>
+      <c r="I20" s="9">
+        <v>-25538085</v>
+      </c>
+      <c r="J20" s="9">
         <v>-29443077</v>
       </c>
-      <c r="F20" s="9">
+      <c r="K20" s="9">
         <v>-32826999</v>
       </c>
-      <c r="G20" s="9">
+      <c r="L20" s="9">
         <v>-36087814</v>
       </c>
-      <c r="H20" s="9">
-        <v>-36570492</v>
-      </c>
-      <c r="I20" s="9">
+      <c r="M20" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="N20" s="9">
         <v>-39818882</v>
       </c>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B21" s="12" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C21" s="13"/>
       <c r="D21" s="13"/>
       <c r="E21" s="13">
+        <v>82274038</v>
+      </c>
+      <c r="F21" s="13">
+        <v>112123208</v>
+      </c>
+      <c r="G21" s="13">
+        <v>143276373</v>
+      </c>
+      <c r="H21" s="13">
+        <v>164051934</v>
+      </c>
+      <c r="I21" s="13">
+        <v>96739027</v>
+      </c>
+      <c r="J21" s="13">
         <v>194847214</v>
       </c>
-      <c r="F21" s="13">
+      <c r="K21" s="13">
         <v>246427001</v>
       </c>
-      <c r="G21" s="13">
+      <c r="L21" s="13">
         <v>250964524</v>
       </c>
-      <c r="H21" s="13">
+      <c r="M21" s="13">
         <v>202620174</v>
       </c>
-      <c r="I21" s="13">
+      <c r="N21" s="13">
         <v>245907632</v>
       </c>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B22" s="8" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C22" s="9"/>
       <c r="D22" s="9"/>
       <c r="E22" s="9">
+        <v>0</v>
+      </c>
+      <c r="F22" s="9">
+        <v>0</v>
+      </c>
+      <c r="G22" s="9">
+        <v>-108318</v>
+      </c>
+      <c r="H22" s="9">
+        <v>0</v>
+      </c>
+      <c r="I22" s="9">
+        <v>-55302</v>
+      </c>
+      <c r="J22" s="9">
         <v>-12497</v>
       </c>
-      <c r="F22" s="9">
+      <c r="K22" s="9">
         <v>-48126</v>
       </c>
-      <c r="G22" s="9">
-        <v>0</v>
-      </c>
-      <c r="H22" s="9">
+      <c r="L22" s="9">
+        <v>0</v>
+      </c>
+      <c r="M22" s="9">
         <v>-5770</v>
       </c>
-      <c r="I22" s="9">
+      <c r="N22" s="9">
         <v>-4141</v>
       </c>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B23" s="12" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="C23" s="13"/>
       <c r="D23" s="13"/>
       <c r="E23" s="13">
+        <v>82274038</v>
+      </c>
+      <c r="F23" s="13">
+        <v>112123208</v>
+      </c>
+      <c r="G23" s="13">
+        <v>143168055</v>
+      </c>
+      <c r="H23" s="13">
+        <v>164051934</v>
+      </c>
+      <c r="I23" s="13">
+        <v>96683725</v>
+      </c>
+      <c r="J23" s="13">
         <v>194834717</v>
       </c>
-      <c r="F23" s="13">
+      <c r="K23" s="13">
         <v>246378875</v>
       </c>
-      <c r="G23" s="13">
+      <c r="L23" s="13">
         <v>250964524</v>
       </c>
-      <c r="H23" s="13">
+      <c r="M23" s="13">
         <v>202614404</v>
       </c>
-      <c r="I23" s="13">
+      <c r="N23" s="13">
         <v>245903491</v>
       </c>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -1163,8 +1443,13 @@
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
-    </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+      <c r="M24" s="1"/>
+      <c r="N24" s="1"/>
+    </row>
+    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -1173,8 +1458,13 @@
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
-    </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+      <c r="M25" s="1"/>
+      <c r="N25" s="1"/>
+    </row>
+    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -1183,10 +1473,15 @@
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
-    </row>
-    <row r="27" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="1"/>
+      <c r="M26" s="1"/>
+      <c r="N26" s="1"/>
+    </row>
+    <row r="27" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B27" s="7" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="C27" s="6"/>
       <c r="D27" s="6"/>
@@ -1205,8 +1500,23 @@
       <c r="I27" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J27" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K27" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L27" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M27" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N27" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -1215,246 +1525,401 @@
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
-    </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
+      <c r="M28" s="1"/>
+      <c r="N28" s="1"/>
+    </row>
+    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B29" s="8" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D29" s="9"/>
       <c r="E29" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F29" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G29" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H29" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I29" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+      <c r="J29" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="K29" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="L29" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="M29" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="N29" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B30" s="10" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D30" s="11"/>
-      <c r="E30" s="11">
+      <c r="E30" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="F30" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="G30" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="H30" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="I30" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="J30" s="11">
         <v>103</v>
       </c>
-      <c r="F30" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="G30" s="11">
+      <c r="K30" s="11">
+        <v>78</v>
+      </c>
+      <c r="L30" s="11">
         <v>68</v>
       </c>
-      <c r="H30" s="11">
+      <c r="M30" s="11">
         <v>119</v>
       </c>
-      <c r="I30" s="11">
+      <c r="N30" s="11">
         <v>170</v>
       </c>
     </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B31" s="8" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D31" s="9"/>
       <c r="E31" s="9">
+        <v>56</v>
+      </c>
+      <c r="F31" s="9">
+        <v>52</v>
+      </c>
+      <c r="G31" s="9">
+        <v>34</v>
+      </c>
+      <c r="H31" s="9">
+        <v>31</v>
+      </c>
+      <c r="I31" s="9">
+        <v>41</v>
+      </c>
+      <c r="J31" s="9">
         <v>55</v>
       </c>
-      <c r="F31" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="G31" s="9">
+      <c r="K31" s="9">
+        <v>69</v>
+      </c>
+      <c r="L31" s="9">
         <v>66</v>
       </c>
-      <c r="H31" s="9">
+      <c r="M31" s="9">
         <v>65</v>
       </c>
-      <c r="I31" s="9">
+      <c r="N31" s="9">
         <v>65</v>
       </c>
     </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B32" s="10" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D32" s="11"/>
       <c r="E32" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="F32" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="G32" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="H32" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
+      </c>
+      <c r="F32" s="11">
+        <v>94</v>
+      </c>
+      <c r="G32" s="11">
+        <v>87</v>
+      </c>
+      <c r="H32" s="11">
+        <v>90</v>
       </c>
       <c r="I32" s="11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+      <c r="J32" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="K32" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="L32" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="M32" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="N32" s="11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B33" s="8" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D33" s="9"/>
       <c r="E33" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F33" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G33" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H33" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I33" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+      <c r="J33" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="K33" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="L33" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="M33" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="N33" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B34" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C34" s="11" t="s">
         <v>31</v>
-      </c>
-      <c r="C34" s="11" t="s">
-        <v>25</v>
       </c>
       <c r="D34" s="11"/>
       <c r="E34" s="11">
+        <v>2346</v>
+      </c>
+      <c r="F34" s="11">
+        <v>2581</v>
+      </c>
+      <c r="G34" s="11">
+        <v>2752</v>
+      </c>
+      <c r="H34" s="11">
+        <v>2568</v>
+      </c>
+      <c r="I34" s="11">
+        <v>1597</v>
+      </c>
+      <c r="J34" s="11">
         <v>1663</v>
       </c>
-      <c r="F34" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="G34" s="11">
+      <c r="K34" s="11">
+        <v>1508</v>
+      </c>
+      <c r="L34" s="11">
         <v>2126</v>
       </c>
-      <c r="H34" s="11">
+      <c r="M34" s="11">
         <v>2113</v>
       </c>
-      <c r="I34" s="11">
+      <c r="N34" s="11">
         <v>2898</v>
       </c>
     </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B35" s="8" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D35" s="9"/>
       <c r="E35" s="9">
+        <v>28</v>
+      </c>
+      <c r="F35" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="G35" s="9">
+        <v>2</v>
+      </c>
+      <c r="H35" s="9">
+        <v>15</v>
+      </c>
+      <c r="I35" s="9">
+        <v>6</v>
+      </c>
+      <c r="J35" s="9">
         <v>1</v>
       </c>
-      <c r="F35" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="G35" s="9">
+      <c r="K35" s="9">
+        <v>10</v>
+      </c>
+      <c r="L35" s="9">
         <v>101</v>
       </c>
-      <c r="H35" s="9">
+      <c r="M35" s="9">
         <v>155</v>
       </c>
-      <c r="I35" s="9">
+      <c r="N35" s="9">
         <v>226</v>
       </c>
     </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B36" s="10" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C36" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D36" s="11"/>
       <c r="E36" s="11">
+        <v>796</v>
+      </c>
+      <c r="F36" s="11">
+        <v>806</v>
+      </c>
+      <c r="G36" s="11">
+        <v>1036</v>
+      </c>
+      <c r="H36" s="11">
+        <v>1256</v>
+      </c>
+      <c r="I36" s="11">
+        <v>1050</v>
+      </c>
+      <c r="J36" s="11">
         <v>1404</v>
       </c>
-      <c r="F36" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="G36" s="11">
+      <c r="K36" s="11">
+        <v>1260</v>
+      </c>
+      <c r="L36" s="11">
         <v>1630</v>
       </c>
-      <c r="H36" s="11">
+      <c r="M36" s="11">
         <v>963</v>
       </c>
-      <c r="I36" s="11">
+      <c r="N36" s="11">
         <v>1034</v>
       </c>
     </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B37" s="8" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D37" s="9"/>
       <c r="E37" s="9">
+        <v>0</v>
+      </c>
+      <c r="F37" s="9">
+        <v>0</v>
+      </c>
+      <c r="G37" s="9">
+        <v>0</v>
+      </c>
+      <c r="H37" s="9">
+        <v>0</v>
+      </c>
+      <c r="I37" s="9">
+        <v>0</v>
+      </c>
+      <c r="J37" s="9">
         <v>1</v>
       </c>
-      <c r="F37" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="G37" s="9">
+      <c r="K37" s="9">
+        <v>0</v>
+      </c>
+      <c r="L37" s="9">
         <v>1</v>
       </c>
-      <c r="H37" s="9">
+      <c r="M37" s="9">
         <v>1</v>
       </c>
-      <c r="I37" s="9">
+      <c r="N37" s="9">
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B38" s="12" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C38" s="13"/>
       <c r="D38" s="13"/>
       <c r="E38" s="13">
+        <v>3226</v>
+      </c>
+      <c r="F38" s="13">
+        <v>3533</v>
+      </c>
+      <c r="G38" s="13">
+        <v>3911</v>
+      </c>
+      <c r="H38" s="13">
+        <v>3960</v>
+      </c>
+      <c r="I38" s="13">
+        <v>2694</v>
+      </c>
+      <c r="J38" s="13">
         <v>3227</v>
       </c>
-      <c r="F38" s="13">
-        <v>0</v>
-      </c>
-      <c r="G38" s="13">
+      <c r="K38" s="13">
+        <v>2925</v>
+      </c>
+      <c r="L38" s="13">
         <v>3992</v>
       </c>
-      <c r="H38" s="13">
+      <c r="M38" s="13">
         <v>3416</v>
       </c>
-      <c r="I38" s="13">
+      <c r="N38" s="13">
         <v>4394</v>
       </c>
     </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
@@ -1463,8 +1928,13 @@
       <c r="G39" s="1"/>
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
-    </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J39" s="1"/>
+      <c r="K39" s="1"/>
+      <c r="L39" s="1"/>
+      <c r="M39" s="1"/>
+      <c r="N39" s="1"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
@@ -1473,8 +1943,13 @@
       <c r="G40" s="1"/>
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
-    </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J40" s="1"/>
+      <c r="K40" s="1"/>
+      <c r="L40" s="1"/>
+      <c r="M40" s="1"/>
+      <c r="N40" s="1"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
@@ -1483,10 +1958,15 @@
       <c r="G41" s="1"/>
       <c r="H41" s="1"/>
       <c r="I41" s="1"/>
-    </row>
-    <row r="42" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J41" s="1"/>
+      <c r="K41" s="1"/>
+      <c r="L41" s="1"/>
+      <c r="M41" s="1"/>
+      <c r="N41" s="1"/>
+    </row>
+    <row r="42" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B42" s="7" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C42" s="6"/>
       <c r="D42" s="6"/>
@@ -1505,8 +1985,23 @@
       <c r="I42" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J42" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K42" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L42" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M42" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N42" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
@@ -1515,205 +2010,330 @@
       <c r="G43" s="1"/>
       <c r="H43" s="1"/>
       <c r="I43" s="1"/>
-    </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J43" s="1"/>
+      <c r="K43" s="1"/>
+      <c r="L43" s="1"/>
+      <c r="M43" s="1"/>
+      <c r="N43" s="1"/>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B44" s="8" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="C44" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D44" s="9"/>
       <c r="E44" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F44" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="G44" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
+      </c>
+      <c r="G44" s="9">
+        <v>0</v>
       </c>
       <c r="H44" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I44" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+      <c r="J44" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="K44" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="L44" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="M44" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="N44" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B45" s="10" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C45" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D45" s="11"/>
-      <c r="E45" s="11">
+      <c r="E45" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="F45" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="G45" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="H45" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="I45" s="11">
+        <v>91</v>
+      </c>
+      <c r="J45" s="11">
         <v>62</v>
       </c>
-      <c r="F45" s="11">
+      <c r="K45" s="11">
         <v>161</v>
       </c>
-      <c r="G45" s="11">
+      <c r="L45" s="11">
         <v>132</v>
       </c>
-      <c r="H45" s="11">
+      <c r="M45" s="11">
         <v>36</v>
       </c>
-      <c r="I45" s="11">
+      <c r="N45" s="11">
         <v>16</v>
       </c>
     </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B46" s="8" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C46" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D46" s="9"/>
       <c r="E46" s="9">
+        <v>13</v>
+      </c>
+      <c r="F46" s="9">
+        <v>4</v>
+      </c>
+      <c r="G46" s="9">
+        <v>14</v>
+      </c>
+      <c r="H46" s="9">
+        <v>30</v>
+      </c>
+      <c r="I46" s="9">
+        <v>26</v>
+      </c>
+      <c r="J46" s="9">
         <v>31</v>
       </c>
-      <c r="F46" s="9">
+      <c r="K46" s="9">
         <v>14</v>
       </c>
-      <c r="G46" s="9">
+      <c r="L46" s="9">
         <v>18</v>
       </c>
-      <c r="H46" s="9">
+      <c r="M46" s="9">
         <v>15</v>
       </c>
-      <c r="I46" s="9">
+      <c r="N46" s="9">
         <v>23</v>
       </c>
     </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B47" s="10" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C47" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D47" s="11"/>
-      <c r="E47" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="F47" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="G47" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="H47" s="11" t="s">
-        <v>26</v>
+      <c r="E47" s="11">
+        <v>101</v>
+      </c>
+      <c r="F47" s="11">
+        <v>45</v>
+      </c>
+      <c r="G47" s="11">
+        <v>95</v>
+      </c>
+      <c r="H47" s="11">
+        <v>50</v>
       </c>
       <c r="I47" s="11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+      <c r="J47" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="K47" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="L47" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="M47" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="N47" s="11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B48" s="8" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C48" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D48" s="9"/>
       <c r="E48" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F48" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G48" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H48" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I48" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+      <c r="J48" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="K48" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="L48" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="M48" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="N48" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="49" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B49" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C49" s="11" t="s">
         <v>31</v>
-      </c>
-      <c r="C49" s="11" t="s">
-        <v>25</v>
       </c>
       <c r="D49" s="11"/>
       <c r="E49" s="11">
+        <v>2137</v>
+      </c>
+      <c r="F49" s="11">
+        <v>1946</v>
+      </c>
+      <c r="G49" s="11">
+        <v>1618</v>
+      </c>
+      <c r="H49" s="11">
+        <v>1553</v>
+      </c>
+      <c r="I49" s="11">
+        <v>1212</v>
+      </c>
+      <c r="J49" s="11">
         <v>1434</v>
       </c>
-      <c r="F49" s="11">
+      <c r="K49" s="11">
         <v>2191</v>
       </c>
-      <c r="G49" s="11">
+      <c r="L49" s="11">
         <v>2147</v>
       </c>
-      <c r="H49" s="11">
+      <c r="M49" s="11">
         <v>2470</v>
       </c>
-      <c r="I49" s="11">
+      <c r="N49" s="11">
         <v>1664</v>
       </c>
     </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B50" s="8" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C50" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D50" s="9"/>
       <c r="E50" s="9">
+        <v>345</v>
+      </c>
+      <c r="F50" s="9">
+        <v>434</v>
+      </c>
+      <c r="G50" s="9">
+        <v>202</v>
+      </c>
+      <c r="H50" s="9">
+        <v>376</v>
+      </c>
+      <c r="I50" s="9">
+        <v>340</v>
+      </c>
+      <c r="J50" s="9">
         <v>561</v>
       </c>
-      <c r="F50" s="9">
+      <c r="K50" s="9">
         <v>847</v>
       </c>
-      <c r="G50" s="9">
+      <c r="L50" s="9">
         <v>618</v>
       </c>
-      <c r="H50" s="9">
+      <c r="M50" s="9">
         <v>653</v>
       </c>
-      <c r="I50" s="9">
+      <c r="N50" s="9">
         <v>889</v>
       </c>
     </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B51" s="10" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C51" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D51" s="11"/>
       <c r="E51" s="11">
+        <v>1150</v>
+      </c>
+      <c r="F51" s="11">
+        <v>1629</v>
+      </c>
+      <c r="G51" s="11">
+        <v>1043</v>
+      </c>
+      <c r="H51" s="11">
+        <v>1245</v>
+      </c>
+      <c r="I51" s="11">
+        <v>873</v>
+      </c>
+      <c r="J51" s="11">
         <v>1096</v>
       </c>
-      <c r="F51" s="11">
+      <c r="K51" s="11">
         <v>916</v>
       </c>
-      <c r="G51" s="11">
+      <c r="L51" s="11">
         <v>887</v>
       </c>
-      <c r="H51" s="11">
+      <c r="M51" s="11">
         <v>1099</v>
       </c>
-      <c r="I51" s="11">
+      <c r="N51" s="11">
         <v>1279</v>
       </c>
     </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B52" s="8" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C52" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D52" s="9"/>
       <c r="E52" s="9">
@@ -1723,38 +2343,68 @@
         <v>0</v>
       </c>
       <c r="G52" s="9">
+        <v>0</v>
+      </c>
+      <c r="H52" s="9">
+        <v>0</v>
+      </c>
+      <c r="I52" s="9">
         <v>1</v>
       </c>
-      <c r="H52" s="9">
+      <c r="J52" s="9">
+        <v>0</v>
+      </c>
+      <c r="K52" s="9">
+        <v>0</v>
+      </c>
+      <c r="L52" s="9">
         <v>1</v>
       </c>
-      <c r="I52" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="M52" s="9">
+        <v>1</v>
+      </c>
+      <c r="N52" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B53" s="12" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C53" s="13"/>
       <c r="D53" s="13"/>
       <c r="E53" s="13">
+        <v>3746</v>
+      </c>
+      <c r="F53" s="13">
+        <v>4058</v>
+      </c>
+      <c r="G53" s="13">
+        <v>2972</v>
+      </c>
+      <c r="H53" s="13">
+        <v>3254</v>
+      </c>
+      <c r="I53" s="13">
+        <v>2543</v>
+      </c>
+      <c r="J53" s="13">
         <v>3184</v>
       </c>
-      <c r="F53" s="13">
+      <c r="K53" s="13">
         <v>4129</v>
       </c>
-      <c r="G53" s="13">
+      <c r="L53" s="13">
         <v>3803</v>
       </c>
-      <c r="H53" s="13">
+      <c r="M53" s="13">
         <v>4274</v>
       </c>
-      <c r="I53" s="13">
+      <c r="N53" s="13">
         <v>3871</v>
       </c>
     </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
@@ -1763,8 +2413,13 @@
       <c r="G54" s="1"/>
       <c r="H54" s="1"/>
       <c r="I54" s="1"/>
-    </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J54" s="1"/>
+      <c r="K54" s="1"/>
+      <c r="L54" s="1"/>
+      <c r="M54" s="1"/>
+      <c r="N54" s="1"/>
+    </row>
+    <row r="55" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
@@ -1773,8 +2428,13 @@
       <c r="G55" s="1"/>
       <c r="H55" s="1"/>
       <c r="I55" s="1"/>
-    </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J55" s="1"/>
+      <c r="K55" s="1"/>
+      <c r="L55" s="1"/>
+      <c r="M55" s="1"/>
+      <c r="N55" s="1"/>
+    </row>
+    <row r="56" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
@@ -1783,10 +2443,15 @@
       <c r="G56" s="1"/>
       <c r="H56" s="1"/>
       <c r="I56" s="1"/>
-    </row>
-    <row r="57" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J56" s="1"/>
+      <c r="K56" s="1"/>
+      <c r="L56" s="1"/>
+      <c r="M56" s="1"/>
+      <c r="N56" s="1"/>
+    </row>
+    <row r="57" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B57" s="7" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C57" s="6"/>
       <c r="D57" s="6"/>
@@ -1805,8 +2470,23 @@
       <c r="I57" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J57" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K57" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L57" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M57" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N57" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="58" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
@@ -1815,246 +2495,401 @@
       <c r="G58" s="1"/>
       <c r="H58" s="1"/>
       <c r="I58" s="1"/>
-    </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J58" s="1"/>
+      <c r="K58" s="1"/>
+      <c r="L58" s="1"/>
+      <c r="M58" s="1"/>
+      <c r="N58" s="1"/>
+    </row>
+    <row r="59" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B59" s="8" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="C59" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D59" s="9"/>
       <c r="E59" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F59" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="G59" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
+      </c>
+      <c r="G59" s="9">
+        <v>0</v>
       </c>
       <c r="H59" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I59" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+      <c r="J59" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="K59" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="L59" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="M59" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="N59" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="60" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B60" s="10" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C60" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D60" s="11"/>
-      <c r="E60" s="11">
+      <c r="E60" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="F60" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="G60" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="H60" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="I60" s="11">
+        <v>78</v>
+      </c>
+      <c r="J60" s="11">
         <v>86</v>
       </c>
-      <c r="F60" s="11">
+      <c r="K60" s="11">
         <v>171</v>
       </c>
-      <c r="G60" s="11">
+      <c r="L60" s="11">
         <v>81</v>
       </c>
-      <c r="H60" s="11">
+      <c r="M60" s="11">
         <v>-15</v>
       </c>
-      <c r="I60" s="11">
+      <c r="N60" s="11">
         <v>49</v>
       </c>
     </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B61" s="8" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C61" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D61" s="9"/>
       <c r="E61" s="9">
         <v>17</v>
       </c>
       <c r="F61" s="9">
+        <v>21</v>
+      </c>
+      <c r="G61" s="9">
         <v>17</v>
       </c>
-      <c r="G61" s="9">
+      <c r="H61" s="9">
+        <v>20</v>
+      </c>
+      <c r="I61" s="9">
+        <v>12</v>
+      </c>
+      <c r="J61" s="9">
+        <v>17</v>
+      </c>
+      <c r="K61" s="9">
+        <v>17</v>
+      </c>
+      <c r="L61" s="9">
         <v>19</v>
       </c>
-      <c r="H61" s="9">
+      <c r="M61" s="9">
         <v>15</v>
       </c>
-      <c r="I61" s="9">
+      <c r="N61" s="9">
         <v>20</v>
       </c>
     </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B62" s="10" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C62" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D62" s="11"/>
-      <c r="E62" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="F62" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="G62" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="H62" s="11" t="s">
-        <v>26</v>
+      <c r="E62" s="11">
+        <v>78</v>
+      </c>
+      <c r="F62" s="11">
+        <v>52</v>
+      </c>
+      <c r="G62" s="11">
+        <v>92</v>
+      </c>
+      <c r="H62" s="11">
+        <v>49</v>
       </c>
       <c r="I62" s="11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+      <c r="J62" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="K62" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="L62" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="M62" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="N62" s="11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="63" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B63" s="8" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C63" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D63" s="9"/>
       <c r="E63" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F63" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G63" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H63" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I63" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+      <c r="J63" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="K63" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="L63" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="M63" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="N63" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="64" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B64" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C64" s="11" t="s">
         <v>31</v>
-      </c>
-      <c r="C64" s="11" t="s">
-        <v>25</v>
       </c>
       <c r="D64" s="11"/>
       <c r="E64" s="11">
+        <v>1902</v>
+      </c>
+      <c r="F64" s="11">
+        <v>1806</v>
+      </c>
+      <c r="G64" s="11">
+        <v>1802</v>
+      </c>
+      <c r="H64" s="11">
+        <v>2524</v>
+      </c>
+      <c r="I64" s="11">
+        <v>1146</v>
+      </c>
+      <c r="J64" s="11">
         <v>1589</v>
       </c>
-      <c r="F64" s="11">
+      <c r="K64" s="11">
         <v>1574</v>
       </c>
-      <c r="G64" s="11">
+      <c r="L64" s="11">
         <v>2160</v>
       </c>
-      <c r="H64" s="11">
+      <c r="M64" s="11">
         <v>1685</v>
       </c>
-      <c r="I64" s="11">
+      <c r="N64" s="11">
         <v>1546</v>
       </c>
     </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B65" s="8" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C65" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D65" s="9"/>
       <c r="E65" s="9">
+        <v>373</v>
+      </c>
+      <c r="F65" s="9">
+        <v>432</v>
+      </c>
+      <c r="G65" s="9">
+        <v>189</v>
+      </c>
+      <c r="H65" s="9">
+        <v>385</v>
+      </c>
+      <c r="I65" s="9">
+        <v>345</v>
+      </c>
+      <c r="J65" s="9">
         <v>552</v>
       </c>
-      <c r="F65" s="9">
+      <c r="K65" s="9">
         <v>858</v>
       </c>
-      <c r="G65" s="9">
+      <c r="L65" s="9">
         <v>564</v>
       </c>
-      <c r="H65" s="9">
+      <c r="M65" s="9">
         <v>582</v>
       </c>
-      <c r="I65" s="9">
+      <c r="N65" s="9">
         <v>908</v>
       </c>
     </row>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B66" s="10" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C66" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D66" s="11"/>
       <c r="E66" s="11">
+        <v>1140</v>
+      </c>
+      <c r="F66" s="11">
+        <v>1400</v>
+      </c>
+      <c r="G66" s="11">
+        <v>823</v>
+      </c>
+      <c r="H66" s="11">
+        <v>1451</v>
+      </c>
+      <c r="I66" s="11">
+        <v>519</v>
+      </c>
+      <c r="J66" s="11">
         <v>1239</v>
       </c>
-      <c r="F66" s="11">
+      <c r="K66" s="11">
         <v>546</v>
       </c>
-      <c r="G66" s="11">
+      <c r="L66" s="11">
         <v>1554</v>
       </c>
-      <c r="H66" s="11">
+      <c r="M66" s="11">
         <v>1028</v>
       </c>
-      <c r="I66" s="11">
+      <c r="N66" s="11">
         <v>1398</v>
       </c>
     </row>
-    <row r="67" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B67" s="8" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C67" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D67" s="9"/>
       <c r="E67" s="9">
+        <v>0</v>
+      </c>
+      <c r="F67" s="9">
+        <v>0</v>
+      </c>
+      <c r="G67" s="9">
+        <v>0</v>
+      </c>
+      <c r="H67" s="9">
+        <v>0</v>
+      </c>
+      <c r="I67" s="9">
         <v>1</v>
       </c>
-      <c r="F67" s="9">
+      <c r="J67" s="9">
+        <v>1</v>
+      </c>
+      <c r="K67" s="9">
         <v>-1</v>
       </c>
-      <c r="G67" s="9">
+      <c r="L67" s="9">
         <v>1</v>
       </c>
-      <c r="H67" s="9">
+      <c r="M67" s="9">
         <v>1</v>
       </c>
-      <c r="I67" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N67" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B68" s="12" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C68" s="13"/>
       <c r="D68" s="13"/>
       <c r="E68" s="13">
+        <v>3510</v>
+      </c>
+      <c r="F68" s="13">
+        <v>3711</v>
+      </c>
+      <c r="G68" s="13">
+        <v>2923</v>
+      </c>
+      <c r="H68" s="13">
+        <v>4429</v>
+      </c>
+      <c r="I68" s="13">
+        <v>2101</v>
+      </c>
+      <c r="J68" s="13">
         <v>3484</v>
       </c>
-      <c r="F68" s="13">
+      <c r="K68" s="13">
         <v>3165</v>
       </c>
-      <c r="G68" s="13">
+      <c r="L68" s="13">
         <v>4379</v>
       </c>
-      <c r="H68" s="13">
+      <c r="M68" s="13">
         <v>3296</v>
       </c>
-      <c r="I68" s="13">
+      <c r="N68" s="13">
         <v>3921</v>
       </c>
     </row>
-    <row r="69" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
       <c r="D69" s="1"/>
@@ -2063,8 +2898,13 @@
       <c r="G69" s="1"/>
       <c r="H69" s="1"/>
       <c r="I69" s="1"/>
-    </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J69" s="1"/>
+      <c r="K69" s="1"/>
+      <c r="L69" s="1"/>
+      <c r="M69" s="1"/>
+      <c r="N69" s="1"/>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
@@ -2073,8 +2913,13 @@
       <c r="G70" s="1"/>
       <c r="H70" s="1"/>
       <c r="I70" s="1"/>
-    </row>
-    <row r="71" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J70" s="1"/>
+      <c r="K70" s="1"/>
+      <c r="L70" s="1"/>
+      <c r="M70" s="1"/>
+      <c r="N70" s="1"/>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
       <c r="D71" s="1"/>
@@ -2083,10 +2928,15 @@
       <c r="G71" s="1"/>
       <c r="H71" s="1"/>
       <c r="I71" s="1"/>
-    </row>
-    <row r="72" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J71" s="1"/>
+      <c r="K71" s="1"/>
+      <c r="L71" s="1"/>
+      <c r="M71" s="1"/>
+      <c r="N71" s="1"/>
+    </row>
+    <row r="72" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B72" s="7" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="C72" s="6"/>
       <c r="D72" s="6"/>
@@ -2105,8 +2955,23 @@
       <c r="I72" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="73" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J72" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K72" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L72" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M72" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N72" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
       <c r="D73" s="1"/>
@@ -2115,246 +2980,401 @@
       <c r="G73" s="1"/>
       <c r="H73" s="1"/>
       <c r="I73" s="1"/>
-    </row>
-    <row r="74" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J73" s="1"/>
+      <c r="K73" s="1"/>
+      <c r="L73" s="1"/>
+      <c r="M73" s="1"/>
+      <c r="N73" s="1"/>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B74" s="8" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="C74" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D74" s="9"/>
       <c r="E74" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F74" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="G74" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
+      </c>
+      <c r="G74" s="9">
+        <v>0</v>
       </c>
       <c r="H74" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I74" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="75" spans="2:9" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+      <c r="J74" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="K74" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="L74" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="M74" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="N74" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B75" s="10" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C75" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D75" s="11"/>
-      <c r="E75" s="11">
+      <c r="E75" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="F75" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="G75" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="H75" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="I75" s="11">
+        <v>103</v>
+      </c>
+      <c r="J75" s="11">
         <v>78</v>
       </c>
-      <c r="F75" s="11">
+      <c r="K75" s="11">
         <v>68</v>
       </c>
-      <c r="G75" s="11">
+      <c r="L75" s="11">
         <v>119</v>
       </c>
-      <c r="H75" s="11">
+      <c r="M75" s="11">
         <v>170</v>
       </c>
-      <c r="I75" s="11">
+      <c r="N75" s="11">
         <v>137</v>
       </c>
     </row>
-    <row r="76" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B76" s="8" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C76" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D76" s="9"/>
       <c r="E76" s="9">
+        <v>52</v>
+      </c>
+      <c r="F76" s="9">
+        <v>34</v>
+      </c>
+      <c r="G76" s="9">
+        <v>31</v>
+      </c>
+      <c r="H76" s="9">
+        <v>41</v>
+      </c>
+      <c r="I76" s="9">
+        <v>55</v>
+      </c>
+      <c r="J76" s="9">
         <v>69</v>
       </c>
-      <c r="F76" s="9">
+      <c r="K76" s="9">
         <v>66</v>
       </c>
-      <c r="G76" s="9">
+      <c r="L76" s="9">
         <v>65</v>
       </c>
-      <c r="H76" s="9">
+      <c r="M76" s="9">
         <v>65</v>
       </c>
-      <c r="I76" s="9">
+      <c r="N76" s="9">
         <v>68</v>
       </c>
     </row>
-    <row r="77" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B77" s="10" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C77" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D77" s="11"/>
-      <c r="E77" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="F77" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="G77" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="H77" s="11" t="s">
-        <v>26</v>
+      <c r="E77" s="11">
+        <v>94</v>
+      </c>
+      <c r="F77" s="11">
+        <v>87</v>
+      </c>
+      <c r="G77" s="11">
+        <v>90</v>
+      </c>
+      <c r="H77" s="11">
+        <v>91</v>
       </c>
       <c r="I77" s="11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="78" spans="2:9" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+      <c r="J77" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="K77" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="L77" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="M77" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="N77" s="11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="78" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B78" s="8" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C78" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D78" s="9"/>
       <c r="E78" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F78" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G78" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H78" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I78" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="79" spans="2:9" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+      <c r="J78" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="K78" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="L78" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="M78" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="N78" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B79" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C79" s="11" t="s">
         <v>31</v>
-      </c>
-      <c r="C79" s="11" t="s">
-        <v>25</v>
       </c>
       <c r="D79" s="11"/>
       <c r="E79" s="11">
+        <v>2582</v>
+      </c>
+      <c r="F79" s="11">
+        <v>2752</v>
+      </c>
+      <c r="G79" s="11">
+        <v>2568</v>
+      </c>
+      <c r="H79" s="11">
+        <v>1597</v>
+      </c>
+      <c r="I79" s="11">
+        <v>1663</v>
+      </c>
+      <c r="J79" s="11">
         <v>1508</v>
       </c>
-      <c r="F79" s="11">
+      <c r="K79" s="11">
         <v>2126</v>
       </c>
-      <c r="G79" s="11">
+      <c r="L79" s="11">
         <v>2113</v>
       </c>
-      <c r="H79" s="11">
+      <c r="M79" s="11">
         <v>2898</v>
       </c>
-      <c r="I79" s="11">
+      <c r="N79" s="11">
         <v>3016</v>
       </c>
     </row>
-    <row r="80" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B80" s="8" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C80" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D80" s="9"/>
       <c r="E80" s="9">
+        <v>0</v>
+      </c>
+      <c r="F80" s="9">
+        <v>2</v>
+      </c>
+      <c r="G80" s="9">
+        <v>15</v>
+      </c>
+      <c r="H80" s="9">
+        <v>6</v>
+      </c>
+      <c r="I80" s="9">
+        <v>1</v>
+      </c>
+      <c r="J80" s="9">
         <v>10</v>
       </c>
-      <c r="F80" s="9">
+      <c r="K80" s="9">
         <v>101</v>
       </c>
-      <c r="G80" s="9">
+      <c r="L80" s="9">
         <v>155</v>
       </c>
-      <c r="H80" s="9">
+      <c r="M80" s="9">
         <v>226</v>
       </c>
-      <c r="I80" s="9">
+      <c r="N80" s="9">
         <v>207</v>
       </c>
     </row>
-    <row r="81" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B81" s="10" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C81" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D81" s="11"/>
       <c r="E81" s="11">
+        <v>806</v>
+      </c>
+      <c r="F81" s="11">
+        <v>1036</v>
+      </c>
+      <c r="G81" s="11">
+        <v>1256</v>
+      </c>
+      <c r="H81" s="11">
+        <v>1050</v>
+      </c>
+      <c r="I81" s="11">
+        <v>1404</v>
+      </c>
+      <c r="J81" s="11">
         <v>1260</v>
       </c>
-      <c r="F81" s="11">
+      <c r="K81" s="11">
         <v>1630</v>
       </c>
-      <c r="G81" s="11">
+      <c r="L81" s="11">
         <v>963</v>
       </c>
-      <c r="H81" s="11">
+      <c r="M81" s="11">
         <v>1034</v>
       </c>
-      <c r="I81" s="11">
+      <c r="N81" s="11">
         <v>915</v>
       </c>
     </row>
-    <row r="82" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B82" s="8" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C82" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D82" s="9"/>
       <c r="E82" s="9">
         <v>0</v>
       </c>
       <c r="F82" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G82" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H82" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I82" s="9">
         <v>1</v>
       </c>
-    </row>
-    <row r="83" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J82" s="9">
+        <v>0</v>
+      </c>
+      <c r="K82" s="9">
+        <v>1</v>
+      </c>
+      <c r="L82" s="9">
+        <v>1</v>
+      </c>
+      <c r="M82" s="9">
+        <v>1</v>
+      </c>
+      <c r="N82" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B83" s="12" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C83" s="13"/>
       <c r="D83" s="13"/>
       <c r="E83" s="13">
+        <v>3534</v>
+      </c>
+      <c r="F83" s="13">
+        <v>3911</v>
+      </c>
+      <c r="G83" s="13">
+        <v>3960</v>
+      </c>
+      <c r="H83" s="13">
+        <v>2785</v>
+      </c>
+      <c r="I83" s="13">
+        <v>3227</v>
+      </c>
+      <c r="J83" s="13">
         <v>2925</v>
       </c>
-      <c r="F83" s="13">
+      <c r="K83" s="13">
         <v>3992</v>
       </c>
-      <c r="G83" s="13">
+      <c r="L83" s="13">
         <v>3416</v>
       </c>
-      <c r="H83" s="13">
+      <c r="M83" s="13">
         <v>4394</v>
       </c>
-      <c r="I83" s="13">
+      <c r="N83" s="13">
         <v>4344</v>
       </c>
     </row>
-    <row r="84" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
       <c r="D84" s="1"/>
@@ -2363,8 +3383,13 @@
       <c r="G84" s="1"/>
       <c r="H84" s="1"/>
       <c r="I84" s="1"/>
-    </row>
-    <row r="85" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J84" s="1"/>
+      <c r="K84" s="1"/>
+      <c r="L84" s="1"/>
+      <c r="M84" s="1"/>
+      <c r="N84" s="1"/>
+    </row>
+    <row r="85" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
       <c r="D85" s="1"/>
@@ -2373,8 +3398,13 @@
       <c r="G85" s="1"/>
       <c r="H85" s="1"/>
       <c r="I85" s="1"/>
-    </row>
-    <row r="86" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J85" s="1"/>
+      <c r="K85" s="1"/>
+      <c r="L85" s="1"/>
+      <c r="M85" s="1"/>
+      <c r="N85" s="1"/>
+    </row>
+    <row r="86" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
       <c r="D86" s="1"/>
@@ -2383,10 +3413,15 @@
       <c r="G86" s="1"/>
       <c r="H86" s="1"/>
       <c r="I86" s="1"/>
-    </row>
-    <row r="87" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J86" s="1"/>
+      <c r="K86" s="1"/>
+      <c r="L86" s="1"/>
+      <c r="M86" s="1"/>
+      <c r="N86" s="1"/>
+    </row>
+    <row r="87" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B87" s="7" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="C87" s="6"/>
       <c r="D87" s="6"/>
@@ -2405,8 +3440,23 @@
       <c r="I87" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="88" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J87" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K87" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L87" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M87" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N87" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="88" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
       <c r="D88" s="1"/>
@@ -2415,246 +3465,401 @@
       <c r="G88" s="1"/>
       <c r="H88" s="1"/>
       <c r="I88" s="1"/>
-    </row>
-    <row r="89" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J88" s="1"/>
+      <c r="K88" s="1"/>
+      <c r="L88" s="1"/>
+      <c r="M88" s="1"/>
+      <c r="N88" s="1"/>
+    </row>
+    <row r="89" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B89" s="8" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="C89" s="9" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D89" s="9"/>
       <c r="E89" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F89" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G89" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H89" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I89" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="90" spans="2:9" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+      <c r="J89" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="K89" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="L89" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="M89" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="N89" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="90" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B90" s="10" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C90" s="11" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D90" s="11"/>
-      <c r="E90" s="11">
+      <c r="E90" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="F90" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="G90" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="H90" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="I90" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="J90" s="11">
         <v>6515181</v>
       </c>
-      <c r="F90" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="G90" s="11">
+      <c r="K90" s="11">
+        <v>5892079</v>
+      </c>
+      <c r="L90" s="11">
         <v>5726212</v>
       </c>
-      <c r="H90" s="11">
+      <c r="M90" s="11">
         <v>12631408</v>
       </c>
-      <c r="I90" s="11">
+      <c r="N90" s="11">
         <v>19852351</v>
       </c>
     </row>
-    <row r="91" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="91" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B91" s="8" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C91" s="9" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D91" s="9"/>
       <c r="E91" s="9">
+        <v>9565994</v>
+      </c>
+      <c r="F91" s="9">
+        <v>9507451</v>
+      </c>
+      <c r="G91" s="9">
+        <v>7161021</v>
+      </c>
+      <c r="H91" s="9">
+        <v>8907639</v>
+      </c>
+      <c r="I91" s="9">
+        <v>16148956</v>
+      </c>
+      <c r="J91" s="9">
         <v>23701274</v>
       </c>
-      <c r="F91" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="G91" s="9">
+      <c r="K91" s="9">
+        <v>29384253</v>
+      </c>
+      <c r="L91" s="9">
         <v>31789373</v>
       </c>
-      <c r="H91" s="9">
+      <c r="M91" s="9">
         <v>36226171</v>
       </c>
-      <c r="I91" s="9">
+      <c r="N91" s="9">
         <v>39870672</v>
       </c>
     </row>
-    <row r="92" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="92" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B92" s="10" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C92" s="11" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D92" s="11"/>
       <c r="E92" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="F92" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="G92" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="H92" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
+      </c>
+      <c r="F92" s="11">
+        <v>3558290</v>
+      </c>
+      <c r="G92" s="11">
+        <v>3468868</v>
+      </c>
+      <c r="H92" s="11">
+        <v>4236127</v>
       </c>
       <c r="I92" s="11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="93" spans="2:9" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+      <c r="J92" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="K92" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="L92" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="M92" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="N92" s="11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="93" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B93" s="8" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C93" s="9" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D93" s="9"/>
       <c r="E93" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F93" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G93" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H93" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I93" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="94" spans="2:9" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+      <c r="J93" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="K93" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="L93" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="M93" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="N93" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="94" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B94" s="10" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C94" s="11" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D94" s="11"/>
       <c r="E94" s="11">
+        <v>17051518</v>
+      </c>
+      <c r="F94" s="11">
+        <v>22400222</v>
+      </c>
+      <c r="G94" s="11">
+        <v>28699976</v>
+      </c>
+      <c r="H94" s="11">
+        <v>31285097</v>
+      </c>
+      <c r="I94" s="11">
+        <v>23746596</v>
+      </c>
+      <c r="J94" s="11">
         <v>29776451</v>
       </c>
-      <c r="F94" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="G94" s="11">
+      <c r="K94" s="11">
+        <v>31922405</v>
+      </c>
+      <c r="L94" s="11">
         <v>49307645</v>
       </c>
-      <c r="H94" s="11">
+      <c r="M94" s="11">
         <v>60662250</v>
       </c>
-      <c r="I94" s="11">
+      <c r="N94" s="11">
         <v>71914537</v>
       </c>
     </row>
-    <row r="95" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="95" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B95" s="8" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C95" s="9" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D95" s="9"/>
       <c r="E95" s="9">
+        <v>725768</v>
+      </c>
+      <c r="F95" s="9">
+        <v>0</v>
+      </c>
+      <c r="G95" s="9">
+        <v>95050</v>
+      </c>
+      <c r="H95" s="9">
+        <v>711549</v>
+      </c>
+      <c r="I95" s="9">
+        <v>423963</v>
+      </c>
+      <c r="J95" s="9">
         <v>4241</v>
       </c>
-      <c r="F95" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="G95" s="9">
+      <c r="K95" s="9">
+        <v>786012</v>
+      </c>
+      <c r="L95" s="9">
         <v>9123932</v>
       </c>
-      <c r="H95" s="9">
+      <c r="M95" s="9">
         <v>21366967</v>
       </c>
-      <c r="I95" s="9">
+      <c r="N95" s="9">
         <v>22392784</v>
       </c>
     </row>
-    <row r="96" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="96" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B96" s="10" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C96" s="11" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D96" s="11"/>
       <c r="E96" s="11">
+        <v>9260587</v>
+      </c>
+      <c r="F96" s="11">
+        <v>11575984</v>
+      </c>
+      <c r="G96" s="11">
+        <v>18522246</v>
+      </c>
+      <c r="H96" s="11">
+        <v>26899663</v>
+      </c>
+      <c r="I96" s="11">
+        <v>29172175</v>
+      </c>
+      <c r="J96" s="11">
         <v>43658630</v>
       </c>
-      <c r="F96" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="G96" s="11">
+      <c r="K96" s="11">
+        <v>42798498</v>
+      </c>
+      <c r="L96" s="11">
         <v>58788076</v>
       </c>
-      <c r="H96" s="11">
+      <c r="M96" s="11">
         <v>40156187</v>
       </c>
-      <c r="I96" s="11">
+      <c r="N96" s="11">
         <v>40235822</v>
       </c>
     </row>
-    <row r="97" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="97" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B97" s="8" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C97" s="9" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D97" s="9"/>
       <c r="E97" s="9">
+        <v>7841668</v>
+      </c>
+      <c r="F97" s="9">
+        <v>9656378</v>
+      </c>
+      <c r="G97" s="9">
+        <v>10828946</v>
+      </c>
+      <c r="H97" s="9">
+        <v>17483615</v>
+      </c>
+      <c r="I97" s="9">
+        <v>26928859</v>
+      </c>
+      <c r="J97" s="9">
         <v>22810581</v>
       </c>
-      <c r="F97" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="G97" s="9">
+      <c r="K97" s="9">
+        <v>26755307</v>
+      </c>
+      <c r="L97" s="9">
         <v>21912718</v>
       </c>
-      <c r="H97" s="9">
+      <c r="M97" s="9">
         <v>21912718</v>
       </c>
-      <c r="I97" s="9">
+      <c r="N97" s="9">
         <v>26285939</v>
       </c>
     </row>
-    <row r="98" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="98" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B98" s="12" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C98" s="13"/>
       <c r="D98" s="13"/>
       <c r="E98" s="13">
+        <v>44445535</v>
+      </c>
+      <c r="F98" s="13">
+        <v>56698325</v>
+      </c>
+      <c r="G98" s="13">
+        <v>68776107</v>
+      </c>
+      <c r="H98" s="13">
+        <v>89523690</v>
+      </c>
+      <c r="I98" s="13">
+        <v>96420549</v>
+      </c>
+      <c r="J98" s="13">
         <v>126466358</v>
       </c>
-      <c r="F98" s="13">
-        <v>0</v>
-      </c>
-      <c r="G98" s="13">
+      <c r="K98" s="13">
+        <v>137538554</v>
+      </c>
+      <c r="L98" s="13">
         <v>176647956</v>
       </c>
-      <c r="H98" s="13">
+      <c r="M98" s="13">
         <v>192955701</v>
       </c>
-      <c r="I98" s="13">
+      <c r="N98" s="13">
         <v>220552105</v>
       </c>
     </row>
-    <row r="99" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="99" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
       <c r="D99" s="1"/>
@@ -2663,8 +3868,13 @@
       <c r="G99" s="1"/>
       <c r="H99" s="1"/>
       <c r="I99" s="1"/>
-    </row>
-    <row r="100" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J99" s="1"/>
+      <c r="K99" s="1"/>
+      <c r="L99" s="1"/>
+      <c r="M99" s="1"/>
+      <c r="N99" s="1"/>
+    </row>
+    <row r="100" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
       <c r="D100" s="1"/>
@@ -2673,8 +3883,13 @@
       <c r="G100" s="1"/>
       <c r="H100" s="1"/>
       <c r="I100" s="1"/>
-    </row>
-    <row r="101" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J100" s="1"/>
+      <c r="K100" s="1"/>
+      <c r="L100" s="1"/>
+      <c r="M100" s="1"/>
+      <c r="N100" s="1"/>
+    </row>
+    <row r="101" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B101" s="1"/>
       <c r="C101" s="1"/>
       <c r="D101" s="1"/>
@@ -2683,10 +3898,15 @@
       <c r="G101" s="1"/>
       <c r="H101" s="1"/>
       <c r="I101" s="1"/>
-    </row>
-    <row r="102" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J101" s="1"/>
+      <c r="K101" s="1"/>
+      <c r="L101" s="1"/>
+      <c r="M101" s="1"/>
+      <c r="N101" s="1"/>
+    </row>
+    <row r="102" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B102" s="7" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="C102" s="6"/>
       <c r="D102" s="6"/>
@@ -2705,8 +3925,23 @@
       <c r="I102" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="103" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J102" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K102" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L102" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M102" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N102" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="103" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
       <c r="D103" s="1"/>
@@ -2715,246 +3950,401 @@
       <c r="G103" s="1"/>
       <c r="H103" s="1"/>
       <c r="I103" s="1"/>
-    </row>
-    <row r="104" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J103" s="1"/>
+      <c r="K103" s="1"/>
+      <c r="L103" s="1"/>
+      <c r="M103" s="1"/>
+      <c r="N103" s="1"/>
+    </row>
+    <row r="104" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B104" s="8" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="C104" s="9" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D104" s="9"/>
       <c r="E104" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F104" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="G104" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
+      </c>
+      <c r="G104" s="9">
+        <v>0</v>
       </c>
       <c r="H104" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I104" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="105" spans="2:9" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+      <c r="J104" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="K104" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="L104" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="M104" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="N104" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="105" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B105" s="10" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C105" s="11" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D105" s="11"/>
-      <c r="E105" s="11">
+      <c r="E105" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="F105" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="G105" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="H105" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="I105" s="11">
+        <v>9389464</v>
+      </c>
+      <c r="J105" s="11">
         <v>7587574</v>
       </c>
-      <c r="F105" s="11">
+      <c r="K105" s="11">
         <v>19379813</v>
       </c>
-      <c r="G105" s="11">
+      <c r="L105" s="11">
         <v>15905607</v>
       </c>
-      <c r="H105" s="11">
+      <c r="M105" s="11">
         <v>5216619</v>
       </c>
-      <c r="I105" s="11">
+      <c r="N105" s="11">
         <v>1878308</v>
       </c>
     </row>
-    <row r="106" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="106" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B106" s="8" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C106" s="9" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D106" s="9"/>
       <c r="E106" s="9">
+        <v>3499269</v>
+      </c>
+      <c r="F106" s="9">
+        <v>2960087</v>
+      </c>
+      <c r="G106" s="9">
+        <v>7042565</v>
+      </c>
+      <c r="H106" s="9">
+        <v>23258037</v>
+      </c>
+      <c r="I106" s="9">
+        <v>-1582865</v>
+      </c>
+      <c r="J106" s="9">
         <v>14733049</v>
       </c>
-      <c r="F106" s="9">
+      <c r="K106" s="9">
         <v>10963096</v>
       </c>
-      <c r="G106" s="9">
+      <c r="L106" s="9">
         <v>13720300</v>
       </c>
-      <c r="H106" s="9">
+      <c r="M106" s="9">
         <v>12017557</v>
       </c>
-      <c r="I106" s="9">
+      <c r="N106" s="9">
         <v>23197371</v>
       </c>
     </row>
-    <row r="107" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="107" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B107" s="10" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C107" s="11" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D107" s="11"/>
-      <c r="E107" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="F107" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="G107" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="H107" s="11" t="s">
-        <v>26</v>
+      <c r="E107" s="11">
+        <v>5393456</v>
+      </c>
+      <c r="F107" s="11">
+        <v>3507033</v>
+      </c>
+      <c r="G107" s="11">
+        <v>8928823</v>
+      </c>
+      <c r="H107" s="11">
+        <v>4945578</v>
       </c>
       <c r="I107" s="11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="108" spans="2:9" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+      <c r="J107" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="K107" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="L107" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="M107" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="N107" s="11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="108" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B108" s="8" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C108" s="9" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D108" s="9"/>
       <c r="E108" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F108" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G108" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H108" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I108" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="109" spans="2:9" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+      <c r="J108" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="K108" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="L108" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="M108" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="N108" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="109" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B109" s="10" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C109" s="11" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D109" s="11"/>
       <c r="E109" s="11">
+        <v>25134312</v>
+      </c>
+      <c r="F109" s="11">
+        <v>33113937</v>
+      </c>
+      <c r="G109" s="11">
+        <v>35621526</v>
+      </c>
+      <c r="H109" s="11">
+        <v>37091902</v>
+      </c>
+      <c r="I109" s="11">
+        <v>35819546</v>
+      </c>
+      <c r="J109" s="11">
         <v>40917585</v>
       </c>
-      <c r="F109" s="11">
+      <c r="K109" s="11">
         <v>57270748</v>
       </c>
-      <c r="G109" s="11">
+      <c r="L109" s="11">
         <v>71856725</v>
       </c>
-      <c r="H109" s="11">
+      <c r="M109" s="11">
         <v>56354566</v>
       </c>
-      <c r="I109" s="11">
+      <c r="N109" s="11">
         <v>38837475</v>
       </c>
     </row>
-    <row r="110" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="110" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B110" s="8" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C110" s="9" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D110" s="9"/>
       <c r="E110" s="9">
+        <v>12882329</v>
+      </c>
+      <c r="F110" s="9">
+        <v>22104926</v>
+      </c>
+      <c r="G110" s="9">
+        <v>19872018</v>
+      </c>
+      <c r="H110" s="9">
+        <v>27229595</v>
+      </c>
+      <c r="I110" s="9">
+        <v>27480225</v>
+      </c>
+      <c r="J110" s="9">
         <v>48752479</v>
       </c>
-      <c r="F110" s="9">
+      <c r="K110" s="9">
         <v>85570472</v>
       </c>
-      <c r="G110" s="9">
+      <c r="L110" s="9">
         <v>63091280</v>
       </c>
-      <c r="H110" s="9">
+      <c r="M110" s="9">
         <v>63525103</v>
       </c>
-      <c r="I110" s="9">
+      <c r="N110" s="9">
         <v>77817803</v>
       </c>
     </row>
-    <row r="111" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="111" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B111" s="10" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C111" s="11" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D111" s="11"/>
       <c r="E111" s="11">
+        <v>23721595</v>
+      </c>
+      <c r="F111" s="11">
+        <v>40340666</v>
+      </c>
+      <c r="G111" s="11">
+        <v>41221891</v>
+      </c>
+      <c r="H111" s="11">
+        <v>45408328</v>
+      </c>
+      <c r="I111" s="11">
+        <v>35121396</v>
+      </c>
+      <c r="J111" s="11">
         <v>47171417</v>
       </c>
-      <c r="F111" s="11">
+      <c r="K111" s="11">
         <v>38601069</v>
       </c>
-      <c r="G111" s="11">
+      <c r="L111" s="11">
         <v>37648708</v>
       </c>
-      <c r="H111" s="11">
+      <c r="M111" s="11">
         <v>44373292</v>
       </c>
-      <c r="I111" s="11">
+      <c r="N111" s="11">
         <v>46042706</v>
       </c>
     </row>
-    <row r="112" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="112" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B112" s="8" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C112" s="9" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D112" s="9"/>
       <c r="E112" s="9">
+        <v>3460573</v>
+      </c>
+      <c r="F112" s="9">
+        <v>8282640</v>
+      </c>
+      <c r="G112" s="9">
+        <v>16054393</v>
+      </c>
+      <c r="H112" s="9">
+        <v>17703212</v>
+      </c>
+      <c r="I112" s="9">
+        <v>-12376246</v>
+      </c>
+      <c r="J112" s="9">
         <v>18250353</v>
       </c>
-      <c r="F112" s="9">
+      <c r="K112" s="9">
         <v>-6284209</v>
       </c>
-      <c r="G112" s="9">
-        <v>0</v>
-      </c>
-      <c r="H112" s="9">
+      <c r="L112" s="9">
+        <v>0</v>
+      </c>
+      <c r="M112" s="9">
         <v>16713268</v>
       </c>
-      <c r="I112" s="9">
+      <c r="N112" s="9">
         <v>19899131</v>
       </c>
     </row>
-    <row r="113" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="113" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B113" s="12" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C113" s="13"/>
       <c r="D113" s="13"/>
       <c r="E113" s="13">
+        <v>74091534</v>
+      </c>
+      <c r="F113" s="13">
+        <v>110309289</v>
+      </c>
+      <c r="G113" s="13">
+        <v>128741216</v>
+      </c>
+      <c r="H113" s="13">
+        <v>155636652</v>
+      </c>
+      <c r="I113" s="13">
+        <v>93851520</v>
+      </c>
+      <c r="J113" s="13">
         <v>177412457</v>
       </c>
-      <c r="F113" s="13">
+      <c r="K113" s="13">
         <v>205500989</v>
       </c>
-      <c r="G113" s="13">
+      <c r="L113" s="13">
         <v>202222620</v>
       </c>
-      <c r="H113" s="13">
+      <c r="M113" s="13">
         <v>198200405</v>
       </c>
-      <c r="I113" s="13">
+      <c r="N113" s="13">
         <v>207672794</v>
       </c>
     </row>
-    <row r="114" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="114" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B114" s="1"/>
       <c r="C114" s="1"/>
       <c r="D114" s="1"/>
@@ -2963,8 +4353,13 @@
       <c r="G114" s="1"/>
       <c r="H114" s="1"/>
       <c r="I114" s="1"/>
-    </row>
-    <row r="115" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J114" s="1"/>
+      <c r="K114" s="1"/>
+      <c r="L114" s="1"/>
+      <c r="M114" s="1"/>
+      <c r="N114" s="1"/>
+    </row>
+    <row r="115" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B115" s="1"/>
       <c r="C115" s="1"/>
       <c r="D115" s="1"/>
@@ -2973,8 +4368,13 @@
       <c r="G115" s="1"/>
       <c r="H115" s="1"/>
       <c r="I115" s="1"/>
-    </row>
-    <row r="116" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J115" s="1"/>
+      <c r="K115" s="1"/>
+      <c r="L115" s="1"/>
+      <c r="M115" s="1"/>
+      <c r="N115" s="1"/>
+    </row>
+    <row r="116" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
       <c r="D116" s="1"/>
@@ -2983,10 +4383,15 @@
       <c r="G116" s="1"/>
       <c r="H116" s="1"/>
       <c r="I116" s="1"/>
-    </row>
-    <row r="117" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J116" s="1"/>
+      <c r="K116" s="1"/>
+      <c r="L116" s="1"/>
+      <c r="M116" s="1"/>
+      <c r="N116" s="1"/>
+    </row>
+    <row r="117" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B117" s="7" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="C117" s="6"/>
       <c r="D117" s="6"/>
@@ -3005,8 +4410,23 @@
       <c r="I117" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="118" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J117" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K117" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L117" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M117" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N117" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="118" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B118" s="1"/>
       <c r="C118" s="1"/>
       <c r="D118" s="1"/>
@@ -3015,246 +4435,401 @@
       <c r="G118" s="1"/>
       <c r="H118" s="1"/>
       <c r="I118" s="1"/>
-    </row>
-    <row r="119" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J118" s="1"/>
+      <c r="K118" s="1"/>
+      <c r="L118" s="1"/>
+      <c r="M118" s="1"/>
+      <c r="N118" s="1"/>
+    </row>
+    <row r="119" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B119" s="8" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="C119" s="9" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D119" s="9"/>
       <c r="E119" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F119" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="G119" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
+      </c>
+      <c r="G119" s="9">
+        <v>0</v>
       </c>
       <c r="H119" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I119" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="120" spans="2:9" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+      <c r="J119" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="K119" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="L119" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="M119" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="N119" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="120" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B120" s="10" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C120" s="11" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D120" s="11"/>
-      <c r="E120" s="11">
+      <c r="E120" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="F120" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="G120" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="H120" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="I120" s="11">
+        <v>7110410</v>
+      </c>
+      <c r="J120" s="11">
         <v>8210676</v>
       </c>
-      <c r="F120" s="11">
+      <c r="K120" s="11">
         <v>19545680</v>
       </c>
-      <c r="G120" s="11">
+      <c r="L120" s="11">
         <v>9000411</v>
       </c>
-      <c r="H120" s="11">
+      <c r="M120" s="11">
         <v>-2004324</v>
       </c>
-      <c r="I120" s="11">
+      <c r="N120" s="11">
         <v>5684748</v>
       </c>
     </row>
-    <row r="121" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="121" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B121" s="8" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C121" s="9" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D121" s="9"/>
       <c r="E121" s="9">
+        <v>3558268</v>
+      </c>
+      <c r="F121" s="9">
+        <v>5306516</v>
+      </c>
+      <c r="G121" s="9">
+        <v>5295947</v>
+      </c>
+      <c r="H121" s="9">
+        <v>16016720</v>
+      </c>
+      <c r="I121" s="9">
+        <v>-9135183</v>
+      </c>
+      <c r="J121" s="9">
         <v>9050070</v>
       </c>
-      <c r="F121" s="9">
+      <c r="K121" s="9">
         <v>8557976</v>
       </c>
-      <c r="G121" s="9">
+      <c r="L121" s="9">
         <v>9283502</v>
       </c>
-      <c r="H121" s="9">
+      <c r="M121" s="9">
         <v>8373056</v>
       </c>
-      <c r="I121" s="9">
+      <c r="N121" s="9">
         <v>13456806</v>
       </c>
     </row>
-    <row r="122" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="122" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B122" s="10" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C122" s="11" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D122" s="11"/>
-      <c r="E122" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="F122" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="G122" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="H122" s="11" t="s">
-        <v>26</v>
+      <c r="E122" s="11">
+        <v>3556762</v>
+      </c>
+      <c r="F122" s="11">
+        <v>3596455</v>
+      </c>
+      <c r="G122" s="11">
+        <v>8161564</v>
+      </c>
+      <c r="H122" s="11">
+        <v>4325011</v>
       </c>
       <c r="I122" s="11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="123" spans="2:9" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+      <c r="J122" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="K122" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="L122" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="M122" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="N122" s="11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="123" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B123" s="8" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C123" s="9" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D123" s="9"/>
       <c r="E123" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F123" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G123" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H123" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I123" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="124" spans="2:9" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+      <c r="J123" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="K123" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="L123" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="M123" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="N123" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="124" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B124" s="10" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C124" s="11" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D124" s="11"/>
       <c r="E124" s="11">
+        <v>19785608</v>
+      </c>
+      <c r="F124" s="11">
+        <v>26858794</v>
+      </c>
+      <c r="G124" s="11">
+        <v>33036405</v>
+      </c>
+      <c r="H124" s="11">
+        <v>44630403</v>
+      </c>
+      <c r="I124" s="11">
+        <v>29789691</v>
+      </c>
+      <c r="J124" s="11">
         <v>38771631</v>
       </c>
-      <c r="F124" s="11">
+      <c r="K124" s="11">
         <v>39885508</v>
       </c>
-      <c r="G124" s="11">
+      <c r="L124" s="11">
         <v>60502120</v>
       </c>
-      <c r="H124" s="11">
+      <c r="M124" s="11">
         <v>45102279</v>
       </c>
-      <c r="I124" s="11">
+      <c r="N124" s="11">
         <v>37818635</v>
       </c>
     </row>
-    <row r="125" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="125" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B125" s="8" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C125" s="9" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D125" s="9"/>
       <c r="E125" s="9">
+        <v>13608097</v>
+      </c>
+      <c r="F125" s="9">
+        <v>22009876</v>
+      </c>
+      <c r="G125" s="9">
+        <v>19248957</v>
+      </c>
+      <c r="H125" s="9">
+        <v>27517181</v>
+      </c>
+      <c r="I125" s="9">
+        <v>27899947</v>
+      </c>
+      <c r="J125" s="9">
         <v>47970707</v>
       </c>
-      <c r="F125" s="9">
+      <c r="K125" s="9">
         <v>83043901</v>
       </c>
-      <c r="G125" s="9">
+      <c r="L125" s="9">
         <v>50848245</v>
       </c>
-      <c r="H125" s="9">
+      <c r="M125" s="9">
         <v>62499286</v>
       </c>
-      <c r="I125" s="9">
+      <c r="N125" s="9">
         <v>80026658</v>
       </c>
     </row>
-    <row r="126" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="126" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B126" s="10" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C126" s="11" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D126" s="11"/>
       <c r="E126" s="11">
+        <v>21406198</v>
+      </c>
+      <c r="F126" s="11">
+        <v>33395332</v>
+      </c>
+      <c r="G126" s="11">
+        <v>32844474</v>
+      </c>
+      <c r="H126" s="11">
+        <v>43135816</v>
+      </c>
+      <c r="I126" s="11">
+        <v>20634941</v>
+      </c>
+      <c r="J126" s="11">
         <v>48031549</v>
       </c>
-      <c r="F126" s="11">
+      <c r="K126" s="11">
         <v>22611491</v>
       </c>
-      <c r="G126" s="11">
+      <c r="L126" s="11">
         <v>56280597</v>
       </c>
-      <c r="H126" s="11">
+      <c r="M126" s="11">
         <v>44293657</v>
       </c>
-      <c r="I126" s="11">
+      <c r="N126" s="11">
         <v>52525246</v>
       </c>
     </row>
-    <row r="127" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="127" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B127" s="8" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C127" s="9" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D127" s="9"/>
       <c r="E127" s="9">
+        <v>1798014</v>
+      </c>
+      <c r="F127" s="9">
+        <v>6911927</v>
+      </c>
+      <c r="G127" s="9">
+        <v>9406286</v>
+      </c>
+      <c r="H127" s="9">
+        <v>8257968</v>
+      </c>
+      <c r="I127" s="9">
+        <v>-8257968</v>
+      </c>
+      <c r="J127" s="9">
         <v>14305627</v>
       </c>
-      <c r="F127" s="9">
+      <c r="K127" s="9">
         <v>-7252969</v>
       </c>
-      <c r="G127" s="9">
-        <v>0</v>
-      </c>
-      <c r="H127" s="9">
+      <c r="L127" s="9">
+        <v>0</v>
+      </c>
+      <c r="M127" s="9">
         <v>12340047</v>
       </c>
-      <c r="I127" s="9">
+      <c r="N127" s="9">
         <v>23307298</v>
       </c>
     </row>
-    <row r="128" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="128" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B128" s="12" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C128" s="13"/>
       <c r="D128" s="13"/>
       <c r="E128" s="13">
+        <v>63712947</v>
+      </c>
+      <c r="F128" s="13">
+        <v>98078900</v>
+      </c>
+      <c r="G128" s="13">
+        <v>107993633</v>
+      </c>
+      <c r="H128" s="13">
+        <v>143883099</v>
+      </c>
+      <c r="I128" s="13">
+        <v>68041838</v>
+      </c>
+      <c r="J128" s="13">
         <v>166340260</v>
       </c>
-      <c r="F128" s="13">
+      <c r="K128" s="13">
         <v>166391587</v>
       </c>
-      <c r="G128" s="13">
+      <c r="L128" s="13">
         <v>185914875</v>
       </c>
-      <c r="H128" s="13">
+      <c r="M128" s="13">
         <v>170604001</v>
       </c>
-      <c r="I128" s="13">
+      <c r="N128" s="13">
         <v>212819391</v>
       </c>
     </row>
-    <row r="129" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="129" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B129" s="1"/>
       <c r="C129" s="1"/>
       <c r="D129" s="1"/>
@@ -3263,8 +4838,13 @@
       <c r="G129" s="1"/>
       <c r="H129" s="1"/>
       <c r="I129" s="1"/>
-    </row>
-    <row r="130" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J129" s="1"/>
+      <c r="K129" s="1"/>
+      <c r="L129" s="1"/>
+      <c r="M129" s="1"/>
+      <c r="N129" s="1"/>
+    </row>
+    <row r="130" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B130" s="1"/>
       <c r="C130" s="1"/>
       <c r="D130" s="1"/>
@@ -3273,8 +4853,13 @@
       <c r="G130" s="1"/>
       <c r="H130" s="1"/>
       <c r="I130" s="1"/>
-    </row>
-    <row r="131" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J130" s="1"/>
+      <c r="K130" s="1"/>
+      <c r="L130" s="1"/>
+      <c r="M130" s="1"/>
+      <c r="N130" s="1"/>
+    </row>
+    <row r="131" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B131" s="1"/>
       <c r="C131" s="1"/>
       <c r="D131" s="1"/>
@@ -3283,10 +4868,15 @@
       <c r="G131" s="1"/>
       <c r="H131" s="1"/>
       <c r="I131" s="1"/>
-    </row>
-    <row r="132" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J131" s="1"/>
+      <c r="K131" s="1"/>
+      <c r="L131" s="1"/>
+      <c r="M131" s="1"/>
+      <c r="N131" s="1"/>
+    </row>
+    <row r="132" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B132" s="7" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="C132" s="6"/>
       <c r="D132" s="6"/>
@@ -3305,8 +4895,23 @@
       <c r="I132" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="133" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J132" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K132" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L132" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M132" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N132" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="133" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B133" s="1"/>
       <c r="C133" s="1"/>
       <c r="D133" s="1"/>
@@ -3315,246 +4920,401 @@
       <c r="G133" s="1"/>
       <c r="H133" s="1"/>
       <c r="I133" s="1"/>
-    </row>
-    <row r="134" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J133" s="1"/>
+      <c r="K133" s="1"/>
+      <c r="L133" s="1"/>
+      <c r="M133" s="1"/>
+      <c r="N133" s="1"/>
+    </row>
+    <row r="134" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B134" s="8" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="C134" s="9" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D134" s="9"/>
       <c r="E134" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F134" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="G134" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
+      </c>
+      <c r="G134" s="9">
+        <v>0</v>
       </c>
       <c r="H134" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I134" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="135" spans="2:9" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+      <c r="J134" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="K134" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="L134" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="M134" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="N134" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="135" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B135" s="10" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C135" s="11" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D135" s="11"/>
-      <c r="E135" s="11">
+      <c r="E135" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="F135" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="G135" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="H135" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="I135" s="11">
+        <v>6515181</v>
+      </c>
+      <c r="J135" s="11">
         <v>5892079</v>
       </c>
-      <c r="F135" s="11">
+      <c r="K135" s="11">
         <v>5726212</v>
       </c>
-      <c r="G135" s="11">
+      <c r="L135" s="11">
         <v>12631408</v>
       </c>
-      <c r="H135" s="11">
+      <c r="M135" s="11">
         <v>19852351</v>
       </c>
-      <c r="I135" s="11">
+      <c r="N135" s="11">
         <v>16045911</v>
       </c>
     </row>
-    <row r="136" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="136" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B136" s="8" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C136" s="9" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D136" s="9"/>
       <c r="E136" s="9">
+        <v>9507450</v>
+      </c>
+      <c r="F136" s="9">
+        <v>7161021</v>
+      </c>
+      <c r="G136" s="9">
+        <v>8907639</v>
+      </c>
+      <c r="H136" s="9">
+        <v>16148956</v>
+      </c>
+      <c r="I136" s="9">
+        <v>23701274</v>
+      </c>
+      <c r="J136" s="9">
         <v>29384253</v>
       </c>
-      <c r="F136" s="9">
+      <c r="K136" s="9">
         <v>31789373</v>
       </c>
-      <c r="G136" s="9">
+      <c r="L136" s="9">
         <v>36226171</v>
       </c>
-      <c r="H136" s="9">
+      <c r="M136" s="9">
         <v>39870672</v>
       </c>
-      <c r="I136" s="9">
+      <c r="N136" s="9">
         <v>49611237</v>
       </c>
     </row>
-    <row r="137" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="137" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B137" s="10" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C137" s="11" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D137" s="11"/>
-      <c r="E137" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="F137" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="G137" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="H137" s="11" t="s">
-        <v>26</v>
+      <c r="E137" s="11">
+        <v>3558290</v>
+      </c>
+      <c r="F137" s="11">
+        <v>3468868</v>
+      </c>
+      <c r="G137" s="11">
+        <v>4236127</v>
+      </c>
+      <c r="H137" s="11">
+        <v>4856694</v>
       </c>
       <c r="I137" s="11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="138" spans="2:9" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+      <c r="J137" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="K137" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="L137" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="M137" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="N137" s="11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="138" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B138" s="8" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C138" s="9" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D138" s="9"/>
       <c r="E138" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F138" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G138" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H138" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I138" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="139" spans="2:9" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+      <c r="J138" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="K138" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="L138" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="M138" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="N138" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="139" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B139" s="10" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C139" s="11" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D139" s="11"/>
       <c r="E139" s="11">
+        <v>22400222</v>
+      </c>
+      <c r="F139" s="11">
+        <v>28699976</v>
+      </c>
+      <c r="G139" s="11">
+        <v>31285097</v>
+      </c>
+      <c r="H139" s="11">
+        <v>23746596</v>
+      </c>
+      <c r="I139" s="11">
+        <v>29776451</v>
+      </c>
+      <c r="J139" s="11">
         <v>31922405</v>
       </c>
-      <c r="F139" s="11">
+      <c r="K139" s="11">
         <v>49307645</v>
       </c>
-      <c r="G139" s="11">
+      <c r="L139" s="11">
         <v>60662250</v>
       </c>
-      <c r="H139" s="11">
+      <c r="M139" s="11">
         <v>71914537</v>
       </c>
-      <c r="I139" s="11">
+      <c r="N139" s="11">
         <v>72933377</v>
       </c>
     </row>
-    <row r="140" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="140" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B140" s="8" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C140" s="9" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D140" s="9"/>
       <c r="E140" s="9">
+        <v>0</v>
+      </c>
+      <c r="F140" s="9">
+        <v>95050</v>
+      </c>
+      <c r="G140" s="9">
+        <v>711549</v>
+      </c>
+      <c r="H140" s="9">
+        <v>423963</v>
+      </c>
+      <c r="I140" s="9">
+        <v>4241</v>
+      </c>
+      <c r="J140" s="9">
         <v>786012</v>
       </c>
-      <c r="F140" s="9">
+      <c r="K140" s="9">
         <v>9123932</v>
       </c>
-      <c r="G140" s="9">
+      <c r="L140" s="9">
         <v>21366967</v>
       </c>
-      <c r="H140" s="9">
+      <c r="M140" s="9">
         <v>22392784</v>
       </c>
-      <c r="I140" s="9">
+      <c r="N140" s="9">
         <v>20183929</v>
       </c>
     </row>
-    <row r="141" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="141" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B141" s="10" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C141" s="11" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D141" s="11"/>
       <c r="E141" s="11">
+        <v>11575984</v>
+      </c>
+      <c r="F141" s="11">
+        <v>18522246</v>
+      </c>
+      <c r="G141" s="11">
+        <v>26899663</v>
+      </c>
+      <c r="H141" s="11">
+        <v>29172175</v>
+      </c>
+      <c r="I141" s="11">
+        <v>43658630</v>
+      </c>
+      <c r="J141" s="11">
         <v>42798498</v>
       </c>
-      <c r="F141" s="11">
+      <c r="K141" s="11">
         <v>58788076</v>
       </c>
-      <c r="G141" s="11">
+      <c r="L141" s="11">
         <v>40156187</v>
       </c>
-      <c r="H141" s="11">
+      <c r="M141" s="11">
         <v>40235822</v>
       </c>
-      <c r="I141" s="11">
+      <c r="N141" s="11">
         <v>33753282</v>
       </c>
     </row>
-    <row r="142" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="142" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B142" s="8" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C142" s="9" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D142" s="9"/>
       <c r="E142" s="9">
+        <v>9503772</v>
+      </c>
+      <c r="F142" s="9">
+        <v>10828946</v>
+      </c>
+      <c r="G142" s="9">
+        <v>17483615</v>
+      </c>
+      <c r="H142" s="9">
+        <v>26928859</v>
+      </c>
+      <c r="I142" s="9">
+        <v>22810581</v>
+      </c>
+      <c r="J142" s="9">
         <v>26755307</v>
       </c>
-      <c r="F142" s="9">
+      <c r="K142" s="9">
         <v>21912719</v>
       </c>
-      <c r="G142" s="9">
+      <c r="L142" s="9">
         <v>21912718</v>
       </c>
-      <c r="H142" s="9">
+      <c r="M142" s="9">
         <v>26285939</v>
       </c>
-      <c r="I142" s="9">
+      <c r="N142" s="9">
         <v>22877773</v>
       </c>
     </row>
-    <row r="143" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="143" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B143" s="12" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C143" s="13"/>
       <c r="D143" s="13"/>
       <c r="E143" s="13">
+        <v>56545718</v>
+      </c>
+      <c r="F143" s="13">
+        <v>68776107</v>
+      </c>
+      <c r="G143" s="13">
+        <v>89523690</v>
+      </c>
+      <c r="H143" s="13">
+        <v>101277243</v>
+      </c>
+      <c r="I143" s="13">
+        <v>126466358</v>
+      </c>
+      <c r="J143" s="13">
         <v>137538554</v>
       </c>
-      <c r="F143" s="13">
+      <c r="K143" s="13">
         <v>176647957</v>
       </c>
-      <c r="G143" s="13">
+      <c r="L143" s="13">
         <v>192955701</v>
       </c>
-      <c r="H143" s="13">
+      <c r="M143" s="13">
         <v>220552105</v>
       </c>
-      <c r="I143" s="13">
+      <c r="N143" s="13">
         <v>215405509</v>
       </c>
     </row>
-    <row r="144" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="144" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B144" s="1"/>
       <c r="C144" s="1"/>
       <c r="D144" s="1"/>
@@ -3563,8 +5323,13 @@
       <c r="G144" s="1"/>
       <c r="H144" s="1"/>
       <c r="I144" s="1"/>
-    </row>
-    <row r="145" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J144" s="1"/>
+      <c r="K144" s="1"/>
+      <c r="L144" s="1"/>
+      <c r="M144" s="1"/>
+      <c r="N144" s="1"/>
+    </row>
+    <row r="145" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B145" s="1"/>
       <c r="C145" s="1"/>
       <c r="D145" s="1"/>
@@ -3573,8 +5338,13 @@
       <c r="G145" s="1"/>
       <c r="H145" s="1"/>
       <c r="I145" s="1"/>
-    </row>
-    <row r="146" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J145" s="1"/>
+      <c r="K145" s="1"/>
+      <c r="L145" s="1"/>
+      <c r="M145" s="1"/>
+      <c r="N145" s="1"/>
+    </row>
+    <row r="146" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B146" s="1"/>
       <c r="C146" s="1"/>
       <c r="D146" s="1"/>
@@ -3583,10 +5353,15 @@
       <c r="G146" s="1"/>
       <c r="H146" s="1"/>
       <c r="I146" s="1"/>
-    </row>
-    <row r="147" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J146" s="1"/>
+      <c r="K146" s="1"/>
+      <c r="L146" s="1"/>
+      <c r="M146" s="1"/>
+      <c r="N146" s="1"/>
+    </row>
+    <row r="147" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B147" s="7" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C147" s="6"/>
       <c r="D147" s="6"/>
@@ -3605,8 +5380,23 @@
       <c r="I147" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="148" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J147" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K147" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L147" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M147" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N147" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="148" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B148" s="1"/>
       <c r="C148" s="1"/>
       <c r="D148" s="1"/>
@@ -3615,200 +5405,325 @@
       <c r="G148" s="1"/>
       <c r="H148" s="1"/>
       <c r="I148" s="1"/>
-    </row>
-    <row r="149" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J148" s="1"/>
+      <c r="K148" s="1"/>
+      <c r="L148" s="1"/>
+      <c r="M148" s="1"/>
+      <c r="N148" s="1"/>
+    </row>
+    <row r="149" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B149" s="8" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C149" s="9" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="D149" s="9"/>
-      <c r="E149" s="9">
+      <c r="E149" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F149" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="G149" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="H149" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="I149" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="J149" s="9">
         <v>63254184466</v>
       </c>
-      <c r="F149" s="9">
+      <c r="K149" s="9">
         <v>75539474359</v>
       </c>
-      <c r="G149" s="9">
+      <c r="L149" s="9">
         <v>84209000000</v>
       </c>
-      <c r="H149" s="9">
+      <c r="M149" s="9">
         <v>106146285714</v>
       </c>
-      <c r="I149" s="9">
+      <c r="N149" s="9">
         <v>116778535294</v>
       </c>
     </row>
-    <row r="150" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="150" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B150" s="10" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C150" s="11" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="D150" s="11"/>
       <c r="E150" s="11">
+        <v>170821321429</v>
+      </c>
+      <c r="F150" s="11">
+        <v>182835596154</v>
+      </c>
+      <c r="G150" s="11">
+        <v>210618264706</v>
+      </c>
+      <c r="H150" s="11">
+        <v>287343193548</v>
+      </c>
+      <c r="I150" s="11">
+        <v>393876975610</v>
+      </c>
+      <c r="J150" s="11">
         <v>430932254545</v>
       </c>
-      <c r="F150" s="11">
+      <c r="K150" s="11">
         <v>425858739130</v>
       </c>
-      <c r="G150" s="11">
+      <c r="L150" s="11">
         <v>481657166667</v>
       </c>
-      <c r="H150" s="11">
+      <c r="M150" s="11">
         <v>557325707692</v>
       </c>
-      <c r="I150" s="11">
+      <c r="N150" s="11">
         <v>613394953846</v>
       </c>
     </row>
-    <row r="151" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="151" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B151" s="8" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C151" s="9" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="D151" s="9"/>
       <c r="E151" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F151" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="G151" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="H151" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
+      </c>
+      <c r="F151" s="9">
+        <v>37854148936</v>
+      </c>
+      <c r="G151" s="9">
+        <v>39872045977</v>
+      </c>
+      <c r="H151" s="9">
+        <v>47068077778</v>
       </c>
       <c r="I151" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="152" spans="2:9" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+      <c r="J151" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="K151" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="L151" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="M151" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="N151" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="152" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B152" s="10" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C152" s="11" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="D152" s="11"/>
       <c r="E152" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F152" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G152" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H152" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I152" s="11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="153" spans="2:9" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+      <c r="J152" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="K152" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="L152" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="M152" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="N152" s="11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="153" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B153" s="8" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C153" s="9" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="D153" s="9"/>
       <c r="E153" s="9">
+        <v>7268336743</v>
+      </c>
+      <c r="F153" s="9">
+        <v>8678892677</v>
+      </c>
+      <c r="G153" s="9">
+        <v>10428770349</v>
+      </c>
+      <c r="H153" s="9">
+        <v>12182670171</v>
+      </c>
+      <c r="I153" s="9">
+        <v>14869502818</v>
+      </c>
+      <c r="J153" s="9">
         <v>17905262177</v>
       </c>
-      <c r="F153" s="9">
+      <c r="K153" s="9">
         <v>21168703581</v>
       </c>
-      <c r="G153" s="9">
+      <c r="L153" s="9">
         <v>23192683443</v>
       </c>
-      <c r="H153" s="9">
+      <c r="M153" s="9">
         <v>28709062944</v>
       </c>
-      <c r="I153" s="9">
+      <c r="N153" s="9">
         <v>24815230159</v>
       </c>
     </row>
-    <row r="154" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="154" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B154" s="10" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C154" s="11" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="D154" s="11"/>
       <c r="E154" s="11">
+        <v>25920285714</v>
+      </c>
+      <c r="F154" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="G154" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="H154" s="11">
+        <v>47436600000</v>
+      </c>
+      <c r="I154" s="11">
+        <v>70660500000</v>
+      </c>
+      <c r="J154" s="11">
         <v>4241000000</v>
       </c>
-      <c r="F154" s="11">
+      <c r="K154" s="11">
         <v>78601200000</v>
       </c>
-      <c r="G154" s="11">
+      <c r="L154" s="11">
         <v>90335960396</v>
       </c>
-      <c r="H154" s="11">
+      <c r="M154" s="11">
         <v>137851400000</v>
       </c>
-      <c r="I154" s="11">
+      <c r="N154" s="11">
         <v>99083115044</v>
       </c>
     </row>
-    <row r="155" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="155" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B155" s="8" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C155" s="9" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="D155" s="9"/>
       <c r="E155" s="9">
+        <v>11633903266</v>
+      </c>
+      <c r="F155" s="9">
+        <v>14362263027</v>
+      </c>
+      <c r="G155" s="9">
+        <v>17878615830</v>
+      </c>
+      <c r="H155" s="9">
+        <v>21416929140</v>
+      </c>
+      <c r="I155" s="9">
+        <v>27783023810</v>
+      </c>
+      <c r="J155" s="9">
         <v>31095890313</v>
       </c>
-      <c r="F155" s="9">
+      <c r="K155" s="9">
         <v>33967061905</v>
       </c>
-      <c r="G155" s="9">
+      <c r="L155" s="9">
         <v>36066304294</v>
       </c>
-      <c r="H155" s="9">
+      <c r="M155" s="9">
         <v>41699051921</v>
       </c>
-      <c r="I155" s="9">
+      <c r="N155" s="9">
         <v>38912787234</v>
       </c>
     </row>
-    <row r="156" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="156" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B156" s="10" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C156" s="11" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="D156" s="11"/>
-      <c r="E156" s="11">
+      <c r="E156" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="F156" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="G156" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="H156" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="I156" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="J156" s="11">
         <v>22810581000000</v>
       </c>
-      <c r="F156" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="G156" s="11">
+      <c r="K156" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="L156" s="11">
         <v>21912718000000</v>
       </c>
-      <c r="H156" s="11">
+      <c r="M156" s="11">
         <v>21912718000000</v>
       </c>
-      <c r="I156" s="11">
+      <c r="N156" s="11">
         <v>26285939000000</v>
       </c>
     </row>
-    <row r="157" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="157" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B157" s="1"/>
       <c r="C157" s="1"/>
       <c r="D157" s="1"/>
@@ -3817,8 +5732,13 @@
       <c r="G157" s="1"/>
       <c r="H157" s="1"/>
       <c r="I157" s="1"/>
-    </row>
-    <row r="158" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J157" s="1"/>
+      <c r="K157" s="1"/>
+      <c r="L157" s="1"/>
+      <c r="M157" s="1"/>
+      <c r="N157" s="1"/>
+    </row>
+    <row r="158" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B158" s="1"/>
       <c r="C158" s="1"/>
       <c r="D158" s="1"/>
@@ -3827,8 +5747,13 @@
       <c r="G158" s="1"/>
       <c r="H158" s="1"/>
       <c r="I158" s="1"/>
-    </row>
-    <row r="159" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J158" s="1"/>
+      <c r="K158" s="1"/>
+      <c r="L158" s="1"/>
+      <c r="M158" s="1"/>
+      <c r="N158" s="1"/>
+    </row>
+    <row r="159" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B159" s="1"/>
       <c r="C159" s="1"/>
       <c r="D159" s="1"/>
@@ -3837,10 +5762,15 @@
       <c r="G159" s="1"/>
       <c r="H159" s="1"/>
       <c r="I159" s="1"/>
-    </row>
-    <row r="160" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J159" s="1"/>
+      <c r="K159" s="1"/>
+      <c r="L159" s="1"/>
+      <c r="M159" s="1"/>
+      <c r="N159" s="1"/>
+    </row>
+    <row r="160" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B160" s="7" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="C160" s="6"/>
       <c r="D160" s="6"/>
@@ -3859,8 +5789,23 @@
       <c r="I160" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="161" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J160" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K160" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L160" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M160" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N160" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="161" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B161" s="1"/>
       <c r="C161" s="1"/>
       <c r="D161" s="1"/>
@@ -3869,200 +5814,325 @@
       <c r="G161" s="1"/>
       <c r="H161" s="1"/>
       <c r="I161" s="1"/>
-    </row>
-    <row r="162" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J161" s="1"/>
+      <c r="K161" s="1"/>
+      <c r="L161" s="1"/>
+      <c r="M161" s="1"/>
+      <c r="N161" s="1"/>
+    </row>
+    <row r="162" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B162" s="8" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C162" s="9" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="D162" s="9"/>
-      <c r="E162" s="9">
+      <c r="E162" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F162" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="G162" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="H162" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="I162" s="9">
+        <v>103180923077</v>
+      </c>
+      <c r="J162" s="9">
         <v>122380225806</v>
       </c>
-      <c r="F162" s="9">
+      <c r="K162" s="9">
         <v>120371509317</v>
       </c>
-      <c r="G162" s="9">
+      <c r="L162" s="9">
         <v>120497022727</v>
       </c>
-      <c r="H162" s="9">
+      <c r="M162" s="9">
         <v>144906083333</v>
       </c>
-      <c r="I162" s="9">
+      <c r="N162" s="9">
         <v>117394250000</v>
       </c>
     </row>
-    <row r="163" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="163" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B163" s="10" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C163" s="11" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="D163" s="11"/>
       <c r="E163" s="11">
+        <v>269174538462</v>
+      </c>
+      <c r="F163" s="11">
+        <v>740021750000</v>
+      </c>
+      <c r="G163" s="11">
+        <v>503040357143</v>
+      </c>
+      <c r="H163" s="11">
+        <v>775267900000</v>
+      </c>
+      <c r="I163" s="11">
+        <v>-60879423077</v>
+      </c>
+      <c r="J163" s="11">
         <v>475259645161</v>
       </c>
-      <c r="F163" s="11">
+      <c r="K163" s="11">
         <v>783078285714</v>
       </c>
-      <c r="G163" s="11">
+      <c r="L163" s="11">
         <v>762238888889</v>
       </c>
-      <c r="H163" s="11">
+      <c r="M163" s="11">
         <v>801170466667</v>
       </c>
-      <c r="I163" s="11">
+      <c r="N163" s="11">
         <v>1008581347826</v>
       </c>
     </row>
-    <row r="164" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="164" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B164" s="8" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C164" s="9" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="D164" s="9"/>
-      <c r="E164" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F164" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="G164" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="H164" s="9" t="s">
-        <v>26</v>
+      <c r="E164" s="9">
+        <v>53400554455</v>
+      </c>
+      <c r="F164" s="9">
+        <v>77934066667</v>
+      </c>
+      <c r="G164" s="9">
+        <v>93987610526</v>
+      </c>
+      <c r="H164" s="9">
+        <v>98911560000</v>
       </c>
       <c r="I164" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="165" spans="2:9" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+      <c r="J164" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="K164" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="L164" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="M164" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="N164" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="165" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B165" s="10" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C165" s="11" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="D165" s="11"/>
       <c r="E165" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F165" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G165" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H165" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I165" s="11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="166" spans="2:9" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+      <c r="J165" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="K165" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="L165" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="M165" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="N165" s="11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="166" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B166" s="8" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C166" s="9" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="D166" s="9"/>
       <c r="E166" s="9">
+        <v>11761493683</v>
+      </c>
+      <c r="F166" s="9">
+        <v>17016411614</v>
+      </c>
+      <c r="G166" s="9">
+        <v>22015776267</v>
+      </c>
+      <c r="H166" s="9">
+        <v>23884032196</v>
+      </c>
+      <c r="I166" s="9">
+        <v>29554080858</v>
+      </c>
+      <c r="J166" s="9">
         <v>28533880753</v>
       </c>
-      <c r="F166" s="9">
+      <c r="K166" s="9">
         <v>26139090826</v>
       </c>
-      <c r="G166" s="9">
+      <c r="L166" s="9">
         <v>33468432697</v>
       </c>
-      <c r="H166" s="9">
+      <c r="M166" s="9">
         <v>22815613765</v>
       </c>
-      <c r="I166" s="9">
+      <c r="N166" s="9">
         <v>23339828726</v>
       </c>
     </row>
-    <row r="167" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="167" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B167" s="10" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C167" s="11" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="D167" s="11"/>
       <c r="E167" s="11">
+        <v>37340084058</v>
+      </c>
+      <c r="F167" s="11">
+        <v>18466939014</v>
+      </c>
+      <c r="G167" s="11">
+        <v>98376326733</v>
+      </c>
+      <c r="H167" s="11">
+        <v>72419135638</v>
+      </c>
+      <c r="I167" s="11">
+        <v>80824191176</v>
+      </c>
+      <c r="J167" s="11">
         <v>86902814617</v>
       </c>
-      <c r="F167" s="11">
+      <c r="K167" s="11">
         <v>101027711924</v>
       </c>
-      <c r="G167" s="11">
+      <c r="L167" s="11">
         <v>102089449838</v>
       </c>
-      <c r="H167" s="11">
+      <c r="M167" s="11">
         <v>97281934150</v>
       </c>
-      <c r="I167" s="11">
+      <c r="N167" s="11">
         <v>87534086614</v>
       </c>
     </row>
-    <row r="168" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="168" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B168" s="8" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C168" s="9" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="D168" s="9"/>
       <c r="E168" s="9">
+        <v>20627473913</v>
+      </c>
+      <c r="F168" s="9">
+        <v>24764067526</v>
+      </c>
+      <c r="G168" s="9">
+        <v>39522426654</v>
+      </c>
+      <c r="H168" s="9">
+        <v>36472552610</v>
+      </c>
+      <c r="I168" s="9">
+        <v>40230694158</v>
+      </c>
+      <c r="J168" s="9">
         <v>43039614051</v>
       </c>
-      <c r="F168" s="9">
+      <c r="K168" s="9">
         <v>42140905022</v>
       </c>
-      <c r="G168" s="9">
+      <c r="L168" s="9">
         <v>42444992108</v>
       </c>
-      <c r="H168" s="9">
+      <c r="M168" s="9">
         <v>40376061874</v>
       </c>
-      <c r="I168" s="9">
+      <c r="N168" s="9">
         <v>35998988272</v>
       </c>
     </row>
-    <row r="169" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="169" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B169" s="10" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C169" s="11" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="D169" s="11"/>
       <c r="E169" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F169" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G169" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="H169" s="11">
+        <v>25</v>
+      </c>
+      <c r="H169" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="I169" s="11">
+        <v>-12376246000000</v>
+      </c>
+      <c r="J169" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="K169" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="L169" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="M169" s="11">
         <v>16713268000000</v>
       </c>
-      <c r="I169" s="11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="170" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N169" s="11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="170" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B170" s="1"/>
       <c r="C170" s="1"/>
       <c r="D170" s="1"/>
@@ -4071,8 +6141,13 @@
       <c r="G170" s="1"/>
       <c r="H170" s="1"/>
       <c r="I170" s="1"/>
-    </row>
-    <row r="171" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J170" s="1"/>
+      <c r="K170" s="1"/>
+      <c r="L170" s="1"/>
+      <c r="M170" s="1"/>
+      <c r="N170" s="1"/>
+    </row>
+    <row r="171" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B171" s="1"/>
       <c r="C171" s="1"/>
       <c r="D171" s="1"/>
@@ -4081,8 +6156,13 @@
       <c r="G171" s="1"/>
       <c r="H171" s="1"/>
       <c r="I171" s="1"/>
-    </row>
-    <row r="172" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J171" s="1"/>
+      <c r="K171" s="1"/>
+      <c r="L171" s="1"/>
+      <c r="M171" s="1"/>
+      <c r="N171" s="1"/>
+    </row>
+    <row r="172" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B172" s="1"/>
       <c r="C172" s="1"/>
       <c r="D172" s="1"/>
@@ -4091,10 +6171,15 @@
       <c r="G172" s="1"/>
       <c r="H172" s="1"/>
       <c r="I172" s="1"/>
-    </row>
-    <row r="173" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J172" s="1"/>
+      <c r="K172" s="1"/>
+      <c r="L172" s="1"/>
+      <c r="M172" s="1"/>
+      <c r="N172" s="1"/>
+    </row>
+    <row r="173" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B173" s="7" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="C173" s="6"/>
       <c r="D173" s="6"/>
@@ -4113,8 +6198,23 @@
       <c r="I173" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="174" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J173" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K173" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L173" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M173" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N173" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="174" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B174" s="1"/>
       <c r="C174" s="1"/>
       <c r="D174" s="1"/>
@@ -4123,200 +6223,325 @@
       <c r="G174" s="1"/>
       <c r="H174" s="1"/>
       <c r="I174" s="1"/>
-    </row>
-    <row r="175" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J174" s="1"/>
+      <c r="K174" s="1"/>
+      <c r="L174" s="1"/>
+      <c r="M174" s="1"/>
+      <c r="N174" s="1"/>
+    </row>
+    <row r="175" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B175" s="8" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C175" s="9" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="D175" s="9"/>
-      <c r="E175" s="9">
+      <c r="E175" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F175" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="G175" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="H175" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="I175" s="9">
+        <v>91159102564</v>
+      </c>
+      <c r="J175" s="9">
         <v>95472976744</v>
       </c>
-      <c r="F175" s="9">
+      <c r="K175" s="9">
         <v>114302222222</v>
       </c>
-      <c r="G175" s="9">
+      <c r="L175" s="9">
         <v>111116185185</v>
       </c>
-      <c r="H175" s="9">
+      <c r="M175" s="9">
         <v>133621600000</v>
       </c>
-      <c r="I175" s="9">
+      <c r="N175" s="9">
         <v>116015265306</v>
       </c>
     </row>
-    <row r="176" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="176" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B176" s="10" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C176" s="11" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="D176" s="11"/>
       <c r="E176" s="11">
+        <v>209309882353</v>
+      </c>
+      <c r="F176" s="11">
+        <v>252691285714</v>
+      </c>
+      <c r="G176" s="11">
+        <v>311526294118</v>
+      </c>
+      <c r="H176" s="11">
+        <v>800836000000</v>
+      </c>
+      <c r="I176" s="11">
+        <v>-761265250000</v>
+      </c>
+      <c r="J176" s="11">
         <v>532357058824</v>
       </c>
-      <c r="F176" s="11">
+      <c r="K176" s="11">
         <v>503410352941</v>
       </c>
-      <c r="G176" s="11">
+      <c r="L176" s="11">
         <v>488605368421</v>
       </c>
-      <c r="H176" s="11">
+      <c r="M176" s="11">
         <v>558203733333</v>
       </c>
-      <c r="I176" s="11">
+      <c r="N176" s="11">
         <v>672840300000</v>
       </c>
     </row>
-    <row r="177" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="177" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B177" s="8" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C177" s="9" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="D177" s="9"/>
-      <c r="E177" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F177" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="G177" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="H177" s="9" t="s">
-        <v>26</v>
+      <c r="E177" s="9">
+        <v>45599512821</v>
+      </c>
+      <c r="F177" s="9">
+        <v>69162596154</v>
+      </c>
+      <c r="G177" s="9">
+        <v>88712652174</v>
+      </c>
+      <c r="H177" s="9">
+        <v>88265530612</v>
       </c>
       <c r="I177" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="178" spans="2:9" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+      <c r="J177" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="K177" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="L177" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="M177" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="N177" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="178" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B178" s="10" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C178" s="11" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="D178" s="11"/>
       <c r="E178" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F178" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G178" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H178" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I178" s="11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="179" spans="2:9" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+      <c r="J178" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="K178" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="L178" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="M178" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="N178" s="11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="179" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B179" s="8" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C179" s="9" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="D179" s="9"/>
       <c r="E179" s="9">
+        <v>10402527865</v>
+      </c>
+      <c r="F179" s="9">
+        <v>14871978959</v>
+      </c>
+      <c r="G179" s="9">
+        <v>18333188124</v>
+      </c>
+      <c r="H179" s="9">
+        <v>17682410063</v>
+      </c>
+      <c r="I179" s="9">
+        <v>25994494764</v>
+      </c>
+      <c r="J179" s="9">
         <v>24400019509</v>
       </c>
-      <c r="F179" s="9">
+      <c r="K179" s="9">
         <v>25340221093</v>
       </c>
-      <c r="G179" s="9">
+      <c r="L179" s="9">
         <v>28010240741</v>
       </c>
-      <c r="H179" s="9">
+      <c r="M179" s="9">
         <v>26766931157</v>
       </c>
-      <c r="I179" s="9">
+      <c r="N179" s="9">
         <v>24462247736</v>
       </c>
     </row>
-    <row r="180" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="180" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B180" s="10" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C180" s="11" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="D180" s="11"/>
       <c r="E180" s="11">
+        <v>36458397857</v>
+      </c>
+      <c r="F180" s="11">
+        <v>18418306276</v>
+      </c>
+      <c r="G180" s="11">
+        <v>101846333333</v>
+      </c>
+      <c r="H180" s="11">
+        <v>71473197403</v>
+      </c>
+      <c r="I180" s="11">
+        <v>80869411594</v>
+      </c>
+      <c r="J180" s="11">
         <v>86903454710</v>
       </c>
-      <c r="F180" s="11">
+      <c r="K180" s="11">
         <v>96787763403</v>
       </c>
-      <c r="G180" s="11">
+      <c r="L180" s="11">
         <v>90156462766</v>
       </c>
-      <c r="H180" s="11">
+      <c r="M180" s="11">
         <v>107387089347</v>
       </c>
-      <c r="I180" s="11">
+      <c r="N180" s="11">
         <v>88135085903</v>
       </c>
     </row>
-    <row r="181" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="181" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B181" s="8" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C181" s="9" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="D181" s="9"/>
       <c r="E181" s="9">
+        <v>18777366667</v>
+      </c>
+      <c r="F181" s="9">
+        <v>23853808571</v>
+      </c>
+      <c r="G181" s="9">
+        <v>39908230863</v>
+      </c>
+      <c r="H181" s="9">
+        <v>29728336320</v>
+      </c>
+      <c r="I181" s="9">
+        <v>39759038536</v>
+      </c>
+      <c r="J181" s="9">
         <v>38766383374</v>
       </c>
-      <c r="F181" s="9">
+      <c r="K181" s="9">
         <v>41412987179</v>
       </c>
-      <c r="G181" s="9">
+      <c r="L181" s="9">
         <v>36216600386</v>
       </c>
-      <c r="H181" s="9">
+      <c r="M181" s="9">
         <v>43087214981</v>
       </c>
-      <c r="I181" s="9">
+      <c r="N181" s="9">
         <v>37571706724</v>
       </c>
     </row>
-    <row r="182" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="182" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B182" s="10" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C182" s="11" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="D182" s="11"/>
-      <c r="E182" s="11">
+      <c r="E182" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="F182" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="G182" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="H182" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="I182" s="11">
+        <v>-8257968000000</v>
+      </c>
+      <c r="J182" s="11">
         <v>14305627000000</v>
       </c>
-      <c r="F182" s="11">
+      <c r="K182" s="11">
         <v>7252969000000</v>
       </c>
-      <c r="G182" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="H182" s="11">
+      <c r="L182" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="M182" s="11">
         <v>12340047000000</v>
       </c>
-      <c r="I182" s="11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="183" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N182" s="11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="183" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B183" s="1"/>
       <c r="C183" s="1"/>
       <c r="D183" s="1"/>
@@ -4325,8 +6550,13 @@
       <c r="G183" s="1"/>
       <c r="H183" s="1"/>
       <c r="I183" s="1"/>
-    </row>
-    <row r="184" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J183" s="1"/>
+      <c r="K183" s="1"/>
+      <c r="L183" s="1"/>
+      <c r="M183" s="1"/>
+      <c r="N183" s="1"/>
+    </row>
+    <row r="184" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B184" s="1"/>
       <c r="C184" s="1"/>
       <c r="D184" s="1"/>
@@ -4335,8 +6565,13 @@
       <c r="G184" s="1"/>
       <c r="H184" s="1"/>
       <c r="I184" s="1"/>
-    </row>
-    <row r="185" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J184" s="1"/>
+      <c r="K184" s="1"/>
+      <c r="L184" s="1"/>
+      <c r="M184" s="1"/>
+      <c r="N184" s="1"/>
+    </row>
+    <row r="185" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B185" s="1"/>
       <c r="C185" s="1"/>
       <c r="D185" s="1"/>
@@ -4345,10 +6580,15 @@
       <c r="G185" s="1"/>
       <c r="H185" s="1"/>
       <c r="I185" s="1"/>
-    </row>
-    <row r="186" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J185" s="1"/>
+      <c r="K185" s="1"/>
+      <c r="L185" s="1"/>
+      <c r="M185" s="1"/>
+      <c r="N185" s="1"/>
+    </row>
+    <row r="186" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B186" s="7" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="C186" s="6"/>
       <c r="D186" s="6"/>
@@ -4367,8 +6607,23 @@
       <c r="I186" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="187" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J186" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K186" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L186" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M186" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N186" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="187" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B187" s="1"/>
       <c r="C187" s="1"/>
       <c r="D187" s="1"/>
@@ -4377,200 +6632,325 @@
       <c r="G187" s="1"/>
       <c r="H187" s="1"/>
       <c r="I187" s="1"/>
-    </row>
-    <row r="188" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J187" s="1"/>
+      <c r="K187" s="1"/>
+      <c r="L187" s="1"/>
+      <c r="M187" s="1"/>
+      <c r="N187" s="1"/>
+    </row>
+    <row r="188" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B188" s="8" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C188" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D188" s="9"/>
-      <c r="E188" s="9">
+      <c r="E188" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F188" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="G188" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="H188" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="I188" s="9">
+        <v>63254184466</v>
+      </c>
+      <c r="J188" s="9">
         <v>75539474359</v>
       </c>
-      <c r="F188" s="9">
+      <c r="K188" s="9">
         <v>84209000000</v>
       </c>
-      <c r="G188" s="9">
+      <c r="L188" s="9">
         <v>106146285714</v>
       </c>
-      <c r="H188" s="9">
+      <c r="M188" s="9">
         <v>116778535294</v>
       </c>
-      <c r="I188" s="9">
+      <c r="N188" s="9">
         <v>117123437956</v>
       </c>
     </row>
-    <row r="189" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="189" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B189" s="10" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C189" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D189" s="11"/>
-      <c r="E189" s="11">
+      <c r="E189" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="F189" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="G189" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="H189" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="I189" s="11">
+        <v>430932254545</v>
+      </c>
+      <c r="J189" s="11">
         <v>425858739130</v>
       </c>
-      <c r="F189" s="11">
+      <c r="K189" s="11">
         <v>481657166667</v>
       </c>
-      <c r="G189" s="11">
+      <c r="L189" s="11">
         <v>557325707692</v>
       </c>
-      <c r="H189" s="11">
+      <c r="M189" s="11">
         <v>613394953846</v>
       </c>
-      <c r="I189" s="11">
+      <c r="N189" s="11">
         <v>729577014706</v>
       </c>
     </row>
-    <row r="190" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="190" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B190" s="8" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C190" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D190" s="9"/>
       <c r="E190" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F190" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G190" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H190" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I190" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="191" spans="2:9" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+      <c r="J190" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="K190" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="L190" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="M190" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="N190" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="191" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B191" s="10" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C191" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D191" s="11"/>
       <c r="E191" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F191" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G191" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H191" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I191" s="11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="192" spans="2:9" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+      <c r="J191" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="K191" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="L191" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="M191" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="N191" s="11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="192" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B192" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C192" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="C192" s="9" t="s">
-        <v>25</v>
-      </c>
       <c r="D192" s="9"/>
-      <c r="E192" s="9">
+      <c r="E192" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F192" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="G192" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="H192" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="I192" s="9">
+        <v>17905262177</v>
+      </c>
+      <c r="J192" s="9">
         <v>21168703581</v>
       </c>
-      <c r="F192" s="9">
+      <c r="K192" s="9">
         <v>23192683443</v>
       </c>
-      <c r="G192" s="9">
+      <c r="L192" s="9">
         <v>28709062944</v>
       </c>
-      <c r="H192" s="9">
+      <c r="M192" s="9">
         <v>24815230159</v>
       </c>
-      <c r="I192" s="9">
+      <c r="N192" s="9">
         <v>24182154178</v>
       </c>
     </row>
-    <row r="193" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="193" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B193" s="10" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C193" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D193" s="11"/>
-      <c r="E193" s="11">
+      <c r="E193" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="F193" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="G193" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="H193" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="I193" s="11">
+        <v>4241000000</v>
+      </c>
+      <c r="J193" s="11">
         <v>78601200000</v>
       </c>
-      <c r="F193" s="11">
+      <c r="K193" s="11">
         <v>90335960396</v>
       </c>
-      <c r="G193" s="11">
+      <c r="L193" s="11">
         <v>137851400000</v>
       </c>
-      <c r="H193" s="11">
+      <c r="M193" s="11">
         <v>99083115044</v>
       </c>
-      <c r="I193" s="11">
+      <c r="N193" s="11">
         <v>97506903382</v>
       </c>
     </row>
-    <row r="194" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="194" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B194" s="8" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C194" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D194" s="9"/>
-      <c r="E194" s="9">
+      <c r="E194" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F194" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="G194" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="H194" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="I194" s="9">
+        <v>31095890313</v>
+      </c>
+      <c r="J194" s="9">
         <v>33967061905</v>
       </c>
-      <c r="F194" s="9">
+      <c r="K194" s="9">
         <v>36066304294</v>
       </c>
-      <c r="G194" s="9">
+      <c r="L194" s="9">
         <v>41699051921</v>
       </c>
-      <c r="H194" s="9">
+      <c r="M194" s="9">
         <v>38912787234</v>
       </c>
-      <c r="I194" s="9">
+      <c r="N194" s="9">
         <v>36888832787</v>
       </c>
     </row>
-    <row r="195" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="195" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B195" s="10" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C195" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D195" s="11"/>
       <c r="E195" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="F195" s="11">
+        <v>25</v>
+      </c>
+      <c r="F195" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="G195" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="H195" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="I195" s="11">
+        <v>22810581000000</v>
+      </c>
+      <c r="J195" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="K195" s="11">
         <v>21912719000000</v>
       </c>
-      <c r="G195" s="11">
+      <c r="L195" s="11">
         <v>21912718000000</v>
       </c>
-      <c r="H195" s="11">
+      <c r="M195" s="11">
         <v>26285939000000</v>
       </c>
-      <c r="I195" s="11">
+      <c r="N195" s="11">
         <v>22877773000000</v>
       </c>
     </row>
-    <row r="196" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="196" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B196" s="1"/>
       <c r="C196" s="1"/>
       <c r="D196" s="1"/>
@@ -4579,8 +6959,13 @@
       <c r="G196" s="1"/>
       <c r="H196" s="1"/>
       <c r="I196" s="1"/>
-    </row>
-    <row r="197" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J196" s="1"/>
+      <c r="K196" s="1"/>
+      <c r="L196" s="1"/>
+      <c r="M196" s="1"/>
+      <c r="N196" s="1"/>
+    </row>
+    <row r="197" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B197" s="1"/>
       <c r="C197" s="1"/>
       <c r="D197" s="1"/>
@@ -4589,8 +6974,13 @@
       <c r="G197" s="1"/>
       <c r="H197" s="1"/>
       <c r="I197" s="1"/>
-    </row>
-    <row r="198" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J197" s="1"/>
+      <c r="K197" s="1"/>
+      <c r="L197" s="1"/>
+      <c r="M197" s="1"/>
+      <c r="N197" s="1"/>
+    </row>
+    <row r="198" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B198" s="1"/>
       <c r="C198" s="1"/>
       <c r="D198" s="1"/>
@@ -4599,10 +6989,15 @@
       <c r="G198" s="1"/>
       <c r="H198" s="1"/>
       <c r="I198" s="1"/>
-    </row>
-    <row r="199" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J198" s="1"/>
+      <c r="K198" s="1"/>
+      <c r="L198" s="1"/>
+      <c r="M198" s="1"/>
+      <c r="N198" s="1"/>
+    </row>
+    <row r="199" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B199" s="7" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="C199" s="6"/>
       <c r="D199" s="6"/>
@@ -4621,8 +7016,23 @@
       <c r="I199" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="200" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J199" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K199" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L199" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M199" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N199" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="200" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B200" s="1"/>
       <c r="C200" s="1"/>
       <c r="D200" s="1"/>
@@ -4631,10 +7041,15 @@
       <c r="G200" s="1"/>
       <c r="H200" s="1"/>
       <c r="I200" s="1"/>
-    </row>
-    <row r="201" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J200" s="1"/>
+      <c r="K200" s="1"/>
+      <c r="L200" s="1"/>
+      <c r="M200" s="1"/>
+      <c r="N200" s="1"/>
+    </row>
+    <row r="201" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B201" s="8" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="C201" s="9"/>
       <c r="D201" s="9"/>
@@ -4653,10 +7068,25 @@
       <c r="I201" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="202" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J201" s="9">
+        <v>0</v>
+      </c>
+      <c r="K201" s="9">
+        <v>0</v>
+      </c>
+      <c r="L201" s="9">
+        <v>0</v>
+      </c>
+      <c r="M201" s="9">
+        <v>0</v>
+      </c>
+      <c r="N201" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B202" s="10" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="C202" s="11"/>
       <c r="D202" s="11"/>
@@ -4675,10 +7105,25 @@
       <c r="I202" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="203" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J202" s="11">
+        <v>0</v>
+      </c>
+      <c r="K202" s="11">
+        <v>0</v>
+      </c>
+      <c r="L202" s="11">
+        <v>0</v>
+      </c>
+      <c r="M202" s="11">
+        <v>0</v>
+      </c>
+      <c r="N202" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B203" s="8" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="C203" s="9"/>
       <c r="D203" s="9"/>
@@ -4697,10 +7142,25 @@
       <c r="I203" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="204" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J203" s="9">
+        <v>0</v>
+      </c>
+      <c r="K203" s="9">
+        <v>0</v>
+      </c>
+      <c r="L203" s="9">
+        <v>0</v>
+      </c>
+      <c r="M203" s="9">
+        <v>0</v>
+      </c>
+      <c r="N203" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B204" s="10" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="C204" s="11"/>
       <c r="D204" s="11"/>
@@ -4719,98 +7179,173 @@
       <c r="I204" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="205" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J204" s="11">
+        <v>0</v>
+      </c>
+      <c r="K204" s="11">
+        <v>0</v>
+      </c>
+      <c r="L204" s="11">
+        <v>0</v>
+      </c>
+      <c r="M204" s="11">
+        <v>0</v>
+      </c>
+      <c r="N204" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B205" s="8" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="C205" s="9"/>
       <c r="D205" s="9"/>
       <c r="E205" s="9">
+        <v>16478366</v>
+      </c>
+      <c r="F205" s="9">
+        <v>2240946</v>
+      </c>
+      <c r="G205" s="9">
+        <v>28040175</v>
+      </c>
+      <c r="H205" s="9">
+        <v>16181402</v>
+      </c>
+      <c r="I205" s="9">
+        <v>13605935</v>
+      </c>
+      <c r="J205" s="9">
         <v>16151495</v>
       </c>
-      <c r="F205" s="9">
+      <c r="K205" s="9">
         <v>16873252</v>
       </c>
-      <c r="G205" s="9">
+      <c r="L205" s="9">
         <v>9887257</v>
       </c>
-      <c r="H205" s="9">
+      <c r="M205" s="9">
         <v>29661349</v>
       </c>
-      <c r="I205" s="9">
+      <c r="N205" s="9">
         <v>-10189237</v>
       </c>
     </row>
-    <row r="206" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="206" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B206" s="10" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="C206" s="11"/>
       <c r="D206" s="11"/>
       <c r="E206" s="11">
+        <v>5215432</v>
+      </c>
+      <c r="F206" s="11">
+        <v>4709286</v>
+      </c>
+      <c r="G206" s="11">
+        <v>5800182</v>
+      </c>
+      <c r="H206" s="11">
+        <v>11215223</v>
+      </c>
+      <c r="I206" s="11">
+        <v>11968532</v>
+      </c>
+      <c r="J206" s="11">
         <v>33756619</v>
       </c>
-      <c r="F206" s="11">
+      <c r="K206" s="11">
         <v>30480215</v>
       </c>
-      <c r="G206" s="11">
+      <c r="L206" s="11">
         <v>34868206</v>
       </c>
-      <c r="H206" s="11">
+      <c r="M206" s="11">
         <v>40426900</v>
       </c>
-      <c r="I206" s="11">
+      <c r="N206" s="11">
         <v>35907544</v>
       </c>
     </row>
-    <row r="207" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="207" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B207" s="8" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="C207" s="9"/>
       <c r="D207" s="9"/>
       <c r="E207" s="9">
+        <v>1099279</v>
+      </c>
+      <c r="F207" s="9">
+        <v>985251</v>
+      </c>
+      <c r="G207" s="9">
+        <v>1106962</v>
+      </c>
+      <c r="H207" s="9">
+        <v>1017178</v>
+      </c>
+      <c r="I207" s="9">
+        <v>1045477</v>
+      </c>
+      <c r="J207" s="9">
         <v>1038630</v>
       </c>
-      <c r="F207" s="9">
+      <c r="K207" s="9">
         <v>1120005</v>
       </c>
-      <c r="G207" s="9">
+      <c r="L207" s="9">
         <v>1076697</v>
       </c>
-      <c r="H207" s="9">
+      <c r="M207" s="9">
         <v>1178232</v>
       </c>
-      <c r="I207" s="9">
+      <c r="N207" s="9">
         <v>1311978</v>
       </c>
     </row>
-    <row r="208" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="208" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B208" s="10" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="C208" s="11"/>
       <c r="D208" s="11"/>
       <c r="E208" s="11">
+        <v>4921707</v>
+      </c>
+      <c r="F208" s="11">
+        <v>5106358</v>
+      </c>
+      <c r="G208" s="11">
+        <v>7123129</v>
+      </c>
+      <c r="H208" s="11">
+        <v>9520707</v>
+      </c>
+      <c r="I208" s="11">
+        <v>7454912</v>
+      </c>
+      <c r="J208" s="11">
         <v>7894337</v>
       </c>
-      <c r="F208" s="11">
+      <c r="K208" s="11">
         <v>9065425</v>
       </c>
-      <c r="G208" s="11">
+      <c r="L208" s="11">
         <v>17764989</v>
       </c>
-      <c r="H208" s="11">
+      <c r="M208" s="11">
         <v>10687816</v>
       </c>
-      <c r="I208" s="11">
+      <c r="N208" s="11">
         <v>11231400</v>
       </c>
     </row>
-    <row r="209" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="209" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B209" s="8" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="C209" s="9"/>
       <c r="D209" s="9"/>
@@ -4829,52 +7364,97 @@
       <c r="I209" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="210" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J209" s="9">
+        <v>0</v>
+      </c>
+      <c r="K209" s="9">
+        <v>0</v>
+      </c>
+      <c r="L209" s="9">
+        <v>0</v>
+      </c>
+      <c r="M209" s="9">
+        <v>0</v>
+      </c>
+      <c r="N209" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B210" s="10" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="C210" s="11"/>
       <c r="D210" s="11"/>
       <c r="E210" s="11">
+        <v>422651</v>
+      </c>
+      <c r="F210" s="11">
+        <v>17651235</v>
+      </c>
+      <c r="G210" s="11">
+        <v>-7061632</v>
+      </c>
+      <c r="H210" s="11">
+        <v>4386100</v>
+      </c>
+      <c r="I210" s="11">
+        <v>7419775</v>
+      </c>
+      <c r="J210" s="11">
         <v>8104193</v>
       </c>
-      <c r="F210" s="11">
+      <c r="K210" s="11">
         <v>11758978</v>
       </c>
-      <c r="G210" s="11">
+      <c r="L210" s="11">
         <v>21703229</v>
       </c>
-      <c r="H210" s="11">
+      <c r="M210" s="11">
         <v>-357569</v>
       </c>
-      <c r="I210" s="11">
+      <c r="N210" s="11">
         <v>49788573</v>
       </c>
     </row>
-    <row r="211" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="211" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B211" s="14" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C211" s="15"/>
       <c r="D211" s="15"/>
       <c r="E211" s="15">
+        <v>28137435</v>
+      </c>
+      <c r="F211" s="15">
+        <v>30693076</v>
+      </c>
+      <c r="G211" s="15">
+        <v>35008816</v>
+      </c>
+      <c r="H211" s="15">
+        <v>42320610</v>
+      </c>
+      <c r="I211" s="15">
+        <v>41494631</v>
+      </c>
+      <c r="J211" s="15">
         <v>66945274</v>
       </c>
-      <c r="F211" s="15">
+      <c r="K211" s="15">
         <v>69297875</v>
       </c>
-      <c r="G211" s="15">
+      <c r="L211" s="15">
         <v>85300378</v>
       </c>
-      <c r="H211" s="15">
+      <c r="M211" s="15">
         <v>81596728</v>
       </c>
-      <c r="I211" s="15">
+      <c r="N211" s="15">
         <v>88050258</v>
       </c>
     </row>
-    <row r="212" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="212" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B212" s="1"/>
       <c r="C212" s="1"/>
       <c r="D212" s="1"/>
@@ -4883,8 +7463,13 @@
       <c r="G212" s="1"/>
       <c r="H212" s="1"/>
       <c r="I212" s="1"/>
-    </row>
-    <row r="213" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J212" s="1"/>
+      <c r="K212" s="1"/>
+      <c r="L212" s="1"/>
+      <c r="M212" s="1"/>
+      <c r="N212" s="1"/>
+    </row>
+    <row r="213" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B213" s="1"/>
       <c r="C213" s="1"/>
       <c r="D213" s="1"/>
@@ -4893,8 +7478,13 @@
       <c r="G213" s="1"/>
       <c r="H213" s="1"/>
       <c r="I213" s="1"/>
-    </row>
-    <row r="214" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J213" s="1"/>
+      <c r="K213" s="1"/>
+      <c r="L213" s="1"/>
+      <c r="M213" s="1"/>
+      <c r="N213" s="1"/>
+    </row>
+    <row r="214" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B214" s="1"/>
       <c r="C214" s="1"/>
       <c r="D214" s="1"/>
@@ -4903,10 +7493,15 @@
       <c r="G214" s="1"/>
       <c r="H214" s="1"/>
       <c r="I214" s="1"/>
-    </row>
-    <row r="215" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="J214" s="1"/>
+      <c r="K214" s="1"/>
+      <c r="L214" s="1"/>
+      <c r="M214" s="1"/>
+      <c r="N214" s="1"/>
+    </row>
+    <row r="215" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B215" s="7" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="C215" s="6"/>
       <c r="D215" s="6"/>
@@ -4915,8 +7510,13 @@
       <c r="G215" s="1"/>
       <c r="H215" s="1"/>
       <c r="I215" s="1"/>
-    </row>
-    <row r="216" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J215" s="1"/>
+      <c r="K215" s="1"/>
+      <c r="L215" s="1"/>
+      <c r="M215" s="1"/>
+      <c r="N215" s="1"/>
+    </row>
+    <row r="216" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B216" s="1"/>
       <c r="C216" s="1"/>
       <c r="D216" s="1"/>
@@ -4925,13 +7525,18 @@
       <c r="G216" s="1"/>
       <c r="H216" s="1"/>
       <c r="I216" s="1"/>
-    </row>
-    <row r="217" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J216" s="1"/>
+      <c r="K216" s="1"/>
+      <c r="L216" s="1"/>
+      <c r="M216" s="1"/>
+      <c r="N216" s="1"/>
+    </row>
+    <row r="217" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B217" s="8" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="C217" s="9" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="D217" s="9"/>
       <c r="E217" s="9"/>
@@ -4939,13 +7544,18 @@
       <c r="G217" s="1"/>
       <c r="H217" s="1"/>
       <c r="I217" s="1"/>
-    </row>
-    <row r="218" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J217" s="1"/>
+      <c r="K217" s="1"/>
+      <c r="L217" s="1"/>
+      <c r="M217" s="1"/>
+      <c r="N217" s="1"/>
+    </row>
+    <row r="218" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B218" s="10" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="C218" s="11" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="D218" s="11"/>
       <c r="E218" s="11"/>
@@ -4953,123 +7563,128 @@
       <c r="G218" s="1"/>
       <c r="H218" s="1"/>
       <c r="I218" s="1"/>
-    </row>
-    <row r="219" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J218" s="1"/>
+      <c r="K218" s="1"/>
+      <c r="L218" s="1"/>
+      <c r="M218" s="1"/>
+      <c r="N218" s="1"/>
+    </row>
+    <row r="219" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B219" s="8" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="C219" s="9" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="D219" s="9"/>
       <c r="E219" s="9"/>
       <c r="F219" s="9"/>
     </row>
-    <row r="220" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="220" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B220" s="10" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="C220" s="11" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="D220" s="11"/>
       <c r="E220" s="11"/>
       <c r="F220" s="11"/>
     </row>
-    <row r="221" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="221" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B221" s="8" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="C221" s="9" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="D221" s="9"/>
       <c r="E221" s="9"/>
       <c r="F221" s="9"/>
     </row>
-    <row r="222" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="222" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B222" s="10" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="C222" s="11" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="D222" s="11"/>
       <c r="E222" s="11"/>
       <c r="F222" s="11"/>
     </row>
-    <row r="223" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="223" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B223" s="8" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="C223" s="9" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="D223" s="9"/>
       <c r="E223" s="9"/>
       <c r="F223" s="9"/>
     </row>
-    <row r="224" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="224" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B224" s="10" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="C224" s="11" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="D224" s="11"/>
       <c r="E224" s="11"/>
       <c r="F224" s="11"/>
     </row>
-    <row r="225" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="225" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B225" s="8" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="C225" s="9" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="D225" s="9"/>
       <c r="E225" s="9"/>
       <c r="F225" s="9"/>
     </row>
-    <row r="226" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="226" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B226" s="10" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="C226" s="11" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="D226" s="11"/>
       <c r="E226" s="11"/>
       <c r="F226" s="11"/>
     </row>
-    <row r="227" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="227" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B227" s="8" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="C227" s="9" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="D227" s="9"/>
       <c r="E227" s="9"/>
       <c r="F227" s="9"/>
     </row>
-    <row r="228" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="228" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B228" s="10" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="C228" s="11" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="D228" s="11"/>
       <c r="E228" s="11"/>
       <c r="F228" s="11"/>
     </row>
-    <row r="229" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="229" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B229" s="8" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="C229" s="9" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="D229" s="9"/>
       <c r="E229" s="9"/>

--- a/database/industries/folad/folad/cost/quarterly.xlsx
+++ b/database/industries/folad/folad/cost/quarterly.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\folad\folad\cost\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EBRAHIMI\Desktop\Trade\database\industries\folad\folad\cost\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9C2A09F-AAAD-4AF1-A868-778EBCA1B53F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9708262A-805E-4AC3-BD36-FAF72849578F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="796" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="776" uniqueCount="93">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -34,9 +34,6 @@
     <t>بهای تمام شده</t>
   </si>
   <si>
-    <t>فصل دوم منتهی به 1399/06</t>
-  </si>
-  <si>
     <t>فصل سوم منتهی به 1399/09</t>
   </si>
   <si>
@@ -64,6 +61,9 @@
     <t>فصل سوم منتهی به 1401/09</t>
   </si>
   <si>
+    <t>فصل چهارم منتهی به 1401/12</t>
+  </si>
+  <si>
     <t>مواد مستقیم مصرفی</t>
   </si>
   <si>
@@ -97,27 +97,27 @@
     <t>موجودی کالای ساخته شده پایان دوره</t>
   </si>
   <si>
+    <t>بهای تمام شده کالای فروش رفته</t>
+  </si>
+  <si>
+    <t>بهای تمام شده خدمات ارایه شده</t>
+  </si>
+  <si>
+    <t>جمع بهای تمام شده</t>
+  </si>
+  <si>
+    <t>مقدار موجودی اول دوره</t>
+  </si>
+  <si>
+    <t>گندله خریداری خارجی</t>
+  </si>
+  <si>
+    <t>هزار تن</t>
+  </si>
+  <si>
     <t>-</t>
   </si>
   <si>
-    <t>بهای تمام شده کالای فروش رفته</t>
-  </si>
-  <si>
-    <t>بهای تمام شده خدمات ارایه شده</t>
-  </si>
-  <si>
-    <t>جمع بهای تمام شده</t>
-  </si>
-  <si>
-    <t>مقدار موجودی اول دوره</t>
-  </si>
-  <si>
-    <t>گندله خریداری خارجی</t>
-  </si>
-  <si>
-    <t>هزار تن</t>
-  </si>
-  <si>
     <t>قراضه و چدن</t>
   </si>
   <si>
@@ -271,6 +271,12 @@
     <t>در محاسبه بهای تمام شده درآمدهای عملیاتی ،افزایش قیمت الکترود و افزایش نرخ خرید کنسانتره سنگ آهن و گندله با توجه به افزایش نرخ خرید کنسانتره سنگ آهن و گندله با توجه به افزایش قیمت شمش فولاد خوزستان لحاظ شده است .</t>
   </si>
   <si>
+    <t>دوره 9 ماهه منتهی به 1400/12/29</t>
+  </si>
+  <si>
+    <t>.                                                                                                                                                                               .</t>
+  </si>
+  <si>
     <t>دوره 3 ماهه منتهی به 1399/12/30</t>
   </si>
   <si>
@@ -283,10 +289,16 @@
     <t>دوره 6 ماهه منتهی به 1399/12/30</t>
   </si>
   <si>
-    <t>دوره 9 ماهه منتهی به 1400/12/29</t>
-  </si>
-  <si>
-    <t>.                                                                                                                                                                               .</t>
+    <t>دوره 12 ماهه منتهی به 1400/12/29</t>
+  </si>
+  <si>
+    <t>پیش بینی می شود با توجه به افزایش نرخ حامل های انرژی و افزایش نرخ تورم ، هزینه سربار به میزان 50 درصد افزایش یابد.</t>
+  </si>
+  <si>
+    <t>پیش بینی می شود با توجه به افزایش نرخ حامل های انرژی و افزایش نرخ تورم هزینه سربار به میزان 50 درصد افزایش یابد.</t>
+  </si>
+  <si>
+    <t>پیش بینی می شود با توجه به افزایش نرخ حامبل های انرژی و افزایش نرخ تورم هزینه سربار به میزان 50 درصد افزایش یابد.</t>
   </si>
 </sst>
 </file>
@@ -742,16 +754,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:N229"/>
+  <dimension ref="B1:N232"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="14" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -766,7 +778,7 @@
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
     </row>
-    <row r="2" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -783,7 +795,7 @@
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
     </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -800,7 +812,7 @@
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
     </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -815,7 +827,7 @@
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
     </row>
-    <row r="5" spans="2:14" ht="42" x14ac:dyDescent="0.65">
+    <row r="5" spans="2:14" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -832,7 +844,7 @@
       <c r="M5" s="4"/>
       <c r="N5" s="4"/>
     </row>
-    <row r="6" spans="2:14" ht="42" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:14" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -849,7 +861,7 @@
       <c r="M6" s="4"/>
       <c r="N6" s="4"/>
     </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -864,7 +876,7 @@
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
     </row>
-    <row r="8" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>3</v>
       </c>
@@ -901,7 +913,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -916,266 +928,266 @@
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
     </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B10" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
       <c r="E10" s="9">
-        <v>62334028</v>
+        <v>98078900</v>
       </c>
       <c r="F10" s="9">
-        <v>98078900</v>
+        <v>107993634</v>
       </c>
       <c r="G10" s="9">
-        <v>107993634</v>
+        <v>143883099</v>
       </c>
       <c r="H10" s="9">
-        <v>143883099</v>
+        <v>63716827</v>
       </c>
       <c r="I10" s="9">
-        <v>63716827</v>
+        <v>166340260</v>
       </c>
       <c r="J10" s="9">
-        <v>166340260</v>
+        <v>166391587</v>
       </c>
       <c r="K10" s="9">
-        <v>166391587</v>
+        <v>185914875</v>
       </c>
       <c r="L10" s="9">
-        <v>185914875</v>
+        <v>170604001</v>
       </c>
       <c r="M10" s="9">
-        <v>170604001</v>
+        <v>212819391</v>
       </c>
       <c r="N10" s="9">
-        <v>212819391</v>
-      </c>
-    </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
+        <v>167591851</v>
+      </c>
+    </row>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B11" s="10" t="s">
         <v>15</v>
       </c>
       <c r="C11" s="11"/>
       <c r="D11" s="11"/>
       <c r="E11" s="11">
-        <v>1524761</v>
+        <v>1483046</v>
       </c>
       <c r="F11" s="11">
-        <v>1483046</v>
+        <v>2162217</v>
       </c>
       <c r="G11" s="11">
-        <v>2162217</v>
+        <v>2741685</v>
       </c>
       <c r="H11" s="11">
-        <v>2741685</v>
+        <v>2329362</v>
       </c>
       <c r="I11" s="11">
-        <v>2329362</v>
+        <v>2330193</v>
       </c>
       <c r="J11" s="11">
-        <v>2330193</v>
+        <v>2721425</v>
       </c>
       <c r="K11" s="11">
-        <v>2721425</v>
+        <v>4718464</v>
       </c>
       <c r="L11" s="11">
-        <v>4718464</v>
+        <v>3567312</v>
       </c>
       <c r="M11" s="11">
-        <v>3567312</v>
+        <v>3068508</v>
       </c>
       <c r="N11" s="11">
-        <v>3068508</v>
-      </c>
-    </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
+        <v>4928508</v>
+      </c>
+    </row>
+    <row r="12" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B12" s="8" t="s">
         <v>16</v>
       </c>
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
       <c r="E12" s="9">
-        <v>28137435</v>
+        <v>30693076</v>
       </c>
       <c r="F12" s="9">
-        <v>30693076</v>
+        <v>35008816</v>
       </c>
       <c r="G12" s="9">
-        <v>35008816</v>
+        <v>42320610</v>
       </c>
       <c r="H12" s="9">
-        <v>42320610</v>
+        <v>41494631</v>
       </c>
       <c r="I12" s="9">
-        <v>41494631</v>
+        <v>66945274</v>
       </c>
       <c r="J12" s="9">
-        <v>66945274</v>
+        <v>69297875</v>
       </c>
       <c r="K12" s="9">
-        <v>69297875</v>
+        <v>85300378</v>
       </c>
       <c r="L12" s="9">
-        <v>85300378</v>
+        <v>81596728</v>
       </c>
       <c r="M12" s="9">
-        <v>81596728</v>
+        <v>88050258</v>
       </c>
       <c r="N12" s="9">
-        <v>88050258</v>
-      </c>
-    </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
+        <v>86968579</v>
+      </c>
+    </row>
+    <row r="13" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B13" s="12" t="s">
         <v>17</v>
       </c>
       <c r="C13" s="13"/>
       <c r="D13" s="13"/>
       <c r="E13" s="13">
-        <v>91996224</v>
+        <v>130255022</v>
       </c>
       <c r="F13" s="13">
-        <v>130255022</v>
+        <v>145164667</v>
       </c>
       <c r="G13" s="13">
-        <v>145164667</v>
+        <v>188945394</v>
       </c>
       <c r="H13" s="13">
-        <v>188945394</v>
+        <v>107540820</v>
       </c>
       <c r="I13" s="13">
-        <v>107540820</v>
+        <v>235615727</v>
       </c>
       <c r="J13" s="13">
-        <v>235615727</v>
+        <v>238410887</v>
       </c>
       <c r="K13" s="13">
-        <v>238410887</v>
+        <v>275933717</v>
       </c>
       <c r="L13" s="13">
-        <v>275933717</v>
+        <v>255768041</v>
       </c>
       <c r="M13" s="13">
-        <v>255768041</v>
+        <v>303938157</v>
       </c>
       <c r="N13" s="13">
-        <v>303938157</v>
-      </c>
-    </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
+        <v>259488938</v>
+      </c>
+    </row>
+    <row r="14" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B14" s="8" t="s">
         <v>18</v>
       </c>
       <c r="C14" s="9"/>
       <c r="D14" s="9"/>
       <c r="E14" s="9">
-        <v>-22716</v>
+        <v>-8808</v>
       </c>
       <c r="F14" s="9">
-        <v>-8808</v>
+        <v>-29408</v>
       </c>
       <c r="G14" s="9">
-        <v>-29408</v>
+        <v>-22921</v>
       </c>
       <c r="H14" s="9">
-        <v>-22921</v>
+        <v>-183940</v>
       </c>
       <c r="I14" s="9">
-        <v>-183940</v>
+        <v>-59858</v>
       </c>
       <c r="J14" s="9">
-        <v>-59858</v>
+        <v>-194064</v>
       </c>
       <c r="K14" s="9">
-        <v>-194064</v>
+        <v>-68077</v>
       </c>
       <c r="L14" s="9">
-        <v>-68077</v>
+        <v>-68454</v>
       </c>
       <c r="M14" s="9">
-        <v>-68454</v>
+        <v>-60967</v>
       </c>
       <c r="N14" s="9">
-        <v>-60967</v>
-      </c>
-    </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-116228</v>
+      </c>
+    </row>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B15" s="12" t="s">
         <v>19</v>
       </c>
       <c r="C15" s="13"/>
       <c r="D15" s="13"/>
       <c r="E15" s="13">
-        <v>91973508</v>
+        <v>130246214</v>
       </c>
       <c r="F15" s="13">
-        <v>130246214</v>
+        <v>145135259</v>
       </c>
       <c r="G15" s="13">
-        <v>145135259</v>
+        <v>188922473</v>
       </c>
       <c r="H15" s="13">
-        <v>188922473</v>
+        <v>107356880</v>
       </c>
       <c r="I15" s="13">
-        <v>107356880</v>
+        <v>235555869</v>
       </c>
       <c r="J15" s="13">
-        <v>235555869</v>
+        <v>238216823</v>
       </c>
       <c r="K15" s="13">
-        <v>238216823</v>
+        <v>275865640</v>
       </c>
       <c r="L15" s="13">
-        <v>275865640</v>
+        <v>255699587</v>
       </c>
       <c r="M15" s="13">
-        <v>255699587</v>
+        <v>303877190</v>
       </c>
       <c r="N15" s="13">
-        <v>303877190</v>
-      </c>
-    </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
+        <v>259372710</v>
+      </c>
+    </row>
+    <row r="16" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B16" s="8" t="s">
         <v>20</v>
       </c>
       <c r="C16" s="9"/>
       <c r="D16" s="9"/>
       <c r="E16" s="9">
-        <v>-5222580</v>
+        <v>-21308280</v>
       </c>
       <c r="F16" s="9">
-        <v>-21308280</v>
+        <v>-684633</v>
       </c>
       <c r="G16" s="9">
-        <v>-684633</v>
+        <v>-18272414</v>
       </c>
       <c r="H16" s="9">
-        <v>-18272414</v>
+        <v>66665225</v>
       </c>
       <c r="I16" s="9">
-        <v>66665225</v>
+        <v>-114276014</v>
       </c>
       <c r="J16" s="9">
-        <v>-114276014</v>
+        <v>11594100</v>
       </c>
       <c r="K16" s="9">
-        <v>11594100</v>
+        <v>-21566419</v>
       </c>
       <c r="L16" s="9">
-        <v>-21566419</v>
+        <v>-52670617</v>
       </c>
       <c r="M16" s="9">
-        <v>-52670617</v>
+        <v>-54721168</v>
       </c>
       <c r="N16" s="9">
-        <v>-54721168</v>
-      </c>
-    </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
+        <v>79560977</v>
+      </c>
+    </row>
+    <row r="17" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B17" s="10" t="s">
         <v>21</v>
       </c>
@@ -1191,13 +1203,13 @@
         <v>0</v>
       </c>
       <c r="H17" s="11">
-        <v>0</v>
+        <v>-77472351</v>
       </c>
       <c r="I17" s="11">
-        <v>-77472351</v>
+        <v>77472351</v>
       </c>
       <c r="J17" s="11">
-        <v>77472351</v>
+        <v>0</v>
       </c>
       <c r="K17" s="11">
         <v>0</v>
@@ -1212,157 +1224,157 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B18" s="14" t="s">
         <v>22</v>
       </c>
       <c r="C18" s="15"/>
       <c r="D18" s="15"/>
       <c r="E18" s="15">
-        <v>86750928</v>
+        <v>108937934</v>
       </c>
       <c r="F18" s="15">
-        <v>108937934</v>
+        <v>144450626</v>
       </c>
       <c r="G18" s="15">
-        <v>144450626</v>
+        <v>170650059</v>
       </c>
       <c r="H18" s="15">
-        <v>170650059</v>
+        <v>96549754</v>
       </c>
       <c r="I18" s="15">
-        <v>96549754</v>
+        <v>198752206</v>
       </c>
       <c r="J18" s="15">
-        <v>198752206</v>
+        <v>249810923</v>
       </c>
       <c r="K18" s="15">
-        <v>249810923</v>
+        <v>254299221</v>
       </c>
       <c r="L18" s="15">
-        <v>254299221</v>
+        <v>203028970</v>
       </c>
       <c r="M18" s="15">
-        <v>203028970</v>
+        <v>249156022</v>
       </c>
       <c r="N18" s="15">
-        <v>249156022</v>
-      </c>
-    </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
+        <v>338933687</v>
+      </c>
+    </row>
+    <row r="19" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B19" s="10" t="s">
         <v>23</v>
       </c>
       <c r="C19" s="11"/>
       <c r="D19" s="11"/>
       <c r="E19" s="11">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="F19" s="11">
-        <v>0</v>
+        <v>17954980</v>
       </c>
       <c r="G19" s="11">
-        <v>3185274</v>
+        <v>19129233</v>
       </c>
       <c r="H19" s="11">
-        <v>19129233</v>
+        <v>25727358</v>
       </c>
       <c r="I19" s="11">
-        <v>25727358</v>
+        <v>25538085</v>
       </c>
       <c r="J19" s="11">
-        <v>25538085</v>
+        <v>29443077</v>
       </c>
       <c r="K19" s="11">
-        <v>29443077</v>
+        <v>32753117</v>
       </c>
       <c r="L19" s="11">
-        <v>32753117</v>
+        <v>36087814</v>
       </c>
       <c r="M19" s="11">
-        <v>36087814</v>
+        <v>36570492</v>
       </c>
       <c r="N19" s="11">
-        <v>36570492</v>
-      </c>
-    </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
+        <v>39818882</v>
+      </c>
+    </row>
+    <row r="20" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B20" s="8" t="s">
         <v>24</v>
       </c>
       <c r="C20" s="9"/>
       <c r="D20" s="9"/>
       <c r="E20" s="9">
-        <v>-4476889</v>
+        <v>3185274</v>
       </c>
       <c r="F20" s="9">
-        <v>3185274</v>
-      </c>
-      <c r="G20" s="9" t="s">
+        <v>-19129233</v>
+      </c>
+      <c r="G20" s="9">
+        <v>-25727358</v>
+      </c>
+      <c r="H20" s="9">
+        <v>-25538085</v>
+      </c>
+      <c r="I20" s="9">
+        <v>-29443077</v>
+      </c>
+      <c r="J20" s="9">
+        <v>-32826999</v>
+      </c>
+      <c r="K20" s="9">
+        <v>-36087814</v>
+      </c>
+      <c r="L20" s="9">
+        <v>-36570492</v>
+      </c>
+      <c r="M20" s="9">
+        <v>-39818882</v>
+      </c>
+      <c r="N20" s="9">
+        <v>-41735382</v>
+      </c>
+    </row>
+    <row r="21" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B21" s="12" t="s">
         <v>25</v>
-      </c>
-      <c r="H20" s="9">
-        <v>-25727358</v>
-      </c>
-      <c r="I20" s="9">
-        <v>-25538085</v>
-      </c>
-      <c r="J20" s="9">
-        <v>-29443077</v>
-      </c>
-      <c r="K20" s="9">
-        <v>-32826999</v>
-      </c>
-      <c r="L20" s="9">
-        <v>-36087814</v>
-      </c>
-      <c r="M20" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="N20" s="9">
-        <v>-39818882</v>
-      </c>
-    </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B21" s="12" t="s">
-        <v>26</v>
       </c>
       <c r="C21" s="13"/>
       <c r="D21" s="13"/>
       <c r="E21" s="13">
-        <v>82274038</v>
+        <v>112123208</v>
       </c>
       <c r="F21" s="13">
-        <v>112123208</v>
+        <v>143276373</v>
       </c>
       <c r="G21" s="13">
-        <v>143276373</v>
+        <v>164051934</v>
       </c>
       <c r="H21" s="13">
-        <v>164051934</v>
+        <v>96739027</v>
       </c>
       <c r="I21" s="13">
-        <v>96739027</v>
+        <v>194847214</v>
       </c>
       <c r="J21" s="13">
-        <v>194847214</v>
+        <v>246427001</v>
       </c>
       <c r="K21" s="13">
-        <v>246427001</v>
+        <v>250964524</v>
       </c>
       <c r="L21" s="13">
-        <v>250964524</v>
+        <v>202620174</v>
       </c>
       <c r="M21" s="13">
-        <v>202620174</v>
+        <v>245907632</v>
       </c>
       <c r="N21" s="13">
-        <v>245907632</v>
-      </c>
-    </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
+        <v>337017187</v>
+      </c>
+    </row>
+    <row r="22" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B22" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C22" s="9"/>
       <c r="D22" s="9"/>
@@ -1370,71 +1382,71 @@
         <v>0</v>
       </c>
       <c r="F22" s="9">
-        <v>0</v>
+        <v>-108318</v>
       </c>
       <c r="G22" s="9">
-        <v>-108318</v>
+        <v>0</v>
       </c>
       <c r="H22" s="9">
-        <v>0</v>
+        <v>-55302</v>
       </c>
       <c r="I22" s="9">
-        <v>-55302</v>
+        <v>-12497</v>
       </c>
       <c r="J22" s="9">
-        <v>-12497</v>
+        <v>-48127</v>
       </c>
       <c r="K22" s="9">
-        <v>-48126</v>
+        <v>0</v>
       </c>
       <c r="L22" s="9">
-        <v>0</v>
+        <v>-5770</v>
       </c>
       <c r="M22" s="9">
-        <v>-5770</v>
+        <v>-4141</v>
       </c>
       <c r="N22" s="9">
-        <v>-4141</v>
-      </c>
-    </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-4951</v>
+      </c>
+    </row>
+    <row r="23" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B23" s="12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C23" s="13"/>
       <c r="D23" s="13"/>
       <c r="E23" s="13">
-        <v>82274038</v>
+        <v>112123208</v>
       </c>
       <c r="F23" s="13">
-        <v>112123208</v>
+        <v>143168055</v>
       </c>
       <c r="G23" s="13">
-        <v>143168055</v>
+        <v>164051934</v>
       </c>
       <c r="H23" s="13">
-        <v>164051934</v>
+        <v>96683725</v>
       </c>
       <c r="I23" s="13">
-        <v>96683725</v>
+        <v>194834717</v>
       </c>
       <c r="J23" s="13">
-        <v>194834717</v>
+        <v>246378874</v>
       </c>
       <c r="K23" s="13">
-        <v>246378875</v>
+        <v>250964524</v>
       </c>
       <c r="L23" s="13">
-        <v>250964524</v>
+        <v>202614404</v>
       </c>
       <c r="M23" s="13">
-        <v>202614404</v>
+        <v>245903491</v>
       </c>
       <c r="N23" s="13">
-        <v>245903491</v>
-      </c>
-    </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
+        <v>337012236</v>
+      </c>
+    </row>
+    <row r="24" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -1449,7 +1461,7 @@
       <c r="M24" s="1"/>
       <c r="N24" s="1"/>
     </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -1464,7 +1476,7 @@
       <c r="M25" s="1"/>
       <c r="N25" s="1"/>
     </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -1479,9 +1491,9 @@
       <c r="M26" s="1"/>
       <c r="N26" s="1"/>
     </row>
-    <row r="27" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B27" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C27" s="6"/>
       <c r="D27" s="6"/>
@@ -1516,7 +1528,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -1531,324 +1543,324 @@
       <c r="M28" s="1"/>
       <c r="N28" s="1"/>
     </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B29" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C29" s="9" t="s">
         <v>30</v>
-      </c>
-      <c r="C29" s="9" t="s">
-        <v>31</v>
       </c>
       <c r="D29" s="9"/>
       <c r="E29" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="F29" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
+      </c>
+      <c r="F29" s="9">
+        <v>1036</v>
       </c>
       <c r="G29" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="H29" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="I29" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="J29" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="K29" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="L29" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="M29" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="N29" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="30" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B30" s="10" t="s">
         <v>32</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D30" s="11"/>
       <c r="E30" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="F30" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="G30" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="H30" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="I30" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
+      </c>
+      <c r="I30" s="11">
+        <v>103</v>
       </c>
       <c r="J30" s="11">
-        <v>103</v>
+        <v>78</v>
       </c>
       <c r="K30" s="11">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="L30" s="11">
-        <v>68</v>
+        <v>119</v>
       </c>
       <c r="M30" s="11">
-        <v>119</v>
+        <v>170</v>
       </c>
       <c r="N30" s="11">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="31" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B31" s="8" t="s">
         <v>33</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D31" s="9"/>
       <c r="E31" s="9">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F31" s="9">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="G31" s="9">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H31" s="9">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="I31" s="9">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="J31" s="9">
-        <v>55</v>
+        <v>69</v>
       </c>
       <c r="K31" s="9">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="L31" s="9">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="M31" s="9">
         <v>65</v>
       </c>
       <c r="N31" s="9">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="32" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B32" s="10" t="s">
         <v>34</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D32" s="11"/>
-      <c r="E32" s="11" t="s">
-        <v>25</v>
+      <c r="E32" s="11">
+        <v>94</v>
       </c>
       <c r="F32" s="11">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="G32" s="11">
-        <v>87</v>
-      </c>
-      <c r="H32" s="11">
         <v>90</v>
       </c>
+      <c r="H32" s="11" t="s">
+        <v>31</v>
+      </c>
       <c r="I32" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="J32" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="K32" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="L32" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="M32" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="N32" s="11" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B33" s="8" t="s">
         <v>35</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D33" s="9"/>
       <c r="E33" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="F33" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="G33" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="H33" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="I33" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="J33" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="K33" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="L33" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="M33" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="N33" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B34" s="10" t="s">
         <v>36</v>
       </c>
       <c r="C34" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D34" s="11"/>
       <c r="E34" s="11">
-        <v>2346</v>
+        <v>2581</v>
       </c>
       <c r="F34" s="11">
-        <v>2581</v>
+        <v>2752</v>
       </c>
       <c r="G34" s="11">
-        <v>2752</v>
+        <v>2568</v>
       </c>
       <c r="H34" s="11">
-        <v>2568</v>
+        <v>1597</v>
       </c>
       <c r="I34" s="11">
-        <v>1597</v>
+        <v>1663</v>
       </c>
       <c r="J34" s="11">
-        <v>1663</v>
+        <v>1508</v>
       </c>
       <c r="K34" s="11">
-        <v>1508</v>
+        <v>2126</v>
       </c>
       <c r="L34" s="11">
-        <v>2126</v>
+        <v>2113</v>
       </c>
       <c r="M34" s="11">
-        <v>2113</v>
+        <v>2898</v>
       </c>
       <c r="N34" s="11">
-        <v>2898</v>
-      </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
+        <v>3016</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B35" s="8" t="s">
         <v>37</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D35" s="9"/>
-      <c r="E35" s="9">
-        <v>28</v>
-      </c>
-      <c r="F35" s="9" t="s">
-        <v>25</v>
+      <c r="E35" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="F35" s="9">
+        <v>2</v>
       </c>
       <c r="G35" s="9">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="H35" s="9">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="I35" s="9">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="J35" s="9">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="K35" s="9">
-        <v>10</v>
+        <v>101</v>
       </c>
       <c r="L35" s="9">
-        <v>101</v>
+        <v>155</v>
       </c>
       <c r="M35" s="9">
-        <v>155</v>
+        <v>226</v>
       </c>
       <c r="N35" s="9">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="36" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B36" s="10" t="s">
         <v>38</v>
       </c>
       <c r="C36" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D36" s="11"/>
       <c r="E36" s="11">
-        <v>796</v>
+        <v>806</v>
       </c>
       <c r="F36" s="11">
-        <v>806</v>
+        <v>1036</v>
       </c>
       <c r="G36" s="11">
-        <v>1036</v>
+        <v>1256</v>
       </c>
       <c r="H36" s="11">
-        <v>1256</v>
+        <v>1050</v>
       </c>
       <c r="I36" s="11">
-        <v>1050</v>
+        <v>1404</v>
       </c>
       <c r="J36" s="11">
-        <v>1404</v>
+        <v>1260</v>
       </c>
       <c r="K36" s="11">
-        <v>1260</v>
+        <v>1630</v>
       </c>
       <c r="L36" s="11">
-        <v>1630</v>
+        <v>963</v>
       </c>
       <c r="M36" s="11">
-        <v>963</v>
+        <v>1034</v>
       </c>
       <c r="N36" s="11">
-        <v>1034</v>
-      </c>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.25">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B37" s="8" t="s">
         <v>39</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D37" s="9"/>
       <c r="E37" s="9">
@@ -1864,13 +1876,13 @@
         <v>0</v>
       </c>
       <c r="I37" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J37" s="9">
+        <v>0</v>
+      </c>
+      <c r="K37" s="9">
         <v>1</v>
-      </c>
-      <c r="K37" s="9">
-        <v>0</v>
       </c>
       <c r="L37" s="9">
         <v>1</v>
@@ -1882,44 +1894,44 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B38" s="12" t="s">
         <v>17</v>
       </c>
       <c r="C38" s="13"/>
       <c r="D38" s="13"/>
       <c r="E38" s="13">
-        <v>3226</v>
+        <v>3533</v>
       </c>
       <c r="F38" s="13">
-        <v>3533</v>
+        <v>4947</v>
       </c>
       <c r="G38" s="13">
-        <v>3911</v>
+        <v>3960</v>
       </c>
       <c r="H38" s="13">
-        <v>3960</v>
+        <v>2694</v>
       </c>
       <c r="I38" s="13">
-        <v>2694</v>
+        <v>3227</v>
       </c>
       <c r="J38" s="13">
-        <v>3227</v>
+        <v>2925</v>
       </c>
       <c r="K38" s="13">
-        <v>2925</v>
+        <v>3992</v>
       </c>
       <c r="L38" s="13">
-        <v>3992</v>
+        <v>3416</v>
       </c>
       <c r="M38" s="13">
-        <v>3416</v>
+        <v>4394</v>
       </c>
       <c r="N38" s="13">
-        <v>4394</v>
-      </c>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
+        <v>4344</v>
+      </c>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
@@ -1934,7 +1946,7 @@
       <c r="M39" s="1"/>
       <c r="N39" s="1"/>
     </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
@@ -1949,7 +1961,7 @@
       <c r="M40" s="1"/>
       <c r="N40" s="1"/>
     </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
@@ -1964,7 +1976,7 @@
       <c r="M41" s="1"/>
       <c r="N41" s="1"/>
     </row>
-    <row r="42" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B42" s="7" t="s">
         <v>40</v>
       </c>
@@ -2001,7 +2013,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
@@ -2016,324 +2028,324 @@
       <c r="M43" s="1"/>
       <c r="N43" s="1"/>
     </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B44" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C44" s="9" t="s">
         <v>30</v>
-      </c>
-      <c r="C44" s="9" t="s">
-        <v>31</v>
       </c>
       <c r="D44" s="9"/>
       <c r="E44" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="F44" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="G44" s="9">
-        <v>0</v>
+        <v>31</v>
+      </c>
+      <c r="F44" s="9">
+        <v>-4020</v>
+      </c>
+      <c r="G44" s="9" t="s">
+        <v>31</v>
       </c>
       <c r="H44" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="I44" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="J44" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="K44" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="L44" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="M44" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="N44" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B45" s="10" t="s">
         <v>32</v>
       </c>
       <c r="C45" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D45" s="11"/>
       <c r="E45" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="F45" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="G45" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="H45" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
+      </c>
+      <c r="H45" s="11">
+        <v>91</v>
       </c>
       <c r="I45" s="11">
-        <v>91</v>
+        <v>62</v>
       </c>
       <c r="J45" s="11">
-        <v>62</v>
+        <v>161</v>
       </c>
       <c r="K45" s="11">
-        <v>161</v>
+        <v>132</v>
       </c>
       <c r="L45" s="11">
-        <v>132</v>
+        <v>36</v>
       </c>
       <c r="M45" s="11">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="N45" s="11">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B46" s="8" t="s">
         <v>33</v>
       </c>
       <c r="C46" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D46" s="9"/>
       <c r="E46" s="9">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="F46" s="9">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="G46" s="9">
+        <v>30</v>
+      </c>
+      <c r="H46" s="9">
+        <v>26</v>
+      </c>
+      <c r="I46" s="9">
+        <v>31</v>
+      </c>
+      <c r="J46" s="9">
         <v>14</v>
       </c>
-      <c r="H46" s="9">
-        <v>30</v>
-      </c>
-      <c r="I46" s="9">
-        <v>26</v>
-      </c>
-      <c r="J46" s="9">
-        <v>31</v>
-      </c>
       <c r="K46" s="9">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="L46" s="9">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="M46" s="9">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="N46" s="9">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B47" s="10" t="s">
         <v>34</v>
       </c>
       <c r="C47" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D47" s="11"/>
       <c r="E47" s="11">
-        <v>101</v>
+        <v>45</v>
       </c>
       <c r="F47" s="11">
-        <v>45</v>
+        <v>95</v>
       </c>
       <c r="G47" s="11">
-        <v>95</v>
-      </c>
-      <c r="H47" s="11">
         <v>50</v>
       </c>
+      <c r="H47" s="11" t="s">
+        <v>31</v>
+      </c>
       <c r="I47" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="J47" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="K47" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="L47" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="M47" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="N47" s="11" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B48" s="8" t="s">
         <v>35</v>
       </c>
       <c r="C48" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D48" s="9"/>
       <c r="E48" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="F48" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="G48" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="H48" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="I48" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="J48" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="K48" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="L48" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="M48" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="N48" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="49" spans="2:14" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="49" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B49" s="10" t="s">
         <v>36</v>
       </c>
       <c r="C49" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D49" s="11"/>
       <c r="E49" s="11">
-        <v>2137</v>
+        <v>1946</v>
       </c>
       <c r="F49" s="11">
-        <v>1946</v>
+        <v>1618</v>
       </c>
       <c r="G49" s="11">
-        <v>1618</v>
+        <v>1553</v>
       </c>
       <c r="H49" s="11">
-        <v>1553</v>
+        <v>1212</v>
       </c>
       <c r="I49" s="11">
-        <v>1212</v>
+        <v>1434</v>
       </c>
       <c r="J49" s="11">
-        <v>1434</v>
+        <v>2191</v>
       </c>
       <c r="K49" s="11">
-        <v>2191</v>
+        <v>2147</v>
       </c>
       <c r="L49" s="11">
-        <v>2147</v>
+        <v>2470</v>
       </c>
       <c r="M49" s="11">
-        <v>2470</v>
+        <v>1664</v>
       </c>
       <c r="N49" s="11">
-        <v>1664</v>
-      </c>
-    </row>
-    <row r="50" spans="2:14" x14ac:dyDescent="0.25">
+        <v>1717</v>
+      </c>
+    </row>
+    <row r="50" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B50" s="8" t="s">
         <v>37</v>
       </c>
       <c r="C50" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D50" s="9"/>
       <c r="E50" s="9">
-        <v>345</v>
+        <v>434</v>
       </c>
       <c r="F50" s="9">
-        <v>434</v>
+        <v>202</v>
       </c>
       <c r="G50" s="9">
-        <v>202</v>
+        <v>376</v>
       </c>
       <c r="H50" s="9">
-        <v>376</v>
+        <v>340</v>
       </c>
       <c r="I50" s="9">
-        <v>340</v>
+        <v>561</v>
       </c>
       <c r="J50" s="9">
-        <v>561</v>
+        <v>847</v>
       </c>
       <c r="K50" s="9">
-        <v>847</v>
+        <v>618</v>
       </c>
       <c r="L50" s="9">
-        <v>618</v>
+        <v>653</v>
       </c>
       <c r="M50" s="9">
-        <v>653</v>
+        <v>889</v>
       </c>
       <c r="N50" s="9">
-        <v>889</v>
-      </c>
-    </row>
-    <row r="51" spans="2:14" x14ac:dyDescent="0.25">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="51" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B51" s="10" t="s">
         <v>38</v>
       </c>
       <c r="C51" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D51" s="11"/>
       <c r="E51" s="11">
-        <v>1150</v>
+        <v>1629</v>
       </c>
       <c r="F51" s="11">
-        <v>1629</v>
+        <v>1043</v>
       </c>
       <c r="G51" s="11">
-        <v>1043</v>
+        <v>1245</v>
       </c>
       <c r="H51" s="11">
-        <v>1245</v>
+        <v>873</v>
       </c>
       <c r="I51" s="11">
-        <v>873</v>
+        <v>1096</v>
       </c>
       <c r="J51" s="11">
-        <v>1096</v>
+        <v>916</v>
       </c>
       <c r="K51" s="11">
-        <v>916</v>
+        <v>887</v>
       </c>
       <c r="L51" s="11">
-        <v>887</v>
+        <v>1099</v>
       </c>
       <c r="M51" s="11">
-        <v>1099</v>
+        <v>1279</v>
       </c>
       <c r="N51" s="11">
-        <v>1279</v>
-      </c>
-    </row>
-    <row r="52" spans="2:14" x14ac:dyDescent="0.25">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="52" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B52" s="8" t="s">
         <v>39</v>
       </c>
       <c r="C52" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D52" s="9"/>
       <c r="E52" s="9">
@@ -2346,65 +2358,65 @@
         <v>0</v>
       </c>
       <c r="H52" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I52" s="9">
+        <v>0</v>
+      </c>
+      <c r="J52" s="9">
+        <v>0</v>
+      </c>
+      <c r="K52" s="9">
         <v>1</v>
-      </c>
-      <c r="J52" s="9">
-        <v>0</v>
-      </c>
-      <c r="K52" s="9">
-        <v>0</v>
       </c>
       <c r="L52" s="9">
         <v>1</v>
       </c>
       <c r="M52" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N52" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B53" s="12" t="s">
         <v>17</v>
       </c>
       <c r="C53" s="13"/>
       <c r="D53" s="13"/>
       <c r="E53" s="13">
-        <v>3746</v>
+        <v>4058</v>
       </c>
       <c r="F53" s="13">
-        <v>4058</v>
+        <v>-1048</v>
       </c>
       <c r="G53" s="13">
-        <v>2972</v>
+        <v>3254</v>
       </c>
       <c r="H53" s="13">
-        <v>3254</v>
+        <v>2543</v>
       </c>
       <c r="I53" s="13">
-        <v>2543</v>
+        <v>3184</v>
       </c>
       <c r="J53" s="13">
-        <v>3184</v>
+        <v>4129</v>
       </c>
       <c r="K53" s="13">
-        <v>4129</v>
+        <v>3803</v>
       </c>
       <c r="L53" s="13">
-        <v>3803</v>
+        <v>4274</v>
       </c>
       <c r="M53" s="13">
-        <v>4274</v>
+        <v>3871</v>
       </c>
       <c r="N53" s="13">
-        <v>3871</v>
-      </c>
-    </row>
-    <row r="54" spans="2:14" x14ac:dyDescent="0.25">
+        <v>2758</v>
+      </c>
+    </row>
+    <row r="54" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
@@ -2419,7 +2431,7 @@
       <c r="M54" s="1"/>
       <c r="N54" s="1"/>
     </row>
-    <row r="55" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
@@ -2434,7 +2446,7 @@
       <c r="M55" s="1"/>
       <c r="N55" s="1"/>
     </row>
-    <row r="56" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
@@ -2449,7 +2461,7 @@
       <c r="M56" s="1"/>
       <c r="N56" s="1"/>
     </row>
-    <row r="57" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B57" s="7" t="s">
         <v>41</v>
       </c>
@@ -2486,7 +2498,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="58" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
@@ -2501,324 +2513,324 @@
       <c r="M58" s="1"/>
       <c r="N58" s="1"/>
     </row>
-    <row r="59" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B59" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C59" s="9" t="s">
         <v>30</v>
-      </c>
-      <c r="C59" s="9" t="s">
-        <v>31</v>
       </c>
       <c r="D59" s="9"/>
       <c r="E59" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="F59" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="G59" s="9">
-        <v>0</v>
+        <v>31</v>
+      </c>
+      <c r="F59" s="9">
+        <v>-3752</v>
+      </c>
+      <c r="G59" s="9" t="s">
+        <v>31</v>
       </c>
       <c r="H59" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="I59" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="J59" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="K59" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="L59" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="M59" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="N59" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="60" spans="2:14" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="60" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B60" s="10" t="s">
         <v>32</v>
       </c>
       <c r="C60" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D60" s="11"/>
       <c r="E60" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="F60" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="G60" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="H60" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
+      </c>
+      <c r="H60" s="11">
+        <v>78</v>
       </c>
       <c r="I60" s="11">
+        <v>86</v>
+      </c>
+      <c r="J60" s="11">
+        <v>171</v>
+      </c>
+      <c r="K60" s="11">
+        <v>81</v>
+      </c>
+      <c r="L60" s="11">
+        <v>-15</v>
+      </c>
+      <c r="M60" s="11">
+        <v>49</v>
+      </c>
+      <c r="N60" s="11">
         <v>78</v>
       </c>
-      <c r="J60" s="11">
-        <v>86</v>
-      </c>
-      <c r="K60" s="11">
-        <v>171</v>
-      </c>
-      <c r="L60" s="11">
-        <v>81</v>
-      </c>
-      <c r="M60" s="11">
-        <v>-15</v>
-      </c>
-      <c r="N60" s="11">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="61" spans="2:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="61" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B61" s="8" t="s">
         <v>33</v>
       </c>
       <c r="C61" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D61" s="9"/>
       <c r="E61" s="9">
+        <v>21</v>
+      </c>
+      <c r="F61" s="9">
         <v>17</v>
       </c>
-      <c r="F61" s="9">
-        <v>21</v>
-      </c>
       <c r="G61" s="9">
+        <v>20</v>
+      </c>
+      <c r="H61" s="9">
+        <v>12</v>
+      </c>
+      <c r="I61" s="9">
         <v>17</v>
-      </c>
-      <c r="H61" s="9">
-        <v>20</v>
-      </c>
-      <c r="I61" s="9">
-        <v>12</v>
       </c>
       <c r="J61" s="9">
         <v>17</v>
       </c>
       <c r="K61" s="9">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="L61" s="9">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="M61" s="9">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="N61" s="9">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="62" spans="2:14" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="62" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B62" s="10" t="s">
         <v>34</v>
       </c>
       <c r="C62" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D62" s="11"/>
       <c r="E62" s="11">
-        <v>78</v>
+        <v>52</v>
       </c>
       <c r="F62" s="11">
-        <v>52</v>
+        <v>92</v>
       </c>
       <c r="G62" s="11">
-        <v>92</v>
-      </c>
-      <c r="H62" s="11">
         <v>49</v>
       </c>
+      <c r="H62" s="11" t="s">
+        <v>31</v>
+      </c>
       <c r="I62" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="J62" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="K62" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="L62" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="M62" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="N62" s="11" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="63" spans="2:14" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="63" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B63" s="8" t="s">
         <v>35</v>
       </c>
       <c r="C63" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D63" s="9"/>
       <c r="E63" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="F63" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="G63" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="H63" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="I63" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="J63" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="K63" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="L63" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="M63" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="N63" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="64" spans="2:14" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="64" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B64" s="10" t="s">
         <v>36</v>
       </c>
       <c r="C64" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D64" s="11"/>
       <c r="E64" s="11">
-        <v>1902</v>
+        <v>1806</v>
       </c>
       <c r="F64" s="11">
-        <v>1806</v>
+        <v>1802</v>
       </c>
       <c r="G64" s="11">
-        <v>1802</v>
+        <v>2524</v>
       </c>
       <c r="H64" s="11">
-        <v>2524</v>
+        <v>1146</v>
       </c>
       <c r="I64" s="11">
-        <v>1146</v>
+        <v>1589</v>
       </c>
       <c r="J64" s="11">
-        <v>1589</v>
+        <v>1574</v>
       </c>
       <c r="K64" s="11">
-        <v>1574</v>
+        <v>2160</v>
       </c>
       <c r="L64" s="11">
-        <v>2160</v>
+        <v>1685</v>
       </c>
       <c r="M64" s="11">
-        <v>1685</v>
+        <v>1546</v>
       </c>
       <c r="N64" s="11">
-        <v>1546</v>
-      </c>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.25">
+        <v>1672</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B65" s="8" t="s">
         <v>37</v>
       </c>
       <c r="C65" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D65" s="9"/>
       <c r="E65" s="9">
-        <v>373</v>
+        <v>432</v>
       </c>
       <c r="F65" s="9">
-        <v>432</v>
+        <v>189</v>
       </c>
       <c r="G65" s="9">
-        <v>189</v>
+        <v>385</v>
       </c>
       <c r="H65" s="9">
-        <v>385</v>
+        <v>345</v>
       </c>
       <c r="I65" s="9">
-        <v>345</v>
+        <v>552</v>
       </c>
       <c r="J65" s="9">
+        <v>858</v>
+      </c>
+      <c r="K65" s="9">
+        <v>564</v>
+      </c>
+      <c r="L65" s="9">
+        <v>582</v>
+      </c>
+      <c r="M65" s="9">
+        <v>908</v>
+      </c>
+      <c r="N65" s="9">
         <v>552</v>
       </c>
-      <c r="K65" s="9">
-        <v>858</v>
-      </c>
-      <c r="L65" s="9">
-        <v>564</v>
-      </c>
-      <c r="M65" s="9">
-        <v>582</v>
-      </c>
-      <c r="N65" s="9">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B66" s="10" t="s">
         <v>38</v>
       </c>
       <c r="C66" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D66" s="11"/>
       <c r="E66" s="11">
-        <v>1140</v>
+        <v>1400</v>
       </c>
       <c r="F66" s="11">
-        <v>1400</v>
+        <v>823</v>
       </c>
       <c r="G66" s="11">
-        <v>823</v>
+        <v>1451</v>
       </c>
       <c r="H66" s="11">
-        <v>1451</v>
+        <v>519</v>
       </c>
       <c r="I66" s="11">
-        <v>519</v>
+        <v>1239</v>
       </c>
       <c r="J66" s="11">
-        <v>1239</v>
+        <v>546</v>
       </c>
       <c r="K66" s="11">
-        <v>546</v>
+        <v>1554</v>
       </c>
       <c r="L66" s="11">
-        <v>1554</v>
+        <v>1028</v>
       </c>
       <c r="M66" s="11">
-        <v>1028</v>
+        <v>1398</v>
       </c>
       <c r="N66" s="11">
-        <v>1398</v>
-      </c>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.25">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B67" s="8" t="s">
         <v>39</v>
       </c>
       <c r="C67" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D67" s="9"/>
       <c r="E67" s="9">
@@ -2831,65 +2843,65 @@
         <v>0</v>
       </c>
       <c r="H67" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I67" s="9">
         <v>1</v>
       </c>
       <c r="J67" s="9">
+        <v>-1</v>
+      </c>
+      <c r="K67" s="9">
         <v>1</v>
-      </c>
-      <c r="K67" s="9">
-        <v>-1</v>
       </c>
       <c r="L67" s="9">
         <v>1</v>
       </c>
       <c r="M67" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N67" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B68" s="12" t="s">
         <v>17</v>
       </c>
       <c r="C68" s="13"/>
       <c r="D68" s="13"/>
       <c r="E68" s="13">
-        <v>3510</v>
+        <v>3711</v>
       </c>
       <c r="F68" s="13">
-        <v>3711</v>
+        <v>-829</v>
       </c>
       <c r="G68" s="13">
-        <v>2923</v>
+        <v>4429</v>
       </c>
       <c r="H68" s="13">
-        <v>4429</v>
+        <v>2101</v>
       </c>
       <c r="I68" s="13">
-        <v>2101</v>
+        <v>3484</v>
       </c>
       <c r="J68" s="13">
-        <v>3484</v>
+        <v>3165</v>
       </c>
       <c r="K68" s="13">
-        <v>3165</v>
+        <v>4379</v>
       </c>
       <c r="L68" s="13">
-        <v>4379</v>
+        <v>3296</v>
       </c>
       <c r="M68" s="13">
-        <v>3296</v>
+        <v>3921</v>
       </c>
       <c r="N68" s="13">
-        <v>3921</v>
-      </c>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.25">
+        <v>2648</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
       <c r="D69" s="1"/>
@@ -2904,7 +2916,7 @@
       <c r="M69" s="1"/>
       <c r="N69" s="1"/>
     </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
@@ -2919,7 +2931,7 @@
       <c r="M70" s="1"/>
       <c r="N70" s="1"/>
     </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
       <c r="D71" s="1"/>
@@ -2934,7 +2946,7 @@
       <c r="M71" s="1"/>
       <c r="N71" s="1"/>
     </row>
-    <row r="72" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B72" s="7" t="s">
         <v>42</v>
       </c>
@@ -2971,7 +2983,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
       <c r="D73" s="1"/>
@@ -2986,324 +2998,324 @@
       <c r="M73" s="1"/>
       <c r="N73" s="1"/>
     </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B74" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C74" s="9" t="s">
         <v>30</v>
-      </c>
-      <c r="C74" s="9" t="s">
-        <v>31</v>
       </c>
       <c r="D74" s="9"/>
       <c r="E74" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="F74" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="G74" s="9">
-        <v>0</v>
+        <v>31</v>
+      </c>
+      <c r="F74" s="9">
+        <v>0</v>
+      </c>
+      <c r="G74" s="9" t="s">
+        <v>31</v>
       </c>
       <c r="H74" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="I74" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="J74" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="K74" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="L74" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="M74" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="N74" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B75" s="10" t="s">
         <v>32</v>
       </c>
       <c r="C75" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D75" s="11"/>
       <c r="E75" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="F75" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="G75" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="H75" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
+      </c>
+      <c r="H75" s="11">
+        <v>103</v>
       </c>
       <c r="I75" s="11">
-        <v>103</v>
+        <v>78</v>
       </c>
       <c r="J75" s="11">
+        <v>68</v>
+      </c>
+      <c r="K75" s="11">
+        <v>119</v>
+      </c>
+      <c r="L75" s="11">
+        <v>170</v>
+      </c>
+      <c r="M75" s="11">
+        <v>137</v>
+      </c>
+      <c r="N75" s="11">
         <v>78</v>
       </c>
-      <c r="K75" s="11">
-        <v>68</v>
-      </c>
-      <c r="L75" s="11">
-        <v>119</v>
-      </c>
-      <c r="M75" s="11">
-        <v>170</v>
-      </c>
-      <c r="N75" s="11">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B76" s="8" t="s">
         <v>33</v>
       </c>
       <c r="C76" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D76" s="9"/>
       <c r="E76" s="9">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="F76" s="9">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G76" s="9">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="H76" s="9">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="I76" s="9">
-        <v>55</v>
+        <v>69</v>
       </c>
       <c r="J76" s="9">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="K76" s="9">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="L76" s="9">
         <v>65</v>
       </c>
       <c r="M76" s="9">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="N76" s="9">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B77" s="10" t="s">
         <v>34</v>
       </c>
       <c r="C77" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D77" s="11"/>
       <c r="E77" s="11">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="F77" s="11">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="G77" s="11">
-        <v>90</v>
-      </c>
-      <c r="H77" s="11">
         <v>91</v>
       </c>
+      <c r="H77" s="11" t="s">
+        <v>31</v>
+      </c>
       <c r="I77" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="J77" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="K77" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="L77" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="M77" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="N77" s="11" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="78" spans="2:14" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="78" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B78" s="8" t="s">
         <v>35</v>
       </c>
       <c r="C78" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D78" s="9"/>
       <c r="E78" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="F78" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="G78" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="H78" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="I78" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="J78" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="K78" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="L78" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="M78" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="N78" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B79" s="10" t="s">
         <v>36</v>
       </c>
       <c r="C79" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D79" s="11"/>
       <c r="E79" s="11">
-        <v>2582</v>
+        <v>2752</v>
       </c>
       <c r="F79" s="11">
-        <v>2752</v>
+        <v>2568</v>
       </c>
       <c r="G79" s="11">
-        <v>2568</v>
+        <v>1597</v>
       </c>
       <c r="H79" s="11">
-        <v>1597</v>
+        <v>1663</v>
       </c>
       <c r="I79" s="11">
-        <v>1663</v>
+        <v>1508</v>
       </c>
       <c r="J79" s="11">
-        <v>1508</v>
+        <v>2126</v>
       </c>
       <c r="K79" s="11">
-        <v>2126</v>
+        <v>2113</v>
       </c>
       <c r="L79" s="11">
-        <v>2113</v>
+        <v>2898</v>
       </c>
       <c r="M79" s="11">
-        <v>2898</v>
+        <v>3016</v>
       </c>
       <c r="N79" s="11">
-        <v>3016</v>
-      </c>
-    </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.25">
+        <v>3001</v>
+      </c>
+    </row>
+    <row r="80" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B80" s="8" t="s">
         <v>37</v>
       </c>
       <c r="C80" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D80" s="9"/>
       <c r="E80" s="9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F80" s="9">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="G80" s="9">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="H80" s="9">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I80" s="9">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J80" s="9">
-        <v>10</v>
+        <v>101</v>
       </c>
       <c r="K80" s="9">
-        <v>101</v>
+        <v>155</v>
       </c>
       <c r="L80" s="9">
-        <v>155</v>
+        <v>226</v>
       </c>
       <c r="M80" s="9">
-        <v>226</v>
+        <v>207</v>
       </c>
       <c r="N80" s="9">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="81" spans="2:14" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="81" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B81" s="10" t="s">
         <v>38</v>
       </c>
       <c r="C81" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D81" s="11"/>
       <c r="E81" s="11">
-        <v>806</v>
+        <v>1036</v>
       </c>
       <c r="F81" s="11">
-        <v>1036</v>
+        <v>1256</v>
       </c>
       <c r="G81" s="11">
-        <v>1256</v>
+        <v>1050</v>
       </c>
       <c r="H81" s="11">
-        <v>1050</v>
+        <v>1404</v>
       </c>
       <c r="I81" s="11">
-        <v>1404</v>
+        <v>1260</v>
       </c>
       <c r="J81" s="11">
-        <v>1260</v>
+        <v>1630</v>
       </c>
       <c r="K81" s="11">
-        <v>1630</v>
+        <v>963</v>
       </c>
       <c r="L81" s="11">
-        <v>963</v>
+        <v>1034</v>
       </c>
       <c r="M81" s="11">
-        <v>1034</v>
+        <v>915</v>
       </c>
       <c r="N81" s="11">
-        <v>915</v>
-      </c>
-    </row>
-    <row r="82" spans="2:14" x14ac:dyDescent="0.25">
+        <v>1188</v>
+      </c>
+    </row>
+    <row r="82" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B82" s="8" t="s">
         <v>39</v>
       </c>
       <c r="C82" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D82" s="9"/>
       <c r="E82" s="9">
@@ -3316,13 +3328,13 @@
         <v>0</v>
       </c>
       <c r="H82" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I82" s="9">
+        <v>0</v>
+      </c>
+      <c r="J82" s="9">
         <v>1</v>
-      </c>
-      <c r="J82" s="9">
-        <v>0</v>
       </c>
       <c r="K82" s="9">
         <v>1</v>
@@ -3337,44 +3349,44 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B83" s="12" t="s">
         <v>17</v>
       </c>
       <c r="C83" s="13"/>
       <c r="D83" s="13"/>
       <c r="E83" s="13">
-        <v>3534</v>
+        <v>3911</v>
       </c>
       <c r="F83" s="13">
-        <v>3911</v>
+        <v>3960</v>
       </c>
       <c r="G83" s="13">
-        <v>3960</v>
+        <v>2785</v>
       </c>
       <c r="H83" s="13">
-        <v>2785</v>
+        <v>3227</v>
       </c>
       <c r="I83" s="13">
-        <v>3227</v>
+        <v>2925</v>
       </c>
       <c r="J83" s="13">
-        <v>2925</v>
+        <v>3992</v>
       </c>
       <c r="K83" s="13">
-        <v>3992</v>
+        <v>3416</v>
       </c>
       <c r="L83" s="13">
-        <v>3416</v>
+        <v>4394</v>
       </c>
       <c r="M83" s="13">
+        <v>4344</v>
+      </c>
+      <c r="N83" s="13">
         <v>4394</v>
       </c>
-      <c r="N83" s="13">
-        <v>4344</v>
-      </c>
-    </row>
-    <row r="84" spans="2:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="84" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
       <c r="D84" s="1"/>
@@ -3389,7 +3401,7 @@
       <c r="M84" s="1"/>
       <c r="N84" s="1"/>
     </row>
-    <row r="85" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
       <c r="D85" s="1"/>
@@ -3404,7 +3416,7 @@
       <c r="M85" s="1"/>
       <c r="N85" s="1"/>
     </row>
-    <row r="86" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
       <c r="D86" s="1"/>
@@ -3419,7 +3431,7 @@
       <c r="M86" s="1"/>
       <c r="N86" s="1"/>
     </row>
-    <row r="87" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B87" s="7" t="s">
         <v>43</v>
       </c>
@@ -3456,7 +3468,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="88" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
       <c r="D88" s="1"/>
@@ -3471,46 +3483,46 @@
       <c r="M88" s="1"/>
       <c r="N88" s="1"/>
     </row>
-    <row r="89" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B89" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C89" s="9" t="s">
         <v>44</v>
       </c>
       <c r="D89" s="9"/>
       <c r="E89" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="F89" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
+      </c>
+      <c r="F89" s="9">
+        <v>18522246</v>
       </c>
       <c r="G89" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="H89" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="I89" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="J89" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="K89" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="L89" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="M89" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="N89" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="90" spans="2:14" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="90" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B90" s="10" t="s">
         <v>32</v>
       </c>
@@ -3519,37 +3531,37 @@
       </c>
       <c r="D90" s="11"/>
       <c r="E90" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="F90" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="G90" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="H90" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="I90" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
+      </c>
+      <c r="I90" s="11">
+        <v>6515181</v>
       </c>
       <c r="J90" s="11">
-        <v>6515181</v>
+        <v>5892079</v>
       </c>
       <c r="K90" s="11">
-        <v>5892079</v>
+        <v>5726212</v>
       </c>
       <c r="L90" s="11">
-        <v>5726212</v>
+        <v>12631408</v>
       </c>
       <c r="M90" s="11">
-        <v>12631408</v>
+        <v>19852351</v>
       </c>
       <c r="N90" s="11">
-        <v>19852351</v>
-      </c>
-    </row>
-    <row r="91" spans="2:14" x14ac:dyDescent="0.25">
+        <v>16045911</v>
+      </c>
+    </row>
+    <row r="91" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B91" s="8" t="s">
         <v>33</v>
       </c>
@@ -3558,37 +3570,37 @@
       </c>
       <c r="D91" s="9"/>
       <c r="E91" s="9">
-        <v>9565994</v>
+        <v>9507451</v>
       </c>
       <c r="F91" s="9">
-        <v>9507451</v>
+        <v>7161021</v>
       </c>
       <c r="G91" s="9">
-        <v>7161021</v>
+        <v>8907639</v>
       </c>
       <c r="H91" s="9">
-        <v>8907639</v>
+        <v>16148956</v>
       </c>
       <c r="I91" s="9">
-        <v>16148956</v>
+        <v>23701274</v>
       </c>
       <c r="J91" s="9">
-        <v>23701274</v>
+        <v>29384253</v>
       </c>
       <c r="K91" s="9">
-        <v>29384253</v>
+        <v>31789373</v>
       </c>
       <c r="L91" s="9">
-        <v>31789373</v>
+        <v>36226171</v>
       </c>
       <c r="M91" s="9">
-        <v>36226171</v>
+        <v>39870672</v>
       </c>
       <c r="N91" s="9">
-        <v>39870672</v>
-      </c>
-    </row>
-    <row r="92" spans="2:14" x14ac:dyDescent="0.25">
+        <v>49611237</v>
+      </c>
+    </row>
+    <row r="92" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B92" s="10" t="s">
         <v>34</v>
       </c>
@@ -3596,38 +3608,38 @@
         <v>44</v>
       </c>
       <c r="D92" s="11"/>
-      <c r="E92" s="11" t="s">
-        <v>25</v>
+      <c r="E92" s="11">
+        <v>3558290</v>
       </c>
       <c r="F92" s="11">
-        <v>3558290</v>
+        <v>3468868</v>
       </c>
       <c r="G92" s="11">
-        <v>3468868</v>
-      </c>
-      <c r="H92" s="11">
         <v>4236127</v>
       </c>
+      <c r="H92" s="11" t="s">
+        <v>31</v>
+      </c>
       <c r="I92" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="J92" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="K92" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="L92" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="M92" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="N92" s="11" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="93" spans="2:14" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="93" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B93" s="8" t="s">
         <v>35</v>
       </c>
@@ -3636,37 +3648,37 @@
       </c>
       <c r="D93" s="9"/>
       <c r="E93" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="F93" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="G93" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="H93" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="I93" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="J93" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="K93" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="L93" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="M93" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="N93" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="94" spans="2:14" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="94" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B94" s="10" t="s">
         <v>36</v>
       </c>
@@ -3675,37 +3687,37 @@
       </c>
       <c r="D94" s="11"/>
       <c r="E94" s="11">
-        <v>17051518</v>
+        <v>22400222</v>
       </c>
       <c r="F94" s="11">
-        <v>22400222</v>
+        <v>28699976</v>
       </c>
       <c r="G94" s="11">
-        <v>28699976</v>
+        <v>31285097</v>
       </c>
       <c r="H94" s="11">
-        <v>31285097</v>
+        <v>23746596</v>
       </c>
       <c r="I94" s="11">
-        <v>23746596</v>
+        <v>29776451</v>
       </c>
       <c r="J94" s="11">
-        <v>29776451</v>
+        <v>31922405</v>
       </c>
       <c r="K94" s="11">
-        <v>31922405</v>
+        <v>49307645</v>
       </c>
       <c r="L94" s="11">
-        <v>49307645</v>
+        <v>60662250</v>
       </c>
       <c r="M94" s="11">
-        <v>60662250</v>
+        <v>71914537</v>
       </c>
       <c r="N94" s="11">
-        <v>71914537</v>
-      </c>
-    </row>
-    <row r="95" spans="2:14" x14ac:dyDescent="0.25">
+        <v>72933377</v>
+      </c>
+    </row>
+    <row r="95" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B95" s="8" t="s">
         <v>37</v>
       </c>
@@ -3714,37 +3726,37 @@
       </c>
       <c r="D95" s="9"/>
       <c r="E95" s="9">
-        <v>725768</v>
+        <v>0</v>
       </c>
       <c r="F95" s="9">
-        <v>0</v>
+        <v>95050</v>
       </c>
       <c r="G95" s="9">
-        <v>95050</v>
+        <v>711549</v>
       </c>
       <c r="H95" s="9">
-        <v>711549</v>
+        <v>423963</v>
       </c>
       <c r="I95" s="9">
-        <v>423963</v>
+        <v>4241</v>
       </c>
       <c r="J95" s="9">
-        <v>4241</v>
+        <v>786012</v>
       </c>
       <c r="K95" s="9">
-        <v>786012</v>
+        <v>9123932</v>
       </c>
       <c r="L95" s="9">
-        <v>9123932</v>
+        <v>21366967</v>
       </c>
       <c r="M95" s="9">
-        <v>21366967</v>
+        <v>22392784</v>
       </c>
       <c r="N95" s="9">
-        <v>22392784</v>
-      </c>
-    </row>
-    <row r="96" spans="2:14" x14ac:dyDescent="0.25">
+        <v>20183929</v>
+      </c>
+    </row>
+    <row r="96" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B96" s="10" t="s">
         <v>38</v>
       </c>
@@ -3753,37 +3765,37 @@
       </c>
       <c r="D96" s="11"/>
       <c r="E96" s="11">
-        <v>9260587</v>
+        <v>11575984</v>
       </c>
       <c r="F96" s="11">
-        <v>11575984</v>
+        <v>18522246</v>
       </c>
       <c r="G96" s="11">
-        <v>18522246</v>
+        <v>26899663</v>
       </c>
       <c r="H96" s="11">
-        <v>26899663</v>
+        <v>29172175</v>
       </c>
       <c r="I96" s="11">
-        <v>29172175</v>
+        <v>43658630</v>
       </c>
       <c r="J96" s="11">
-        <v>43658630</v>
+        <v>42798498</v>
       </c>
       <c r="K96" s="11">
-        <v>42798498</v>
+        <v>58788076</v>
       </c>
       <c r="L96" s="11">
-        <v>58788076</v>
+        <v>40156187</v>
       </c>
       <c r="M96" s="11">
-        <v>40156187</v>
+        <v>40235822</v>
       </c>
       <c r="N96" s="11">
-        <v>40235822</v>
-      </c>
-    </row>
-    <row r="97" spans="2:14" x14ac:dyDescent="0.25">
+        <v>33753282</v>
+      </c>
+    </row>
+    <row r="97" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B97" s="8" t="s">
         <v>39</v>
       </c>
@@ -3792,74 +3804,74 @@
       </c>
       <c r="D97" s="9"/>
       <c r="E97" s="9">
-        <v>7841668</v>
+        <v>9656378</v>
       </c>
       <c r="F97" s="9">
-        <v>9656378</v>
+        <v>10828946</v>
       </c>
       <c r="G97" s="9">
-        <v>10828946</v>
+        <v>17483615</v>
       </c>
       <c r="H97" s="9">
-        <v>17483615</v>
+        <v>26928859</v>
       </c>
       <c r="I97" s="9">
-        <v>26928859</v>
+        <v>22810581</v>
       </c>
       <c r="J97" s="9">
-        <v>22810581</v>
+        <v>26755307</v>
       </c>
       <c r="K97" s="9">
-        <v>26755307</v>
+        <v>21912718</v>
       </c>
       <c r="L97" s="9">
         <v>21912718</v>
       </c>
       <c r="M97" s="9">
-        <v>21912718</v>
+        <v>26285939</v>
       </c>
       <c r="N97" s="9">
-        <v>26285939</v>
-      </c>
-    </row>
-    <row r="98" spans="2:14" x14ac:dyDescent="0.25">
+        <v>22877773</v>
+      </c>
+    </row>
+    <row r="98" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B98" s="12" t="s">
         <v>17</v>
       </c>
       <c r="C98" s="13"/>
       <c r="D98" s="13"/>
       <c r="E98" s="13">
-        <v>44445535</v>
+        <v>56698325</v>
       </c>
       <c r="F98" s="13">
-        <v>56698325</v>
+        <v>87298353</v>
       </c>
       <c r="G98" s="13">
-        <v>68776107</v>
+        <v>89523690</v>
       </c>
       <c r="H98" s="13">
-        <v>89523690</v>
+        <v>96420549</v>
       </c>
       <c r="I98" s="13">
-        <v>96420549</v>
+        <v>126466358</v>
       </c>
       <c r="J98" s="13">
-        <v>126466358</v>
+        <v>137538554</v>
       </c>
       <c r="K98" s="13">
-        <v>137538554</v>
+        <v>176647956</v>
       </c>
       <c r="L98" s="13">
-        <v>176647956</v>
+        <v>192955701</v>
       </c>
       <c r="M98" s="13">
-        <v>192955701</v>
+        <v>220552105</v>
       </c>
       <c r="N98" s="13">
-        <v>220552105</v>
-      </c>
-    </row>
-    <row r="99" spans="2:14" x14ac:dyDescent="0.25">
+        <v>215405509</v>
+      </c>
+    </row>
+    <row r="99" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
       <c r="D99" s="1"/>
@@ -3874,7 +3886,7 @@
       <c r="M99" s="1"/>
       <c r="N99" s="1"/>
     </row>
-    <row r="100" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
       <c r="D100" s="1"/>
@@ -3889,7 +3901,7 @@
       <c r="M100" s="1"/>
       <c r="N100" s="1"/>
     </row>
-    <row r="101" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B101" s="1"/>
       <c r="C101" s="1"/>
       <c r="D101" s="1"/>
@@ -3904,7 +3916,7 @@
       <c r="M101" s="1"/>
       <c r="N101" s="1"/>
     </row>
-    <row r="102" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B102" s="7" t="s">
         <v>45</v>
       </c>
@@ -3941,7 +3953,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="103" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
       <c r="D103" s="1"/>
@@ -3956,46 +3968,46 @@
       <c r="M103" s="1"/>
       <c r="N103" s="1"/>
     </row>
-    <row r="104" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B104" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C104" s="9" t="s">
         <v>44</v>
       </c>
       <c r="D104" s="9"/>
       <c r="E104" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="F104" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="G104" s="9">
-        <v>0</v>
+        <v>31</v>
+      </c>
+      <c r="F104" s="9">
+        <v>-79745929</v>
+      </c>
+      <c r="G104" s="9" t="s">
+        <v>31</v>
       </c>
       <c r="H104" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="I104" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="J104" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="K104" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="L104" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="M104" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="N104" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="105" spans="2:14" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="105" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B105" s="10" t="s">
         <v>32</v>
       </c>
@@ -4004,37 +4016,37 @@
       </c>
       <c r="D105" s="11"/>
       <c r="E105" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="F105" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="G105" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="H105" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
+      </c>
+      <c r="H105" s="11">
+        <v>9389464</v>
       </c>
       <c r="I105" s="11">
-        <v>9389464</v>
+        <v>7587574</v>
       </c>
       <c r="J105" s="11">
-        <v>7587574</v>
+        <v>19379813</v>
       </c>
       <c r="K105" s="11">
-        <v>19379813</v>
+        <v>15905607</v>
       </c>
       <c r="L105" s="11">
-        <v>15905607</v>
+        <v>5216619</v>
       </c>
       <c r="M105" s="11">
-        <v>5216619</v>
+        <v>1878308</v>
       </c>
       <c r="N105" s="11">
-        <v>1878308</v>
-      </c>
-    </row>
-    <row r="106" spans="2:14" x14ac:dyDescent="0.25">
+        <v>2368029</v>
+      </c>
+    </row>
+    <row r="106" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B106" s="8" t="s">
         <v>33</v>
       </c>
@@ -4043,37 +4055,37 @@
       </c>
       <c r="D106" s="9"/>
       <c r="E106" s="9">
-        <v>3499269</v>
+        <v>2960087</v>
       </c>
       <c r="F106" s="9">
-        <v>2960087</v>
+        <v>7042565</v>
       </c>
       <c r="G106" s="9">
-        <v>7042565</v>
+        <v>23258037</v>
       </c>
       <c r="H106" s="9">
-        <v>23258037</v>
+        <v>-1582865</v>
       </c>
       <c r="I106" s="9">
-        <v>-1582865</v>
+        <v>14733049</v>
       </c>
       <c r="J106" s="9">
-        <v>14733049</v>
+        <v>10963096</v>
       </c>
       <c r="K106" s="9">
-        <v>10963096</v>
+        <v>13720300</v>
       </c>
       <c r="L106" s="9">
-        <v>13720300</v>
+        <v>12017557</v>
       </c>
       <c r="M106" s="9">
-        <v>12017557</v>
+        <v>23197371</v>
       </c>
       <c r="N106" s="9">
-        <v>23197371</v>
-      </c>
-    </row>
-    <row r="107" spans="2:14" x14ac:dyDescent="0.25">
+        <v>28198749</v>
+      </c>
+    </row>
+    <row r="107" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B107" s="10" t="s">
         <v>34</v>
       </c>
@@ -4082,37 +4094,37 @@
       </c>
       <c r="D107" s="11"/>
       <c r="E107" s="11">
-        <v>5393456</v>
+        <v>3507033</v>
       </c>
       <c r="F107" s="11">
-        <v>3507033</v>
+        <v>8928823</v>
       </c>
       <c r="G107" s="11">
-        <v>8928823</v>
-      </c>
-      <c r="H107" s="11">
         <v>4945578</v>
       </c>
+      <c r="H107" s="11" t="s">
+        <v>31</v>
+      </c>
       <c r="I107" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="J107" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="K107" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="L107" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="M107" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="N107" s="11" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="108" spans="2:14" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="108" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B108" s="8" t="s">
         <v>35</v>
       </c>
@@ -4121,37 +4133,37 @@
       </c>
       <c r="D108" s="9"/>
       <c r="E108" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="F108" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="G108" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="H108" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="I108" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="J108" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="K108" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="L108" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="M108" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="N108" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="109" spans="2:14" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="109" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B109" s="10" t="s">
         <v>36</v>
       </c>
@@ -4160,37 +4172,37 @@
       </c>
       <c r="D109" s="11"/>
       <c r="E109" s="11">
-        <v>25134312</v>
+        <v>33113937</v>
       </c>
       <c r="F109" s="11">
-        <v>33113937</v>
+        <v>35621526</v>
       </c>
       <c r="G109" s="11">
-        <v>35621526</v>
+        <v>37091902</v>
       </c>
       <c r="H109" s="11">
-        <v>37091902</v>
+        <v>35819546</v>
       </c>
       <c r="I109" s="11">
-        <v>35819546</v>
+        <v>40917585</v>
       </c>
       <c r="J109" s="11">
-        <v>40917585</v>
+        <v>57270748</v>
       </c>
       <c r="K109" s="11">
-        <v>57270748</v>
+        <v>71856725</v>
       </c>
       <c r="L109" s="11">
-        <v>71856725</v>
+        <v>56354566</v>
       </c>
       <c r="M109" s="11">
-        <v>56354566</v>
+        <v>38837475</v>
       </c>
       <c r="N109" s="11">
-        <v>38837475</v>
-      </c>
-    </row>
-    <row r="110" spans="2:14" x14ac:dyDescent="0.25">
+        <v>63624679</v>
+      </c>
+    </row>
+    <row r="110" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B110" s="8" t="s">
         <v>37</v>
       </c>
@@ -4199,37 +4211,37 @@
       </c>
       <c r="D110" s="9"/>
       <c r="E110" s="9">
-        <v>12882329</v>
+        <v>22104926</v>
       </c>
       <c r="F110" s="9">
-        <v>22104926</v>
+        <v>19872018</v>
       </c>
       <c r="G110" s="9">
-        <v>19872018</v>
+        <v>27229595</v>
       </c>
       <c r="H110" s="9">
-        <v>27229595</v>
+        <v>27480225</v>
       </c>
       <c r="I110" s="9">
-        <v>27480225</v>
+        <v>48752479</v>
       </c>
       <c r="J110" s="9">
-        <v>48752479</v>
+        <v>85570472</v>
       </c>
       <c r="K110" s="9">
-        <v>85570472</v>
+        <v>63091280</v>
       </c>
       <c r="L110" s="9">
-        <v>63091280</v>
+        <v>63525103</v>
       </c>
       <c r="M110" s="9">
-        <v>63525103</v>
+        <v>77817803</v>
       </c>
       <c r="N110" s="9">
-        <v>77817803</v>
-      </c>
-    </row>
-    <row r="111" spans="2:14" x14ac:dyDescent="0.25">
+        <v>38713218</v>
+      </c>
+    </row>
+    <row r="111" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B111" s="10" t="s">
         <v>38</v>
       </c>
@@ -4238,37 +4250,37 @@
       </c>
       <c r="D111" s="11"/>
       <c r="E111" s="11">
-        <v>23721595</v>
+        <v>40340666</v>
       </c>
       <c r="F111" s="11">
-        <v>40340666</v>
+        <v>41221891</v>
       </c>
       <c r="G111" s="11">
-        <v>41221891</v>
+        <v>45408328</v>
       </c>
       <c r="H111" s="11">
-        <v>45408328</v>
+        <v>35121396</v>
       </c>
       <c r="I111" s="11">
-        <v>35121396</v>
+        <v>47171417</v>
       </c>
       <c r="J111" s="11">
-        <v>47171417</v>
+        <v>38601069</v>
       </c>
       <c r="K111" s="11">
-        <v>38601069</v>
+        <v>37648708</v>
       </c>
       <c r="L111" s="11">
-        <v>37648708</v>
+        <v>44373292</v>
       </c>
       <c r="M111" s="11">
-        <v>44373292</v>
+        <v>46042706</v>
       </c>
       <c r="N111" s="11">
-        <v>46042706</v>
-      </c>
-    </row>
-    <row r="112" spans="2:14" x14ac:dyDescent="0.25">
+        <v>24280563</v>
+      </c>
+    </row>
+    <row r="112" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B112" s="8" t="s">
         <v>39</v>
       </c>
@@ -4277,74 +4289,74 @@
       </c>
       <c r="D112" s="9"/>
       <c r="E112" s="9">
-        <v>3460573</v>
+        <v>8282640</v>
       </c>
       <c r="F112" s="9">
-        <v>8282640</v>
+        <v>16054393</v>
       </c>
       <c r="G112" s="9">
-        <v>16054393</v>
+        <v>17703212</v>
       </c>
       <c r="H112" s="9">
-        <v>17703212</v>
+        <v>-12376246</v>
       </c>
       <c r="I112" s="9">
-        <v>-12376246</v>
+        <v>18250353</v>
       </c>
       <c r="J112" s="9">
-        <v>18250353</v>
+        <v>-6284209</v>
       </c>
       <c r="K112" s="9">
-        <v>-6284209</v>
+        <v>0</v>
       </c>
       <c r="L112" s="9">
-        <v>0</v>
+        <v>16713268</v>
       </c>
       <c r="M112" s="9">
-        <v>16713268</v>
+        <v>19899131</v>
       </c>
       <c r="N112" s="9">
-        <v>19899131</v>
-      </c>
-    </row>
-    <row r="113" spans="2:14" x14ac:dyDescent="0.25">
+        <v>25477762</v>
+      </c>
+    </row>
+    <row r="113" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B113" s="12" t="s">
         <v>17</v>
       </c>
       <c r="C113" s="13"/>
       <c r="D113" s="13"/>
       <c r="E113" s="13">
-        <v>74091534</v>
+        <v>110309289</v>
       </c>
       <c r="F113" s="13">
-        <v>110309289</v>
+        <v>48995287</v>
       </c>
       <c r="G113" s="13">
-        <v>128741216</v>
+        <v>155636652</v>
       </c>
       <c r="H113" s="13">
-        <v>155636652</v>
+        <v>93851520</v>
       </c>
       <c r="I113" s="13">
-        <v>93851520</v>
+        <v>177412457</v>
       </c>
       <c r="J113" s="13">
-        <v>177412457</v>
+        <v>205500989</v>
       </c>
       <c r="K113" s="13">
-        <v>205500989</v>
+        <v>202222620</v>
       </c>
       <c r="L113" s="13">
-        <v>202222620</v>
+        <v>198200405</v>
       </c>
       <c r="M113" s="13">
-        <v>198200405</v>
+        <v>207672794</v>
       </c>
       <c r="N113" s="13">
-        <v>207672794</v>
-      </c>
-    </row>
-    <row r="114" spans="2:14" x14ac:dyDescent="0.25">
+        <v>182663000</v>
+      </c>
+    </row>
+    <row r="114" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B114" s="1"/>
       <c r="C114" s="1"/>
       <c r="D114" s="1"/>
@@ -4359,7 +4371,7 @@
       <c r="M114" s="1"/>
       <c r="N114" s="1"/>
     </row>
-    <row r="115" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B115" s="1"/>
       <c r="C115" s="1"/>
       <c r="D115" s="1"/>
@@ -4374,7 +4386,7 @@
       <c r="M115" s="1"/>
       <c r="N115" s="1"/>
     </row>
-    <row r="116" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
       <c r="D116" s="1"/>
@@ -4389,7 +4401,7 @@
       <c r="M116" s="1"/>
       <c r="N116" s="1"/>
     </row>
-    <row r="117" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B117" s="7" t="s">
         <v>46</v>
       </c>
@@ -4426,7 +4438,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="118" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B118" s="1"/>
       <c r="C118" s="1"/>
       <c r="D118" s="1"/>
@@ -4441,46 +4453,46 @@
       <c r="M118" s="1"/>
       <c r="N118" s="1"/>
     </row>
-    <row r="119" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B119" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C119" s="9" t="s">
         <v>44</v>
       </c>
       <c r="D119" s="9"/>
       <c r="E119" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="F119" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="G119" s="9">
-        <v>0</v>
+        <v>31</v>
+      </c>
+      <c r="F119" s="9">
+        <v>-69607831</v>
+      </c>
+      <c r="G119" s="9" t="s">
+        <v>31</v>
       </c>
       <c r="H119" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="I119" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="J119" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="K119" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="L119" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="M119" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="N119" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="120" spans="2:14" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="120" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B120" s="10" t="s">
         <v>32</v>
       </c>
@@ -4489,37 +4501,37 @@
       </c>
       <c r="D120" s="11"/>
       <c r="E120" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="F120" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="G120" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="H120" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
+      </c>
+      <c r="H120" s="11">
+        <v>7110410</v>
       </c>
       <c r="I120" s="11">
-        <v>7110410</v>
+        <v>8210676</v>
       </c>
       <c r="J120" s="11">
-        <v>8210676</v>
+        <v>19545680</v>
       </c>
       <c r="K120" s="11">
-        <v>19545680</v>
+        <v>9000411</v>
       </c>
       <c r="L120" s="11">
-        <v>9000411</v>
+        <v>-2004324</v>
       </c>
       <c r="M120" s="11">
-        <v>-2004324</v>
+        <v>5684748</v>
       </c>
       <c r="N120" s="11">
-        <v>5684748</v>
-      </c>
-    </row>
-    <row r="121" spans="2:14" x14ac:dyDescent="0.25">
+        <v>10221783</v>
+      </c>
+    </row>
+    <row r="121" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B121" s="8" t="s">
         <v>33</v>
       </c>
@@ -4528,37 +4540,37 @@
       </c>
       <c r="D121" s="9"/>
       <c r="E121" s="9">
-        <v>3558268</v>
+        <v>5306516</v>
       </c>
       <c r="F121" s="9">
-        <v>5306516</v>
+        <v>5295947</v>
       </c>
       <c r="G121" s="9">
-        <v>5295947</v>
+        <v>16016720</v>
       </c>
       <c r="H121" s="9">
-        <v>16016720</v>
+        <v>-9135183</v>
       </c>
       <c r="I121" s="9">
-        <v>-9135183</v>
+        <v>9050070</v>
       </c>
       <c r="J121" s="9">
-        <v>9050070</v>
+        <v>8557976</v>
       </c>
       <c r="K121" s="9">
-        <v>8557976</v>
+        <v>9283502</v>
       </c>
       <c r="L121" s="9">
-        <v>9283502</v>
+        <v>8373056</v>
       </c>
       <c r="M121" s="9">
-        <v>8373056</v>
+        <v>13456806</v>
       </c>
       <c r="N121" s="9">
-        <v>13456806</v>
-      </c>
-    </row>
-    <row r="122" spans="2:14" x14ac:dyDescent="0.25">
+        <v>10507481</v>
+      </c>
+    </row>
+    <row r="122" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B122" s="10" t="s">
         <v>34</v>
       </c>
@@ -4567,37 +4579,37 @@
       </c>
       <c r="D122" s="11"/>
       <c r="E122" s="11">
-        <v>3556762</v>
+        <v>3596455</v>
       </c>
       <c r="F122" s="11">
-        <v>3596455</v>
+        <v>8161564</v>
       </c>
       <c r="G122" s="11">
-        <v>8161564</v>
-      </c>
-      <c r="H122" s="11">
         <v>4325011</v>
       </c>
+      <c r="H122" s="11" t="s">
+        <v>31</v>
+      </c>
       <c r="I122" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="J122" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="K122" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="L122" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="M122" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="N122" s="11" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="123" spans="2:14" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="123" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B123" s="8" t="s">
         <v>35</v>
       </c>
@@ -4606,37 +4618,37 @@
       </c>
       <c r="D123" s="9"/>
       <c r="E123" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="F123" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="G123" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="H123" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="I123" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="J123" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="K123" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="L123" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="M123" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="N123" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="124" spans="2:14" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="124" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B124" s="10" t="s">
         <v>36</v>
       </c>
@@ -4645,37 +4657,37 @@
       </c>
       <c r="D124" s="11"/>
       <c r="E124" s="11">
-        <v>19785608</v>
+        <v>26858794</v>
       </c>
       <c r="F124" s="11">
-        <v>26858794</v>
+        <v>33036405</v>
       </c>
       <c r="G124" s="11">
-        <v>33036405</v>
+        <v>44630403</v>
       </c>
       <c r="H124" s="11">
-        <v>44630403</v>
+        <v>29789691</v>
       </c>
       <c r="I124" s="11">
-        <v>29789691</v>
+        <v>38771631</v>
       </c>
       <c r="J124" s="11">
-        <v>38771631</v>
+        <v>39885508</v>
       </c>
       <c r="K124" s="11">
-        <v>39885508</v>
+        <v>60502120</v>
       </c>
       <c r="L124" s="11">
-        <v>60502120</v>
+        <v>45102279</v>
       </c>
       <c r="M124" s="11">
-        <v>45102279</v>
+        <v>37818635</v>
       </c>
       <c r="N124" s="11">
-        <v>37818635</v>
-      </c>
-    </row>
-    <row r="125" spans="2:14" x14ac:dyDescent="0.25">
+        <v>51548159</v>
+      </c>
+    </row>
+    <row r="125" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B125" s="8" t="s">
         <v>37</v>
       </c>
@@ -4684,37 +4696,37 @@
       </c>
       <c r="D125" s="9"/>
       <c r="E125" s="9">
-        <v>13608097</v>
+        <v>22009876</v>
       </c>
       <c r="F125" s="9">
-        <v>22009876</v>
+        <v>19248957</v>
       </c>
       <c r="G125" s="9">
-        <v>19248957</v>
+        <v>27517181</v>
       </c>
       <c r="H125" s="9">
-        <v>27517181</v>
+        <v>27899947</v>
       </c>
       <c r="I125" s="9">
-        <v>27899947</v>
+        <v>47970707</v>
       </c>
       <c r="J125" s="9">
-        <v>47970707</v>
+        <v>83043901</v>
       </c>
       <c r="K125" s="9">
-        <v>83043901</v>
+        <v>50848245</v>
       </c>
       <c r="L125" s="9">
-        <v>50848245</v>
+        <v>62499286</v>
       </c>
       <c r="M125" s="9">
-        <v>62499286</v>
+        <v>80026658</v>
       </c>
       <c r="N125" s="9">
-        <v>80026658</v>
-      </c>
-    </row>
-    <row r="126" spans="2:14" x14ac:dyDescent="0.25">
+        <v>55342200</v>
+      </c>
+    </row>
+    <row r="126" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B126" s="10" t="s">
         <v>38</v>
       </c>
@@ -4723,37 +4735,37 @@
       </c>
       <c r="D126" s="11"/>
       <c r="E126" s="11">
-        <v>21406198</v>
+        <v>33395332</v>
       </c>
       <c r="F126" s="11">
-        <v>33395332</v>
+        <v>32844474</v>
       </c>
       <c r="G126" s="11">
-        <v>32844474</v>
+        <v>43135816</v>
       </c>
       <c r="H126" s="11">
-        <v>43135816</v>
+        <v>20634941</v>
       </c>
       <c r="I126" s="11">
-        <v>20634941</v>
+        <v>48031549</v>
       </c>
       <c r="J126" s="11">
-        <v>48031549</v>
+        <v>22611491</v>
       </c>
       <c r="K126" s="11">
-        <v>22611491</v>
+        <v>56280597</v>
       </c>
       <c r="L126" s="11">
-        <v>56280597</v>
+        <v>44293657</v>
       </c>
       <c r="M126" s="11">
-        <v>44293657</v>
+        <v>52525246</v>
       </c>
       <c r="N126" s="11">
-        <v>52525246</v>
-      </c>
-    </row>
-    <row r="127" spans="2:14" x14ac:dyDescent="0.25">
+        <v>11909761</v>
+      </c>
+    </row>
+    <row r="127" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B127" s="8" t="s">
         <v>39</v>
       </c>
@@ -4762,74 +4774,74 @@
       </c>
       <c r="D127" s="9"/>
       <c r="E127" s="9">
-        <v>1798014</v>
+        <v>6911927</v>
       </c>
       <c r="F127" s="9">
-        <v>6911927</v>
+        <v>9406286</v>
       </c>
       <c r="G127" s="9">
-        <v>9406286</v>
+        <v>8257968</v>
       </c>
       <c r="H127" s="9">
-        <v>8257968</v>
+        <v>-8257968</v>
       </c>
       <c r="I127" s="9">
-        <v>-8257968</v>
+        <v>14305627</v>
       </c>
       <c r="J127" s="9">
-        <v>14305627</v>
+        <v>-7252969</v>
       </c>
       <c r="K127" s="9">
-        <v>-7252969</v>
+        <v>0</v>
       </c>
       <c r="L127" s="9">
-        <v>0</v>
+        <v>12340047</v>
       </c>
       <c r="M127" s="9">
-        <v>12340047</v>
+        <v>23307298</v>
       </c>
       <c r="N127" s="9">
-        <v>23307298</v>
-      </c>
-    </row>
-    <row r="128" spans="2:14" x14ac:dyDescent="0.25">
+        <v>28062467</v>
+      </c>
+    </row>
+    <row r="128" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B128" s="12" t="s">
         <v>17</v>
       </c>
       <c r="C128" s="13"/>
       <c r="D128" s="13"/>
       <c r="E128" s="13">
-        <v>63712947</v>
+        <v>98078900</v>
       </c>
       <c r="F128" s="13">
-        <v>98078900</v>
+        <v>38385802</v>
       </c>
       <c r="G128" s="13">
-        <v>107993633</v>
+        <v>143883099</v>
       </c>
       <c r="H128" s="13">
-        <v>143883099</v>
+        <v>68041838</v>
       </c>
       <c r="I128" s="13">
-        <v>68041838</v>
+        <v>166340260</v>
       </c>
       <c r="J128" s="13">
-        <v>166340260</v>
+        <v>166391587</v>
       </c>
       <c r="K128" s="13">
-        <v>166391587</v>
+        <v>185914875</v>
       </c>
       <c r="L128" s="13">
-        <v>185914875</v>
+        <v>170604001</v>
       </c>
       <c r="M128" s="13">
-        <v>170604001</v>
+        <v>212819391</v>
       </c>
       <c r="N128" s="13">
-        <v>212819391</v>
-      </c>
-    </row>
-    <row r="129" spans="2:14" x14ac:dyDescent="0.25">
+        <v>167591851</v>
+      </c>
+    </row>
+    <row r="129" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B129" s="1"/>
       <c r="C129" s="1"/>
       <c r="D129" s="1"/>
@@ -4844,7 +4856,7 @@
       <c r="M129" s="1"/>
       <c r="N129" s="1"/>
     </row>
-    <row r="130" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B130" s="1"/>
       <c r="C130" s="1"/>
       <c r="D130" s="1"/>
@@ -4859,7 +4871,7 @@
       <c r="M130" s="1"/>
       <c r="N130" s="1"/>
     </row>
-    <row r="131" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B131" s="1"/>
       <c r="C131" s="1"/>
       <c r="D131" s="1"/>
@@ -4874,7 +4886,7 @@
       <c r="M131" s="1"/>
       <c r="N131" s="1"/>
     </row>
-    <row r="132" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B132" s="7" t="s">
         <v>47</v>
       </c>
@@ -4911,7 +4923,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="133" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B133" s="1"/>
       <c r="C133" s="1"/>
       <c r="D133" s="1"/>
@@ -4926,46 +4938,46 @@
       <c r="M133" s="1"/>
       <c r="N133" s="1"/>
     </row>
-    <row r="134" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B134" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C134" s="9" t="s">
         <v>44</v>
       </c>
       <c r="D134" s="9"/>
       <c r="E134" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="F134" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="G134" s="9">
-        <v>0</v>
+        <v>31</v>
+      </c>
+      <c r="F134" s="9">
+        <v>0</v>
+      </c>
+      <c r="G134" s="9" t="s">
+        <v>31</v>
       </c>
       <c r="H134" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="I134" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="J134" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="K134" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="L134" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="M134" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="N134" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="135" spans="2:14" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="135" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B135" s="10" t="s">
         <v>32</v>
       </c>
@@ -4974,37 +4986,37 @@
       </c>
       <c r="D135" s="11"/>
       <c r="E135" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="F135" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="G135" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="H135" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
+      </c>
+      <c r="H135" s="11">
+        <v>6515181</v>
       </c>
       <c r="I135" s="11">
-        <v>6515181</v>
+        <v>5892079</v>
       </c>
       <c r="J135" s="11">
-        <v>5892079</v>
+        <v>5726212</v>
       </c>
       <c r="K135" s="11">
-        <v>5726212</v>
+        <v>12631408</v>
       </c>
       <c r="L135" s="11">
-        <v>12631408</v>
+        <v>19852351</v>
       </c>
       <c r="M135" s="11">
-        <v>19852351</v>
+        <v>16045911</v>
       </c>
       <c r="N135" s="11">
-        <v>16045911</v>
-      </c>
-    </row>
-    <row r="136" spans="2:14" x14ac:dyDescent="0.25">
+        <v>8192157</v>
+      </c>
+    </row>
+    <row r="136" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B136" s="8" t="s">
         <v>33</v>
       </c>
@@ -5013,37 +5025,37 @@
       </c>
       <c r="D136" s="9"/>
       <c r="E136" s="9">
-        <v>9507450</v>
+        <v>7161021</v>
       </c>
       <c r="F136" s="9">
-        <v>7161021</v>
+        <v>8907639</v>
       </c>
       <c r="G136" s="9">
-        <v>8907639</v>
+        <v>16148956</v>
       </c>
       <c r="H136" s="9">
-        <v>16148956</v>
+        <v>23701274</v>
       </c>
       <c r="I136" s="9">
-        <v>23701274</v>
+        <v>29384253</v>
       </c>
       <c r="J136" s="9">
-        <v>29384253</v>
+        <v>31789373</v>
       </c>
       <c r="K136" s="9">
-        <v>31789373</v>
+        <v>36226171</v>
       </c>
       <c r="L136" s="9">
-        <v>36226171</v>
+        <v>39870672</v>
       </c>
       <c r="M136" s="9">
-        <v>39870672</v>
+        <v>49611237</v>
       </c>
       <c r="N136" s="9">
-        <v>49611237</v>
-      </c>
-    </row>
-    <row r="137" spans="2:14" x14ac:dyDescent="0.25">
+        <v>67302505</v>
+      </c>
+    </row>
+    <row r="137" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B137" s="10" t="s">
         <v>34</v>
       </c>
@@ -5052,37 +5064,37 @@
       </c>
       <c r="D137" s="11"/>
       <c r="E137" s="11">
-        <v>3558290</v>
+        <v>3468868</v>
       </c>
       <c r="F137" s="11">
-        <v>3468868</v>
+        <v>4236127</v>
       </c>
       <c r="G137" s="11">
-        <v>4236127</v>
-      </c>
-      <c r="H137" s="11">
         <v>4856694</v>
       </c>
+      <c r="H137" s="11" t="s">
+        <v>31</v>
+      </c>
       <c r="I137" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="J137" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="K137" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="L137" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="M137" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="N137" s="11" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="138" spans="2:14" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="138" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B138" s="8" t="s">
         <v>35</v>
       </c>
@@ -5091,37 +5103,37 @@
       </c>
       <c r="D138" s="9"/>
       <c r="E138" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="F138" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="G138" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="H138" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="I138" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="J138" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="K138" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="L138" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="M138" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="N138" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="139" spans="2:14" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="139" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B139" s="10" t="s">
         <v>36</v>
       </c>
@@ -5130,37 +5142,37 @@
       </c>
       <c r="D139" s="11"/>
       <c r="E139" s="11">
-        <v>22400222</v>
+        <v>28699976</v>
       </c>
       <c r="F139" s="11">
-        <v>28699976</v>
+        <v>31285097</v>
       </c>
       <c r="G139" s="11">
-        <v>31285097</v>
+        <v>23746596</v>
       </c>
       <c r="H139" s="11">
-        <v>23746596</v>
+        <v>29776451</v>
       </c>
       <c r="I139" s="11">
-        <v>29776451</v>
+        <v>31922405</v>
       </c>
       <c r="J139" s="11">
-        <v>31922405</v>
+        <v>49307645</v>
       </c>
       <c r="K139" s="11">
-        <v>49307645</v>
+        <v>60662250</v>
       </c>
       <c r="L139" s="11">
-        <v>60662250</v>
+        <v>71914537</v>
       </c>
       <c r="M139" s="11">
-        <v>71914537</v>
+        <v>72933377</v>
       </c>
       <c r="N139" s="11">
-        <v>72933377</v>
-      </c>
-    </row>
-    <row r="140" spans="2:14" x14ac:dyDescent="0.25">
+        <v>84746901</v>
+      </c>
+    </row>
+    <row r="140" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B140" s="8" t="s">
         <v>37</v>
       </c>
@@ -5169,37 +5181,37 @@
       </c>
       <c r="D140" s="9"/>
       <c r="E140" s="9">
-        <v>0</v>
+        <v>95050</v>
       </c>
       <c r="F140" s="9">
-        <v>95050</v>
+        <v>711549</v>
       </c>
       <c r="G140" s="9">
-        <v>711549</v>
+        <v>423963</v>
       </c>
       <c r="H140" s="9">
-        <v>423963</v>
+        <v>4241</v>
       </c>
       <c r="I140" s="9">
-        <v>4241</v>
+        <v>786012</v>
       </c>
       <c r="J140" s="9">
-        <v>786012</v>
+        <v>9123932</v>
       </c>
       <c r="K140" s="9">
-        <v>9123932</v>
+        <v>21366967</v>
       </c>
       <c r="L140" s="9">
-        <v>21366967</v>
+        <v>22392784</v>
       </c>
       <c r="M140" s="9">
-        <v>22392784</v>
+        <v>20183929</v>
       </c>
       <c r="N140" s="9">
-        <v>20183929</v>
-      </c>
-    </row>
-    <row r="141" spans="2:14" x14ac:dyDescent="0.25">
+        <v>3554947</v>
+      </c>
+    </row>
+    <row r="141" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B141" s="10" t="s">
         <v>38</v>
       </c>
@@ -5208,37 +5220,37 @@
       </c>
       <c r="D141" s="11"/>
       <c r="E141" s="11">
-        <v>11575984</v>
+        <v>18522246</v>
       </c>
       <c r="F141" s="11">
-        <v>18522246</v>
+        <v>26899663</v>
       </c>
       <c r="G141" s="11">
-        <v>26899663</v>
+        <v>29172175</v>
       </c>
       <c r="H141" s="11">
-        <v>29172175</v>
+        <v>43658630</v>
       </c>
       <c r="I141" s="11">
-        <v>43658630</v>
+        <v>42798498</v>
       </c>
       <c r="J141" s="11">
-        <v>42798498</v>
+        <v>58788076</v>
       </c>
       <c r="K141" s="11">
-        <v>58788076</v>
+        <v>40156187</v>
       </c>
       <c r="L141" s="11">
-        <v>40156187</v>
+        <v>40235822</v>
       </c>
       <c r="M141" s="11">
-        <v>40235822</v>
+        <v>33753282</v>
       </c>
       <c r="N141" s="11">
-        <v>33753282</v>
-      </c>
-    </row>
-    <row r="142" spans="2:14" x14ac:dyDescent="0.25">
+        <v>46124084</v>
+      </c>
+    </row>
+    <row r="142" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B142" s="8" t="s">
         <v>39</v>
       </c>
@@ -5247,74 +5259,74 @@
       </c>
       <c r="D142" s="9"/>
       <c r="E142" s="9">
-        <v>9503772</v>
+        <v>10828946</v>
       </c>
       <c r="F142" s="9">
-        <v>10828946</v>
+        <v>17483615</v>
       </c>
       <c r="G142" s="9">
-        <v>17483615</v>
+        <v>26928859</v>
       </c>
       <c r="H142" s="9">
-        <v>26928859</v>
+        <v>22810581</v>
       </c>
       <c r="I142" s="9">
-        <v>22810581</v>
+        <v>26755307</v>
       </c>
       <c r="J142" s="9">
-        <v>26755307</v>
+        <v>21912719</v>
       </c>
       <c r="K142" s="9">
-        <v>21912719</v>
+        <v>21912718</v>
       </c>
       <c r="L142" s="9">
-        <v>21912718</v>
+        <v>26285939</v>
       </c>
       <c r="M142" s="9">
-        <v>26285939</v>
+        <v>22877773</v>
       </c>
       <c r="N142" s="9">
-        <v>22877773</v>
-      </c>
-    </row>
-    <row r="143" spans="2:14" x14ac:dyDescent="0.25">
+        <v>20556063</v>
+      </c>
+    </row>
+    <row r="143" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B143" s="12" t="s">
         <v>17</v>
       </c>
       <c r="C143" s="13"/>
       <c r="D143" s="13"/>
       <c r="E143" s="13">
-        <v>56545718</v>
+        <v>68776107</v>
       </c>
       <c r="F143" s="13">
-        <v>68776107</v>
+        <v>89523690</v>
       </c>
       <c r="G143" s="13">
-        <v>89523690</v>
+        <v>101277243</v>
       </c>
       <c r="H143" s="13">
-        <v>101277243</v>
+        <v>126466358</v>
       </c>
       <c r="I143" s="13">
-        <v>126466358</v>
+        <v>137538554</v>
       </c>
       <c r="J143" s="13">
-        <v>137538554</v>
+        <v>176647957</v>
       </c>
       <c r="K143" s="13">
-        <v>176647957</v>
+        <v>192955701</v>
       </c>
       <c r="L143" s="13">
-        <v>192955701</v>
+        <v>220552105</v>
       </c>
       <c r="M143" s="13">
-        <v>220552105</v>
+        <v>215405509</v>
       </c>
       <c r="N143" s="13">
-        <v>215405509</v>
-      </c>
-    </row>
-    <row r="144" spans="2:14" x14ac:dyDescent="0.25">
+        <v>230476657</v>
+      </c>
+    </row>
+    <row r="144" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B144" s="1"/>
       <c r="C144" s="1"/>
       <c r="D144" s="1"/>
@@ -5329,7 +5341,7 @@
       <c r="M144" s="1"/>
       <c r="N144" s="1"/>
     </row>
-    <row r="145" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="145" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B145" s="1"/>
       <c r="C145" s="1"/>
       <c r="D145" s="1"/>
@@ -5344,7 +5356,7 @@
       <c r="M145" s="1"/>
       <c r="N145" s="1"/>
     </row>
-    <row r="146" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="146" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B146" s="1"/>
       <c r="C146" s="1"/>
       <c r="D146" s="1"/>
@@ -5359,7 +5371,7 @@
       <c r="M146" s="1"/>
       <c r="N146" s="1"/>
     </row>
-    <row r="147" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="147" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B147" s="7" t="s">
         <v>48</v>
       </c>
@@ -5396,7 +5408,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="148" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="148" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B148" s="1"/>
       <c r="C148" s="1"/>
       <c r="D148" s="1"/>
@@ -5411,7 +5423,7 @@
       <c r="M148" s="1"/>
       <c r="N148" s="1"/>
     </row>
-    <row r="149" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="149" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B149" s="8" t="s">
         <v>32</v>
       </c>
@@ -5420,37 +5432,37 @@
       </c>
       <c r="D149" s="9"/>
       <c r="E149" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="F149" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="G149" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="H149" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="I149" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
+      </c>
+      <c r="I149" s="9">
+        <v>63254184466</v>
       </c>
       <c r="J149" s="9">
-        <v>63254184466</v>
+        <v>75539474359</v>
       </c>
       <c r="K149" s="9">
-        <v>75539474359</v>
+        <v>84209000000</v>
       </c>
       <c r="L149" s="9">
-        <v>84209000000</v>
+        <v>106146285714</v>
       </c>
       <c r="M149" s="9">
-        <v>106146285714</v>
+        <v>116778535294</v>
       </c>
       <c r="N149" s="9">
-        <v>116778535294</v>
-      </c>
-    </row>
-    <row r="150" spans="2:14" x14ac:dyDescent="0.25">
+        <v>117123437956</v>
+      </c>
+    </row>
+    <row r="150" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B150" s="10" t="s">
         <v>33</v>
       </c>
@@ -5459,37 +5471,37 @@
       </c>
       <c r="D150" s="11"/>
       <c r="E150" s="11">
-        <v>170821321429</v>
+        <v>182835596154</v>
       </c>
       <c r="F150" s="11">
-        <v>182835596154</v>
+        <v>210618264706</v>
       </c>
       <c r="G150" s="11">
-        <v>210618264706</v>
+        <v>287343193548</v>
       </c>
       <c r="H150" s="11">
-        <v>287343193548</v>
+        <v>393876975610</v>
       </c>
       <c r="I150" s="11">
-        <v>393876975610</v>
+        <v>430932254545</v>
       </c>
       <c r="J150" s="11">
-        <v>430932254545</v>
+        <v>425858739130</v>
       </c>
       <c r="K150" s="11">
-        <v>425858739130</v>
+        <v>481657166667</v>
       </c>
       <c r="L150" s="11">
-        <v>481657166667</v>
+        <v>557325707692</v>
       </c>
       <c r="M150" s="11">
-        <v>557325707692</v>
+        <v>613394953846</v>
       </c>
       <c r="N150" s="11">
-        <v>613394953846</v>
-      </c>
-    </row>
-    <row r="151" spans="2:14" x14ac:dyDescent="0.25">
+        <v>729577014706</v>
+      </c>
+    </row>
+    <row r="151" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B151" s="8" t="s">
         <v>34</v>
       </c>
@@ -5497,38 +5509,38 @@
         <v>49</v>
       </c>
       <c r="D151" s="9"/>
-      <c r="E151" s="9" t="s">
-        <v>25</v>
+      <c r="E151" s="9">
+        <v>37854148936</v>
       </c>
       <c r="F151" s="9">
-        <v>37854148936</v>
+        <v>39872045977</v>
       </c>
       <c r="G151" s="9">
-        <v>39872045977</v>
-      </c>
-      <c r="H151" s="9">
         <v>47068077778</v>
       </c>
+      <c r="H151" s="9" t="s">
+        <v>31</v>
+      </c>
       <c r="I151" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="J151" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="K151" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="L151" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="M151" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="N151" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="152" spans="2:14" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="152" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B152" s="10" t="s">
         <v>35</v>
       </c>
@@ -5537,37 +5549,37 @@
       </c>
       <c r="D152" s="11"/>
       <c r="E152" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="F152" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="G152" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="H152" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="I152" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="J152" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="K152" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="L152" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="M152" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="N152" s="11" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="153" spans="2:14" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="153" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B153" s="8" t="s">
         <v>36</v>
       </c>
@@ -5576,37 +5588,37 @@
       </c>
       <c r="D153" s="9"/>
       <c r="E153" s="9">
-        <v>7268336743</v>
+        <v>8678892677</v>
       </c>
       <c r="F153" s="9">
-        <v>8678892677</v>
+        <v>10428770349</v>
       </c>
       <c r="G153" s="9">
-        <v>10428770349</v>
+        <v>12182670171</v>
       </c>
       <c r="H153" s="9">
-        <v>12182670171</v>
+        <v>14869502818</v>
       </c>
       <c r="I153" s="9">
-        <v>14869502818</v>
+        <v>17905262177</v>
       </c>
       <c r="J153" s="9">
-        <v>17905262177</v>
+        <v>21168703581</v>
       </c>
       <c r="K153" s="9">
-        <v>21168703581</v>
+        <v>23192683443</v>
       </c>
       <c r="L153" s="9">
-        <v>23192683443</v>
+        <v>28709062944</v>
       </c>
       <c r="M153" s="9">
-        <v>28709062944</v>
+        <v>24815230159</v>
       </c>
       <c r="N153" s="9">
-        <v>24815230159</v>
-      </c>
-    </row>
-    <row r="154" spans="2:14" x14ac:dyDescent="0.25">
+        <v>24182154178</v>
+      </c>
+    </row>
+    <row r="154" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B154" s="10" t="s">
         <v>37</v>
       </c>
@@ -5614,38 +5626,38 @@
         <v>49</v>
       </c>
       <c r="D154" s="11"/>
-      <c r="E154" s="11">
-        <v>25920285714</v>
+      <c r="E154" s="11" t="s">
+        <v>31</v>
       </c>
       <c r="F154" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="G154" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
+      </c>
+      <c r="G154" s="11">
+        <v>47436600000</v>
       </c>
       <c r="H154" s="11">
-        <v>47436600000</v>
+        <v>70660500000</v>
       </c>
       <c r="I154" s="11">
-        <v>70660500000</v>
+        <v>4241000000</v>
       </c>
       <c r="J154" s="11">
-        <v>4241000000</v>
+        <v>78601200000</v>
       </c>
       <c r="K154" s="11">
-        <v>78601200000</v>
+        <v>90335960396</v>
       </c>
       <c r="L154" s="11">
-        <v>90335960396</v>
+        <v>137851400000</v>
       </c>
       <c r="M154" s="11">
-        <v>137851400000</v>
+        <v>99083115044</v>
       </c>
       <c r="N154" s="11">
-        <v>99083115044</v>
-      </c>
-    </row>
-    <row r="155" spans="2:14" x14ac:dyDescent="0.25">
+        <v>97506903382</v>
+      </c>
+    </row>
+    <row r="155" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B155" s="8" t="s">
         <v>38</v>
       </c>
@@ -5654,37 +5666,37 @@
       </c>
       <c r="D155" s="9"/>
       <c r="E155" s="9">
-        <v>11633903266</v>
+        <v>14362263027</v>
       </c>
       <c r="F155" s="9">
-        <v>14362263027</v>
+        <v>17878615830</v>
       </c>
       <c r="G155" s="9">
-        <v>17878615830</v>
+        <v>21416929140</v>
       </c>
       <c r="H155" s="9">
-        <v>21416929140</v>
+        <v>27783023810</v>
       </c>
       <c r="I155" s="9">
-        <v>27783023810</v>
+        <v>31095890313</v>
       </c>
       <c r="J155" s="9">
-        <v>31095890313</v>
+        <v>33967061905</v>
       </c>
       <c r="K155" s="9">
-        <v>33967061905</v>
+        <v>36066304294</v>
       </c>
       <c r="L155" s="9">
-        <v>36066304294</v>
+        <v>41699051921</v>
       </c>
       <c r="M155" s="9">
-        <v>41699051921</v>
+        <v>38912787234</v>
       </c>
       <c r="N155" s="9">
-        <v>38912787234</v>
-      </c>
-    </row>
-    <row r="156" spans="2:14" x14ac:dyDescent="0.25">
+        <v>36888832787</v>
+      </c>
+    </row>
+    <row r="156" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B156" s="10" t="s">
         <v>39</v>
       </c>
@@ -5693,37 +5705,37 @@
       </c>
       <c r="D156" s="11"/>
       <c r="E156" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="F156" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="G156" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="H156" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="I156" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="J156" s="11">
+        <v>31</v>
+      </c>
+      <c r="I156" s="11">
         <v>22810581000000</v>
       </c>
-      <c r="K156" s="11" t="s">
-        <v>25</v>
+      <c r="J156" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="K156" s="11">
+        <v>21912718000000</v>
       </c>
       <c r="L156" s="11">
         <v>21912718000000</v>
       </c>
       <c r="M156" s="11">
-        <v>21912718000000</v>
+        <v>26285939000000</v>
       </c>
       <c r="N156" s="11">
-        <v>26285939000000</v>
-      </c>
-    </row>
-    <row r="157" spans="2:14" x14ac:dyDescent="0.25">
+        <v>22877773000000</v>
+      </c>
+    </row>
+    <row r="157" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B157" s="1"/>
       <c r="C157" s="1"/>
       <c r="D157" s="1"/>
@@ -5738,7 +5750,7 @@
       <c r="M157" s="1"/>
       <c r="N157" s="1"/>
     </row>
-    <row r="158" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="158" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B158" s="1"/>
       <c r="C158" s="1"/>
       <c r="D158" s="1"/>
@@ -5753,7 +5765,7 @@
       <c r="M158" s="1"/>
       <c r="N158" s="1"/>
     </row>
-    <row r="159" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="159" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B159" s="1"/>
       <c r="C159" s="1"/>
       <c r="D159" s="1"/>
@@ -5768,7 +5780,7 @@
       <c r="M159" s="1"/>
       <c r="N159" s="1"/>
     </row>
-    <row r="160" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="160" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B160" s="7" t="s">
         <v>50</v>
       </c>
@@ -5805,7 +5817,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="161" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="161" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B161" s="1"/>
       <c r="C161" s="1"/>
       <c r="D161" s="1"/>
@@ -5820,7 +5832,7 @@
       <c r="M161" s="1"/>
       <c r="N161" s="1"/>
     </row>
-    <row r="162" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="162" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B162" s="8" t="s">
         <v>32</v>
       </c>
@@ -5829,37 +5841,37 @@
       </c>
       <c r="D162" s="9"/>
       <c r="E162" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="F162" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="G162" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="H162" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
+      </c>
+      <c r="H162" s="9">
+        <v>103180923077</v>
       </c>
       <c r="I162" s="9">
-        <v>103180923077</v>
+        <v>122380225806</v>
       </c>
       <c r="J162" s="9">
-        <v>122380225806</v>
+        <v>120371509317</v>
       </c>
       <c r="K162" s="9">
-        <v>120371509317</v>
+        <v>120497022727</v>
       </c>
       <c r="L162" s="9">
-        <v>120497022727</v>
+        <v>144906083333</v>
       </c>
       <c r="M162" s="9">
-        <v>144906083333</v>
+        <v>117394250000</v>
       </c>
       <c r="N162" s="9">
-        <v>117394250000</v>
-      </c>
-    </row>
-    <row r="163" spans="2:14" x14ac:dyDescent="0.25">
+        <v>124633105263</v>
+      </c>
+    </row>
+    <row r="163" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B163" s="10" t="s">
         <v>33</v>
       </c>
@@ -5868,37 +5880,37 @@
       </c>
       <c r="D163" s="11"/>
       <c r="E163" s="11">
-        <v>269174538462</v>
+        <v>740021750000</v>
       </c>
       <c r="F163" s="11">
-        <v>740021750000</v>
+        <v>503040357143</v>
       </c>
       <c r="G163" s="11">
-        <v>503040357143</v>
+        <v>775267900000</v>
       </c>
       <c r="H163" s="11">
-        <v>775267900000</v>
+        <v>60879423077</v>
       </c>
       <c r="I163" s="11">
-        <v>-60879423077</v>
+        <v>475259645161</v>
       </c>
       <c r="J163" s="11">
-        <v>475259645161</v>
+        <v>783078285714</v>
       </c>
       <c r="K163" s="11">
-        <v>783078285714</v>
+        <v>762238888889</v>
       </c>
       <c r="L163" s="11">
-        <v>762238888889</v>
+        <v>801170466667</v>
       </c>
       <c r="M163" s="11">
-        <v>801170466667</v>
+        <v>1008581347826</v>
       </c>
       <c r="N163" s="11">
-        <v>1008581347826</v>
-      </c>
-    </row>
-    <row r="164" spans="2:14" x14ac:dyDescent="0.25">
+        <v>742072342105</v>
+      </c>
+    </row>
+    <row r="164" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B164" s="8" t="s">
         <v>34</v>
       </c>
@@ -5907,37 +5919,37 @@
       </c>
       <c r="D164" s="9"/>
       <c r="E164" s="9">
-        <v>53400554455</v>
+        <v>77934066667</v>
       </c>
       <c r="F164" s="9">
-        <v>77934066667</v>
+        <v>93987610526</v>
       </c>
       <c r="G164" s="9">
-        <v>93987610526</v>
-      </c>
-      <c r="H164" s="9">
         <v>98911560000</v>
       </c>
+      <c r="H164" s="9" t="s">
+        <v>31</v>
+      </c>
       <c r="I164" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="J164" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="K164" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="L164" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="M164" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="N164" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="165" spans="2:14" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="165" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B165" s="10" t="s">
         <v>35</v>
       </c>
@@ -5946,37 +5958,37 @@
       </c>
       <c r="D165" s="11"/>
       <c r="E165" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="F165" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="G165" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="H165" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="I165" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="J165" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="K165" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="L165" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="M165" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="N165" s="11" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="166" spans="2:14" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="166" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B166" s="8" t="s">
         <v>36</v>
       </c>
@@ -5985,37 +5997,37 @@
       </c>
       <c r="D166" s="9"/>
       <c r="E166" s="9">
-        <v>11761493683</v>
+        <v>17016411614</v>
       </c>
       <c r="F166" s="9">
-        <v>17016411614</v>
+        <v>22015776267</v>
       </c>
       <c r="G166" s="9">
-        <v>22015776267</v>
+        <v>23884032196</v>
       </c>
       <c r="H166" s="9">
-        <v>23884032196</v>
+        <v>29554080858</v>
       </c>
       <c r="I166" s="9">
-        <v>29554080858</v>
+        <v>28533880753</v>
       </c>
       <c r="J166" s="9">
-        <v>28533880753</v>
+        <v>26139090826</v>
       </c>
       <c r="K166" s="9">
-        <v>26139090826</v>
+        <v>33468432697</v>
       </c>
       <c r="L166" s="9">
-        <v>33468432697</v>
+        <v>22815613765</v>
       </c>
       <c r="M166" s="9">
-        <v>22815613765</v>
+        <v>23339828726</v>
       </c>
       <c r="N166" s="9">
-        <v>23339828726</v>
-      </c>
-    </row>
-    <row r="167" spans="2:14" x14ac:dyDescent="0.25">
+        <v>37055724520</v>
+      </c>
+    </row>
+    <row r="167" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B167" s="10" t="s">
         <v>37</v>
       </c>
@@ -6024,37 +6036,37 @@
       </c>
       <c r="D167" s="11"/>
       <c r="E167" s="11">
-        <v>37340084058</v>
+        <v>18466939014</v>
       </c>
       <c r="F167" s="11">
-        <v>18466939014</v>
+        <v>98376326733</v>
       </c>
       <c r="G167" s="11">
-        <v>98376326733</v>
+        <v>72419135638</v>
       </c>
       <c r="H167" s="11">
-        <v>72419135638</v>
+        <v>80824191176</v>
       </c>
       <c r="I167" s="11">
-        <v>80824191176</v>
+        <v>86902814617</v>
       </c>
       <c r="J167" s="11">
-        <v>86902814617</v>
+        <v>101027711924</v>
       </c>
       <c r="K167" s="11">
-        <v>101027711924</v>
+        <v>102089449838</v>
       </c>
       <c r="L167" s="11">
-        <v>102089449838</v>
+        <v>97281934150</v>
       </c>
       <c r="M167" s="11">
-        <v>97281934150</v>
+        <v>87534086614</v>
       </c>
       <c r="N167" s="11">
-        <v>87534086614</v>
-      </c>
-    </row>
-    <row r="168" spans="2:14" x14ac:dyDescent="0.25">
+        <v>101609496063</v>
+      </c>
+    </row>
+    <row r="168" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B168" s="8" t="s">
         <v>38</v>
       </c>
@@ -6063,37 +6075,37 @@
       </c>
       <c r="D168" s="9"/>
       <c r="E168" s="9">
-        <v>20627473913</v>
+        <v>24764067526</v>
       </c>
       <c r="F168" s="9">
-        <v>24764067526</v>
+        <v>39522426654</v>
       </c>
       <c r="G168" s="9">
-        <v>39522426654</v>
+        <v>36472552610</v>
       </c>
       <c r="H168" s="9">
-        <v>36472552610</v>
+        <v>40230694158</v>
       </c>
       <c r="I168" s="9">
-        <v>40230694158</v>
+        <v>43039614051</v>
       </c>
       <c r="J168" s="9">
-        <v>43039614051</v>
+        <v>42140905022</v>
       </c>
       <c r="K168" s="9">
-        <v>42140905022</v>
+        <v>42444992108</v>
       </c>
       <c r="L168" s="9">
-        <v>42444992108</v>
+        <v>40376061874</v>
       </c>
       <c r="M168" s="9">
-        <v>40376061874</v>
+        <v>35998988272</v>
       </c>
       <c r="N168" s="9">
-        <v>35998988272</v>
-      </c>
-    </row>
-    <row r="169" spans="2:14" x14ac:dyDescent="0.25">
+        <v>40266273632</v>
+      </c>
+    </row>
+    <row r="169" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B169" s="10" t="s">
         <v>39</v>
       </c>
@@ -6102,37 +6114,37 @@
       </c>
       <c r="D169" s="11"/>
       <c r="E169" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="F169" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="G169" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="H169" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="I169" s="11">
-        <v>-12376246000000</v>
+        <v>31</v>
+      </c>
+      <c r="H169" s="11">
+        <v>12376246000000</v>
+      </c>
+      <c r="I169" s="11" t="s">
+        <v>31</v>
       </c>
       <c r="J169" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="K169" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="L169" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="M169" s="11">
+        <v>31</v>
+      </c>
+      <c r="K169" s="11">
+        <v>0</v>
+      </c>
+      <c r="L169" s="11">
         <v>16713268000000</v>
       </c>
+      <c r="M169" s="11" t="s">
+        <v>31</v>
+      </c>
       <c r="N169" s="11" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="170" spans="2:14" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="170" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B170" s="1"/>
       <c r="C170" s="1"/>
       <c r="D170" s="1"/>
@@ -6147,7 +6159,7 @@
       <c r="M170" s="1"/>
       <c r="N170" s="1"/>
     </row>
-    <row r="171" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="171" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B171" s="1"/>
       <c r="C171" s="1"/>
       <c r="D171" s="1"/>
@@ -6162,7 +6174,7 @@
       <c r="M171" s="1"/>
       <c r="N171" s="1"/>
     </row>
-    <row r="172" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="172" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B172" s="1"/>
       <c r="C172" s="1"/>
       <c r="D172" s="1"/>
@@ -6177,7 +6189,7 @@
       <c r="M172" s="1"/>
       <c r="N172" s="1"/>
     </row>
-    <row r="173" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="173" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B173" s="7" t="s">
         <v>51</v>
       </c>
@@ -6214,7 +6226,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="174" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="174" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B174" s="1"/>
       <c r="C174" s="1"/>
       <c r="D174" s="1"/>
@@ -6229,7 +6241,7 @@
       <c r="M174" s="1"/>
       <c r="N174" s="1"/>
     </row>
-    <row r="175" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="175" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B175" s="8" t="s">
         <v>32</v>
       </c>
@@ -6238,37 +6250,37 @@
       </c>
       <c r="D175" s="9"/>
       <c r="E175" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="F175" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="G175" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="H175" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
+      </c>
+      <c r="H175" s="9">
+        <v>91159102564</v>
       </c>
       <c r="I175" s="9">
-        <v>91159102564</v>
+        <v>95472976744</v>
       </c>
       <c r="J175" s="9">
-        <v>95472976744</v>
+        <v>114302222222</v>
       </c>
       <c r="K175" s="9">
-        <v>114302222222</v>
+        <v>111116185185</v>
       </c>
       <c r="L175" s="9">
-        <v>111116185185</v>
+        <v>133621600000</v>
       </c>
       <c r="M175" s="9">
-        <v>133621600000</v>
+        <v>116015265306</v>
       </c>
       <c r="N175" s="9">
-        <v>116015265306</v>
-      </c>
-    </row>
-    <row r="176" spans="2:14" x14ac:dyDescent="0.25">
+        <v>131048500000</v>
+      </c>
+    </row>
+    <row r="176" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B176" s="10" t="s">
         <v>33</v>
       </c>
@@ -6277,37 +6289,37 @@
       </c>
       <c r="D176" s="11"/>
       <c r="E176" s="11">
-        <v>209309882353</v>
+        <v>252691285714</v>
       </c>
       <c r="F176" s="11">
-        <v>252691285714</v>
+        <v>311526294118</v>
       </c>
       <c r="G176" s="11">
-        <v>311526294118</v>
+        <v>800836000000</v>
       </c>
       <c r="H176" s="11">
-        <v>800836000000</v>
+        <v>761265250000</v>
       </c>
       <c r="I176" s="11">
-        <v>-761265250000</v>
+        <v>532357058824</v>
       </c>
       <c r="J176" s="11">
-        <v>532357058824</v>
+        <v>503410352941</v>
       </c>
       <c r="K176" s="11">
-        <v>503410352941</v>
+        <v>488605368421</v>
       </c>
       <c r="L176" s="11">
-        <v>488605368421</v>
+        <v>558203733333</v>
       </c>
       <c r="M176" s="11">
-        <v>558203733333</v>
+        <v>672840300000</v>
       </c>
       <c r="N176" s="11">
-        <v>672840300000</v>
-      </c>
-    </row>
-    <row r="177" spans="2:14" x14ac:dyDescent="0.25">
+        <v>656717562500</v>
+      </c>
+    </row>
+    <row r="177" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B177" s="8" t="s">
         <v>34</v>
       </c>
@@ -6316,37 +6328,37 @@
       </c>
       <c r="D177" s="9"/>
       <c r="E177" s="9">
-        <v>45599512821</v>
+        <v>69162596154</v>
       </c>
       <c r="F177" s="9">
-        <v>69162596154</v>
+        <v>88712652174</v>
       </c>
       <c r="G177" s="9">
-        <v>88712652174</v>
-      </c>
-      <c r="H177" s="9">
         <v>88265530612</v>
       </c>
+      <c r="H177" s="9" t="s">
+        <v>31</v>
+      </c>
       <c r="I177" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="J177" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="K177" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="L177" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="M177" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="N177" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="178" spans="2:14" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="178" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B178" s="10" t="s">
         <v>35</v>
       </c>
@@ -6355,37 +6367,37 @@
       </c>
       <c r="D178" s="11"/>
       <c r="E178" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="F178" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="G178" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="H178" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="I178" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="J178" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="K178" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="L178" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="M178" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="N178" s="11" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="179" spans="2:14" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="179" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B179" s="8" t="s">
         <v>36</v>
       </c>
@@ -6394,37 +6406,37 @@
       </c>
       <c r="D179" s="9"/>
       <c r="E179" s="9">
-        <v>10402527865</v>
+        <v>14871978959</v>
       </c>
       <c r="F179" s="9">
-        <v>14871978959</v>
+        <v>18333188124</v>
       </c>
       <c r="G179" s="9">
-        <v>18333188124</v>
+        <v>17682410063</v>
       </c>
       <c r="H179" s="9">
-        <v>17682410063</v>
+        <v>25994494764</v>
       </c>
       <c r="I179" s="9">
-        <v>25994494764</v>
+        <v>24400019509</v>
       </c>
       <c r="J179" s="9">
-        <v>24400019509</v>
+        <v>25340221093</v>
       </c>
       <c r="K179" s="9">
-        <v>25340221093</v>
+        <v>28010240741</v>
       </c>
       <c r="L179" s="9">
-        <v>28010240741</v>
+        <v>26766931157</v>
       </c>
       <c r="M179" s="9">
-        <v>26766931157</v>
+        <v>24462247736</v>
       </c>
       <c r="N179" s="9">
-        <v>24462247736</v>
-      </c>
-    </row>
-    <row r="180" spans="2:14" x14ac:dyDescent="0.25">
+        <v>30830238636</v>
+      </c>
+    </row>
+    <row r="180" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B180" s="10" t="s">
         <v>37</v>
       </c>
@@ -6433,37 +6445,37 @@
       </c>
       <c r="D180" s="11"/>
       <c r="E180" s="11">
-        <v>36458397857</v>
+        <v>18418306276</v>
       </c>
       <c r="F180" s="11">
-        <v>18418306276</v>
+        <v>101846333333</v>
       </c>
       <c r="G180" s="11">
-        <v>101846333333</v>
+        <v>71473197403</v>
       </c>
       <c r="H180" s="11">
-        <v>71473197403</v>
+        <v>80869411594</v>
       </c>
       <c r="I180" s="11">
-        <v>80869411594</v>
+        <v>86903454710</v>
       </c>
       <c r="J180" s="11">
-        <v>86903454710</v>
+        <v>96787763403</v>
       </c>
       <c r="K180" s="11">
-        <v>96787763403</v>
+        <v>90156462766</v>
       </c>
       <c r="L180" s="11">
-        <v>90156462766</v>
+        <v>107387089347</v>
       </c>
       <c r="M180" s="11">
-        <v>107387089347</v>
+        <v>88135085903</v>
       </c>
       <c r="N180" s="11">
-        <v>88135085903</v>
-      </c>
-    </row>
-    <row r="181" spans="2:14" x14ac:dyDescent="0.25">
+        <v>100257608696</v>
+      </c>
+    </row>
+    <row r="181" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B181" s="8" t="s">
         <v>38</v>
       </c>
@@ -6472,37 +6484,37 @@
       </c>
       <c r="D181" s="9"/>
       <c r="E181" s="9">
-        <v>18777366667</v>
+        <v>23853808571</v>
       </c>
       <c r="F181" s="9">
-        <v>23853808571</v>
+        <v>39908230863</v>
       </c>
       <c r="G181" s="9">
-        <v>39908230863</v>
+        <v>29728336320</v>
       </c>
       <c r="H181" s="9">
-        <v>29728336320</v>
+        <v>39759038536</v>
       </c>
       <c r="I181" s="9">
-        <v>39759038536</v>
+        <v>38766383374</v>
       </c>
       <c r="J181" s="9">
-        <v>38766383374</v>
+        <v>41412987179</v>
       </c>
       <c r="K181" s="9">
-        <v>41412987179</v>
+        <v>36216600386</v>
       </c>
       <c r="L181" s="9">
-        <v>36216600386</v>
+        <v>43087214981</v>
       </c>
       <c r="M181" s="9">
-        <v>43087214981</v>
+        <v>37571706724</v>
       </c>
       <c r="N181" s="9">
-        <v>37571706724</v>
-      </c>
-    </row>
-    <row r="182" spans="2:14" x14ac:dyDescent="0.25">
+        <v>36090184848</v>
+      </c>
+    </row>
+    <row r="182" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B182" s="10" t="s">
         <v>39</v>
       </c>
@@ -6511,37 +6523,37 @@
       </c>
       <c r="D182" s="11"/>
       <c r="E182" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="F182" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="G182" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="H182" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
+      </c>
+      <c r="H182" s="11">
+        <v>8257968000000</v>
       </c>
       <c r="I182" s="11">
-        <v>-8257968000000</v>
+        <v>14305627000000</v>
       </c>
       <c r="J182" s="11">
-        <v>14305627000000</v>
+        <v>7252969000000</v>
       </c>
       <c r="K182" s="11">
-        <v>7252969000000</v>
-      </c>
-      <c r="L182" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="M182" s="11">
+        <v>0</v>
+      </c>
+      <c r="L182" s="11">
         <v>12340047000000</v>
       </c>
+      <c r="M182" s="11" t="s">
+        <v>31</v>
+      </c>
       <c r="N182" s="11" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="183" spans="2:14" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="183" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B183" s="1"/>
       <c r="C183" s="1"/>
       <c r="D183" s="1"/>
@@ -6556,7 +6568,7 @@
       <c r="M183" s="1"/>
       <c r="N183" s="1"/>
     </row>
-    <row r="184" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="184" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B184" s="1"/>
       <c r="C184" s="1"/>
       <c r="D184" s="1"/>
@@ -6571,7 +6583,7 @@
       <c r="M184" s="1"/>
       <c r="N184" s="1"/>
     </row>
-    <row r="185" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="185" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B185" s="1"/>
       <c r="C185" s="1"/>
       <c r="D185" s="1"/>
@@ -6586,7 +6598,7 @@
       <c r="M185" s="1"/>
       <c r="N185" s="1"/>
     </row>
-    <row r="186" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="186" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B186" s="7" t="s">
         <v>52</v>
       </c>
@@ -6623,7 +6635,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="187" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="187" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B187" s="1"/>
       <c r="C187" s="1"/>
       <c r="D187" s="1"/>
@@ -6638,319 +6650,319 @@
       <c r="M187" s="1"/>
       <c r="N187" s="1"/>
     </row>
-    <row r="188" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="188" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B188" s="8" t="s">
         <v>32</v>
       </c>
       <c r="C188" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D188" s="9"/>
       <c r="E188" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="F188" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="G188" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="H188" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
+      </c>
+      <c r="H188" s="9">
+        <v>63254184466</v>
       </c>
       <c r="I188" s="9">
-        <v>63254184466</v>
+        <v>75539474359</v>
       </c>
       <c r="J188" s="9">
-        <v>75539474359</v>
+        <v>84209000000</v>
       </c>
       <c r="K188" s="9">
-        <v>84209000000</v>
+        <v>106146285714</v>
       </c>
       <c r="L188" s="9">
-        <v>106146285714</v>
+        <v>116778535294</v>
       </c>
       <c r="M188" s="9">
-        <v>116778535294</v>
+        <v>117123437956</v>
       </c>
       <c r="N188" s="9">
-        <v>117123437956</v>
-      </c>
-    </row>
-    <row r="189" spans="2:14" x14ac:dyDescent="0.25">
+        <v>105027653846</v>
+      </c>
+    </row>
+    <row r="189" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B189" s="10" t="s">
         <v>33</v>
       </c>
       <c r="C189" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D189" s="11"/>
       <c r="E189" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="F189" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="G189" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="H189" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
+      </c>
+      <c r="F189" s="11">
+        <v>287343193548</v>
+      </c>
+      <c r="G189" s="11">
+        <v>393876975610</v>
+      </c>
+      <c r="H189" s="11">
+        <v>430932254545</v>
       </c>
       <c r="I189" s="11">
-        <v>430932254545</v>
+        <v>425858739130</v>
       </c>
       <c r="J189" s="11">
-        <v>425858739130</v>
+        <v>481657166667</v>
       </c>
       <c r="K189" s="11">
-        <v>481657166667</v>
+        <v>557325707692</v>
       </c>
       <c r="L189" s="11">
-        <v>557325707692</v>
+        <v>613394953846</v>
       </c>
       <c r="M189" s="11">
-        <v>613394953846</v>
+        <v>729577014706</v>
       </c>
       <c r="N189" s="11">
-        <v>729577014706</v>
-      </c>
-    </row>
-    <row r="190" spans="2:14" x14ac:dyDescent="0.25">
+        <v>747805611111</v>
+      </c>
+    </row>
+    <row r="190" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B190" s="8" t="s">
         <v>34</v>
       </c>
       <c r="C190" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D190" s="9"/>
       <c r="E190" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="F190" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="G190" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
+      </c>
+      <c r="F190" s="9">
+        <v>47068077778</v>
+      </c>
+      <c r="G190" s="9">
+        <v>53370263736</v>
       </c>
       <c r="H190" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="I190" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="J190" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="K190" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="L190" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="M190" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="N190" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="191" spans="2:14" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="191" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B191" s="10" t="s">
         <v>35</v>
       </c>
       <c r="C191" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D191" s="11"/>
       <c r="E191" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="F191" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="G191" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="H191" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="I191" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="J191" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="K191" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="L191" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="M191" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="N191" s="11" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="192" spans="2:14" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="192" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B192" s="8" t="s">
         <v>36</v>
       </c>
       <c r="C192" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D192" s="9"/>
       <c r="E192" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="F192" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="G192" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="H192" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
+      </c>
+      <c r="F192" s="9">
+        <v>12182670171</v>
+      </c>
+      <c r="G192" s="9">
+        <v>14869502818</v>
+      </c>
+      <c r="H192" s="9">
+        <v>17905262177</v>
       </c>
       <c r="I192" s="9">
-        <v>17905262177</v>
+        <v>21168703581</v>
       </c>
       <c r="J192" s="9">
-        <v>21168703581</v>
+        <v>23192683443</v>
       </c>
       <c r="K192" s="9">
-        <v>23192683443</v>
+        <v>28709062944</v>
       </c>
       <c r="L192" s="9">
-        <v>28709062944</v>
+        <v>24815230159</v>
       </c>
       <c r="M192" s="9">
-        <v>24815230159</v>
+        <v>24182154178</v>
       </c>
       <c r="N192" s="9">
-        <v>24182154178</v>
-      </c>
-    </row>
-    <row r="193" spans="2:14" x14ac:dyDescent="0.25">
+        <v>28239553815</v>
+      </c>
+    </row>
+    <row r="193" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B193" s="10" t="s">
         <v>37</v>
       </c>
       <c r="C193" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D193" s="11"/>
       <c r="E193" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="F193" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="G193" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="H193" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
+      </c>
+      <c r="F193" s="11">
+        <v>47436600000</v>
+      </c>
+      <c r="G193" s="11">
+        <v>70660500000</v>
+      </c>
+      <c r="H193" s="11">
+        <v>4241000000</v>
       </c>
       <c r="I193" s="11">
-        <v>4241000000</v>
+        <v>78601200000</v>
       </c>
       <c r="J193" s="11">
-        <v>78601200000</v>
+        <v>90335960396</v>
       </c>
       <c r="K193" s="11">
-        <v>90335960396</v>
+        <v>137851400000</v>
       </c>
       <c r="L193" s="11">
-        <v>137851400000</v>
+        <v>99083115044</v>
       </c>
       <c r="M193" s="11">
-        <v>99083115044</v>
+        <v>97506903382</v>
       </c>
       <c r="N193" s="11">
-        <v>97506903382</v>
-      </c>
-    </row>
-    <row r="194" spans="2:14" x14ac:dyDescent="0.25">
+        <v>98748527778</v>
+      </c>
+    </row>
+    <row r="194" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B194" s="8" t="s">
         <v>38</v>
       </c>
       <c r="C194" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D194" s="9"/>
       <c r="E194" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="F194" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="G194" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="H194" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
+      </c>
+      <c r="F194" s="9">
+        <v>21416929140</v>
+      </c>
+      <c r="G194" s="9">
+        <v>27783023810</v>
+      </c>
+      <c r="H194" s="9">
+        <v>31095890313</v>
       </c>
       <c r="I194" s="9">
-        <v>31095890313</v>
+        <v>33967061905</v>
       </c>
       <c r="J194" s="9">
-        <v>33967061905</v>
+        <v>36066304294</v>
       </c>
       <c r="K194" s="9">
-        <v>36066304294</v>
+        <v>41699051921</v>
       </c>
       <c r="L194" s="9">
-        <v>41699051921</v>
+        <v>38912787234</v>
       </c>
       <c r="M194" s="9">
-        <v>38912787234</v>
+        <v>36888832787</v>
       </c>
       <c r="N194" s="9">
-        <v>36888832787</v>
-      </c>
-    </row>
-    <row r="195" spans="2:14" x14ac:dyDescent="0.25">
+        <v>38824986532</v>
+      </c>
+    </row>
+    <row r="195" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B195" s="10" t="s">
         <v>39</v>
       </c>
       <c r="C195" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D195" s="11"/>
       <c r="E195" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="F195" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="G195" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="H195" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="I195" s="11">
+        <v>31</v>
+      </c>
+      <c r="H195" s="11">
         <v>22810581000000</v>
       </c>
-      <c r="J195" s="11" t="s">
-        <v>25</v>
+      <c r="I195" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="J195" s="11">
+        <v>21912719000000</v>
       </c>
       <c r="K195" s="11">
-        <v>21912719000000</v>
+        <v>21912718000000</v>
       </c>
       <c r="L195" s="11">
-        <v>21912718000000</v>
+        <v>26285939000000</v>
       </c>
       <c r="M195" s="11">
-        <v>26285939000000</v>
+        <v>22877773000000</v>
       </c>
       <c r="N195" s="11">
-        <v>22877773000000</v>
-      </c>
-    </row>
-    <row r="196" spans="2:14" x14ac:dyDescent="0.25">
+        <v>20556063000000</v>
+      </c>
+    </row>
+    <row r="196" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B196" s="1"/>
       <c r="C196" s="1"/>
       <c r="D196" s="1"/>
@@ -6965,7 +6977,7 @@
       <c r="M196" s="1"/>
       <c r="N196" s="1"/>
     </row>
-    <row r="197" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="197" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B197" s="1"/>
       <c r="C197" s="1"/>
       <c r="D197" s="1"/>
@@ -6980,7 +6992,7 @@
       <c r="M197" s="1"/>
       <c r="N197" s="1"/>
     </row>
-    <row r="198" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="198" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B198" s="1"/>
       <c r="C198" s="1"/>
       <c r="D198" s="1"/>
@@ -6995,7 +7007,7 @@
       <c r="M198" s="1"/>
       <c r="N198" s="1"/>
     </row>
-    <row r="199" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="199" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B199" s="7" t="s">
         <v>53</v>
       </c>
@@ -7032,7 +7044,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="200" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="200" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B200" s="1"/>
       <c r="C200" s="1"/>
       <c r="D200" s="1"/>
@@ -7047,7 +7059,7 @@
       <c r="M200" s="1"/>
       <c r="N200" s="1"/>
     </row>
-    <row r="201" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="201" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B201" s="8" t="s">
         <v>54</v>
       </c>
@@ -7084,7 +7096,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="202" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B202" s="10" t="s">
         <v>55</v>
       </c>
@@ -7121,7 +7133,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="203" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B203" s="8" t="s">
         <v>56</v>
       </c>
@@ -7158,7 +7170,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="204" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B204" s="10" t="s">
         <v>57</v>
       </c>
@@ -7195,155 +7207,155 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="205" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B205" s="8" t="s">
         <v>58</v>
       </c>
       <c r="C205" s="9"/>
       <c r="D205" s="9"/>
       <c r="E205" s="9">
-        <v>16478366</v>
+        <v>2240946</v>
       </c>
       <c r="F205" s="9">
-        <v>2240946</v>
+        <v>28040175</v>
       </c>
       <c r="G205" s="9">
-        <v>28040175</v>
+        <v>16181402</v>
       </c>
       <c r="H205" s="9">
-        <v>16181402</v>
+        <v>13605935</v>
       </c>
       <c r="I205" s="9">
-        <v>13605935</v>
+        <v>16151495</v>
       </c>
       <c r="J205" s="9">
-        <v>16151495</v>
+        <v>17795395</v>
       </c>
       <c r="K205" s="9">
-        <v>16873252</v>
+        <v>9887257</v>
       </c>
       <c r="L205" s="9">
-        <v>9887257</v>
+        <v>29661349</v>
       </c>
       <c r="M205" s="9">
-        <v>29661349</v>
+        <v>-10189237</v>
       </c>
       <c r="N205" s="9">
-        <v>-10189237</v>
-      </c>
-    </row>
-    <row r="206" spans="2:14" x14ac:dyDescent="0.25">
+        <v>9147301</v>
+      </c>
+    </row>
+    <row r="206" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B206" s="10" t="s">
         <v>59</v>
       </c>
       <c r="C206" s="11"/>
       <c r="D206" s="11"/>
       <c r="E206" s="11">
-        <v>5215432</v>
+        <v>4709286</v>
       </c>
       <c r="F206" s="11">
-        <v>4709286</v>
+        <v>5800182</v>
       </c>
       <c r="G206" s="11">
-        <v>5800182</v>
+        <v>11215223</v>
       </c>
       <c r="H206" s="11">
-        <v>11215223</v>
+        <v>11968532</v>
       </c>
       <c r="I206" s="11">
-        <v>11968532</v>
+        <v>33756619</v>
       </c>
       <c r="J206" s="11">
-        <v>33756619</v>
+        <v>30156058</v>
       </c>
       <c r="K206" s="11">
-        <v>30480215</v>
+        <v>34868206</v>
       </c>
       <c r="L206" s="11">
-        <v>34868206</v>
+        <v>40426900</v>
       </c>
       <c r="M206" s="11">
-        <v>40426900</v>
+        <v>35907544</v>
       </c>
       <c r="N206" s="11">
-        <v>35907544</v>
-      </c>
-    </row>
-    <row r="207" spans="2:14" x14ac:dyDescent="0.25">
+        <v>23236601</v>
+      </c>
+    </row>
+    <row r="207" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B207" s="8" t="s">
         <v>60</v>
       </c>
       <c r="C207" s="9"/>
       <c r="D207" s="9"/>
       <c r="E207" s="9">
-        <v>1099279</v>
+        <v>985251</v>
       </c>
       <c r="F207" s="9">
-        <v>985251</v>
+        <v>1106962</v>
       </c>
       <c r="G207" s="9">
-        <v>1106962</v>
+        <v>1017178</v>
       </c>
       <c r="H207" s="9">
-        <v>1017178</v>
+        <v>1045477</v>
       </c>
       <c r="I207" s="9">
-        <v>1045477</v>
+        <v>1038630</v>
       </c>
       <c r="J207" s="9">
-        <v>1038630</v>
+        <v>1134263</v>
       </c>
       <c r="K207" s="9">
-        <v>1120005</v>
+        <v>1076697</v>
       </c>
       <c r="L207" s="9">
-        <v>1076697</v>
+        <v>1178232</v>
       </c>
       <c r="M207" s="9">
-        <v>1178232</v>
+        <v>1311978</v>
       </c>
       <c r="N207" s="9">
-        <v>1311978</v>
-      </c>
-    </row>
-    <row r="208" spans="2:14" x14ac:dyDescent="0.25">
+        <v>1628987</v>
+      </c>
+    </row>
+    <row r="208" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B208" s="10" t="s">
         <v>61</v>
       </c>
       <c r="C208" s="11"/>
       <c r="D208" s="11"/>
       <c r="E208" s="11">
-        <v>4921707</v>
+        <v>5106358</v>
       </c>
       <c r="F208" s="11">
-        <v>5106358</v>
+        <v>7123129</v>
       </c>
       <c r="G208" s="11">
-        <v>7123129</v>
+        <v>9520707</v>
       </c>
       <c r="H208" s="11">
-        <v>9520707</v>
+        <v>7454912</v>
       </c>
       <c r="I208" s="11">
-        <v>7454912</v>
+        <v>7894337</v>
       </c>
       <c r="J208" s="11">
-        <v>7894337</v>
+        <v>8614119</v>
       </c>
       <c r="K208" s="11">
-        <v>9065425</v>
+        <v>17764989</v>
       </c>
       <c r="L208" s="11">
-        <v>17764989</v>
+        <v>10687816</v>
       </c>
       <c r="M208" s="11">
-        <v>10687816</v>
+        <v>11231400</v>
       </c>
       <c r="N208" s="11">
-        <v>11231400</v>
-      </c>
-    </row>
-    <row r="209" spans="2:14" x14ac:dyDescent="0.25">
+        <v>17454458</v>
+      </c>
+    </row>
+    <row r="209" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B209" s="8" t="s">
         <v>62</v>
       </c>
@@ -7380,81 +7392,81 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="210" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B210" s="10" t="s">
         <v>63</v>
       </c>
       <c r="C210" s="11"/>
       <c r="D210" s="11"/>
       <c r="E210" s="11">
-        <v>422651</v>
+        <v>17651235</v>
       </c>
       <c r="F210" s="11">
-        <v>17651235</v>
+        <v>-7061632</v>
       </c>
       <c r="G210" s="11">
-        <v>-7061632</v>
+        <v>4386100</v>
       </c>
       <c r="H210" s="11">
-        <v>4386100</v>
+        <v>7419775</v>
       </c>
       <c r="I210" s="11">
-        <v>7419775</v>
+        <v>8104193</v>
       </c>
       <c r="J210" s="11">
-        <v>8104193</v>
+        <v>11598040</v>
       </c>
       <c r="K210" s="11">
-        <v>11758978</v>
+        <v>21703229</v>
       </c>
       <c r="L210" s="11">
-        <v>21703229</v>
+        <v>-357569</v>
       </c>
       <c r="M210" s="11">
-        <v>-357569</v>
+        <v>49788573</v>
       </c>
       <c r="N210" s="11">
-        <v>49788573</v>
-      </c>
-    </row>
-    <row r="211" spans="2:14" x14ac:dyDescent="0.25">
+        <v>35501232</v>
+      </c>
+    </row>
+    <row r="211" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B211" s="14" t="s">
         <v>17</v>
       </c>
       <c r="C211" s="15"/>
       <c r="D211" s="15"/>
       <c r="E211" s="15">
-        <v>28137435</v>
+        <v>30693076</v>
       </c>
       <c r="F211" s="15">
-        <v>30693076</v>
+        <v>35008816</v>
       </c>
       <c r="G211" s="15">
-        <v>35008816</v>
+        <v>42320610</v>
       </c>
       <c r="H211" s="15">
-        <v>42320610</v>
+        <v>41494631</v>
       </c>
       <c r="I211" s="15">
-        <v>41494631</v>
+        <v>66945274</v>
       </c>
       <c r="J211" s="15">
-        <v>66945274</v>
+        <v>69297875</v>
       </c>
       <c r="K211" s="15">
-        <v>69297875</v>
+        <v>85300378</v>
       </c>
       <c r="L211" s="15">
-        <v>85300378</v>
+        <v>81596728</v>
       </c>
       <c r="M211" s="15">
-        <v>81596728</v>
+        <v>88050258</v>
       </c>
       <c r="N211" s="15">
-        <v>88050258</v>
-      </c>
-    </row>
-    <row r="212" spans="2:14" x14ac:dyDescent="0.25">
+        <v>86968579</v>
+      </c>
+    </row>
+    <row r="212" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B212" s="1"/>
       <c r="C212" s="1"/>
       <c r="D212" s="1"/>
@@ -7469,7 +7481,7 @@
       <c r="M212" s="1"/>
       <c r="N212" s="1"/>
     </row>
-    <row r="213" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="213" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B213" s="1"/>
       <c r="C213" s="1"/>
       <c r="D213" s="1"/>
@@ -7484,7 +7496,7 @@
       <c r="M213" s="1"/>
       <c r="N213" s="1"/>
     </row>
-    <row r="214" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="214" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B214" s="1"/>
       <c r="C214" s="1"/>
       <c r="D214" s="1"/>
@@ -7499,7 +7511,7 @@
       <c r="M214" s="1"/>
       <c r="N214" s="1"/>
     </row>
-    <row r="215" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="215" spans="2:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B215" s="7" t="s">
         <v>64</v>
       </c>
@@ -7516,7 +7528,7 @@
       <c r="M215" s="1"/>
       <c r="N215" s="1"/>
     </row>
-    <row r="216" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="216" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B216" s="1"/>
       <c r="C216" s="1"/>
       <c r="D216" s="1"/>
@@ -7531,7 +7543,7 @@
       <c r="M216" s="1"/>
       <c r="N216" s="1"/>
     </row>
-    <row r="217" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="217" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B217" s="8" t="s">
         <v>65</v>
       </c>
@@ -7550,7 +7562,7 @@
       <c r="M217" s="1"/>
       <c r="N217" s="1"/>
     </row>
-    <row r="218" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="218" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B218" s="10" t="s">
         <v>67</v>
       </c>
@@ -7569,7 +7581,7 @@
       <c r="M218" s="1"/>
       <c r="N218" s="1"/>
     </row>
-    <row r="219" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="219" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B219" s="8" t="s">
         <v>69</v>
       </c>
@@ -7579,8 +7591,16 @@
       <c r="D219" s="9"/>
       <c r="E219" s="9"/>
       <c r="F219" s="9"/>
-    </row>
-    <row r="220" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="G219" s="1"/>
+      <c r="H219" s="1"/>
+      <c r="I219" s="1"/>
+      <c r="J219" s="1"/>
+      <c r="K219" s="1"/>
+      <c r="L219" s="1"/>
+      <c r="M219" s="1"/>
+      <c r="N219" s="1"/>
+    </row>
+    <row r="220" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B220" s="10" t="s">
         <v>71</v>
       </c>
@@ -7590,8 +7610,16 @@
       <c r="D220" s="11"/>
       <c r="E220" s="11"/>
       <c r="F220" s="11"/>
-    </row>
-    <row r="221" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="G220" s="1"/>
+      <c r="H220" s="1"/>
+      <c r="I220" s="1"/>
+      <c r="J220" s="1"/>
+      <c r="K220" s="1"/>
+      <c r="L220" s="1"/>
+      <c r="M220" s="1"/>
+      <c r="N220" s="1"/>
+    </row>
+    <row r="221" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B221" s="8" t="s">
         <v>73</v>
       </c>
@@ -7601,8 +7629,16 @@
       <c r="D221" s="9"/>
       <c r="E221" s="9"/>
       <c r="F221" s="9"/>
-    </row>
-    <row r="222" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="G221" s="1"/>
+      <c r="H221" s="1"/>
+      <c r="I221" s="1"/>
+      <c r="J221" s="1"/>
+      <c r="K221" s="1"/>
+      <c r="L221" s="1"/>
+      <c r="M221" s="1"/>
+      <c r="N221" s="1"/>
+    </row>
+    <row r="222" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B222" s="10" t="s">
         <v>75</v>
       </c>
@@ -7613,7 +7649,7 @@
       <c r="E222" s="11"/>
       <c r="F222" s="11"/>
     </row>
-    <row r="223" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="223" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B223" s="8" t="s">
         <v>77</v>
       </c>
@@ -7624,7 +7660,7 @@
       <c r="E223" s="9"/>
       <c r="F223" s="9"/>
     </row>
-    <row r="224" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="224" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B224" s="10" t="s">
         <v>79</v>
       </c>
@@ -7635,7 +7671,7 @@
       <c r="E224" s="11"/>
       <c r="F224" s="11"/>
     </row>
-    <row r="225" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="225" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B225" s="8" t="s">
         <v>81</v>
       </c>
@@ -7646,7 +7682,7 @@
       <c r="E225" s="9"/>
       <c r="F225" s="9"/>
     </row>
-    <row r="226" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="226" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B226" s="10" t="s">
         <v>83</v>
       </c>
@@ -7657,38 +7693,71 @@
       <c r="E226" s="11"/>
       <c r="F226" s="11"/>
     </row>
-    <row r="227" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="227" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B227" s="8" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="C227" s="9" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D227" s="9"/>
       <c r="E227" s="9"/>
       <c r="F227" s="9"/>
     </row>
-    <row r="228" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="228" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B228" s="10" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="C228" s="11" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="D228" s="11"/>
       <c r="E228" s="11"/>
       <c r="F228" s="11"/>
     </row>
-    <row r="229" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="229" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B229" s="8" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C229" s="9" t="s">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="D229" s="9"/>
       <c r="E229" s="9"/>
       <c r="F229" s="9"/>
+    </row>
+    <row r="230" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B230" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="C230" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="D230" s="11"/>
+      <c r="E230" s="11"/>
+      <c r="F230" s="11"/>
+    </row>
+    <row r="231" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B231" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="C231" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="D231" s="9"/>
+      <c r="E231" s="9"/>
+      <c r="F231" s="9"/>
+    </row>
+    <row r="232" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B232" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="C232" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="D232" s="11"/>
+      <c r="E232" s="11"/>
+      <c r="F232" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
